--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Description</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>COMMENT</t>
+  </si>
+  <si>
+    <t>Open Questions</t>
   </si>
   <si>
     <t>If player takes damage by 6 his health should decrease by 6</t>
@@ -54,7 +57,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +70,12 @@
         <bgColor rgb="FFE06666"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -74,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -84,6 +93,7 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -312,6 +322,7 @@
     <col customWidth="1" min="1" max="1" width="57.25"/>
     <col customWidth="1" min="2" max="2" width="16.63"/>
     <col customWidth="1" min="3" max="3" width="42.5"/>
+    <col customWidth="1" min="7" max="7" width="44.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -324,447 +335,5158 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5">
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6">
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7">
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8">
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9">
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11">
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12">
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13">
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14">
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15">
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16">
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17">
-      <c r="B17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18">
-      <c r="B18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19">
-      <c r="B19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20">
-      <c r="B20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21">
-      <c r="B21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22">
-      <c r="B22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23">
-      <c r="B23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24">
-      <c r="B24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25">
-      <c r="B25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26">
-      <c r="B26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27">
-      <c r="B27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28">
-      <c r="B28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29">
-      <c r="B29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30">
-      <c r="B30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31">
-      <c r="B31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32">
-      <c r="B32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33">
-      <c r="B33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34">
-      <c r="B34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35">
-      <c r="B35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36">
-      <c r="B36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37">
-      <c r="B37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38">
-      <c r="B38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39">
-      <c r="B39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40">
-      <c r="B40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41">
-      <c r="B41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42">
-      <c r="B42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43">
-      <c r="B43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44">
-      <c r="B44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45">
-      <c r="B45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46">
-      <c r="B46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47">
-      <c r="B47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48">
-      <c r="B48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49">
-      <c r="B49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50">
-      <c r="B50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51">
-      <c r="B51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52">
-      <c r="B52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53">
-      <c r="B53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54">
-      <c r="B54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55">
-      <c r="B55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56">
-      <c r="B56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57">
-      <c r="B57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58">
-      <c r="B58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59">
-      <c r="B59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60">
-      <c r="B60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61">
-      <c r="B61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62">
-      <c r="B62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63">
-      <c r="B63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64">
-      <c r="B64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65">
-      <c r="B65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66">
-      <c r="B66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67">
-      <c r="B67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
     </row>
     <row r="68">
-      <c r="B68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
     </row>
     <row r="69">
-      <c r="B69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
     </row>
     <row r="70">
-      <c r="B70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
     </row>
     <row r="71">
-      <c r="B71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
     </row>
     <row r="72">
-      <c r="B72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73">
-      <c r="B73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
     </row>
     <row r="74">
-      <c r="B74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
     </row>
     <row r="75">
-      <c r="B75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76">
-      <c r="B76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77">
-      <c r="B77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78">
-      <c r="B78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
     </row>
     <row r="79">
-      <c r="B79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
     </row>
     <row r="80">
-      <c r="B80" s="4"/>
+      <c r="B80" s="5"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
     </row>
     <row r="81">
-      <c r="B81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
     </row>
     <row r="82">
-      <c r="B82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
     </row>
     <row r="83">
-      <c r="B83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
     </row>
     <row r="84">
-      <c r="B84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
     </row>
     <row r="85">
-      <c r="B85" s="4"/>
+      <c r="B85" s="5"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86">
-      <c r="B86" s="4"/>
+      <c r="B86" s="5"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87">
-      <c r="B87" s="4"/>
+      <c r="B87" s="5"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88">
-      <c r="B88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
     </row>
     <row r="89">
-      <c r="B89" s="4"/>
+      <c r="B89" s="5"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
     </row>
     <row r="90">
-      <c r="B90" s="4"/>
+      <c r="B90" s="5"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
     </row>
     <row r="91">
-      <c r="B91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92">
-      <c r="B92" s="4"/>
+      <c r="B92" s="5"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
     </row>
     <row r="93">
-      <c r="B93" s="4"/>
+      <c r="B93" s="5"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
     </row>
     <row r="94">
-      <c r="B94" s="4"/>
+      <c r="B94" s="5"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
     </row>
     <row r="95">
-      <c r="B95" s="4"/>
+      <c r="B95" s="5"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
     </row>
     <row r="96">
-      <c r="B96" s="4"/>
+      <c r="B96" s="5"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
     </row>
     <row r="97">
-      <c r="B97" s="4"/>
+      <c r="B97" s="5"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
     </row>
     <row r="98">
-      <c r="B98" s="4"/>
+      <c r="B98" s="5"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
     </row>
     <row r="99">
-      <c r="B99" s="4"/>
+      <c r="B99" s="5"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
     </row>
     <row r="100">
-      <c r="B100" s="4"/>
+      <c r="B100" s="5"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
     </row>
     <row r="101">
-      <c r="B101" s="4"/>
+      <c r="B101" s="5"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
     </row>
     <row r="102">
-      <c r="B102" s="4"/>
+      <c r="B102" s="5"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
     </row>
     <row r="103">
-      <c r="B103" s="4"/>
+      <c r="B103" s="5"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
     </row>
     <row r="104">
-      <c r="B104" s="4"/>
+      <c r="B104" s="5"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
     </row>
     <row r="105">
-      <c r="B105" s="4"/>
+      <c r="B105" s="5"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
     </row>
     <row r="106">
-      <c r="B106" s="4"/>
+      <c r="B106" s="5"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
     </row>
     <row r="107">
-      <c r="B107" s="4"/>
+      <c r="B107" s="5"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
     </row>
     <row r="108">
-      <c r="B108" s="4"/>
+      <c r="B108" s="5"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
     </row>
     <row r="109">
-      <c r="B109" s="4"/>
+      <c r="B109" s="5"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
     </row>
     <row r="110">
-      <c r="B110" s="4"/>
+      <c r="B110" s="5"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
     </row>
     <row r="111">
-      <c r="B111" s="4"/>
+      <c r="B111" s="5"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
     </row>
     <row r="112">
-      <c r="B112" s="4"/>
+      <c r="B112" s="5"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
     </row>
     <row r="113">
-      <c r="B113" s="4"/>
+      <c r="B113" s="5"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
     </row>
     <row r="114">
-      <c r="B114" s="4"/>
+      <c r="B114" s="5"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
     </row>
     <row r="115">
-      <c r="B115" s="4"/>
+      <c r="B115" s="5"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
     </row>
     <row r="116">
-      <c r="B116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
     </row>
     <row r="117">
-      <c r="B117" s="4"/>
+      <c r="B117" s="5"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
     </row>
     <row r="118">
-      <c r="B118" s="4"/>
+      <c r="B118" s="5"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
     </row>
     <row r="119">
-      <c r="B119" s="4"/>
+      <c r="B119" s="5"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
     </row>
     <row r="120">
-      <c r="B120" s="4"/>
+      <c r="B120" s="5"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
     </row>
     <row r="121">
-      <c r="B121" s="4"/>
+      <c r="B121" s="5"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
     </row>
     <row r="122">
-      <c r="B122" s="4"/>
+      <c r="B122" s="5"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
     </row>
     <row r="123">
-      <c r="B123" s="4"/>
+      <c r="B123" s="5"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
     </row>
     <row r="124">
-      <c r="B124" s="4"/>
+      <c r="B124" s="5"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
     </row>
     <row r="125">
-      <c r="B125" s="4"/>
+      <c r="B125" s="5"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
     </row>
     <row r="126">
-      <c r="B126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
     </row>
     <row r="127">
-      <c r="B127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
     </row>
     <row r="128">
-      <c r="B128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
     </row>
     <row r="129">
-      <c r="B129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
     </row>
     <row r="130">
-      <c r="B130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
     </row>
     <row r="131">
-      <c r="B131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
     </row>
     <row r="132">
-      <c r="B132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
     </row>
     <row r="133">
-      <c r="B133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
     </row>
     <row r="134">
-      <c r="B134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
     </row>
     <row r="135">
-      <c r="B135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
     </row>
     <row r="136">
-      <c r="B136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
     </row>
     <row r="137">
-      <c r="B137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
     </row>
     <row r="138">
-      <c r="B138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
     </row>
     <row r="139">
-      <c r="B139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
     </row>
     <row r="140">
-      <c r="B140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
     </row>
     <row r="141">
-      <c r="B141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
     </row>
     <row r="142">
-      <c r="B142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
     </row>
     <row r="143">
-      <c r="B143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
     </row>
     <row r="144">
-      <c r="B144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
     </row>
     <row r="145">
-      <c r="B145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
     </row>
     <row r="146">
-      <c r="B146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147">
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148">
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149">
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150">
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151">
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152">
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153">
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154">
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155">
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156">
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157">
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158">
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159">
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160">
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161">
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162">
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163">
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164">
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165">
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166">
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167">
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168">
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169">
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170">
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171">
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172">
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173">
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174">
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175">
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176">
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177">
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178">
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179">
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180">
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181">
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182">
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183">
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184">
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185">
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186">
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187">
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188">
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189">
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190">
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191">
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192">
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193">
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194">
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195">
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196">
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197">
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198">
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199">
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200">
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201">
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202">
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203">
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204">
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205">
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206">
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207">
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208">
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209">
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210">
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211">
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212">
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213">
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214">
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215">
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216">
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217">
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+    </row>
+    <row r="218">
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+    </row>
+    <row r="219">
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+    </row>
+    <row r="220">
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+    </row>
+    <row r="221">
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+    </row>
+    <row r="222">
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+    </row>
+    <row r="223">
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+    </row>
+    <row r="224">
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+    </row>
+    <row r="225">
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+    </row>
+    <row r="226">
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227">
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228">
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229">
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230">
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+    </row>
+    <row r="231">
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232">
+      <c r="D232" s="3"/>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+    </row>
+    <row r="233">
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234">
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+    </row>
+    <row r="235">
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+    </row>
+    <row r="236">
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237">
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238">
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+    </row>
+    <row r="239">
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+    </row>
+    <row r="240">
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+    </row>
+    <row r="241">
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+    </row>
+    <row r="242">
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+    </row>
+    <row r="243">
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+    </row>
+    <row r="244">
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
+    </row>
+    <row r="245">
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+      <c r="F245" s="3"/>
+    </row>
+    <row r="246">
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+    </row>
+    <row r="247">
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+    </row>
+    <row r="248">
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+    </row>
+    <row r="249">
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+    </row>
+    <row r="250">
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251">
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+    </row>
+    <row r="252">
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253">
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+    </row>
+    <row r="254">
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+    </row>
+    <row r="255">
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+    </row>
+    <row r="256">
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+    </row>
+    <row r="257">
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+    </row>
+    <row r="258">
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259">
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+    </row>
+    <row r="260">
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+    </row>
+    <row r="261">
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+    </row>
+    <row r="262">
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+    </row>
+    <row r="263">
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+    </row>
+    <row r="264">
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265">
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+    </row>
+    <row r="266">
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+    </row>
+    <row r="267">
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268">
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+    </row>
+    <row r="269">
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+    </row>
+    <row r="270">
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271">
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+    </row>
+    <row r="272">
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273">
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+    </row>
+    <row r="274">
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275">
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+    </row>
+    <row r="276">
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+    </row>
+    <row r="277">
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+      <c r="F277" s="3"/>
+    </row>
+    <row r="278">
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+    </row>
+    <row r="279">
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="3"/>
+    </row>
+    <row r="280">
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
+      <c r="F280" s="3"/>
+    </row>
+    <row r="281">
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
+      <c r="F281" s="3"/>
+    </row>
+    <row r="282">
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
+      <c r="F282" s="3"/>
+    </row>
+    <row r="283">
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+      <c r="F283" s="3"/>
+    </row>
+    <row r="284">
+      <c r="D284" s="3"/>
+      <c r="E284" s="3"/>
+      <c r="F284" s="3"/>
+    </row>
+    <row r="285">
+      <c r="D285" s="3"/>
+      <c r="E285" s="3"/>
+      <c r="F285" s="3"/>
+    </row>
+    <row r="286">
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
+      <c r="F286" s="3"/>
+    </row>
+    <row r="287">
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
+      <c r="F287" s="3"/>
+    </row>
+    <row r="288">
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
+      <c r="F288" s="3"/>
+    </row>
+    <row r="289">
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
+      <c r="F289" s="3"/>
+    </row>
+    <row r="290">
+      <c r="D290" s="3"/>
+      <c r="E290" s="3"/>
+      <c r="F290" s="3"/>
+    </row>
+    <row r="291">
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+      <c r="F291" s="3"/>
+    </row>
+    <row r="292">
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+      <c r="F292" s="3"/>
+    </row>
+    <row r="293">
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
+      <c r="F293" s="3"/>
+    </row>
+    <row r="294">
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+    </row>
+    <row r="295">
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+    </row>
+    <row r="296">
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
+      <c r="F296" s="3"/>
+    </row>
+    <row r="297">
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
+      <c r="F297" s="3"/>
+    </row>
+    <row r="298">
+      <c r="D298" s="3"/>
+      <c r="E298" s="3"/>
+      <c r="F298" s="3"/>
+    </row>
+    <row r="299">
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
+      <c r="F299" s="3"/>
+    </row>
+    <row r="300">
+      <c r="D300" s="3"/>
+      <c r="E300" s="3"/>
+      <c r="F300" s="3"/>
+    </row>
+    <row r="301">
+      <c r="D301" s="3"/>
+      <c r="E301" s="3"/>
+      <c r="F301" s="3"/>
+    </row>
+    <row r="302">
+      <c r="D302" s="3"/>
+      <c r="E302" s="3"/>
+      <c r="F302" s="3"/>
+    </row>
+    <row r="303">
+      <c r="D303" s="3"/>
+      <c r="E303" s="3"/>
+      <c r="F303" s="3"/>
+    </row>
+    <row r="304">
+      <c r="D304" s="3"/>
+      <c r="E304" s="3"/>
+      <c r="F304" s="3"/>
+    </row>
+    <row r="305">
+      <c r="D305" s="3"/>
+      <c r="E305" s="3"/>
+      <c r="F305" s="3"/>
+    </row>
+    <row r="306">
+      <c r="D306" s="3"/>
+      <c r="E306" s="3"/>
+      <c r="F306" s="3"/>
+    </row>
+    <row r="307">
+      <c r="D307" s="3"/>
+      <c r="E307" s="3"/>
+      <c r="F307" s="3"/>
+    </row>
+    <row r="308">
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
+      <c r="F308" s="3"/>
+    </row>
+    <row r="309">
+      <c r="D309" s="3"/>
+      <c r="E309" s="3"/>
+      <c r="F309" s="3"/>
+    </row>
+    <row r="310">
+      <c r="D310" s="3"/>
+      <c r="E310" s="3"/>
+      <c r="F310" s="3"/>
+    </row>
+    <row r="311">
+      <c r="D311" s="3"/>
+      <c r="E311" s="3"/>
+      <c r="F311" s="3"/>
+    </row>
+    <row r="312">
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3"/>
+    </row>
+    <row r="313">
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
+      <c r="F313" s="3"/>
+    </row>
+    <row r="314">
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
+      <c r="F314" s="3"/>
+    </row>
+    <row r="315">
+      <c r="D315" s="3"/>
+      <c r="E315" s="3"/>
+      <c r="F315" s="3"/>
+    </row>
+    <row r="316">
+      <c r="D316" s="3"/>
+      <c r="E316" s="3"/>
+      <c r="F316" s="3"/>
+    </row>
+    <row r="317">
+      <c r="D317" s="3"/>
+      <c r="E317" s="3"/>
+      <c r="F317" s="3"/>
+    </row>
+    <row r="318">
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
+    </row>
+    <row r="319">
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+      <c r="F319" s="3"/>
+    </row>
+    <row r="320">
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+      <c r="F320" s="3"/>
+    </row>
+    <row r="321">
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+      <c r="F321" s="3"/>
+    </row>
+    <row r="322">
+      <c r="D322" s="3"/>
+      <c r="E322" s="3"/>
+      <c r="F322" s="3"/>
+    </row>
+    <row r="323">
+      <c r="D323" s="3"/>
+      <c r="E323" s="3"/>
+      <c r="F323" s="3"/>
+    </row>
+    <row r="324">
+      <c r="D324" s="3"/>
+      <c r="E324" s="3"/>
+      <c r="F324" s="3"/>
+    </row>
+    <row r="325">
+      <c r="D325" s="3"/>
+      <c r="E325" s="3"/>
+      <c r="F325" s="3"/>
+    </row>
+    <row r="326">
+      <c r="D326" s="3"/>
+      <c r="E326" s="3"/>
+      <c r="F326" s="3"/>
+    </row>
+    <row r="327">
+      <c r="D327" s="3"/>
+      <c r="E327" s="3"/>
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328">
+      <c r="D328" s="3"/>
+      <c r="E328" s="3"/>
+      <c r="F328" s="3"/>
+    </row>
+    <row r="329">
+      <c r="D329" s="3"/>
+      <c r="E329" s="3"/>
+      <c r="F329" s="3"/>
+    </row>
+    <row r="330">
+      <c r="D330" s="3"/>
+      <c r="E330" s="3"/>
+      <c r="F330" s="3"/>
+    </row>
+    <row r="331">
+      <c r="D331" s="3"/>
+      <c r="E331" s="3"/>
+      <c r="F331" s="3"/>
+    </row>
+    <row r="332">
+      <c r="D332" s="3"/>
+      <c r="E332" s="3"/>
+      <c r="F332" s="3"/>
+    </row>
+    <row r="333">
+      <c r="D333" s="3"/>
+      <c r="E333" s="3"/>
+      <c r="F333" s="3"/>
+    </row>
+    <row r="334">
+      <c r="D334" s="3"/>
+      <c r="E334" s="3"/>
+      <c r="F334" s="3"/>
+    </row>
+    <row r="335">
+      <c r="D335" s="3"/>
+      <c r="E335" s="3"/>
+      <c r="F335" s="3"/>
+    </row>
+    <row r="336">
+      <c r="D336" s="3"/>
+      <c r="E336" s="3"/>
+      <c r="F336" s="3"/>
+    </row>
+    <row r="337">
+      <c r="D337" s="3"/>
+      <c r="E337" s="3"/>
+      <c r="F337" s="3"/>
+    </row>
+    <row r="338">
+      <c r="D338" s="3"/>
+      <c r="E338" s="3"/>
+      <c r="F338" s="3"/>
+    </row>
+    <row r="339">
+      <c r="D339" s="3"/>
+      <c r="E339" s="3"/>
+      <c r="F339" s="3"/>
+    </row>
+    <row r="340">
+      <c r="D340" s="3"/>
+      <c r="E340" s="3"/>
+      <c r="F340" s="3"/>
+    </row>
+    <row r="341">
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+      <c r="F341" s="3"/>
+    </row>
+    <row r="342">
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+      <c r="F342" s="3"/>
+    </row>
+    <row r="343">
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+      <c r="F343" s="3"/>
+    </row>
+    <row r="344">
+      <c r="D344" s="3"/>
+      <c r="E344" s="3"/>
+      <c r="F344" s="3"/>
+    </row>
+    <row r="345">
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
+      <c r="F345" s="3"/>
+    </row>
+    <row r="346">
+      <c r="D346" s="3"/>
+      <c r="E346" s="3"/>
+      <c r="F346" s="3"/>
+    </row>
+    <row r="347">
+      <c r="D347" s="3"/>
+      <c r="E347" s="3"/>
+      <c r="F347" s="3"/>
+    </row>
+    <row r="348">
+      <c r="D348" s="3"/>
+      <c r="E348" s="3"/>
+      <c r="F348" s="3"/>
+    </row>
+    <row r="349">
+      <c r="D349" s="3"/>
+      <c r="E349" s="3"/>
+      <c r="F349" s="3"/>
+    </row>
+    <row r="350">
+      <c r="D350" s="3"/>
+      <c r="E350" s="3"/>
+      <c r="F350" s="3"/>
+    </row>
+    <row r="351">
+      <c r="D351" s="3"/>
+      <c r="E351" s="3"/>
+      <c r="F351" s="3"/>
+    </row>
+    <row r="352">
+      <c r="D352" s="3"/>
+      <c r="E352" s="3"/>
+      <c r="F352" s="3"/>
+    </row>
+    <row r="353">
+      <c r="D353" s="3"/>
+      <c r="E353" s="3"/>
+      <c r="F353" s="3"/>
+    </row>
+    <row r="354">
+      <c r="D354" s="3"/>
+      <c r="E354" s="3"/>
+      <c r="F354" s="3"/>
+    </row>
+    <row r="355">
+      <c r="D355" s="3"/>
+      <c r="E355" s="3"/>
+      <c r="F355" s="3"/>
+    </row>
+    <row r="356">
+      <c r="D356" s="3"/>
+      <c r="E356" s="3"/>
+      <c r="F356" s="3"/>
+    </row>
+    <row r="357">
+      <c r="D357" s="3"/>
+      <c r="E357" s="3"/>
+      <c r="F357" s="3"/>
+    </row>
+    <row r="358">
+      <c r="D358" s="3"/>
+      <c r="E358" s="3"/>
+      <c r="F358" s="3"/>
+    </row>
+    <row r="359">
+      <c r="D359" s="3"/>
+      <c r="E359" s="3"/>
+      <c r="F359" s="3"/>
+    </row>
+    <row r="360">
+      <c r="D360" s="3"/>
+      <c r="E360" s="3"/>
+      <c r="F360" s="3"/>
+    </row>
+    <row r="361">
+      <c r="D361" s="3"/>
+      <c r="E361" s="3"/>
+      <c r="F361" s="3"/>
+    </row>
+    <row r="362">
+      <c r="D362" s="3"/>
+      <c r="E362" s="3"/>
+      <c r="F362" s="3"/>
+    </row>
+    <row r="363">
+      <c r="D363" s="3"/>
+      <c r="E363" s="3"/>
+      <c r="F363" s="3"/>
+    </row>
+    <row r="364">
+      <c r="D364" s="3"/>
+      <c r="E364" s="3"/>
+      <c r="F364" s="3"/>
+    </row>
+    <row r="365">
+      <c r="D365" s="3"/>
+      <c r="E365" s="3"/>
+      <c r="F365" s="3"/>
+    </row>
+    <row r="366">
+      <c r="D366" s="3"/>
+      <c r="E366" s="3"/>
+      <c r="F366" s="3"/>
+    </row>
+    <row r="367">
+      <c r="D367" s="3"/>
+      <c r="E367" s="3"/>
+      <c r="F367" s="3"/>
+    </row>
+    <row r="368">
+      <c r="D368" s="3"/>
+      <c r="E368" s="3"/>
+      <c r="F368" s="3"/>
+    </row>
+    <row r="369">
+      <c r="D369" s="3"/>
+      <c r="E369" s="3"/>
+      <c r="F369" s="3"/>
+    </row>
+    <row r="370">
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
+      <c r="F370" s="3"/>
+    </row>
+    <row r="371">
+      <c r="D371" s="3"/>
+      <c r="E371" s="3"/>
+      <c r="F371" s="3"/>
+    </row>
+    <row r="372">
+      <c r="D372" s="3"/>
+      <c r="E372" s="3"/>
+      <c r="F372" s="3"/>
+    </row>
+    <row r="373">
+      <c r="D373" s="3"/>
+      <c r="E373" s="3"/>
+      <c r="F373" s="3"/>
+    </row>
+    <row r="374">
+      <c r="D374" s="3"/>
+      <c r="E374" s="3"/>
+      <c r="F374" s="3"/>
+    </row>
+    <row r="375">
+      <c r="D375" s="3"/>
+      <c r="E375" s="3"/>
+      <c r="F375" s="3"/>
+    </row>
+    <row r="376">
+      <c r="D376" s="3"/>
+      <c r="E376" s="3"/>
+      <c r="F376" s="3"/>
+    </row>
+    <row r="377">
+      <c r="D377" s="3"/>
+      <c r="E377" s="3"/>
+      <c r="F377" s="3"/>
+    </row>
+    <row r="378">
+      <c r="D378" s="3"/>
+      <c r="E378" s="3"/>
+      <c r="F378" s="3"/>
+    </row>
+    <row r="379">
+      <c r="D379" s="3"/>
+      <c r="E379" s="3"/>
+      <c r="F379" s="3"/>
+    </row>
+    <row r="380">
+      <c r="D380" s="3"/>
+      <c r="E380" s="3"/>
+      <c r="F380" s="3"/>
+    </row>
+    <row r="381">
+      <c r="D381" s="3"/>
+      <c r="E381" s="3"/>
+      <c r="F381" s="3"/>
+    </row>
+    <row r="382">
+      <c r="D382" s="3"/>
+      <c r="E382" s="3"/>
+      <c r="F382" s="3"/>
+    </row>
+    <row r="383">
+      <c r="D383" s="3"/>
+      <c r="E383" s="3"/>
+      <c r="F383" s="3"/>
+    </row>
+    <row r="384">
+      <c r="D384" s="3"/>
+      <c r="E384" s="3"/>
+      <c r="F384" s="3"/>
+    </row>
+    <row r="385">
+      <c r="D385" s="3"/>
+      <c r="E385" s="3"/>
+      <c r="F385" s="3"/>
+    </row>
+    <row r="386">
+      <c r="D386" s="3"/>
+      <c r="E386" s="3"/>
+      <c r="F386" s="3"/>
+    </row>
+    <row r="387">
+      <c r="D387" s="3"/>
+      <c r="E387" s="3"/>
+      <c r="F387" s="3"/>
+    </row>
+    <row r="388">
+      <c r="D388" s="3"/>
+      <c r="E388" s="3"/>
+      <c r="F388" s="3"/>
+    </row>
+    <row r="389">
+      <c r="D389" s="3"/>
+      <c r="E389" s="3"/>
+      <c r="F389" s="3"/>
+    </row>
+    <row r="390">
+      <c r="D390" s="3"/>
+      <c r="E390" s="3"/>
+      <c r="F390" s="3"/>
+    </row>
+    <row r="391">
+      <c r="D391" s="3"/>
+      <c r="E391" s="3"/>
+      <c r="F391" s="3"/>
+    </row>
+    <row r="392">
+      <c r="D392" s="3"/>
+      <c r="E392" s="3"/>
+      <c r="F392" s="3"/>
+    </row>
+    <row r="393">
+      <c r="D393" s="3"/>
+      <c r="E393" s="3"/>
+      <c r="F393" s="3"/>
+    </row>
+    <row r="394">
+      <c r="D394" s="3"/>
+      <c r="E394" s="3"/>
+      <c r="F394" s="3"/>
+    </row>
+    <row r="395">
+      <c r="D395" s="3"/>
+      <c r="E395" s="3"/>
+      <c r="F395" s="3"/>
+    </row>
+    <row r="396">
+      <c r="D396" s="3"/>
+      <c r="E396" s="3"/>
+      <c r="F396" s="3"/>
+    </row>
+    <row r="397">
+      <c r="D397" s="3"/>
+      <c r="E397" s="3"/>
+      <c r="F397" s="3"/>
+    </row>
+    <row r="398">
+      <c r="D398" s="3"/>
+      <c r="E398" s="3"/>
+      <c r="F398" s="3"/>
+    </row>
+    <row r="399">
+      <c r="D399" s="3"/>
+      <c r="E399" s="3"/>
+      <c r="F399" s="3"/>
+    </row>
+    <row r="400">
+      <c r="D400" s="3"/>
+      <c r="E400" s="3"/>
+      <c r="F400" s="3"/>
+    </row>
+    <row r="401">
+      <c r="D401" s="3"/>
+      <c r="E401" s="3"/>
+      <c r="F401" s="3"/>
+    </row>
+    <row r="402">
+      <c r="D402" s="3"/>
+      <c r="E402" s="3"/>
+      <c r="F402" s="3"/>
+    </row>
+    <row r="403">
+      <c r="D403" s="3"/>
+      <c r="E403" s="3"/>
+      <c r="F403" s="3"/>
+    </row>
+    <row r="404">
+      <c r="D404" s="3"/>
+      <c r="E404" s="3"/>
+      <c r="F404" s="3"/>
+    </row>
+    <row r="405">
+      <c r="D405" s="3"/>
+      <c r="E405" s="3"/>
+      <c r="F405" s="3"/>
+    </row>
+    <row r="406">
+      <c r="D406" s="3"/>
+      <c r="E406" s="3"/>
+      <c r="F406" s="3"/>
+    </row>
+    <row r="407">
+      <c r="D407" s="3"/>
+      <c r="E407" s="3"/>
+      <c r="F407" s="3"/>
+    </row>
+    <row r="408">
+      <c r="D408" s="3"/>
+      <c r="E408" s="3"/>
+      <c r="F408" s="3"/>
+    </row>
+    <row r="409">
+      <c r="D409" s="3"/>
+      <c r="E409" s="3"/>
+      <c r="F409" s="3"/>
+    </row>
+    <row r="410">
+      <c r="D410" s="3"/>
+      <c r="E410" s="3"/>
+      <c r="F410" s="3"/>
+    </row>
+    <row r="411">
+      <c r="D411" s="3"/>
+      <c r="E411" s="3"/>
+      <c r="F411" s="3"/>
+    </row>
+    <row r="412">
+      <c r="D412" s="3"/>
+      <c r="E412" s="3"/>
+      <c r="F412" s="3"/>
+    </row>
+    <row r="413">
+      <c r="D413" s="3"/>
+      <c r="E413" s="3"/>
+      <c r="F413" s="3"/>
+    </row>
+    <row r="414">
+      <c r="D414" s="3"/>
+      <c r="E414" s="3"/>
+      <c r="F414" s="3"/>
+    </row>
+    <row r="415">
+      <c r="D415" s="3"/>
+      <c r="E415" s="3"/>
+      <c r="F415" s="3"/>
+    </row>
+    <row r="416">
+      <c r="D416" s="3"/>
+      <c r="E416" s="3"/>
+      <c r="F416" s="3"/>
+    </row>
+    <row r="417">
+      <c r="D417" s="3"/>
+      <c r="E417" s="3"/>
+      <c r="F417" s="3"/>
+    </row>
+    <row r="418">
+      <c r="D418" s="3"/>
+      <c r="E418" s="3"/>
+      <c r="F418" s="3"/>
+    </row>
+    <row r="419">
+      <c r="D419" s="3"/>
+      <c r="E419" s="3"/>
+      <c r="F419" s="3"/>
+    </row>
+    <row r="420">
+      <c r="D420" s="3"/>
+      <c r="E420" s="3"/>
+      <c r="F420" s="3"/>
+    </row>
+    <row r="421">
+      <c r="D421" s="3"/>
+      <c r="E421" s="3"/>
+      <c r="F421" s="3"/>
+    </row>
+    <row r="422">
+      <c r="D422" s="3"/>
+      <c r="E422" s="3"/>
+      <c r="F422" s="3"/>
+    </row>
+    <row r="423">
+      <c r="D423" s="3"/>
+      <c r="E423" s="3"/>
+      <c r="F423" s="3"/>
+    </row>
+    <row r="424">
+      <c r="D424" s="3"/>
+      <c r="E424" s="3"/>
+      <c r="F424" s="3"/>
+    </row>
+    <row r="425">
+      <c r="D425" s="3"/>
+      <c r="E425" s="3"/>
+      <c r="F425" s="3"/>
+    </row>
+    <row r="426">
+      <c r="D426" s="3"/>
+      <c r="E426" s="3"/>
+      <c r="F426" s="3"/>
+    </row>
+    <row r="427">
+      <c r="D427" s="3"/>
+      <c r="E427" s="3"/>
+      <c r="F427" s="3"/>
+    </row>
+    <row r="428">
+      <c r="D428" s="3"/>
+      <c r="E428" s="3"/>
+      <c r="F428" s="3"/>
+    </row>
+    <row r="429">
+      <c r="D429" s="3"/>
+      <c r="E429" s="3"/>
+      <c r="F429" s="3"/>
+    </row>
+    <row r="430">
+      <c r="D430" s="3"/>
+      <c r="E430" s="3"/>
+      <c r="F430" s="3"/>
+    </row>
+    <row r="431">
+      <c r="D431" s="3"/>
+      <c r="E431" s="3"/>
+      <c r="F431" s="3"/>
+    </row>
+    <row r="432">
+      <c r="D432" s="3"/>
+      <c r="E432" s="3"/>
+      <c r="F432" s="3"/>
+    </row>
+    <row r="433">
+      <c r="D433" s="3"/>
+      <c r="E433" s="3"/>
+      <c r="F433" s="3"/>
+    </row>
+    <row r="434">
+      <c r="D434" s="3"/>
+      <c r="E434" s="3"/>
+      <c r="F434" s="3"/>
+    </row>
+    <row r="435">
+      <c r="D435" s="3"/>
+      <c r="E435" s="3"/>
+      <c r="F435" s="3"/>
+    </row>
+    <row r="436">
+      <c r="D436" s="3"/>
+      <c r="E436" s="3"/>
+      <c r="F436" s="3"/>
+    </row>
+    <row r="437">
+      <c r="D437" s="3"/>
+      <c r="E437" s="3"/>
+      <c r="F437" s="3"/>
+    </row>
+    <row r="438">
+      <c r="D438" s="3"/>
+      <c r="E438" s="3"/>
+      <c r="F438" s="3"/>
+    </row>
+    <row r="439">
+      <c r="D439" s="3"/>
+      <c r="E439" s="3"/>
+      <c r="F439" s="3"/>
+    </row>
+    <row r="440">
+      <c r="D440" s="3"/>
+      <c r="E440" s="3"/>
+      <c r="F440" s="3"/>
+    </row>
+    <row r="441">
+      <c r="D441" s="3"/>
+      <c r="E441" s="3"/>
+      <c r="F441" s="3"/>
+    </row>
+    <row r="442">
+      <c r="D442" s="3"/>
+      <c r="E442" s="3"/>
+      <c r="F442" s="3"/>
+    </row>
+    <row r="443">
+      <c r="D443" s="3"/>
+      <c r="E443" s="3"/>
+      <c r="F443" s="3"/>
+    </row>
+    <row r="444">
+      <c r="D444" s="3"/>
+      <c r="E444" s="3"/>
+      <c r="F444" s="3"/>
+    </row>
+    <row r="445">
+      <c r="D445" s="3"/>
+      <c r="E445" s="3"/>
+      <c r="F445" s="3"/>
+    </row>
+    <row r="446">
+      <c r="D446" s="3"/>
+      <c r="E446" s="3"/>
+      <c r="F446" s="3"/>
+    </row>
+    <row r="447">
+      <c r="D447" s="3"/>
+      <c r="E447" s="3"/>
+      <c r="F447" s="3"/>
+    </row>
+    <row r="448">
+      <c r="D448" s="3"/>
+      <c r="E448" s="3"/>
+      <c r="F448" s="3"/>
+    </row>
+    <row r="449">
+      <c r="D449" s="3"/>
+      <c r="E449" s="3"/>
+      <c r="F449" s="3"/>
+    </row>
+    <row r="450">
+      <c r="D450" s="3"/>
+      <c r="E450" s="3"/>
+      <c r="F450" s="3"/>
+    </row>
+    <row r="451">
+      <c r="D451" s="3"/>
+      <c r="E451" s="3"/>
+      <c r="F451" s="3"/>
+    </row>
+    <row r="452">
+      <c r="D452" s="3"/>
+      <c r="E452" s="3"/>
+      <c r="F452" s="3"/>
+    </row>
+    <row r="453">
+      <c r="D453" s="3"/>
+      <c r="E453" s="3"/>
+      <c r="F453" s="3"/>
+    </row>
+    <row r="454">
+      <c r="D454" s="3"/>
+      <c r="E454" s="3"/>
+      <c r="F454" s="3"/>
+    </row>
+    <row r="455">
+      <c r="D455" s="3"/>
+      <c r="E455" s="3"/>
+      <c r="F455" s="3"/>
+    </row>
+    <row r="456">
+      <c r="D456" s="3"/>
+      <c r="E456" s="3"/>
+      <c r="F456" s="3"/>
+    </row>
+    <row r="457">
+      <c r="D457" s="3"/>
+      <c r="E457" s="3"/>
+      <c r="F457" s="3"/>
+    </row>
+    <row r="458">
+      <c r="D458" s="3"/>
+      <c r="E458" s="3"/>
+      <c r="F458" s="3"/>
+    </row>
+    <row r="459">
+      <c r="D459" s="3"/>
+      <c r="E459" s="3"/>
+      <c r="F459" s="3"/>
+    </row>
+    <row r="460">
+      <c r="D460" s="3"/>
+      <c r="E460" s="3"/>
+      <c r="F460" s="3"/>
+    </row>
+    <row r="461">
+      <c r="D461" s="3"/>
+      <c r="E461" s="3"/>
+      <c r="F461" s="3"/>
+    </row>
+    <row r="462">
+      <c r="D462" s="3"/>
+      <c r="E462" s="3"/>
+      <c r="F462" s="3"/>
+    </row>
+    <row r="463">
+      <c r="D463" s="3"/>
+      <c r="E463" s="3"/>
+      <c r="F463" s="3"/>
+    </row>
+    <row r="464">
+      <c r="D464" s="3"/>
+      <c r="E464" s="3"/>
+      <c r="F464" s="3"/>
+    </row>
+    <row r="465">
+      <c r="D465" s="3"/>
+      <c r="E465" s="3"/>
+      <c r="F465" s="3"/>
+    </row>
+    <row r="466">
+      <c r="D466" s="3"/>
+      <c r="E466" s="3"/>
+      <c r="F466" s="3"/>
+    </row>
+    <row r="467">
+      <c r="D467" s="3"/>
+      <c r="E467" s="3"/>
+      <c r="F467" s="3"/>
+    </row>
+    <row r="468">
+      <c r="D468" s="3"/>
+      <c r="E468" s="3"/>
+      <c r="F468" s="3"/>
+    </row>
+    <row r="469">
+      <c r="D469" s="3"/>
+      <c r="E469" s="3"/>
+      <c r="F469" s="3"/>
+    </row>
+    <row r="470">
+      <c r="D470" s="3"/>
+      <c r="E470" s="3"/>
+      <c r="F470" s="3"/>
+    </row>
+    <row r="471">
+      <c r="D471" s="3"/>
+      <c r="E471" s="3"/>
+      <c r="F471" s="3"/>
+    </row>
+    <row r="472">
+      <c r="D472" s="3"/>
+      <c r="E472" s="3"/>
+      <c r="F472" s="3"/>
+    </row>
+    <row r="473">
+      <c r="D473" s="3"/>
+      <c r="E473" s="3"/>
+      <c r="F473" s="3"/>
+    </row>
+    <row r="474">
+      <c r="D474" s="3"/>
+      <c r="E474" s="3"/>
+      <c r="F474" s="3"/>
+    </row>
+    <row r="475">
+      <c r="D475" s="3"/>
+      <c r="E475" s="3"/>
+      <c r="F475" s="3"/>
+    </row>
+    <row r="476">
+      <c r="D476" s="3"/>
+      <c r="E476" s="3"/>
+      <c r="F476" s="3"/>
+    </row>
+    <row r="477">
+      <c r="D477" s="3"/>
+      <c r="E477" s="3"/>
+      <c r="F477" s="3"/>
+    </row>
+    <row r="478">
+      <c r="D478" s="3"/>
+      <c r="E478" s="3"/>
+      <c r="F478" s="3"/>
+    </row>
+    <row r="479">
+      <c r="D479" s="3"/>
+      <c r="E479" s="3"/>
+      <c r="F479" s="3"/>
+    </row>
+    <row r="480">
+      <c r="D480" s="3"/>
+      <c r="E480" s="3"/>
+      <c r="F480" s="3"/>
+    </row>
+    <row r="481">
+      <c r="D481" s="3"/>
+      <c r="E481" s="3"/>
+      <c r="F481" s="3"/>
+    </row>
+    <row r="482">
+      <c r="D482" s="3"/>
+      <c r="E482" s="3"/>
+      <c r="F482" s="3"/>
+    </row>
+    <row r="483">
+      <c r="D483" s="3"/>
+      <c r="E483" s="3"/>
+      <c r="F483" s="3"/>
+    </row>
+    <row r="484">
+      <c r="D484" s="3"/>
+      <c r="E484" s="3"/>
+      <c r="F484" s="3"/>
+    </row>
+    <row r="485">
+      <c r="D485" s="3"/>
+      <c r="E485" s="3"/>
+      <c r="F485" s="3"/>
+    </row>
+    <row r="486">
+      <c r="D486" s="3"/>
+      <c r="E486" s="3"/>
+      <c r="F486" s="3"/>
+    </row>
+    <row r="487">
+      <c r="D487" s="3"/>
+      <c r="E487" s="3"/>
+      <c r="F487" s="3"/>
+    </row>
+    <row r="488">
+      <c r="D488" s="3"/>
+      <c r="E488" s="3"/>
+      <c r="F488" s="3"/>
+    </row>
+    <row r="489">
+      <c r="D489" s="3"/>
+      <c r="E489" s="3"/>
+      <c r="F489" s="3"/>
+    </row>
+    <row r="490">
+      <c r="D490" s="3"/>
+      <c r="E490" s="3"/>
+      <c r="F490" s="3"/>
+    </row>
+    <row r="491">
+      <c r="D491" s="3"/>
+      <c r="E491" s="3"/>
+      <c r="F491" s="3"/>
+    </row>
+    <row r="492">
+      <c r="D492" s="3"/>
+      <c r="E492" s="3"/>
+      <c r="F492" s="3"/>
+    </row>
+    <row r="493">
+      <c r="D493" s="3"/>
+      <c r="E493" s="3"/>
+      <c r="F493" s="3"/>
+    </row>
+    <row r="494">
+      <c r="D494" s="3"/>
+      <c r="E494" s="3"/>
+      <c r="F494" s="3"/>
+    </row>
+    <row r="495">
+      <c r="D495" s="3"/>
+      <c r="E495" s="3"/>
+      <c r="F495" s="3"/>
+    </row>
+    <row r="496">
+      <c r="D496" s="3"/>
+      <c r="E496" s="3"/>
+      <c r="F496" s="3"/>
+    </row>
+    <row r="497">
+      <c r="D497" s="3"/>
+      <c r="E497" s="3"/>
+      <c r="F497" s="3"/>
+    </row>
+    <row r="498">
+      <c r="D498" s="3"/>
+      <c r="E498" s="3"/>
+      <c r="F498" s="3"/>
+    </row>
+    <row r="499">
+      <c r="D499" s="3"/>
+      <c r="E499" s="3"/>
+      <c r="F499" s="3"/>
+    </row>
+    <row r="500">
+      <c r="D500" s="3"/>
+      <c r="E500" s="3"/>
+      <c r="F500" s="3"/>
+    </row>
+    <row r="501">
+      <c r="D501" s="3"/>
+      <c r="E501" s="3"/>
+      <c r="F501" s="3"/>
+    </row>
+    <row r="502">
+      <c r="D502" s="3"/>
+      <c r="E502" s="3"/>
+      <c r="F502" s="3"/>
+    </row>
+    <row r="503">
+      <c r="D503" s="3"/>
+      <c r="E503" s="3"/>
+      <c r="F503" s="3"/>
+    </row>
+    <row r="504">
+      <c r="D504" s="3"/>
+      <c r="E504" s="3"/>
+      <c r="F504" s="3"/>
+    </row>
+    <row r="505">
+      <c r="D505" s="3"/>
+      <c r="E505" s="3"/>
+      <c r="F505" s="3"/>
+    </row>
+    <row r="506">
+      <c r="D506" s="3"/>
+      <c r="E506" s="3"/>
+      <c r="F506" s="3"/>
+    </row>
+    <row r="507">
+      <c r="D507" s="3"/>
+      <c r="E507" s="3"/>
+      <c r="F507" s="3"/>
+    </row>
+    <row r="508">
+      <c r="D508" s="3"/>
+      <c r="E508" s="3"/>
+      <c r="F508" s="3"/>
+    </row>
+    <row r="509">
+      <c r="D509" s="3"/>
+      <c r="E509" s="3"/>
+      <c r="F509" s="3"/>
+    </row>
+    <row r="510">
+      <c r="D510" s="3"/>
+      <c r="E510" s="3"/>
+      <c r="F510" s="3"/>
+    </row>
+    <row r="511">
+      <c r="D511" s="3"/>
+      <c r="E511" s="3"/>
+      <c r="F511" s="3"/>
+    </row>
+    <row r="512">
+      <c r="D512" s="3"/>
+      <c r="E512" s="3"/>
+      <c r="F512" s="3"/>
+    </row>
+    <row r="513">
+      <c r="D513" s="3"/>
+      <c r="E513" s="3"/>
+      <c r="F513" s="3"/>
+    </row>
+    <row r="514">
+      <c r="D514" s="3"/>
+      <c r="E514" s="3"/>
+      <c r="F514" s="3"/>
+    </row>
+    <row r="515">
+      <c r="D515" s="3"/>
+      <c r="E515" s="3"/>
+      <c r="F515" s="3"/>
+    </row>
+    <row r="516">
+      <c r="D516" s="3"/>
+      <c r="E516" s="3"/>
+      <c r="F516" s="3"/>
+    </row>
+    <row r="517">
+      <c r="D517" s="3"/>
+      <c r="E517" s="3"/>
+      <c r="F517" s="3"/>
+    </row>
+    <row r="518">
+      <c r="D518" s="3"/>
+      <c r="E518" s="3"/>
+      <c r="F518" s="3"/>
+    </row>
+    <row r="519">
+      <c r="D519" s="3"/>
+      <c r="E519" s="3"/>
+      <c r="F519" s="3"/>
+    </row>
+    <row r="520">
+      <c r="D520" s="3"/>
+      <c r="E520" s="3"/>
+      <c r="F520" s="3"/>
+    </row>
+    <row r="521">
+      <c r="D521" s="3"/>
+      <c r="E521" s="3"/>
+      <c r="F521" s="3"/>
+    </row>
+    <row r="522">
+      <c r="D522" s="3"/>
+      <c r="E522" s="3"/>
+      <c r="F522" s="3"/>
+    </row>
+    <row r="523">
+      <c r="D523" s="3"/>
+      <c r="E523" s="3"/>
+      <c r="F523" s="3"/>
+    </row>
+    <row r="524">
+      <c r="D524" s="3"/>
+      <c r="E524" s="3"/>
+      <c r="F524" s="3"/>
+    </row>
+    <row r="525">
+      <c r="D525" s="3"/>
+      <c r="E525" s="3"/>
+      <c r="F525" s="3"/>
+    </row>
+    <row r="526">
+      <c r="D526" s="3"/>
+      <c r="E526" s="3"/>
+      <c r="F526" s="3"/>
+    </row>
+    <row r="527">
+      <c r="D527" s="3"/>
+      <c r="E527" s="3"/>
+      <c r="F527" s="3"/>
+    </row>
+    <row r="528">
+      <c r="D528" s="3"/>
+      <c r="E528" s="3"/>
+      <c r="F528" s="3"/>
+    </row>
+    <row r="529">
+      <c r="D529" s="3"/>
+      <c r="E529" s="3"/>
+      <c r="F529" s="3"/>
+    </row>
+    <row r="530">
+      <c r="D530" s="3"/>
+      <c r="E530" s="3"/>
+      <c r="F530" s="3"/>
+    </row>
+    <row r="531">
+      <c r="D531" s="3"/>
+      <c r="E531" s="3"/>
+      <c r="F531" s="3"/>
+    </row>
+    <row r="532">
+      <c r="D532" s="3"/>
+      <c r="E532" s="3"/>
+      <c r="F532" s="3"/>
+    </row>
+    <row r="533">
+      <c r="D533" s="3"/>
+      <c r="E533" s="3"/>
+      <c r="F533" s="3"/>
+    </row>
+    <row r="534">
+      <c r="D534" s="3"/>
+      <c r="E534" s="3"/>
+      <c r="F534" s="3"/>
+    </row>
+    <row r="535">
+      <c r="D535" s="3"/>
+      <c r="E535" s="3"/>
+      <c r="F535" s="3"/>
+    </row>
+    <row r="536">
+      <c r="D536" s="3"/>
+      <c r="E536" s="3"/>
+      <c r="F536" s="3"/>
+    </row>
+    <row r="537">
+      <c r="D537" s="3"/>
+      <c r="E537" s="3"/>
+      <c r="F537" s="3"/>
+    </row>
+    <row r="538">
+      <c r="D538" s="3"/>
+      <c r="E538" s="3"/>
+      <c r="F538" s="3"/>
+    </row>
+    <row r="539">
+      <c r="D539" s="3"/>
+      <c r="E539" s="3"/>
+      <c r="F539" s="3"/>
+    </row>
+    <row r="540">
+      <c r="D540" s="3"/>
+      <c r="E540" s="3"/>
+      <c r="F540" s="3"/>
+    </row>
+    <row r="541">
+      <c r="D541" s="3"/>
+      <c r="E541" s="3"/>
+      <c r="F541" s="3"/>
+    </row>
+    <row r="542">
+      <c r="D542" s="3"/>
+      <c r="E542" s="3"/>
+      <c r="F542" s="3"/>
+    </row>
+    <row r="543">
+      <c r="D543" s="3"/>
+      <c r="E543" s="3"/>
+      <c r="F543" s="3"/>
+    </row>
+    <row r="544">
+      <c r="D544" s="3"/>
+      <c r="E544" s="3"/>
+      <c r="F544" s="3"/>
+    </row>
+    <row r="545">
+      <c r="D545" s="3"/>
+      <c r="E545" s="3"/>
+      <c r="F545" s="3"/>
+    </row>
+    <row r="546">
+      <c r="D546" s="3"/>
+      <c r="E546" s="3"/>
+      <c r="F546" s="3"/>
+    </row>
+    <row r="547">
+      <c r="D547" s="3"/>
+      <c r="E547" s="3"/>
+      <c r="F547" s="3"/>
+    </row>
+    <row r="548">
+      <c r="D548" s="3"/>
+      <c r="E548" s="3"/>
+      <c r="F548" s="3"/>
+    </row>
+    <row r="549">
+      <c r="D549" s="3"/>
+      <c r="E549" s="3"/>
+      <c r="F549" s="3"/>
+    </row>
+    <row r="550">
+      <c r="D550" s="3"/>
+      <c r="E550" s="3"/>
+      <c r="F550" s="3"/>
+    </row>
+    <row r="551">
+      <c r="D551" s="3"/>
+      <c r="E551" s="3"/>
+      <c r="F551" s="3"/>
+    </row>
+    <row r="552">
+      <c r="D552" s="3"/>
+      <c r="E552" s="3"/>
+      <c r="F552" s="3"/>
+    </row>
+    <row r="553">
+      <c r="D553" s="3"/>
+      <c r="E553" s="3"/>
+      <c r="F553" s="3"/>
+    </row>
+    <row r="554">
+      <c r="D554" s="3"/>
+      <c r="E554" s="3"/>
+      <c r="F554" s="3"/>
+    </row>
+    <row r="555">
+      <c r="D555" s="3"/>
+      <c r="E555" s="3"/>
+      <c r="F555" s="3"/>
+    </row>
+    <row r="556">
+      <c r="D556" s="3"/>
+      <c r="E556" s="3"/>
+      <c r="F556" s="3"/>
+    </row>
+    <row r="557">
+      <c r="D557" s="3"/>
+      <c r="E557" s="3"/>
+      <c r="F557" s="3"/>
+    </row>
+    <row r="558">
+      <c r="D558" s="3"/>
+      <c r="E558" s="3"/>
+      <c r="F558" s="3"/>
+    </row>
+    <row r="559">
+      <c r="D559" s="3"/>
+      <c r="E559" s="3"/>
+      <c r="F559" s="3"/>
+    </row>
+    <row r="560">
+      <c r="D560" s="3"/>
+      <c r="E560" s="3"/>
+      <c r="F560" s="3"/>
+    </row>
+    <row r="561">
+      <c r="D561" s="3"/>
+      <c r="E561" s="3"/>
+      <c r="F561" s="3"/>
+    </row>
+    <row r="562">
+      <c r="D562" s="3"/>
+      <c r="E562" s="3"/>
+      <c r="F562" s="3"/>
+    </row>
+    <row r="563">
+      <c r="D563" s="3"/>
+      <c r="E563" s="3"/>
+      <c r="F563" s="3"/>
+    </row>
+    <row r="564">
+      <c r="D564" s="3"/>
+      <c r="E564" s="3"/>
+      <c r="F564" s="3"/>
+    </row>
+    <row r="565">
+      <c r="D565" s="3"/>
+      <c r="E565" s="3"/>
+      <c r="F565" s="3"/>
+    </row>
+    <row r="566">
+      <c r="D566" s="3"/>
+      <c r="E566" s="3"/>
+      <c r="F566" s="3"/>
+    </row>
+    <row r="567">
+      <c r="D567" s="3"/>
+      <c r="E567" s="3"/>
+      <c r="F567" s="3"/>
+    </row>
+    <row r="568">
+      <c r="D568" s="3"/>
+      <c r="E568" s="3"/>
+      <c r="F568" s="3"/>
+    </row>
+    <row r="569">
+      <c r="D569" s="3"/>
+      <c r="E569" s="3"/>
+      <c r="F569" s="3"/>
+    </row>
+    <row r="570">
+      <c r="D570" s="3"/>
+      <c r="E570" s="3"/>
+      <c r="F570" s="3"/>
+    </row>
+    <row r="571">
+      <c r="D571" s="3"/>
+      <c r="E571" s="3"/>
+      <c r="F571" s="3"/>
+    </row>
+    <row r="572">
+      <c r="D572" s="3"/>
+      <c r="E572" s="3"/>
+      <c r="F572" s="3"/>
+    </row>
+    <row r="573">
+      <c r="D573" s="3"/>
+      <c r="E573" s="3"/>
+      <c r="F573" s="3"/>
+    </row>
+    <row r="574">
+      <c r="D574" s="3"/>
+      <c r="E574" s="3"/>
+      <c r="F574" s="3"/>
+    </row>
+    <row r="575">
+      <c r="D575" s="3"/>
+      <c r="E575" s="3"/>
+      <c r="F575" s="3"/>
+    </row>
+    <row r="576">
+      <c r="D576" s="3"/>
+      <c r="E576" s="3"/>
+      <c r="F576" s="3"/>
+    </row>
+    <row r="577">
+      <c r="D577" s="3"/>
+      <c r="E577" s="3"/>
+      <c r="F577" s="3"/>
+    </row>
+    <row r="578">
+      <c r="D578" s="3"/>
+      <c r="E578" s="3"/>
+      <c r="F578" s="3"/>
+    </row>
+    <row r="579">
+      <c r="D579" s="3"/>
+      <c r="E579" s="3"/>
+      <c r="F579" s="3"/>
+    </row>
+    <row r="580">
+      <c r="D580" s="3"/>
+      <c r="E580" s="3"/>
+      <c r="F580" s="3"/>
+    </row>
+    <row r="581">
+      <c r="D581" s="3"/>
+      <c r="E581" s="3"/>
+      <c r="F581" s="3"/>
+    </row>
+    <row r="582">
+      <c r="D582" s="3"/>
+      <c r="E582" s="3"/>
+      <c r="F582" s="3"/>
+    </row>
+    <row r="583">
+      <c r="D583" s="3"/>
+      <c r="E583" s="3"/>
+      <c r="F583" s="3"/>
+    </row>
+    <row r="584">
+      <c r="D584" s="3"/>
+      <c r="E584" s="3"/>
+      <c r="F584" s="3"/>
+    </row>
+    <row r="585">
+      <c r="D585" s="3"/>
+      <c r="E585" s="3"/>
+      <c r="F585" s="3"/>
+    </row>
+    <row r="586">
+      <c r="D586" s="3"/>
+      <c r="E586" s="3"/>
+      <c r="F586" s="3"/>
+    </row>
+    <row r="587">
+      <c r="D587" s="3"/>
+      <c r="E587" s="3"/>
+      <c r="F587" s="3"/>
+    </row>
+    <row r="588">
+      <c r="D588" s="3"/>
+      <c r="E588" s="3"/>
+      <c r="F588" s="3"/>
+    </row>
+    <row r="589">
+      <c r="D589" s="3"/>
+      <c r="E589" s="3"/>
+      <c r="F589" s="3"/>
+    </row>
+    <row r="590">
+      <c r="D590" s="3"/>
+      <c r="E590" s="3"/>
+      <c r="F590" s="3"/>
+    </row>
+    <row r="591">
+      <c r="D591" s="3"/>
+      <c r="E591" s="3"/>
+      <c r="F591" s="3"/>
+    </row>
+    <row r="592">
+      <c r="D592" s="3"/>
+      <c r="E592" s="3"/>
+      <c r="F592" s="3"/>
+    </row>
+    <row r="593">
+      <c r="D593" s="3"/>
+      <c r="E593" s="3"/>
+      <c r="F593" s="3"/>
+    </row>
+    <row r="594">
+      <c r="D594" s="3"/>
+      <c r="E594" s="3"/>
+      <c r="F594" s="3"/>
+    </row>
+    <row r="595">
+      <c r="D595" s="3"/>
+      <c r="E595" s="3"/>
+      <c r="F595" s="3"/>
+    </row>
+    <row r="596">
+      <c r="D596" s="3"/>
+      <c r="E596" s="3"/>
+      <c r="F596" s="3"/>
+    </row>
+    <row r="597">
+      <c r="D597" s="3"/>
+      <c r="E597" s="3"/>
+      <c r="F597" s="3"/>
+    </row>
+    <row r="598">
+      <c r="D598" s="3"/>
+      <c r="E598" s="3"/>
+      <c r="F598" s="3"/>
+    </row>
+    <row r="599">
+      <c r="D599" s="3"/>
+      <c r="E599" s="3"/>
+      <c r="F599" s="3"/>
+    </row>
+    <row r="600">
+      <c r="D600" s="3"/>
+      <c r="E600" s="3"/>
+      <c r="F600" s="3"/>
+    </row>
+    <row r="601">
+      <c r="D601" s="3"/>
+      <c r="E601" s="3"/>
+      <c r="F601" s="3"/>
+    </row>
+    <row r="602">
+      <c r="D602" s="3"/>
+      <c r="E602" s="3"/>
+      <c r="F602" s="3"/>
+    </row>
+    <row r="603">
+      <c r="D603" s="3"/>
+      <c r="E603" s="3"/>
+      <c r="F603" s="3"/>
+    </row>
+    <row r="604">
+      <c r="D604" s="3"/>
+      <c r="E604" s="3"/>
+      <c r="F604" s="3"/>
+    </row>
+    <row r="605">
+      <c r="D605" s="3"/>
+      <c r="E605" s="3"/>
+      <c r="F605" s="3"/>
+    </row>
+    <row r="606">
+      <c r="D606" s="3"/>
+      <c r="E606" s="3"/>
+      <c r="F606" s="3"/>
+    </row>
+    <row r="607">
+      <c r="D607" s="3"/>
+      <c r="E607" s="3"/>
+      <c r="F607" s="3"/>
+    </row>
+    <row r="608">
+      <c r="D608" s="3"/>
+      <c r="E608" s="3"/>
+      <c r="F608" s="3"/>
+    </row>
+    <row r="609">
+      <c r="D609" s="3"/>
+      <c r="E609" s="3"/>
+      <c r="F609" s="3"/>
+    </row>
+    <row r="610">
+      <c r="D610" s="3"/>
+      <c r="E610" s="3"/>
+      <c r="F610" s="3"/>
+    </row>
+    <row r="611">
+      <c r="D611" s="3"/>
+      <c r="E611" s="3"/>
+      <c r="F611" s="3"/>
+    </row>
+    <row r="612">
+      <c r="D612" s="3"/>
+      <c r="E612" s="3"/>
+      <c r="F612" s="3"/>
+    </row>
+    <row r="613">
+      <c r="D613" s="3"/>
+      <c r="E613" s="3"/>
+      <c r="F613" s="3"/>
+    </row>
+    <row r="614">
+      <c r="D614" s="3"/>
+      <c r="E614" s="3"/>
+      <c r="F614" s="3"/>
+    </row>
+    <row r="615">
+      <c r="D615" s="3"/>
+      <c r="E615" s="3"/>
+      <c r="F615" s="3"/>
+    </row>
+    <row r="616">
+      <c r="D616" s="3"/>
+      <c r="E616" s="3"/>
+      <c r="F616" s="3"/>
+    </row>
+    <row r="617">
+      <c r="D617" s="3"/>
+      <c r="E617" s="3"/>
+      <c r="F617" s="3"/>
+    </row>
+    <row r="618">
+      <c r="D618" s="3"/>
+      <c r="E618" s="3"/>
+      <c r="F618" s="3"/>
+    </row>
+    <row r="619">
+      <c r="D619" s="3"/>
+      <c r="E619" s="3"/>
+      <c r="F619" s="3"/>
+    </row>
+    <row r="620">
+      <c r="D620" s="3"/>
+      <c r="E620" s="3"/>
+      <c r="F620" s="3"/>
+    </row>
+    <row r="621">
+      <c r="D621" s="3"/>
+      <c r="E621" s="3"/>
+      <c r="F621" s="3"/>
+    </row>
+    <row r="622">
+      <c r="D622" s="3"/>
+      <c r="E622" s="3"/>
+      <c r="F622" s="3"/>
+    </row>
+    <row r="623">
+      <c r="D623" s="3"/>
+      <c r="E623" s="3"/>
+      <c r="F623" s="3"/>
+    </row>
+    <row r="624">
+      <c r="D624" s="3"/>
+      <c r="E624" s="3"/>
+      <c r="F624" s="3"/>
+    </row>
+    <row r="625">
+      <c r="D625" s="3"/>
+      <c r="E625" s="3"/>
+      <c r="F625" s="3"/>
+    </row>
+    <row r="626">
+      <c r="D626" s="3"/>
+      <c r="E626" s="3"/>
+      <c r="F626" s="3"/>
+    </row>
+    <row r="627">
+      <c r="D627" s="3"/>
+      <c r="E627" s="3"/>
+      <c r="F627" s="3"/>
+    </row>
+    <row r="628">
+      <c r="D628" s="3"/>
+      <c r="E628" s="3"/>
+      <c r="F628" s="3"/>
+    </row>
+    <row r="629">
+      <c r="D629" s="3"/>
+      <c r="E629" s="3"/>
+      <c r="F629" s="3"/>
+    </row>
+    <row r="630">
+      <c r="D630" s="3"/>
+      <c r="E630" s="3"/>
+      <c r="F630" s="3"/>
+    </row>
+    <row r="631">
+      <c r="D631" s="3"/>
+      <c r="E631" s="3"/>
+      <c r="F631" s="3"/>
+    </row>
+    <row r="632">
+      <c r="D632" s="3"/>
+      <c r="E632" s="3"/>
+      <c r="F632" s="3"/>
+    </row>
+    <row r="633">
+      <c r="D633" s="3"/>
+      <c r="E633" s="3"/>
+      <c r="F633" s="3"/>
+    </row>
+    <row r="634">
+      <c r="D634" s="3"/>
+      <c r="E634" s="3"/>
+      <c r="F634" s="3"/>
+    </row>
+    <row r="635">
+      <c r="D635" s="3"/>
+      <c r="E635" s="3"/>
+      <c r="F635" s="3"/>
+    </row>
+    <row r="636">
+      <c r="D636" s="3"/>
+      <c r="E636" s="3"/>
+      <c r="F636" s="3"/>
+    </row>
+    <row r="637">
+      <c r="D637" s="3"/>
+      <c r="E637" s="3"/>
+      <c r="F637" s="3"/>
+    </row>
+    <row r="638">
+      <c r="D638" s="3"/>
+      <c r="E638" s="3"/>
+      <c r="F638" s="3"/>
+    </row>
+    <row r="639">
+      <c r="D639" s="3"/>
+      <c r="E639" s="3"/>
+      <c r="F639" s="3"/>
+    </row>
+    <row r="640">
+      <c r="D640" s="3"/>
+      <c r="E640" s="3"/>
+      <c r="F640" s="3"/>
+    </row>
+    <row r="641">
+      <c r="D641" s="3"/>
+      <c r="E641" s="3"/>
+      <c r="F641" s="3"/>
+    </row>
+    <row r="642">
+      <c r="D642" s="3"/>
+      <c r="E642" s="3"/>
+      <c r="F642" s="3"/>
+    </row>
+    <row r="643">
+      <c r="D643" s="3"/>
+      <c r="E643" s="3"/>
+      <c r="F643" s="3"/>
+    </row>
+    <row r="644">
+      <c r="D644" s="3"/>
+      <c r="E644" s="3"/>
+      <c r="F644" s="3"/>
+    </row>
+    <row r="645">
+      <c r="D645" s="3"/>
+      <c r="E645" s="3"/>
+      <c r="F645" s="3"/>
+    </row>
+    <row r="646">
+      <c r="D646" s="3"/>
+      <c r="E646" s="3"/>
+      <c r="F646" s="3"/>
+    </row>
+    <row r="647">
+      <c r="D647" s="3"/>
+      <c r="E647" s="3"/>
+      <c r="F647" s="3"/>
+    </row>
+    <row r="648">
+      <c r="D648" s="3"/>
+      <c r="E648" s="3"/>
+      <c r="F648" s="3"/>
+    </row>
+    <row r="649">
+      <c r="D649" s="3"/>
+      <c r="E649" s="3"/>
+      <c r="F649" s="3"/>
+    </row>
+    <row r="650">
+      <c r="D650" s="3"/>
+      <c r="E650" s="3"/>
+      <c r="F650" s="3"/>
+    </row>
+    <row r="651">
+      <c r="D651" s="3"/>
+      <c r="E651" s="3"/>
+      <c r="F651" s="3"/>
+    </row>
+    <row r="652">
+      <c r="D652" s="3"/>
+      <c r="E652" s="3"/>
+      <c r="F652" s="3"/>
+    </row>
+    <row r="653">
+      <c r="D653" s="3"/>
+      <c r="E653" s="3"/>
+      <c r="F653" s="3"/>
+    </row>
+    <row r="654">
+      <c r="D654" s="3"/>
+      <c r="E654" s="3"/>
+      <c r="F654" s="3"/>
+    </row>
+    <row r="655">
+      <c r="D655" s="3"/>
+      <c r="E655" s="3"/>
+      <c r="F655" s="3"/>
+    </row>
+    <row r="656">
+      <c r="D656" s="3"/>
+      <c r="E656" s="3"/>
+      <c r="F656" s="3"/>
+    </row>
+    <row r="657">
+      <c r="D657" s="3"/>
+      <c r="E657" s="3"/>
+      <c r="F657" s="3"/>
+    </row>
+    <row r="658">
+      <c r="D658" s="3"/>
+      <c r="E658" s="3"/>
+      <c r="F658" s="3"/>
+    </row>
+    <row r="659">
+      <c r="D659" s="3"/>
+      <c r="E659" s="3"/>
+      <c r="F659" s="3"/>
+    </row>
+    <row r="660">
+      <c r="D660" s="3"/>
+      <c r="E660" s="3"/>
+      <c r="F660" s="3"/>
+    </row>
+    <row r="661">
+      <c r="D661" s="3"/>
+      <c r="E661" s="3"/>
+      <c r="F661" s="3"/>
+    </row>
+    <row r="662">
+      <c r="D662" s="3"/>
+      <c r="E662" s="3"/>
+      <c r="F662" s="3"/>
+    </row>
+    <row r="663">
+      <c r="D663" s="3"/>
+      <c r="E663" s="3"/>
+      <c r="F663" s="3"/>
+    </row>
+    <row r="664">
+      <c r="D664" s="3"/>
+      <c r="E664" s="3"/>
+      <c r="F664" s="3"/>
+    </row>
+    <row r="665">
+      <c r="D665" s="3"/>
+      <c r="E665" s="3"/>
+      <c r="F665" s="3"/>
+    </row>
+    <row r="666">
+      <c r="D666" s="3"/>
+      <c r="E666" s="3"/>
+      <c r="F666" s="3"/>
+    </row>
+    <row r="667">
+      <c r="D667" s="3"/>
+      <c r="E667" s="3"/>
+      <c r="F667" s="3"/>
+    </row>
+    <row r="668">
+      <c r="D668" s="3"/>
+      <c r="E668" s="3"/>
+      <c r="F668" s="3"/>
+    </row>
+    <row r="669">
+      <c r="D669" s="3"/>
+      <c r="E669" s="3"/>
+      <c r="F669" s="3"/>
+    </row>
+    <row r="670">
+      <c r="D670" s="3"/>
+      <c r="E670" s="3"/>
+      <c r="F670" s="3"/>
+    </row>
+    <row r="671">
+      <c r="D671" s="3"/>
+      <c r="E671" s="3"/>
+      <c r="F671" s="3"/>
+    </row>
+    <row r="672">
+      <c r="D672" s="3"/>
+      <c r="E672" s="3"/>
+      <c r="F672" s="3"/>
+    </row>
+    <row r="673">
+      <c r="D673" s="3"/>
+      <c r="E673" s="3"/>
+      <c r="F673" s="3"/>
+    </row>
+    <row r="674">
+      <c r="D674" s="3"/>
+      <c r="E674" s="3"/>
+      <c r="F674" s="3"/>
+    </row>
+    <row r="675">
+      <c r="D675" s="3"/>
+      <c r="E675" s="3"/>
+      <c r="F675" s="3"/>
+    </row>
+    <row r="676">
+      <c r="D676" s="3"/>
+      <c r="E676" s="3"/>
+      <c r="F676" s="3"/>
+    </row>
+    <row r="677">
+      <c r="D677" s="3"/>
+      <c r="E677" s="3"/>
+      <c r="F677" s="3"/>
+    </row>
+    <row r="678">
+      <c r="D678" s="3"/>
+      <c r="E678" s="3"/>
+      <c r="F678" s="3"/>
+    </row>
+    <row r="679">
+      <c r="D679" s="3"/>
+      <c r="E679" s="3"/>
+      <c r="F679" s="3"/>
+    </row>
+    <row r="680">
+      <c r="D680" s="3"/>
+      <c r="E680" s="3"/>
+      <c r="F680" s="3"/>
+    </row>
+    <row r="681">
+      <c r="D681" s="3"/>
+      <c r="E681" s="3"/>
+      <c r="F681" s="3"/>
+    </row>
+    <row r="682">
+      <c r="D682" s="3"/>
+      <c r="E682" s="3"/>
+      <c r="F682" s="3"/>
+    </row>
+    <row r="683">
+      <c r="D683" s="3"/>
+      <c r="E683" s="3"/>
+      <c r="F683" s="3"/>
+    </row>
+    <row r="684">
+      <c r="D684" s="3"/>
+      <c r="E684" s="3"/>
+      <c r="F684" s="3"/>
+    </row>
+    <row r="685">
+      <c r="D685" s="3"/>
+      <c r="E685" s="3"/>
+      <c r="F685" s="3"/>
+    </row>
+    <row r="686">
+      <c r="D686" s="3"/>
+      <c r="E686" s="3"/>
+      <c r="F686" s="3"/>
+    </row>
+    <row r="687">
+      <c r="D687" s="3"/>
+      <c r="E687" s="3"/>
+      <c r="F687" s="3"/>
+    </row>
+    <row r="688">
+      <c r="D688" s="3"/>
+      <c r="E688" s="3"/>
+      <c r="F688" s="3"/>
+    </row>
+    <row r="689">
+      <c r="D689" s="3"/>
+      <c r="E689" s="3"/>
+      <c r="F689" s="3"/>
+    </row>
+    <row r="690">
+      <c r="D690" s="3"/>
+      <c r="E690" s="3"/>
+      <c r="F690" s="3"/>
+    </row>
+    <row r="691">
+      <c r="D691" s="3"/>
+      <c r="E691" s="3"/>
+      <c r="F691" s="3"/>
+    </row>
+    <row r="692">
+      <c r="D692" s="3"/>
+      <c r="E692" s="3"/>
+      <c r="F692" s="3"/>
+    </row>
+    <row r="693">
+      <c r="D693" s="3"/>
+      <c r="E693" s="3"/>
+      <c r="F693" s="3"/>
+    </row>
+    <row r="694">
+      <c r="D694" s="3"/>
+      <c r="E694" s="3"/>
+      <c r="F694" s="3"/>
+    </row>
+    <row r="695">
+      <c r="D695" s="3"/>
+      <c r="E695" s="3"/>
+      <c r="F695" s="3"/>
+    </row>
+    <row r="696">
+      <c r="D696" s="3"/>
+      <c r="E696" s="3"/>
+      <c r="F696" s="3"/>
+    </row>
+    <row r="697">
+      <c r="D697" s="3"/>
+      <c r="E697" s="3"/>
+      <c r="F697" s="3"/>
+    </row>
+    <row r="698">
+      <c r="D698" s="3"/>
+      <c r="E698" s="3"/>
+      <c r="F698" s="3"/>
+    </row>
+    <row r="699">
+      <c r="D699" s="3"/>
+      <c r="E699" s="3"/>
+      <c r="F699" s="3"/>
+    </row>
+    <row r="700">
+      <c r="D700" s="3"/>
+      <c r="E700" s="3"/>
+      <c r="F700" s="3"/>
+    </row>
+    <row r="701">
+      <c r="D701" s="3"/>
+      <c r="E701" s="3"/>
+      <c r="F701" s="3"/>
+    </row>
+    <row r="702">
+      <c r="D702" s="3"/>
+      <c r="E702" s="3"/>
+      <c r="F702" s="3"/>
+    </row>
+    <row r="703">
+      <c r="D703" s="3"/>
+      <c r="E703" s="3"/>
+      <c r="F703" s="3"/>
+    </row>
+    <row r="704">
+      <c r="D704" s="3"/>
+      <c r="E704" s="3"/>
+      <c r="F704" s="3"/>
+    </row>
+    <row r="705">
+      <c r="D705" s="3"/>
+      <c r="E705" s="3"/>
+      <c r="F705" s="3"/>
+    </row>
+    <row r="706">
+      <c r="D706" s="3"/>
+      <c r="E706" s="3"/>
+      <c r="F706" s="3"/>
+    </row>
+    <row r="707">
+      <c r="D707" s="3"/>
+      <c r="E707" s="3"/>
+      <c r="F707" s="3"/>
+    </row>
+    <row r="708">
+      <c r="D708" s="3"/>
+      <c r="E708" s="3"/>
+      <c r="F708" s="3"/>
+    </row>
+    <row r="709">
+      <c r="D709" s="3"/>
+      <c r="E709" s="3"/>
+      <c r="F709" s="3"/>
+    </row>
+    <row r="710">
+      <c r="D710" s="3"/>
+      <c r="E710" s="3"/>
+      <c r="F710" s="3"/>
+    </row>
+    <row r="711">
+      <c r="D711" s="3"/>
+      <c r="E711" s="3"/>
+      <c r="F711" s="3"/>
+    </row>
+    <row r="712">
+      <c r="D712" s="3"/>
+      <c r="E712" s="3"/>
+      <c r="F712" s="3"/>
+    </row>
+    <row r="713">
+      <c r="D713" s="3"/>
+      <c r="E713" s="3"/>
+      <c r="F713" s="3"/>
+    </row>
+    <row r="714">
+      <c r="D714" s="3"/>
+      <c r="E714" s="3"/>
+      <c r="F714" s="3"/>
+    </row>
+    <row r="715">
+      <c r="D715" s="3"/>
+      <c r="E715" s="3"/>
+      <c r="F715" s="3"/>
+    </row>
+    <row r="716">
+      <c r="D716" s="3"/>
+      <c r="E716" s="3"/>
+      <c r="F716" s="3"/>
+    </row>
+    <row r="717">
+      <c r="D717" s="3"/>
+      <c r="E717" s="3"/>
+      <c r="F717" s="3"/>
+    </row>
+    <row r="718">
+      <c r="D718" s="3"/>
+      <c r="E718" s="3"/>
+      <c r="F718" s="3"/>
+    </row>
+    <row r="719">
+      <c r="D719" s="3"/>
+      <c r="E719" s="3"/>
+      <c r="F719" s="3"/>
+    </row>
+    <row r="720">
+      <c r="D720" s="3"/>
+      <c r="E720" s="3"/>
+      <c r="F720" s="3"/>
+    </row>
+    <row r="721">
+      <c r="D721" s="3"/>
+      <c r="E721" s="3"/>
+      <c r="F721" s="3"/>
+    </row>
+    <row r="722">
+      <c r="D722" s="3"/>
+      <c r="E722" s="3"/>
+      <c r="F722" s="3"/>
+    </row>
+    <row r="723">
+      <c r="D723" s="3"/>
+      <c r="E723" s="3"/>
+      <c r="F723" s="3"/>
+    </row>
+    <row r="724">
+      <c r="D724" s="3"/>
+      <c r="E724" s="3"/>
+      <c r="F724" s="3"/>
+    </row>
+    <row r="725">
+      <c r="D725" s="3"/>
+      <c r="E725" s="3"/>
+      <c r="F725" s="3"/>
+    </row>
+    <row r="726">
+      <c r="D726" s="3"/>
+      <c r="E726" s="3"/>
+      <c r="F726" s="3"/>
+    </row>
+    <row r="727">
+      <c r="D727" s="3"/>
+      <c r="E727" s="3"/>
+      <c r="F727" s="3"/>
+    </row>
+    <row r="728">
+      <c r="D728" s="3"/>
+      <c r="E728" s="3"/>
+      <c r="F728" s="3"/>
+    </row>
+    <row r="729">
+      <c r="D729" s="3"/>
+      <c r="E729" s="3"/>
+      <c r="F729" s="3"/>
+    </row>
+    <row r="730">
+      <c r="D730" s="3"/>
+      <c r="E730" s="3"/>
+      <c r="F730" s="3"/>
+    </row>
+    <row r="731">
+      <c r="D731" s="3"/>
+      <c r="E731" s="3"/>
+      <c r="F731" s="3"/>
+    </row>
+    <row r="732">
+      <c r="D732" s="3"/>
+      <c r="E732" s="3"/>
+      <c r="F732" s="3"/>
+    </row>
+    <row r="733">
+      <c r="D733" s="3"/>
+      <c r="E733" s="3"/>
+      <c r="F733" s="3"/>
+    </row>
+    <row r="734">
+      <c r="D734" s="3"/>
+      <c r="E734" s="3"/>
+      <c r="F734" s="3"/>
+    </row>
+    <row r="735">
+      <c r="D735" s="3"/>
+      <c r="E735" s="3"/>
+      <c r="F735" s="3"/>
+    </row>
+    <row r="736">
+      <c r="D736" s="3"/>
+      <c r="E736" s="3"/>
+      <c r="F736" s="3"/>
+    </row>
+    <row r="737">
+      <c r="D737" s="3"/>
+      <c r="E737" s="3"/>
+      <c r="F737" s="3"/>
+    </row>
+    <row r="738">
+      <c r="D738" s="3"/>
+      <c r="E738" s="3"/>
+      <c r="F738" s="3"/>
+    </row>
+    <row r="739">
+      <c r="D739" s="3"/>
+      <c r="E739" s="3"/>
+      <c r="F739" s="3"/>
+    </row>
+    <row r="740">
+      <c r="D740" s="3"/>
+      <c r="E740" s="3"/>
+      <c r="F740" s="3"/>
+    </row>
+    <row r="741">
+      <c r="D741" s="3"/>
+      <c r="E741" s="3"/>
+      <c r="F741" s="3"/>
+    </row>
+    <row r="742">
+      <c r="D742" s="3"/>
+      <c r="E742" s="3"/>
+      <c r="F742" s="3"/>
+    </row>
+    <row r="743">
+      <c r="D743" s="3"/>
+      <c r="E743" s="3"/>
+      <c r="F743" s="3"/>
+    </row>
+    <row r="744">
+      <c r="D744" s="3"/>
+      <c r="E744" s="3"/>
+      <c r="F744" s="3"/>
+    </row>
+    <row r="745">
+      <c r="D745" s="3"/>
+      <c r="E745" s="3"/>
+      <c r="F745" s="3"/>
+    </row>
+    <row r="746">
+      <c r="D746" s="3"/>
+      <c r="E746" s="3"/>
+      <c r="F746" s="3"/>
+    </row>
+    <row r="747">
+      <c r="D747" s="3"/>
+      <c r="E747" s="3"/>
+      <c r="F747" s="3"/>
+    </row>
+    <row r="748">
+      <c r="D748" s="3"/>
+      <c r="E748" s="3"/>
+      <c r="F748" s="3"/>
+    </row>
+    <row r="749">
+      <c r="D749" s="3"/>
+      <c r="E749" s="3"/>
+      <c r="F749" s="3"/>
+    </row>
+    <row r="750">
+      <c r="D750" s="3"/>
+      <c r="E750" s="3"/>
+      <c r="F750" s="3"/>
+    </row>
+    <row r="751">
+      <c r="D751" s="3"/>
+      <c r="E751" s="3"/>
+      <c r="F751" s="3"/>
+    </row>
+    <row r="752">
+      <c r="D752" s="3"/>
+      <c r="E752" s="3"/>
+      <c r="F752" s="3"/>
+    </row>
+    <row r="753">
+      <c r="D753" s="3"/>
+      <c r="E753" s="3"/>
+      <c r="F753" s="3"/>
+    </row>
+    <row r="754">
+      <c r="D754" s="3"/>
+      <c r="E754" s="3"/>
+      <c r="F754" s="3"/>
+    </row>
+    <row r="755">
+      <c r="D755" s="3"/>
+      <c r="E755" s="3"/>
+      <c r="F755" s="3"/>
+    </row>
+    <row r="756">
+      <c r="D756" s="3"/>
+      <c r="E756" s="3"/>
+      <c r="F756" s="3"/>
+    </row>
+    <row r="757">
+      <c r="D757" s="3"/>
+      <c r="E757" s="3"/>
+      <c r="F757" s="3"/>
+    </row>
+    <row r="758">
+      <c r="D758" s="3"/>
+      <c r="E758" s="3"/>
+      <c r="F758" s="3"/>
+    </row>
+    <row r="759">
+      <c r="D759" s="3"/>
+      <c r="E759" s="3"/>
+      <c r="F759" s="3"/>
+    </row>
+    <row r="760">
+      <c r="D760" s="3"/>
+      <c r="E760" s="3"/>
+      <c r="F760" s="3"/>
+    </row>
+    <row r="761">
+      <c r="D761" s="3"/>
+      <c r="E761" s="3"/>
+      <c r="F761" s="3"/>
+    </row>
+    <row r="762">
+      <c r="D762" s="3"/>
+      <c r="E762" s="3"/>
+      <c r="F762" s="3"/>
+    </row>
+    <row r="763">
+      <c r="D763" s="3"/>
+      <c r="E763" s="3"/>
+      <c r="F763" s="3"/>
+    </row>
+    <row r="764">
+      <c r="D764" s="3"/>
+      <c r="E764" s="3"/>
+      <c r="F764" s="3"/>
+    </row>
+    <row r="765">
+      <c r="D765" s="3"/>
+      <c r="E765" s="3"/>
+      <c r="F765" s="3"/>
+    </row>
+    <row r="766">
+      <c r="D766" s="3"/>
+      <c r="E766" s="3"/>
+      <c r="F766" s="3"/>
+    </row>
+    <row r="767">
+      <c r="D767" s="3"/>
+      <c r="E767" s="3"/>
+      <c r="F767" s="3"/>
+    </row>
+    <row r="768">
+      <c r="D768" s="3"/>
+      <c r="E768" s="3"/>
+      <c r="F768" s="3"/>
+    </row>
+    <row r="769">
+      <c r="D769" s="3"/>
+      <c r="E769" s="3"/>
+      <c r="F769" s="3"/>
+    </row>
+    <row r="770">
+      <c r="D770" s="3"/>
+      <c r="E770" s="3"/>
+      <c r="F770" s="3"/>
+    </row>
+    <row r="771">
+      <c r="D771" s="3"/>
+      <c r="E771" s="3"/>
+      <c r="F771" s="3"/>
+    </row>
+    <row r="772">
+      <c r="D772" s="3"/>
+      <c r="E772" s="3"/>
+      <c r="F772" s="3"/>
+    </row>
+    <row r="773">
+      <c r="D773" s="3"/>
+      <c r="E773" s="3"/>
+      <c r="F773" s="3"/>
+    </row>
+    <row r="774">
+      <c r="D774" s="3"/>
+      <c r="E774" s="3"/>
+      <c r="F774" s="3"/>
+    </row>
+    <row r="775">
+      <c r="D775" s="3"/>
+      <c r="E775" s="3"/>
+      <c r="F775" s="3"/>
+    </row>
+    <row r="776">
+      <c r="D776" s="3"/>
+      <c r="E776" s="3"/>
+      <c r="F776" s="3"/>
+    </row>
+    <row r="777">
+      <c r="D777" s="3"/>
+      <c r="E777" s="3"/>
+      <c r="F777" s="3"/>
+    </row>
+    <row r="778">
+      <c r="D778" s="3"/>
+      <c r="E778" s="3"/>
+      <c r="F778" s="3"/>
+    </row>
+    <row r="779">
+      <c r="D779" s="3"/>
+      <c r="E779" s="3"/>
+      <c r="F779" s="3"/>
+    </row>
+    <row r="780">
+      <c r="D780" s="3"/>
+      <c r="E780" s="3"/>
+      <c r="F780" s="3"/>
+    </row>
+    <row r="781">
+      <c r="D781" s="3"/>
+      <c r="E781" s="3"/>
+      <c r="F781" s="3"/>
+    </row>
+    <row r="782">
+      <c r="D782" s="3"/>
+      <c r="E782" s="3"/>
+      <c r="F782" s="3"/>
+    </row>
+    <row r="783">
+      <c r="D783" s="3"/>
+      <c r="E783" s="3"/>
+      <c r="F783" s="3"/>
+    </row>
+    <row r="784">
+      <c r="D784" s="3"/>
+      <c r="E784" s="3"/>
+      <c r="F784" s="3"/>
+    </row>
+    <row r="785">
+      <c r="D785" s="3"/>
+      <c r="E785" s="3"/>
+      <c r="F785" s="3"/>
+    </row>
+    <row r="786">
+      <c r="D786" s="3"/>
+      <c r="E786" s="3"/>
+      <c r="F786" s="3"/>
+    </row>
+    <row r="787">
+      <c r="D787" s="3"/>
+      <c r="E787" s="3"/>
+      <c r="F787" s="3"/>
+    </row>
+    <row r="788">
+      <c r="D788" s="3"/>
+      <c r="E788" s="3"/>
+      <c r="F788" s="3"/>
+    </row>
+    <row r="789">
+      <c r="D789" s="3"/>
+      <c r="E789" s="3"/>
+      <c r="F789" s="3"/>
+    </row>
+    <row r="790">
+      <c r="D790" s="3"/>
+      <c r="E790" s="3"/>
+      <c r="F790" s="3"/>
+    </row>
+    <row r="791">
+      <c r="D791" s="3"/>
+      <c r="E791" s="3"/>
+      <c r="F791" s="3"/>
+    </row>
+    <row r="792">
+      <c r="D792" s="3"/>
+      <c r="E792" s="3"/>
+      <c r="F792" s="3"/>
+    </row>
+    <row r="793">
+      <c r="D793" s="3"/>
+      <c r="E793" s="3"/>
+      <c r="F793" s="3"/>
+    </row>
+    <row r="794">
+      <c r="D794" s="3"/>
+      <c r="E794" s="3"/>
+      <c r="F794" s="3"/>
+    </row>
+    <row r="795">
+      <c r="D795" s="3"/>
+      <c r="E795" s="3"/>
+      <c r="F795" s="3"/>
+    </row>
+    <row r="796">
+      <c r="D796" s="3"/>
+      <c r="E796" s="3"/>
+      <c r="F796" s="3"/>
+    </row>
+    <row r="797">
+      <c r="D797" s="3"/>
+      <c r="E797" s="3"/>
+      <c r="F797" s="3"/>
+    </row>
+    <row r="798">
+      <c r="D798" s="3"/>
+      <c r="E798" s="3"/>
+      <c r="F798" s="3"/>
+    </row>
+    <row r="799">
+      <c r="D799" s="3"/>
+      <c r="E799" s="3"/>
+      <c r="F799" s="3"/>
+    </row>
+    <row r="800">
+      <c r="D800" s="3"/>
+      <c r="E800" s="3"/>
+      <c r="F800" s="3"/>
+    </row>
+    <row r="801">
+      <c r="D801" s="3"/>
+      <c r="E801" s="3"/>
+      <c r="F801" s="3"/>
+    </row>
+    <row r="802">
+      <c r="D802" s="3"/>
+      <c r="E802" s="3"/>
+      <c r="F802" s="3"/>
+    </row>
+    <row r="803">
+      <c r="D803" s="3"/>
+      <c r="E803" s="3"/>
+      <c r="F803" s="3"/>
+    </row>
+    <row r="804">
+      <c r="D804" s="3"/>
+      <c r="E804" s="3"/>
+      <c r="F804" s="3"/>
+    </row>
+    <row r="805">
+      <c r="D805" s="3"/>
+      <c r="E805" s="3"/>
+      <c r="F805" s="3"/>
+    </row>
+    <row r="806">
+      <c r="D806" s="3"/>
+      <c r="E806" s="3"/>
+      <c r="F806" s="3"/>
+    </row>
+    <row r="807">
+      <c r="D807" s="3"/>
+      <c r="E807" s="3"/>
+      <c r="F807" s="3"/>
+    </row>
+    <row r="808">
+      <c r="D808" s="3"/>
+      <c r="E808" s="3"/>
+      <c r="F808" s="3"/>
+    </row>
+    <row r="809">
+      <c r="D809" s="3"/>
+      <c r="E809" s="3"/>
+      <c r="F809" s="3"/>
+    </row>
+    <row r="810">
+      <c r="D810" s="3"/>
+      <c r="E810" s="3"/>
+      <c r="F810" s="3"/>
+    </row>
+    <row r="811">
+      <c r="D811" s="3"/>
+      <c r="E811" s="3"/>
+      <c r="F811" s="3"/>
+    </row>
+    <row r="812">
+      <c r="D812" s="3"/>
+      <c r="E812" s="3"/>
+      <c r="F812" s="3"/>
+    </row>
+    <row r="813">
+      <c r="D813" s="3"/>
+      <c r="E813" s="3"/>
+      <c r="F813" s="3"/>
+    </row>
+    <row r="814">
+      <c r="D814" s="3"/>
+      <c r="E814" s="3"/>
+      <c r="F814" s="3"/>
+    </row>
+    <row r="815">
+      <c r="D815" s="3"/>
+      <c r="E815" s="3"/>
+      <c r="F815" s="3"/>
+    </row>
+    <row r="816">
+      <c r="D816" s="3"/>
+      <c r="E816" s="3"/>
+      <c r="F816" s="3"/>
+    </row>
+    <row r="817">
+      <c r="D817" s="3"/>
+      <c r="E817" s="3"/>
+      <c r="F817" s="3"/>
+    </row>
+    <row r="818">
+      <c r="D818" s="3"/>
+      <c r="E818" s="3"/>
+      <c r="F818" s="3"/>
+    </row>
+    <row r="819">
+      <c r="D819" s="3"/>
+      <c r="E819" s="3"/>
+      <c r="F819" s="3"/>
+    </row>
+    <row r="820">
+      <c r="D820" s="3"/>
+      <c r="E820" s="3"/>
+      <c r="F820" s="3"/>
+    </row>
+    <row r="821">
+      <c r="D821" s="3"/>
+      <c r="E821" s="3"/>
+      <c r="F821" s="3"/>
+    </row>
+    <row r="822">
+      <c r="D822" s="3"/>
+      <c r="E822" s="3"/>
+      <c r="F822" s="3"/>
+    </row>
+    <row r="823">
+      <c r="D823" s="3"/>
+      <c r="E823" s="3"/>
+      <c r="F823" s="3"/>
+    </row>
+    <row r="824">
+      <c r="D824" s="3"/>
+      <c r="E824" s="3"/>
+      <c r="F824" s="3"/>
+    </row>
+    <row r="825">
+      <c r="D825" s="3"/>
+      <c r="E825" s="3"/>
+      <c r="F825" s="3"/>
+    </row>
+    <row r="826">
+      <c r="D826" s="3"/>
+      <c r="E826" s="3"/>
+      <c r="F826" s="3"/>
+    </row>
+    <row r="827">
+      <c r="D827" s="3"/>
+      <c r="E827" s="3"/>
+      <c r="F827" s="3"/>
+    </row>
+    <row r="828">
+      <c r="D828" s="3"/>
+      <c r="E828" s="3"/>
+      <c r="F828" s="3"/>
+    </row>
+    <row r="829">
+      <c r="D829" s="3"/>
+      <c r="E829" s="3"/>
+      <c r="F829" s="3"/>
+    </row>
+    <row r="830">
+      <c r="D830" s="3"/>
+      <c r="E830" s="3"/>
+      <c r="F830" s="3"/>
+    </row>
+    <row r="831">
+      <c r="D831" s="3"/>
+      <c r="E831" s="3"/>
+      <c r="F831" s="3"/>
+    </row>
+    <row r="832">
+      <c r="D832" s="3"/>
+      <c r="E832" s="3"/>
+      <c r="F832" s="3"/>
+    </row>
+    <row r="833">
+      <c r="D833" s="3"/>
+      <c r="E833" s="3"/>
+      <c r="F833" s="3"/>
+    </row>
+    <row r="834">
+      <c r="D834" s="3"/>
+      <c r="E834" s="3"/>
+      <c r="F834" s="3"/>
+    </row>
+    <row r="835">
+      <c r="D835" s="3"/>
+      <c r="E835" s="3"/>
+      <c r="F835" s="3"/>
+    </row>
+    <row r="836">
+      <c r="D836" s="3"/>
+      <c r="E836" s="3"/>
+      <c r="F836" s="3"/>
+    </row>
+    <row r="837">
+      <c r="D837" s="3"/>
+      <c r="E837" s="3"/>
+      <c r="F837" s="3"/>
+    </row>
+    <row r="838">
+      <c r="D838" s="3"/>
+      <c r="E838" s="3"/>
+      <c r="F838" s="3"/>
+    </row>
+    <row r="839">
+      <c r="D839" s="3"/>
+      <c r="E839" s="3"/>
+      <c r="F839" s="3"/>
+    </row>
+    <row r="840">
+      <c r="D840" s="3"/>
+      <c r="E840" s="3"/>
+      <c r="F840" s="3"/>
+    </row>
+    <row r="841">
+      <c r="D841" s="3"/>
+      <c r="E841" s="3"/>
+      <c r="F841" s="3"/>
+    </row>
+    <row r="842">
+      <c r="D842" s="3"/>
+      <c r="E842" s="3"/>
+      <c r="F842" s="3"/>
+    </row>
+    <row r="843">
+      <c r="D843" s="3"/>
+      <c r="E843" s="3"/>
+      <c r="F843" s="3"/>
+    </row>
+    <row r="844">
+      <c r="D844" s="3"/>
+      <c r="E844" s="3"/>
+      <c r="F844" s="3"/>
+    </row>
+    <row r="845">
+      <c r="D845" s="3"/>
+      <c r="E845" s="3"/>
+      <c r="F845" s="3"/>
+    </row>
+    <row r="846">
+      <c r="D846" s="3"/>
+      <c r="E846" s="3"/>
+      <c r="F846" s="3"/>
+    </row>
+    <row r="847">
+      <c r="D847" s="3"/>
+      <c r="E847" s="3"/>
+      <c r="F847" s="3"/>
+    </row>
+    <row r="848">
+      <c r="D848" s="3"/>
+      <c r="E848" s="3"/>
+      <c r="F848" s="3"/>
+    </row>
+    <row r="849">
+      <c r="D849" s="3"/>
+      <c r="E849" s="3"/>
+      <c r="F849" s="3"/>
+    </row>
+    <row r="850">
+      <c r="D850" s="3"/>
+      <c r="E850" s="3"/>
+      <c r="F850" s="3"/>
+    </row>
+    <row r="851">
+      <c r="D851" s="3"/>
+      <c r="E851" s="3"/>
+      <c r="F851" s="3"/>
+    </row>
+    <row r="852">
+      <c r="D852" s="3"/>
+      <c r="E852" s="3"/>
+      <c r="F852" s="3"/>
+    </row>
+    <row r="853">
+      <c r="D853" s="3"/>
+      <c r="E853" s="3"/>
+      <c r="F853" s="3"/>
+    </row>
+    <row r="854">
+      <c r="D854" s="3"/>
+      <c r="E854" s="3"/>
+      <c r="F854" s="3"/>
+    </row>
+    <row r="855">
+      <c r="D855" s="3"/>
+      <c r="E855" s="3"/>
+      <c r="F855" s="3"/>
+    </row>
+    <row r="856">
+      <c r="D856" s="3"/>
+      <c r="E856" s="3"/>
+      <c r="F856" s="3"/>
+    </row>
+    <row r="857">
+      <c r="D857" s="3"/>
+      <c r="E857" s="3"/>
+      <c r="F857" s="3"/>
+    </row>
+    <row r="858">
+      <c r="D858" s="3"/>
+      <c r="E858" s="3"/>
+      <c r="F858" s="3"/>
+    </row>
+    <row r="859">
+      <c r="D859" s="3"/>
+      <c r="E859" s="3"/>
+      <c r="F859" s="3"/>
+    </row>
+    <row r="860">
+      <c r="D860" s="3"/>
+      <c r="E860" s="3"/>
+      <c r="F860" s="3"/>
+    </row>
+    <row r="861">
+      <c r="D861" s="3"/>
+      <c r="E861" s="3"/>
+      <c r="F861" s="3"/>
+    </row>
+    <row r="862">
+      <c r="D862" s="3"/>
+      <c r="E862" s="3"/>
+      <c r="F862" s="3"/>
+    </row>
+    <row r="863">
+      <c r="D863" s="3"/>
+      <c r="E863" s="3"/>
+      <c r="F863" s="3"/>
+    </row>
+    <row r="864">
+      <c r="D864" s="3"/>
+      <c r="E864" s="3"/>
+      <c r="F864" s="3"/>
+    </row>
+    <row r="865">
+      <c r="D865" s="3"/>
+      <c r="E865" s="3"/>
+      <c r="F865" s="3"/>
+    </row>
+    <row r="866">
+      <c r="D866" s="3"/>
+      <c r="E866" s="3"/>
+      <c r="F866" s="3"/>
+    </row>
+    <row r="867">
+      <c r="D867" s="3"/>
+      <c r="E867" s="3"/>
+      <c r="F867" s="3"/>
+    </row>
+    <row r="868">
+      <c r="D868" s="3"/>
+      <c r="E868" s="3"/>
+      <c r="F868" s="3"/>
+    </row>
+    <row r="869">
+      <c r="D869" s="3"/>
+      <c r="E869" s="3"/>
+      <c r="F869" s="3"/>
+    </row>
+    <row r="870">
+      <c r="D870" s="3"/>
+      <c r="E870" s="3"/>
+      <c r="F870" s="3"/>
+    </row>
+    <row r="871">
+      <c r="D871" s="3"/>
+      <c r="E871" s="3"/>
+      <c r="F871" s="3"/>
+    </row>
+    <row r="872">
+      <c r="D872" s="3"/>
+      <c r="E872" s="3"/>
+      <c r="F872" s="3"/>
+    </row>
+    <row r="873">
+      <c r="D873" s="3"/>
+      <c r="E873" s="3"/>
+      <c r="F873" s="3"/>
+    </row>
+    <row r="874">
+      <c r="D874" s="3"/>
+      <c r="E874" s="3"/>
+      <c r="F874" s="3"/>
+    </row>
+    <row r="875">
+      <c r="D875" s="3"/>
+      <c r="E875" s="3"/>
+      <c r="F875" s="3"/>
+    </row>
+    <row r="876">
+      <c r="D876" s="3"/>
+      <c r="E876" s="3"/>
+      <c r="F876" s="3"/>
+    </row>
+    <row r="877">
+      <c r="D877" s="3"/>
+      <c r="E877" s="3"/>
+      <c r="F877" s="3"/>
+    </row>
+    <row r="878">
+      <c r="D878" s="3"/>
+      <c r="E878" s="3"/>
+      <c r="F878" s="3"/>
+    </row>
+    <row r="879">
+      <c r="D879" s="3"/>
+      <c r="E879" s="3"/>
+      <c r="F879" s="3"/>
+    </row>
+    <row r="880">
+      <c r="D880" s="3"/>
+      <c r="E880" s="3"/>
+      <c r="F880" s="3"/>
+    </row>
+    <row r="881">
+      <c r="D881" s="3"/>
+      <c r="E881" s="3"/>
+      <c r="F881" s="3"/>
+    </row>
+    <row r="882">
+      <c r="D882" s="3"/>
+      <c r="E882" s="3"/>
+      <c r="F882" s="3"/>
+    </row>
+    <row r="883">
+      <c r="D883" s="3"/>
+      <c r="E883" s="3"/>
+      <c r="F883" s="3"/>
+    </row>
+    <row r="884">
+      <c r="D884" s="3"/>
+      <c r="E884" s="3"/>
+      <c r="F884" s="3"/>
+    </row>
+    <row r="885">
+      <c r="D885" s="3"/>
+      <c r="E885" s="3"/>
+      <c r="F885" s="3"/>
+    </row>
+    <row r="886">
+      <c r="D886" s="3"/>
+      <c r="E886" s="3"/>
+      <c r="F886" s="3"/>
+    </row>
+    <row r="887">
+      <c r="D887" s="3"/>
+      <c r="E887" s="3"/>
+      <c r="F887" s="3"/>
+    </row>
+    <row r="888">
+      <c r="D888" s="3"/>
+      <c r="E888" s="3"/>
+      <c r="F888" s="3"/>
+    </row>
+    <row r="889">
+      <c r="D889" s="3"/>
+      <c r="E889" s="3"/>
+      <c r="F889" s="3"/>
+    </row>
+    <row r="890">
+      <c r="D890" s="3"/>
+      <c r="E890" s="3"/>
+      <c r="F890" s="3"/>
+    </row>
+    <row r="891">
+      <c r="D891" s="3"/>
+      <c r="E891" s="3"/>
+      <c r="F891" s="3"/>
+    </row>
+    <row r="892">
+      <c r="D892" s="3"/>
+      <c r="E892" s="3"/>
+      <c r="F892" s="3"/>
+    </row>
+    <row r="893">
+      <c r="D893" s="3"/>
+      <c r="E893" s="3"/>
+      <c r="F893" s="3"/>
+    </row>
+    <row r="894">
+      <c r="D894" s="3"/>
+      <c r="E894" s="3"/>
+      <c r="F894" s="3"/>
+    </row>
+    <row r="895">
+      <c r="D895" s="3"/>
+      <c r="E895" s="3"/>
+      <c r="F895" s="3"/>
+    </row>
+    <row r="896">
+      <c r="D896" s="3"/>
+      <c r="E896" s="3"/>
+      <c r="F896" s="3"/>
+    </row>
+    <row r="897">
+      <c r="D897" s="3"/>
+      <c r="E897" s="3"/>
+      <c r="F897" s="3"/>
+    </row>
+    <row r="898">
+      <c r="D898" s="3"/>
+      <c r="E898" s="3"/>
+      <c r="F898" s="3"/>
+    </row>
+    <row r="899">
+      <c r="D899" s="3"/>
+      <c r="E899" s="3"/>
+      <c r="F899" s="3"/>
+    </row>
+    <row r="900">
+      <c r="D900" s="3"/>
+      <c r="E900" s="3"/>
+      <c r="F900" s="3"/>
+    </row>
+    <row r="901">
+      <c r="D901" s="3"/>
+      <c r="E901" s="3"/>
+      <c r="F901" s="3"/>
+    </row>
+    <row r="902">
+      <c r="D902" s="3"/>
+      <c r="E902" s="3"/>
+      <c r="F902" s="3"/>
+    </row>
+    <row r="903">
+      <c r="D903" s="3"/>
+      <c r="E903" s="3"/>
+      <c r="F903" s="3"/>
+    </row>
+    <row r="904">
+      <c r="D904" s="3"/>
+      <c r="E904" s="3"/>
+      <c r="F904" s="3"/>
+    </row>
+    <row r="905">
+      <c r="D905" s="3"/>
+      <c r="E905" s="3"/>
+      <c r="F905" s="3"/>
+    </row>
+    <row r="906">
+      <c r="D906" s="3"/>
+      <c r="E906" s="3"/>
+      <c r="F906" s="3"/>
+    </row>
+    <row r="907">
+      <c r="D907" s="3"/>
+      <c r="E907" s="3"/>
+      <c r="F907" s="3"/>
+    </row>
+    <row r="908">
+      <c r="D908" s="3"/>
+      <c r="E908" s="3"/>
+      <c r="F908" s="3"/>
+    </row>
+    <row r="909">
+      <c r="D909" s="3"/>
+      <c r="E909" s="3"/>
+      <c r="F909" s="3"/>
+    </row>
+    <row r="910">
+      <c r="D910" s="3"/>
+      <c r="E910" s="3"/>
+      <c r="F910" s="3"/>
+    </row>
+    <row r="911">
+      <c r="D911" s="3"/>
+      <c r="E911" s="3"/>
+      <c r="F911" s="3"/>
+    </row>
+    <row r="912">
+      <c r="D912" s="3"/>
+      <c r="E912" s="3"/>
+      <c r="F912" s="3"/>
+    </row>
+    <row r="913">
+      <c r="D913" s="3"/>
+      <c r="E913" s="3"/>
+      <c r="F913" s="3"/>
+    </row>
+    <row r="914">
+      <c r="D914" s="3"/>
+      <c r="E914" s="3"/>
+      <c r="F914" s="3"/>
+    </row>
+    <row r="915">
+      <c r="D915" s="3"/>
+      <c r="E915" s="3"/>
+      <c r="F915" s="3"/>
+    </row>
+    <row r="916">
+      <c r="D916" s="3"/>
+      <c r="E916" s="3"/>
+      <c r="F916" s="3"/>
+    </row>
+    <row r="917">
+      <c r="D917" s="3"/>
+      <c r="E917" s="3"/>
+      <c r="F917" s="3"/>
+    </row>
+    <row r="918">
+      <c r="D918" s="3"/>
+      <c r="E918" s="3"/>
+      <c r="F918" s="3"/>
+    </row>
+    <row r="919">
+      <c r="D919" s="3"/>
+      <c r="E919" s="3"/>
+      <c r="F919" s="3"/>
+    </row>
+    <row r="920">
+      <c r="D920" s="3"/>
+      <c r="E920" s="3"/>
+      <c r="F920" s="3"/>
+    </row>
+    <row r="921">
+      <c r="D921" s="3"/>
+      <c r="E921" s="3"/>
+      <c r="F921" s="3"/>
+    </row>
+    <row r="922">
+      <c r="D922" s="3"/>
+      <c r="E922" s="3"/>
+      <c r="F922" s="3"/>
+    </row>
+    <row r="923">
+      <c r="D923" s="3"/>
+      <c r="E923" s="3"/>
+      <c r="F923" s="3"/>
+    </row>
+    <row r="924">
+      <c r="D924" s="3"/>
+      <c r="E924" s="3"/>
+      <c r="F924" s="3"/>
+    </row>
+    <row r="925">
+      <c r="D925" s="3"/>
+      <c r="E925" s="3"/>
+      <c r="F925" s="3"/>
+    </row>
+    <row r="926">
+      <c r="D926" s="3"/>
+      <c r="E926" s="3"/>
+      <c r="F926" s="3"/>
+    </row>
+    <row r="927">
+      <c r="D927" s="3"/>
+      <c r="E927" s="3"/>
+      <c r="F927" s="3"/>
+    </row>
+    <row r="928">
+      <c r="D928" s="3"/>
+      <c r="E928" s="3"/>
+      <c r="F928" s="3"/>
+    </row>
+    <row r="929">
+      <c r="D929" s="3"/>
+      <c r="E929" s="3"/>
+      <c r="F929" s="3"/>
+    </row>
+    <row r="930">
+      <c r="D930" s="3"/>
+      <c r="E930" s="3"/>
+      <c r="F930" s="3"/>
+    </row>
+    <row r="931">
+      <c r="D931" s="3"/>
+      <c r="E931" s="3"/>
+      <c r="F931" s="3"/>
+    </row>
+    <row r="932">
+      <c r="D932" s="3"/>
+      <c r="E932" s="3"/>
+      <c r="F932" s="3"/>
+    </row>
+    <row r="933">
+      <c r="D933" s="3"/>
+      <c r="E933" s="3"/>
+      <c r="F933" s="3"/>
+    </row>
+    <row r="934">
+      <c r="D934" s="3"/>
+      <c r="E934" s="3"/>
+      <c r="F934" s="3"/>
+    </row>
+    <row r="935">
+      <c r="D935" s="3"/>
+      <c r="E935" s="3"/>
+      <c r="F935" s="3"/>
+    </row>
+    <row r="936">
+      <c r="D936" s="3"/>
+      <c r="E936" s="3"/>
+      <c r="F936" s="3"/>
+    </row>
+    <row r="937">
+      <c r="D937" s="3"/>
+      <c r="E937" s="3"/>
+      <c r="F937" s="3"/>
+    </row>
+    <row r="938">
+      <c r="D938" s="3"/>
+      <c r="E938" s="3"/>
+      <c r="F938" s="3"/>
+    </row>
+    <row r="939">
+      <c r="D939" s="3"/>
+      <c r="E939" s="3"/>
+      <c r="F939" s="3"/>
+    </row>
+    <row r="940">
+      <c r="D940" s="3"/>
+      <c r="E940" s="3"/>
+      <c r="F940" s="3"/>
+    </row>
+    <row r="941">
+      <c r="D941" s="3"/>
+      <c r="E941" s="3"/>
+      <c r="F941" s="3"/>
+    </row>
+    <row r="942">
+      <c r="D942" s="3"/>
+      <c r="E942" s="3"/>
+      <c r="F942" s="3"/>
+    </row>
+    <row r="943">
+      <c r="D943" s="3"/>
+      <c r="E943" s="3"/>
+      <c r="F943" s="3"/>
+    </row>
+    <row r="944">
+      <c r="D944" s="3"/>
+      <c r="E944" s="3"/>
+      <c r="F944" s="3"/>
+    </row>
+    <row r="945">
+      <c r="D945" s="3"/>
+      <c r="E945" s="3"/>
+      <c r="F945" s="3"/>
+    </row>
+    <row r="946">
+      <c r="D946" s="3"/>
+      <c r="E946" s="3"/>
+      <c r="F946" s="3"/>
+    </row>
+    <row r="947">
+      <c r="D947" s="3"/>
+      <c r="E947" s="3"/>
+      <c r="F947" s="3"/>
+    </row>
+    <row r="948">
+      <c r="D948" s="3"/>
+      <c r="E948" s="3"/>
+      <c r="F948" s="3"/>
+    </row>
+    <row r="949">
+      <c r="D949" s="3"/>
+      <c r="E949" s="3"/>
+      <c r="F949" s="3"/>
+    </row>
+    <row r="950">
+      <c r="D950" s="3"/>
+      <c r="E950" s="3"/>
+      <c r="F950" s="3"/>
+    </row>
+    <row r="951">
+      <c r="D951" s="3"/>
+      <c r="E951" s="3"/>
+      <c r="F951" s="3"/>
+    </row>
+    <row r="952">
+      <c r="D952" s="3"/>
+      <c r="E952" s="3"/>
+      <c r="F952" s="3"/>
+    </row>
+    <row r="953">
+      <c r="D953" s="3"/>
+      <c r="E953" s="3"/>
+      <c r="F953" s="3"/>
+    </row>
+    <row r="954">
+      <c r="D954" s="3"/>
+      <c r="E954" s="3"/>
+      <c r="F954" s="3"/>
+    </row>
+    <row r="955">
+      <c r="D955" s="3"/>
+      <c r="E955" s="3"/>
+      <c r="F955" s="3"/>
+    </row>
+    <row r="956">
+      <c r="D956" s="3"/>
+      <c r="E956" s="3"/>
+      <c r="F956" s="3"/>
+    </row>
+    <row r="957">
+      <c r="D957" s="3"/>
+      <c r="E957" s="3"/>
+      <c r="F957" s="3"/>
+    </row>
+    <row r="958">
+      <c r="D958" s="3"/>
+      <c r="E958" s="3"/>
+      <c r="F958" s="3"/>
+    </row>
+    <row r="959">
+      <c r="D959" s="3"/>
+      <c r="E959" s="3"/>
+      <c r="F959" s="3"/>
+    </row>
+    <row r="960">
+      <c r="D960" s="3"/>
+      <c r="E960" s="3"/>
+      <c r="F960" s="3"/>
+    </row>
+    <row r="961">
+      <c r="D961" s="3"/>
+      <c r="E961" s="3"/>
+      <c r="F961" s="3"/>
+    </row>
+    <row r="962">
+      <c r="D962" s="3"/>
+      <c r="E962" s="3"/>
+      <c r="F962" s="3"/>
+    </row>
+    <row r="963">
+      <c r="D963" s="3"/>
+      <c r="E963" s="3"/>
+      <c r="F963" s="3"/>
+    </row>
+    <row r="964">
+      <c r="D964" s="3"/>
+      <c r="E964" s="3"/>
+      <c r="F964" s="3"/>
+    </row>
+    <row r="965">
+      <c r="D965" s="3"/>
+      <c r="E965" s="3"/>
+      <c r="F965" s="3"/>
+    </row>
+    <row r="966">
+      <c r="D966" s="3"/>
+      <c r="E966" s="3"/>
+      <c r="F966" s="3"/>
+    </row>
+    <row r="967">
+      <c r="D967" s="3"/>
+      <c r="E967" s="3"/>
+      <c r="F967" s="3"/>
+    </row>
+    <row r="968">
+      <c r="D968" s="3"/>
+      <c r="E968" s="3"/>
+      <c r="F968" s="3"/>
+    </row>
+    <row r="969">
+      <c r="D969" s="3"/>
+      <c r="E969" s="3"/>
+      <c r="F969" s="3"/>
+    </row>
+    <row r="970">
+      <c r="D970" s="3"/>
+      <c r="E970" s="3"/>
+      <c r="F970" s="3"/>
+    </row>
+    <row r="971">
+      <c r="D971" s="3"/>
+      <c r="E971" s="3"/>
+      <c r="F971" s="3"/>
+    </row>
+    <row r="972">
+      <c r="D972" s="3"/>
+      <c r="E972" s="3"/>
+      <c r="F972" s="3"/>
+    </row>
+    <row r="973">
+      <c r="D973" s="3"/>
+      <c r="E973" s="3"/>
+      <c r="F973" s="3"/>
+    </row>
+    <row r="974">
+      <c r="D974" s="3"/>
+      <c r="E974" s="3"/>
+      <c r="F974" s="3"/>
+    </row>
+    <row r="975">
+      <c r="D975" s="3"/>
+      <c r="E975" s="3"/>
+      <c r="F975" s="3"/>
+    </row>
+    <row r="976">
+      <c r="D976" s="3"/>
+      <c r="E976" s="3"/>
+      <c r="F976" s="3"/>
+    </row>
+    <row r="977">
+      <c r="D977" s="3"/>
+      <c r="E977" s="3"/>
+      <c r="F977" s="3"/>
+    </row>
+    <row r="978">
+      <c r="D978" s="3"/>
+      <c r="E978" s="3"/>
+      <c r="F978" s="3"/>
+    </row>
+    <row r="979">
+      <c r="D979" s="3"/>
+      <c r="E979" s="3"/>
+      <c r="F979" s="3"/>
+    </row>
+    <row r="980">
+      <c r="D980" s="3"/>
+      <c r="E980" s="3"/>
+      <c r="F980" s="3"/>
+    </row>
+    <row r="981">
+      <c r="D981" s="3"/>
+      <c r="E981" s="3"/>
+      <c r="F981" s="3"/>
+    </row>
+    <row r="982">
+      <c r="D982" s="3"/>
+      <c r="E982" s="3"/>
+      <c r="F982" s="3"/>
+    </row>
+    <row r="983">
+      <c r="D983" s="3"/>
+      <c r="E983" s="3"/>
+      <c r="F983" s="3"/>
+    </row>
+    <row r="984">
+      <c r="D984" s="3"/>
+      <c r="E984" s="3"/>
+      <c r="F984" s="3"/>
+    </row>
+    <row r="985">
+      <c r="D985" s="3"/>
+      <c r="E985" s="3"/>
+      <c r="F985" s="3"/>
+    </row>
+    <row r="986">
+      <c r="D986" s="3"/>
+      <c r="E986" s="3"/>
+      <c r="F986" s="3"/>
+    </row>
+    <row r="987">
+      <c r="D987" s="3"/>
+      <c r="E987" s="3"/>
+      <c r="F987" s="3"/>
+    </row>
+    <row r="988">
+      <c r="D988" s="3"/>
+      <c r="E988" s="3"/>
+      <c r="F988" s="3"/>
+    </row>
+    <row r="989">
+      <c r="D989" s="3"/>
+      <c r="E989" s="3"/>
+      <c r="F989" s="3"/>
+    </row>
+    <row r="990">
+      <c r="D990" s="3"/>
+      <c r="E990" s="3"/>
+      <c r="F990" s="3"/>
+    </row>
+    <row r="991">
+      <c r="D991" s="3"/>
+      <c r="E991" s="3"/>
+      <c r="F991" s="3"/>
+    </row>
+    <row r="992">
+      <c r="D992" s="3"/>
+      <c r="E992" s="3"/>
+      <c r="F992" s="3"/>
+    </row>
+    <row r="993">
+      <c r="D993" s="3"/>
+      <c r="E993" s="3"/>
+      <c r="F993" s="3"/>
+    </row>
+    <row r="994">
+      <c r="D994" s="3"/>
+      <c r="E994" s="3"/>
+      <c r="F994" s="3"/>
+    </row>
+    <row r="995">
+      <c r="D995" s="3"/>
+      <c r="E995" s="3"/>
+      <c r="F995" s="3"/>
+    </row>
+    <row r="996">
+      <c r="D996" s="3"/>
+      <c r="E996" s="3"/>
+      <c r="F996" s="3"/>
+    </row>
+    <row r="997">
+      <c r="D997" s="3"/>
+      <c r="E997" s="3"/>
+      <c r="F997" s="3"/>
+    </row>
+    <row r="998">
+      <c r="D998" s="3"/>
+      <c r="E998" s="3"/>
+      <c r="F998" s="3"/>
+    </row>
+    <row r="999">
+      <c r="D999" s="3"/>
+      <c r="E999" s="3"/>
+      <c r="F999" s="3"/>
+    </row>
+    <row r="1000">
+      <c r="D1000" s="3"/>
+      <c r="E1000" s="3"/>
+      <c r="F1000" s="3"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Nordeus Challenge\Nordeus QA Puzzle\qa-job-fair-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\qa-job-fair\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>Description</t>
   </si>
@@ -114,18 +114,77 @@
 then chooses to use his protection card</t>
   </si>
   <si>
-    <t>Only one Protection Card effect can be used per turn</t>
+    <t>Each player starts with 25 cards in the deck</t>
   </si>
   <si>
-    <t>A Protection Card can be played at any time during the players turn</t>
+    <t>Boost Attack Cards have the index 2</t>
   </si>
   <si>
-    <t>Protection Cards have the index value 1</t>
+    <t>In Progress</t>
   </si>
   <si>
-    <t>Since a player can attack only once per turn,
-the defending player can block the attack with
-only one Protection Card</t>
+    <t>Boost Attack Cards have a boost value of 3</t>
+  </si>
+  <si>
+    <t>This value increases the attack of the Attack Cards
+until the end of the players turn</t>
+  </si>
+  <si>
+    <t>Boost Attack Cards have the following description - Boost card"</t>
+  </si>
+  <si>
+    <t>PROTECTION CARD</t>
+  </si>
+  <si>
+    <t>BOOST CARD</t>
+  </si>
+  <si>
+    <t>All Boost Attack Cards are the same</t>
+  </si>
+  <si>
+    <t>The turn player can play any number of 
+Boost Attack Cards during his turn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each Boost Attack Card played increases the attack
+of the next played attack card </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>unitl the end of the players turn</t>
+    </r>
+  </si>
+  <si>
+    <t>When the turn changes, all attack boost is lost
+(returned to 0)</t>
+  </si>
+  <si>
+    <t>Boost Attack Cards can not be used as Attack Cards</t>
+  </si>
+  <si>
+    <t>ATTACK CARD</t>
+  </si>
+  <si>
+    <t>Attack Cards have indexes in range [3-7]</t>
+  </si>
+  <si>
+    <t>Protect Cards have the index value 1</t>
+  </si>
+  <si>
+    <t>Protect Cards have the following description - "Protect card"</t>
+  </si>
+  <si>
+    <t>A Protect Card can be played at any time during the players turn</t>
+  </si>
+  <si>
+    <t>A player can play any number of Protect Cards during his turn</t>
   </si>
   <si>
     <r>
@@ -150,9 +209,12 @@
         <family val="2"/>
       </rPr>
       <t>, 
-the player has the option to activate his Protection Card
+the player has the option to activate his Protect Card
 from his hand or field</t>
     </r>
+  </si>
+  <si>
+    <t>Only one Protect Card effect can be used per turn</t>
   </si>
   <si>
     <r>
@@ -177,47 +239,80 @@
       </rPr>
       <t xml:space="preserve">
 the player can not activate the effect
-of Protection Cards in his hand or field</t>
+of Protect Cards in his hand or field</t>
     </r>
+  </si>
+  <si>
+    <t>All Protect Cards are the same</t>
+  </si>
+  <si>
+    <t>Since a player can attack only once per turn,
+the defending player can block the attack with
+only one Protect Card</t>
+  </si>
+  <si>
+    <t>Each player has 5 copies of a Protect Card
+in their deck</t>
   </si>
   <si>
     <t>Each players deck consists of:
 10 Attack Cards
 10 Boost Attack Cards
-5 Protection Cards</t>
+5 Protect Cards</t>
   </si>
   <si>
-    <t>Each player starts with 25 cards in the deck</t>
+    <t>Before the game begins, both decks are shuffled</t>
   </si>
   <si>
-    <t xml:space="preserve">First player decided at random or coin toss?
+    <t>There are 2 Attack Cards for each index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>Boost Attack Cards have the index 2</t>
+    <t>First player decided at random or coin toss?
+Maybe in future implementation.</t>
   </si>
   <si>
-    <t>A player can play any number of Protection Cards during his turn</t>
+    <t>Game should be Singleton class?</t>
   </si>
   <si>
-    <t>Protection Cards have the following description - "Protect card"</t>
+    <t>When a player is created he starts with:
+20 HP
+25 cards in deck
+0 cards in hand
+Has not last card played (null)
+Is not attacking (false)
+Starts with damage value of 0
+Has his deck shuffled</t>
   </si>
   <si>
-    <t>In Progress</t>
+    <t>If a player is created with no deck (null)
+give him a new deck and shuffle it</t>
   </si>
   <si>
-    <t>Boost Attack Cards have a boost value of 3</t>
+    <t>A player cant have negative health</t>
   </si>
   <si>
-    <t>This value increases the attack of the Attack Cards
-until the end of the players turn</t>
+    <t>A player cant be attacked with negative damage</t>
+  </si>
+  <si>
+    <t>Each player has 10 copies of a Boost Attack 
+Card in their deck</t>
+  </si>
+  <si>
+    <t>A player cant draw cards if his deck is empty</t>
+  </si>
+  <si>
+    <t>A player cant play a card that is not in his hand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -271,6 +366,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -304,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -320,7 +421,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -364,6 +464,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,11 +828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1014"/>
+  <dimension ref="A1:U1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -747,3273 +862,3379 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:21" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+    </row>
+    <row r="32" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+    </row>
+    <row r="33" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+    </row>
+    <row r="34" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+    </row>
+    <row r="35" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+    </row>
+    <row r="36" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+    </row>
+    <row r="37" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+    </row>
+    <row r="38" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+    </row>
+    <row r="39" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="18" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+    </row>
+    <row r="40" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+    </row>
+    <row r="41" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+    </row>
+    <row r="42" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+    </row>
+    <row r="43" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:21" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:21" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="B43" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-    </row>
-    <row r="26" spans="1:21" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="C43" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+    </row>
+    <row r="44" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+    </row>
+    <row r="45" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+    </row>
+    <row r="46" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-    </row>
-    <row r="28" spans="1:21" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-    </row>
-    <row r="29" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-    </row>
-    <row r="30" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-    </row>
-    <row r="31" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-    </row>
-    <row r="32" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-    </row>
-    <row r="33" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-    </row>
-    <row r="34" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="19" t="s">
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+    </row>
+    <row r="47" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+    </row>
+    <row r="48" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+    </row>
+    <row r="49" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-    </row>
-    <row r="35" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="19" t="s">
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+    </row>
+    <row r="50" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-    </row>
-    <row r="36" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-    </row>
-    <row r="37" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-    </row>
-    <row r="38" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-    </row>
-    <row r="39" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-    </row>
-    <row r="40" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-    </row>
-    <row r="41" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-    </row>
-    <row r="42" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-    </row>
-    <row r="43" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-    </row>
-    <row r="44" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-    </row>
-    <row r="45" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-    </row>
-    <row r="46" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-    </row>
-    <row r="47" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-    </row>
-    <row r="48" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-    </row>
-    <row r="49" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-    </row>
-    <row r="50" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
     </row>
     <row r="51" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
     </row>
     <row r="52" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
     </row>
     <row r="53" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
     </row>
     <row r="54" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
     </row>
     <row r="55" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
     </row>
     <row r="56" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
     </row>
     <row r="57" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
     </row>
     <row r="58" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
     </row>
     <row r="59" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
     </row>
     <row r="60" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
     </row>
     <row r="61" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
     </row>
     <row r="62" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
     </row>
     <row r="63" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
     </row>
     <row r="64" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
     </row>
     <row r="65" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
     </row>
     <row r="66" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
     </row>
     <row r="67" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
     </row>
     <row r="68" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
     </row>
     <row r="69" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
     </row>
     <row r="70" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="20"/>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="20"/>
-      <c r="U70" s="20"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
     </row>
     <row r="71" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
     </row>
     <row r="72" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
-      <c r="T72" s="20"/>
-      <c r="U72" s="20"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
     </row>
     <row r="73" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
     </row>
     <row r="74" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
-      <c r="T74" s="20"/>
-      <c r="U74" s="20"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
     </row>
     <row r="75" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="20"/>
-      <c r="S75" s="20"/>
-      <c r="T75" s="20"/>
-      <c r="U75" s="20"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
     </row>
     <row r="76" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20"/>
-      <c r="T76" s="20"/>
-      <c r="U76" s="20"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
     </row>
     <row r="77" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
-      <c r="S77" s="20"/>
-      <c r="T77" s="20"/>
-      <c r="U77" s="20"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
     </row>
     <row r="78" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="20"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="19"/>
+      <c r="U78" s="19"/>
     </row>
     <row r="79" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
-      <c r="S79" s="20"/>
-      <c r="T79" s="20"/>
-      <c r="U79" s="20"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
     </row>
     <row r="80" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="20"/>
-      <c r="Q80" s="20"/>
-      <c r="R80" s="20"/>
-      <c r="S80" s="20"/>
-      <c r="T80" s="20"/>
-      <c r="U80" s="20"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="19"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="19"/>
     </row>
     <row r="81" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="20"/>
-      <c r="Q81" s="20"/>
-      <c r="R81" s="20"/>
-      <c r="S81" s="20"/>
-      <c r="T81" s="20"/>
-      <c r="U81" s="20"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="19"/>
     </row>
     <row r="82" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="20"/>
-      <c r="S82" s="20"/>
-      <c r="T82" s="20"/>
-      <c r="U82" s="20"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
     </row>
     <row r="83" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="20"/>
-      <c r="S83" s="20"/>
-      <c r="T83" s="20"/>
-      <c r="U83" s="20"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="19"/>
     </row>
     <row r="84" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="19"/>
     </row>
     <row r="85" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
-      <c r="S85" s="20"/>
-      <c r="T85" s="20"/>
-      <c r="U85" s="20"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="19"/>
     </row>
     <row r="86" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
-      <c r="S86" s="20"/>
-      <c r="T86" s="20"/>
-      <c r="U86" s="20"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="19"/>
     </row>
     <row r="87" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="20"/>
-      <c r="O87" s="20"/>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="20"/>
-      <c r="S87" s="20"/>
-      <c r="T87" s="20"/>
-      <c r="U87" s="20"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
+      <c r="T87" s="19"/>
+      <c r="U87" s="19"/>
     </row>
     <row r="88" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20"/>
-      <c r="O88" s="20"/>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="20"/>
-      <c r="S88" s="20"/>
-      <c r="T88" s="20"/>
-      <c r="U88" s="20"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="19"/>
     </row>
     <row r="89" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="20"/>
-      <c r="S89" s="20"/>
-      <c r="T89" s="20"/>
-      <c r="U89" s="20"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
     </row>
     <row r="90" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="20"/>
-      <c r="O90" s="20"/>
-      <c r="P90" s="20"/>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="20"/>
-      <c r="S90" s="20"/>
-      <c r="T90" s="20"/>
-      <c r="U90" s="20"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="19"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="19"/>
     </row>
     <row r="91" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="20"/>
-      <c r="O91" s="20"/>
-      <c r="P91" s="20"/>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="20"/>
-      <c r="S91" s="20"/>
-      <c r="T91" s="20"/>
-      <c r="U91" s="20"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
+      <c r="T91" s="19"/>
+      <c r="U91" s="19"/>
     </row>
     <row r="92" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="20"/>
-      <c r="O92" s="20"/>
-      <c r="P92" s="20"/>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="20"/>
-      <c r="S92" s="20"/>
-      <c r="T92" s="20"/>
-      <c r="U92" s="20"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="19"/>
+      <c r="T92" s="19"/>
+      <c r="U92" s="19"/>
     </row>
     <row r="93" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="20"/>
-      <c r="Q93" s="20"/>
-      <c r="R93" s="20"/>
-      <c r="S93" s="20"/>
-      <c r="T93" s="20"/>
-      <c r="U93" s="20"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="19"/>
     </row>
     <row r="94" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="20"/>
-      <c r="Q94" s="20"/>
-      <c r="R94" s="20"/>
-      <c r="S94" s="20"/>
-      <c r="T94" s="20"/>
-      <c r="U94" s="20"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="19"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="19"/>
     </row>
     <row r="95" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="20"/>
-      <c r="N95" s="20"/>
-      <c r="O95" s="20"/>
-      <c r="P95" s="20"/>
-      <c r="Q95" s="20"/>
-      <c r="R95" s="20"/>
-      <c r="S95" s="20"/>
-      <c r="T95" s="20"/>
-      <c r="U95" s="20"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="19"/>
+      <c r="T95" s="19"/>
+      <c r="U95" s="19"/>
     </row>
     <row r="96" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
-      <c r="O96" s="20"/>
-      <c r="P96" s="20"/>
-      <c r="Q96" s="20"/>
-      <c r="R96" s="20"/>
-      <c r="S96" s="20"/>
-      <c r="T96" s="20"/>
-      <c r="U96" s="20"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="19"/>
     </row>
     <row r="97" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="20"/>
-      <c r="P97" s="20"/>
-      <c r="Q97" s="20"/>
-      <c r="R97" s="20"/>
-      <c r="S97" s="20"/>
-      <c r="T97" s="20"/>
-      <c r="U97" s="20"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="19"/>
+      <c r="T97" s="19"/>
+      <c r="U97" s="19"/>
     </row>
     <row r="98" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20"/>
-      <c r="N98" s="20"/>
-      <c r="O98" s="20"/>
-      <c r="P98" s="20"/>
-      <c r="Q98" s="20"/>
-      <c r="R98" s="20"/>
-      <c r="S98" s="20"/>
-      <c r="T98" s="20"/>
-      <c r="U98" s="20"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="19"/>
     </row>
     <row r="99" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="20"/>
-      <c r="P99" s="20"/>
-      <c r="Q99" s="20"/>
-      <c r="R99" s="20"/>
-      <c r="S99" s="20"/>
-      <c r="T99" s="20"/>
-      <c r="U99" s="20"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
+      <c r="T99" s="19"/>
+      <c r="U99" s="19"/>
     </row>
     <row r="100" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="20"/>
-      <c r="N100" s="20"/>
-      <c r="O100" s="20"/>
-      <c r="P100" s="20"/>
-      <c r="Q100" s="20"/>
-      <c r="R100" s="20"/>
-      <c r="S100" s="20"/>
-      <c r="T100" s="20"/>
-      <c r="U100" s="20"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="19"/>
     </row>
     <row r="101" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="20"/>
-      <c r="K101" s="20"/>
-      <c r="L101" s="20"/>
-      <c r="M101" s="20"/>
-      <c r="N101" s="20"/>
-      <c r="O101" s="20"/>
-      <c r="P101" s="20"/>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="20"/>
-      <c r="S101" s="20"/>
-      <c r="T101" s="20"/>
-      <c r="U101" s="20"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="19"/>
     </row>
     <row r="102" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
-      <c r="P102" s="20"/>
-      <c r="Q102" s="20"/>
-      <c r="R102" s="20"/>
-      <c r="S102" s="20"/>
-      <c r="T102" s="20"/>
-      <c r="U102" s="20"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="19"/>
+      <c r="T102" s="19"/>
+      <c r="U102" s="19"/>
     </row>
     <row r="103" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="20"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="20"/>
-      <c r="O103" s="20"/>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="20"/>
-      <c r="S103" s="20"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="19"/>
+      <c r="T103" s="19"/>
+      <c r="U103" s="19"/>
     </row>
     <row r="104" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A104" s="20"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="20"/>
-      <c r="K104" s="20"/>
-      <c r="L104" s="20"/>
-      <c r="M104" s="20"/>
-      <c r="N104" s="20"/>
-      <c r="O104" s="20"/>
-      <c r="P104" s="20"/>
-      <c r="Q104" s="20"/>
-      <c r="R104" s="20"/>
-      <c r="S104" s="20"/>
-      <c r="T104" s="20"/>
-      <c r="U104" s="20"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="19"/>
+      <c r="T104" s="19"/>
+      <c r="U104" s="19"/>
     </row>
     <row r="105" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20"/>
-      <c r="L105" s="20"/>
-      <c r="M105" s="20"/>
-      <c r="N105" s="20"/>
-      <c r="O105" s="20"/>
-      <c r="P105" s="20"/>
-      <c r="Q105" s="20"/>
-      <c r="R105" s="20"/>
-      <c r="S105" s="20"/>
-      <c r="T105" s="20"/>
-      <c r="U105" s="20"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="19"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="19"/>
+      <c r="T105" s="19"/>
+      <c r="U105" s="19"/>
     </row>
     <row r="106" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="20"/>
-      <c r="M106" s="20"/>
-      <c r="N106" s="20"/>
-      <c r="O106" s="20"/>
-      <c r="P106" s="20"/>
-      <c r="Q106" s="20"/>
-      <c r="R106" s="20"/>
-      <c r="S106" s="20"/>
-      <c r="T106" s="20"/>
-      <c r="U106" s="20"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="19"/>
     </row>
     <row r="107" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="20"/>
-      <c r="K107" s="20"/>
-      <c r="L107" s="20"/>
-      <c r="M107" s="20"/>
-      <c r="N107" s="20"/>
-      <c r="O107" s="20"/>
-      <c r="P107" s="20"/>
-      <c r="Q107" s="20"/>
-      <c r="R107" s="20"/>
-      <c r="S107" s="20"/>
-      <c r="T107" s="20"/>
-      <c r="U107" s="20"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="19"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="19"/>
     </row>
     <row r="108" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="20"/>
-      <c r="M108" s="20"/>
-      <c r="N108" s="20"/>
-      <c r="O108" s="20"/>
-      <c r="P108" s="20"/>
-      <c r="Q108" s="20"/>
-      <c r="R108" s="20"/>
-      <c r="S108" s="20"/>
-      <c r="T108" s="20"/>
-      <c r="U108" s="20"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="19"/>
+      <c r="T108" s="19"/>
+      <c r="U108" s="19"/>
     </row>
     <row r="109" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="20"/>
-      <c r="K109" s="20"/>
-      <c r="L109" s="20"/>
-      <c r="M109" s="20"/>
-      <c r="N109" s="20"/>
-      <c r="O109" s="20"/>
-      <c r="P109" s="20"/>
-      <c r="Q109" s="20"/>
-      <c r="R109" s="20"/>
-      <c r="S109" s="20"/>
-      <c r="T109" s="20"/>
-      <c r="U109" s="20"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="19"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="19"/>
     </row>
     <row r="110" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="20"/>
-      <c r="K110" s="20"/>
-      <c r="L110" s="20"/>
-      <c r="M110" s="20"/>
-      <c r="N110" s="20"/>
-      <c r="O110" s="20"/>
-      <c r="P110" s="20"/>
-      <c r="Q110" s="20"/>
-      <c r="R110" s="20"/>
-      <c r="S110" s="20"/>
-      <c r="T110" s="20"/>
-      <c r="U110" s="20"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="19"/>
+      <c r="T110" s="19"/>
+      <c r="U110" s="19"/>
     </row>
     <row r="111" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
-      <c r="L111" s="20"/>
-      <c r="M111" s="20"/>
-      <c r="N111" s="20"/>
-      <c r="O111" s="20"/>
-      <c r="P111" s="20"/>
-      <c r="Q111" s="20"/>
-      <c r="R111" s="20"/>
-      <c r="S111" s="20"/>
-      <c r="T111" s="20"/>
-      <c r="U111" s="20"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="19"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="19"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="19"/>
     </row>
     <row r="112" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="20"/>
-      <c r="M112" s="20"/>
-      <c r="N112" s="20"/>
-      <c r="O112" s="20"/>
-      <c r="P112" s="20"/>
-      <c r="Q112" s="20"/>
-      <c r="R112" s="20"/>
-      <c r="S112" s="20"/>
-      <c r="T112" s="20"/>
-      <c r="U112" s="20"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="19"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="19"/>
+      <c r="P112" s="19"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="19"/>
+      <c r="T112" s="19"/>
+      <c r="U112" s="19"/>
     </row>
     <row r="113" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="20"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="20"/>
-      <c r="N113" s="20"/>
-      <c r="O113" s="20"/>
-      <c r="P113" s="20"/>
-      <c r="Q113" s="20"/>
-      <c r="R113" s="20"/>
-      <c r="S113" s="20"/>
-      <c r="T113" s="20"/>
-      <c r="U113" s="20"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="19"/>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="19"/>
+      <c r="S113" s="19"/>
+      <c r="T113" s="19"/>
+      <c r="U113" s="19"/>
     </row>
     <row r="114" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="20"/>
-      <c r="K114" s="20"/>
-      <c r="L114" s="20"/>
-      <c r="M114" s="20"/>
-      <c r="N114" s="20"/>
-      <c r="O114" s="20"/>
-      <c r="P114" s="20"/>
-      <c r="Q114" s="20"/>
-      <c r="R114" s="20"/>
-      <c r="S114" s="20"/>
-      <c r="T114" s="20"/>
-      <c r="U114" s="20"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="19"/>
+      <c r="T114" s="19"/>
+      <c r="U114" s="19"/>
     </row>
     <row r="115" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
-      <c r="M115" s="20"/>
-      <c r="N115" s="20"/>
-      <c r="O115" s="20"/>
-      <c r="P115" s="20"/>
-      <c r="Q115" s="20"/>
-      <c r="R115" s="20"/>
-      <c r="S115" s="20"/>
-      <c r="T115" s="20"/>
-      <c r="U115" s="20"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
+      <c r="T115" s="19"/>
+      <c r="U115" s="19"/>
     </row>
     <row r="116" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="21"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20"/>
-      <c r="L116" s="20"/>
-      <c r="M116" s="20"/>
-      <c r="N116" s="20"/>
-      <c r="O116" s="20"/>
-      <c r="P116" s="20"/>
-      <c r="Q116" s="20"/>
-      <c r="R116" s="20"/>
-      <c r="S116" s="20"/>
-      <c r="T116" s="20"/>
-      <c r="U116" s="20"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="19"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="19"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="19"/>
+      <c r="S116" s="19"/>
+      <c r="T116" s="19"/>
+      <c r="U116" s="19"/>
     </row>
     <row r="117" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
-      <c r="J117" s="20"/>
-      <c r="K117" s="20"/>
-      <c r="L117" s="20"/>
-      <c r="M117" s="20"/>
-      <c r="N117" s="20"/>
-      <c r="O117" s="20"/>
-      <c r="P117" s="20"/>
-      <c r="Q117" s="20"/>
-      <c r="R117" s="20"/>
-      <c r="S117" s="20"/>
-      <c r="T117" s="20"/>
-      <c r="U117" s="20"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="19"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="19"/>
+      <c r="S117" s="19"/>
+      <c r="T117" s="19"/>
+      <c r="U117" s="19"/>
     </row>
     <row r="118" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="20"/>
-      <c r="N118" s="20"/>
-      <c r="O118" s="20"/>
-      <c r="P118" s="20"/>
-      <c r="Q118" s="20"/>
-      <c r="R118" s="20"/>
-      <c r="S118" s="20"/>
-      <c r="T118" s="20"/>
-      <c r="U118" s="20"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="19"/>
+      <c r="S118" s="19"/>
+      <c r="T118" s="19"/>
+      <c r="U118" s="19"/>
     </row>
     <row r="119" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
-      <c r="J119" s="20"/>
-      <c r="K119" s="20"/>
-      <c r="L119" s="20"/>
-      <c r="M119" s="20"/>
-      <c r="N119" s="20"/>
-      <c r="O119" s="20"/>
-      <c r="P119" s="20"/>
-      <c r="Q119" s="20"/>
-      <c r="R119" s="20"/>
-      <c r="S119" s="20"/>
-      <c r="T119" s="20"/>
-      <c r="U119" s="20"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="19"/>
+      <c r="S119" s="19"/>
+      <c r="T119" s="19"/>
+      <c r="U119" s="19"/>
     </row>
     <row r="120" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="20"/>
-      <c r="I120" s="20"/>
-      <c r="J120" s="20"/>
-      <c r="K120" s="20"/>
-      <c r="L120" s="20"/>
-      <c r="M120" s="20"/>
-      <c r="N120" s="20"/>
-      <c r="O120" s="20"/>
-      <c r="P120" s="20"/>
-      <c r="Q120" s="20"/>
-      <c r="R120" s="20"/>
-      <c r="S120" s="20"/>
-      <c r="T120" s="20"/>
-      <c r="U120" s="20"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="19"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="19"/>
+      <c r="S120" s="19"/>
+      <c r="T120" s="19"/>
+      <c r="U120" s="19"/>
     </row>
     <row r="121" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="20"/>
-      <c r="I121" s="20"/>
-      <c r="J121" s="20"/>
-      <c r="K121" s="20"/>
-      <c r="L121" s="20"/>
-      <c r="M121" s="20"/>
-      <c r="N121" s="20"/>
-      <c r="O121" s="20"/>
-      <c r="P121" s="20"/>
-      <c r="Q121" s="20"/>
-      <c r="R121" s="20"/>
-      <c r="S121" s="20"/>
-      <c r="T121" s="20"/>
-      <c r="U121" s="20"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="19"/>
+      <c r="N121" s="19"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="19"/>
+      <c r="Q121" s="19"/>
+      <c r="R121" s="19"/>
+      <c r="S121" s="19"/>
+      <c r="T121" s="19"/>
+      <c r="U121" s="19"/>
     </row>
     <row r="122" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="20"/>
-      <c r="K122" s="20"/>
-      <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="20"/>
-      <c r="O122" s="20"/>
-      <c r="P122" s="20"/>
-      <c r="Q122" s="20"/>
-      <c r="R122" s="20"/>
-      <c r="S122" s="20"/>
-      <c r="T122" s="20"/>
-      <c r="U122" s="20"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="19"/>
+      <c r="S122" s="19"/>
+      <c r="T122" s="19"/>
+      <c r="U122" s="19"/>
     </row>
     <row r="123" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="20"/>
-      <c r="J123" s="20"/>
-      <c r="K123" s="20"/>
-      <c r="L123" s="20"/>
-      <c r="M123" s="20"/>
-      <c r="N123" s="20"/>
-      <c r="O123" s="20"/>
-      <c r="P123" s="20"/>
-      <c r="Q123" s="20"/>
-      <c r="R123" s="20"/>
-      <c r="S123" s="20"/>
-      <c r="T123" s="20"/>
-      <c r="U123" s="20"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
+      <c r="N123" s="19"/>
+      <c r="O123" s="19"/>
+      <c r="P123" s="19"/>
+      <c r="Q123" s="19"/>
+      <c r="R123" s="19"/>
+      <c r="S123" s="19"/>
+      <c r="T123" s="19"/>
+      <c r="U123" s="19"/>
     </row>
     <row r="124" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
-      <c r="M124" s="20"/>
-      <c r="N124" s="20"/>
-      <c r="O124" s="20"/>
-      <c r="P124" s="20"/>
-      <c r="Q124" s="20"/>
-      <c r="R124" s="20"/>
-      <c r="S124" s="20"/>
-      <c r="T124" s="20"/>
-      <c r="U124" s="20"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+      <c r="N124" s="19"/>
+      <c r="O124" s="19"/>
+      <c r="P124" s="19"/>
+      <c r="Q124" s="19"/>
+      <c r="R124" s="19"/>
+      <c r="S124" s="19"/>
+      <c r="T124" s="19"/>
+      <c r="U124" s="19"/>
     </row>
     <row r="125" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="20"/>
-      <c r="I125" s="20"/>
-      <c r="J125" s="20"/>
-      <c r="K125" s="20"/>
-      <c r="L125" s="20"/>
-      <c r="M125" s="20"/>
-      <c r="N125" s="20"/>
-      <c r="O125" s="20"/>
-      <c r="P125" s="20"/>
-      <c r="Q125" s="20"/>
-      <c r="R125" s="20"/>
-      <c r="S125" s="20"/>
-      <c r="T125" s="20"/>
-      <c r="U125" s="20"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19"/>
+      <c r="N125" s="19"/>
+      <c r="O125" s="19"/>
+      <c r="P125" s="19"/>
+      <c r="Q125" s="19"/>
+      <c r="R125" s="19"/>
+      <c r="S125" s="19"/>
+      <c r="T125" s="19"/>
+      <c r="U125" s="19"/>
     </row>
     <row r="126" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="20"/>
-      <c r="J126" s="20"/>
-      <c r="K126" s="20"/>
-      <c r="L126" s="20"/>
-      <c r="M126" s="20"/>
-      <c r="N126" s="20"/>
-      <c r="O126" s="20"/>
-      <c r="P126" s="20"/>
-      <c r="Q126" s="20"/>
-      <c r="R126" s="20"/>
-      <c r="S126" s="20"/>
-      <c r="T126" s="20"/>
-      <c r="U126" s="20"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
+      <c r="P126" s="19"/>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="19"/>
+      <c r="S126" s="19"/>
+      <c r="T126" s="19"/>
+      <c r="U126" s="19"/>
     </row>
     <row r="127" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A127" s="20"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="20"/>
-      <c r="I127" s="20"/>
-      <c r="J127" s="20"/>
-      <c r="K127" s="20"/>
-      <c r="L127" s="20"/>
-      <c r="M127" s="20"/>
-      <c r="N127" s="20"/>
-      <c r="O127" s="20"/>
-      <c r="P127" s="20"/>
-      <c r="Q127" s="20"/>
-      <c r="R127" s="20"/>
-      <c r="S127" s="20"/>
-      <c r="T127" s="20"/>
-      <c r="U127" s="20"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="19"/>
+      <c r="N127" s="19"/>
+      <c r="O127" s="19"/>
+      <c r="P127" s="19"/>
+      <c r="Q127" s="19"/>
+      <c r="R127" s="19"/>
+      <c r="S127" s="19"/>
+      <c r="T127" s="19"/>
+      <c r="U127" s="19"/>
     </row>
     <row r="128" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A128" s="20"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="20"/>
-      <c r="J128" s="20"/>
-      <c r="K128" s="20"/>
-      <c r="L128" s="20"/>
-      <c r="M128" s="20"/>
-      <c r="N128" s="20"/>
-      <c r="O128" s="20"/>
-      <c r="P128" s="20"/>
-      <c r="Q128" s="20"/>
-      <c r="R128" s="20"/>
-      <c r="S128" s="20"/>
-      <c r="T128" s="20"/>
-      <c r="U128" s="20"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19"/>
+      <c r="N128" s="19"/>
+      <c r="O128" s="19"/>
+      <c r="P128" s="19"/>
+      <c r="Q128" s="19"/>
+      <c r="R128" s="19"/>
+      <c r="S128" s="19"/>
+      <c r="T128" s="19"/>
+      <c r="U128" s="19"/>
     </row>
     <row r="129" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A129" s="20"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="20"/>
-      <c r="I129" s="20"/>
-      <c r="J129" s="20"/>
-      <c r="K129" s="20"/>
-      <c r="L129" s="20"/>
-      <c r="M129" s="20"/>
-      <c r="N129" s="20"/>
-      <c r="O129" s="20"/>
-      <c r="P129" s="20"/>
-      <c r="Q129" s="20"/>
-      <c r="R129" s="20"/>
-      <c r="S129" s="20"/>
-      <c r="T129" s="20"/>
-      <c r="U129" s="20"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19"/>
+      <c r="N129" s="19"/>
+      <c r="O129" s="19"/>
+      <c r="P129" s="19"/>
+      <c r="Q129" s="19"/>
+      <c r="R129" s="19"/>
+      <c r="S129" s="19"/>
+      <c r="T129" s="19"/>
+      <c r="U129" s="19"/>
     </row>
     <row r="130" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="20"/>
-      <c r="J130" s="20"/>
-      <c r="K130" s="20"/>
-      <c r="L130" s="20"/>
-      <c r="M130" s="20"/>
-      <c r="N130" s="20"/>
-      <c r="O130" s="20"/>
-      <c r="P130" s="20"/>
-      <c r="Q130" s="20"/>
-      <c r="R130" s="20"/>
-      <c r="S130" s="20"/>
-      <c r="T130" s="20"/>
-      <c r="U130" s="20"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
+      <c r="O130" s="19"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="19"/>
+      <c r="S130" s="19"/>
+      <c r="T130" s="19"/>
+      <c r="U130" s="19"/>
     </row>
     <row r="131" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A131" s="20"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="20"/>
-      <c r="L131" s="20"/>
-      <c r="M131" s="20"/>
-      <c r="N131" s="20"/>
-      <c r="O131" s="20"/>
-      <c r="P131" s="20"/>
-      <c r="Q131" s="20"/>
-      <c r="R131" s="20"/>
-      <c r="S131" s="20"/>
-      <c r="T131" s="20"/>
-      <c r="U131" s="20"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19"/>
+      <c r="N131" s="19"/>
+      <c r="O131" s="19"/>
+      <c r="P131" s="19"/>
+      <c r="Q131" s="19"/>
+      <c r="R131" s="19"/>
+      <c r="S131" s="19"/>
+      <c r="T131" s="19"/>
+      <c r="U131" s="19"/>
     </row>
     <row r="132" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="21"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="20"/>
-      <c r="J132" s="20"/>
-      <c r="K132" s="20"/>
-      <c r="L132" s="20"/>
-      <c r="M132" s="20"/>
-      <c r="N132" s="20"/>
-      <c r="O132" s="20"/>
-      <c r="P132" s="20"/>
-      <c r="Q132" s="20"/>
-      <c r="R132" s="20"/>
-      <c r="S132" s="20"/>
-      <c r="T132" s="20"/>
-      <c r="U132" s="20"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+      <c r="N132" s="19"/>
+      <c r="O132" s="19"/>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="19"/>
+      <c r="R132" s="19"/>
+      <c r="S132" s="19"/>
+      <c r="T132" s="19"/>
+      <c r="U132" s="19"/>
     </row>
     <row r="133" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A133" s="20"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20"/>
-      <c r="J133" s="20"/>
-      <c r="K133" s="20"/>
-      <c r="L133" s="20"/>
-      <c r="M133" s="20"/>
-      <c r="N133" s="20"/>
-      <c r="O133" s="20"/>
-      <c r="P133" s="20"/>
-      <c r="Q133" s="20"/>
-      <c r="R133" s="20"/>
-      <c r="S133" s="20"/>
-      <c r="T133" s="20"/>
-      <c r="U133" s="20"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19"/>
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19"/>
+      <c r="S133" s="19"/>
+      <c r="T133" s="19"/>
+      <c r="U133" s="19"/>
     </row>
     <row r="134" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
-      <c r="J134" s="20"/>
-      <c r="K134" s="20"/>
-      <c r="L134" s="20"/>
-      <c r="M134" s="20"/>
-      <c r="N134" s="20"/>
-      <c r="O134" s="20"/>
-      <c r="P134" s="20"/>
-      <c r="Q134" s="20"/>
-      <c r="R134" s="20"/>
-      <c r="S134" s="20"/>
-      <c r="T134" s="20"/>
-      <c r="U134" s="20"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="19"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19"/>
+      <c r="S134" s="19"/>
+      <c r="T134" s="19"/>
+      <c r="U134" s="19"/>
     </row>
     <row r="135" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="21"/>
-      <c r="E135" s="21"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="20"/>
-      <c r="I135" s="20"/>
-      <c r="J135" s="20"/>
-      <c r="K135" s="20"/>
-      <c r="L135" s="20"/>
-      <c r="M135" s="20"/>
-      <c r="N135" s="20"/>
-      <c r="O135" s="20"/>
-      <c r="P135" s="20"/>
-      <c r="Q135" s="20"/>
-      <c r="R135" s="20"/>
-      <c r="S135" s="20"/>
-      <c r="T135" s="20"/>
-      <c r="U135" s="20"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="19"/>
+      <c r="N135" s="19"/>
+      <c r="O135" s="19"/>
+      <c r="P135" s="19"/>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="19"/>
+      <c r="S135" s="19"/>
+      <c r="T135" s="19"/>
+      <c r="U135" s="19"/>
     </row>
     <row r="136" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A136" s="20"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="21"/>
-      <c r="E136" s="21"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="22"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="20"/>
-      <c r="J136" s="20"/>
-      <c r="K136" s="20"/>
-      <c r="L136" s="20"/>
-      <c r="M136" s="20"/>
-      <c r="N136" s="20"/>
-      <c r="O136" s="20"/>
-      <c r="P136" s="20"/>
-      <c r="Q136" s="20"/>
-      <c r="R136" s="20"/>
-      <c r="S136" s="20"/>
-      <c r="T136" s="20"/>
-      <c r="U136" s="20"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="N136" s="19"/>
+      <c r="O136" s="19"/>
+      <c r="P136" s="19"/>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="19"/>
+      <c r="S136" s="19"/>
+      <c r="T136" s="19"/>
+      <c r="U136" s="19"/>
     </row>
     <row r="137" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="22"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="20"/>
-      <c r="J137" s="20"/>
-      <c r="K137" s="20"/>
-      <c r="L137" s="20"/>
-      <c r="M137" s="20"/>
-      <c r="N137" s="20"/>
-      <c r="O137" s="20"/>
-      <c r="P137" s="20"/>
-      <c r="Q137" s="20"/>
-      <c r="R137" s="20"/>
-      <c r="S137" s="20"/>
-      <c r="T137" s="20"/>
-      <c r="U137" s="20"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+      <c r="N137" s="19"/>
+      <c r="O137" s="19"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="19"/>
+      <c r="S137" s="19"/>
+      <c r="T137" s="19"/>
+      <c r="U137" s="19"/>
     </row>
     <row r="138" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="22"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="20"/>
-      <c r="K138" s="20"/>
-      <c r="L138" s="20"/>
-      <c r="M138" s="20"/>
-      <c r="N138" s="20"/>
-      <c r="O138" s="20"/>
-      <c r="P138" s="20"/>
-      <c r="Q138" s="20"/>
-      <c r="R138" s="20"/>
-      <c r="S138" s="20"/>
-      <c r="T138" s="20"/>
-      <c r="U138" s="20"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+      <c r="O138" s="19"/>
+      <c r="P138" s="19"/>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="19"/>
+      <c r="S138" s="19"/>
+      <c r="T138" s="19"/>
+      <c r="U138" s="19"/>
     </row>
     <row r="139" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A139" s="20"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21"/>
-      <c r="G139" s="22"/>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
-      <c r="J139" s="20"/>
-      <c r="K139" s="20"/>
-      <c r="L139" s="20"/>
-      <c r="M139" s="20"/>
-      <c r="N139" s="20"/>
-      <c r="O139" s="20"/>
-      <c r="P139" s="20"/>
-      <c r="Q139" s="20"/>
-      <c r="R139" s="20"/>
-      <c r="S139" s="20"/>
-      <c r="T139" s="20"/>
-      <c r="U139" s="20"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="19"/>
+      <c r="S139" s="19"/>
+      <c r="T139" s="19"/>
+      <c r="U139" s="19"/>
     </row>
     <row r="140" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="21"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="22"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="20"/>
-      <c r="J140" s="20"/>
-      <c r="K140" s="20"/>
-      <c r="L140" s="20"/>
-      <c r="M140" s="20"/>
-      <c r="N140" s="20"/>
-      <c r="O140" s="20"/>
-      <c r="P140" s="20"/>
-      <c r="Q140" s="20"/>
-      <c r="R140" s="20"/>
-      <c r="S140" s="20"/>
-      <c r="T140" s="20"/>
-      <c r="U140" s="20"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19"/>
+      <c r="N140" s="19"/>
+      <c r="O140" s="19"/>
+      <c r="P140" s="19"/>
+      <c r="Q140" s="19"/>
+      <c r="R140" s="19"/>
+      <c r="S140" s="19"/>
+      <c r="T140" s="19"/>
+      <c r="U140" s="19"/>
     </row>
     <row r="141" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="22"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
-      <c r="J141" s="20"/>
-      <c r="K141" s="20"/>
-      <c r="L141" s="20"/>
-      <c r="M141" s="20"/>
-      <c r="N141" s="20"/>
-      <c r="O141" s="20"/>
-      <c r="P141" s="20"/>
-      <c r="Q141" s="20"/>
-      <c r="R141" s="20"/>
-      <c r="S141" s="20"/>
-      <c r="T141" s="20"/>
-      <c r="U141" s="20"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="19"/>
+      <c r="M141" s="19"/>
+      <c r="N141" s="19"/>
+      <c r="O141" s="19"/>
+      <c r="P141" s="19"/>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="19"/>
+      <c r="S141" s="19"/>
+      <c r="T141" s="19"/>
+      <c r="U141" s="19"/>
     </row>
     <row r="142" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="21"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="22"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="20"/>
-      <c r="J142" s="20"/>
-      <c r="K142" s="20"/>
-      <c r="L142" s="20"/>
-      <c r="M142" s="20"/>
-      <c r="N142" s="20"/>
-      <c r="O142" s="20"/>
-      <c r="P142" s="20"/>
-      <c r="Q142" s="20"/>
-      <c r="R142" s="20"/>
-      <c r="S142" s="20"/>
-      <c r="T142" s="20"/>
-      <c r="U142" s="20"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="19"/>
+      <c r="K142" s="19"/>
+      <c r="L142" s="19"/>
+      <c r="M142" s="19"/>
+      <c r="N142" s="19"/>
+      <c r="O142" s="19"/>
+      <c r="P142" s="19"/>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="19"/>
+      <c r="S142" s="19"/>
+      <c r="T142" s="19"/>
+      <c r="U142" s="19"/>
     </row>
     <row r="143" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="21"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="20"/>
-      <c r="L143" s="20"/>
-      <c r="M143" s="20"/>
-      <c r="N143" s="20"/>
-      <c r="O143" s="20"/>
-      <c r="P143" s="20"/>
-      <c r="Q143" s="20"/>
-      <c r="R143" s="20"/>
-      <c r="S143" s="20"/>
-      <c r="T143" s="20"/>
-      <c r="U143" s="20"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="19"/>
+      <c r="M143" s="19"/>
+      <c r="N143" s="19"/>
+      <c r="O143" s="19"/>
+      <c r="P143" s="19"/>
+      <c r="Q143" s="19"/>
+      <c r="R143" s="19"/>
+      <c r="S143" s="19"/>
+      <c r="T143" s="19"/>
+      <c r="U143" s="19"/>
     </row>
     <row r="144" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="20"/>
-      <c r="D144" s="21"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="22"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="20"/>
-      <c r="J144" s="20"/>
-      <c r="K144" s="20"/>
-      <c r="L144" s="20"/>
-      <c r="M144" s="20"/>
-      <c r="N144" s="20"/>
-      <c r="O144" s="20"/>
-      <c r="P144" s="20"/>
-      <c r="Q144" s="20"/>
-      <c r="R144" s="20"/>
-      <c r="S144" s="20"/>
-      <c r="T144" s="20"/>
-      <c r="U144" s="20"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="19"/>
+      <c r="K144" s="19"/>
+      <c r="L144" s="19"/>
+      <c r="M144" s="19"/>
+      <c r="N144" s="19"/>
+      <c r="O144" s="19"/>
+      <c r="P144" s="19"/>
+      <c r="Q144" s="19"/>
+      <c r="R144" s="19"/>
+      <c r="S144" s="19"/>
+      <c r="T144" s="19"/>
+      <c r="U144" s="19"/>
     </row>
     <row r="145" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A145" s="20"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="20"/>
-      <c r="J145" s="20"/>
-      <c r="K145" s="20"/>
-      <c r="L145" s="20"/>
-      <c r="M145" s="20"/>
-      <c r="N145" s="20"/>
-      <c r="O145" s="20"/>
-      <c r="P145" s="20"/>
-      <c r="Q145" s="20"/>
-      <c r="R145" s="20"/>
-      <c r="S145" s="20"/>
-      <c r="T145" s="20"/>
-      <c r="U145" s="20"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="19"/>
+      <c r="L145" s="19"/>
+      <c r="M145" s="19"/>
+      <c r="N145" s="19"/>
+      <c r="O145" s="19"/>
+      <c r="P145" s="19"/>
+      <c r="Q145" s="19"/>
+      <c r="R145" s="19"/>
+      <c r="S145" s="19"/>
+      <c r="T145" s="19"/>
+      <c r="U145" s="19"/>
     </row>
     <row r="146" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="22"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="20"/>
-      <c r="J146" s="20"/>
-      <c r="K146" s="20"/>
-      <c r="L146" s="20"/>
-      <c r="M146" s="20"/>
-      <c r="N146" s="20"/>
-      <c r="O146" s="20"/>
-      <c r="P146" s="20"/>
-      <c r="Q146" s="20"/>
-      <c r="R146" s="20"/>
-      <c r="S146" s="20"/>
-      <c r="T146" s="20"/>
-      <c r="U146" s="20"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="19"/>
+      <c r="N146" s="19"/>
+      <c r="O146" s="19"/>
+      <c r="P146" s="19"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="19"/>
+      <c r="S146" s="19"/>
+      <c r="T146" s="19"/>
+      <c r="U146" s="19"/>
     </row>
     <row r="147" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B147" s="9"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="19"/>
     </row>
     <row r="148" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B148" s="9"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="18"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
+      <c r="O148" s="19"/>
+      <c r="P148" s="19"/>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="19"/>
+      <c r="S148" s="19"/>
+      <c r="T148" s="19"/>
+      <c r="U148" s="19"/>
     </row>
     <row r="149" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B149" s="9"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="19"/>
+      <c r="P149" s="19"/>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="19"/>
+      <c r="S149" s="19"/>
+      <c r="T149" s="19"/>
+      <c r="U149" s="19"/>
     </row>
     <row r="150" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B150" s="9"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="19"/>
+      <c r="K150" s="19"/>
+      <c r="L150" s="19"/>
+      <c r="M150" s="19"/>
+      <c r="N150" s="19"/>
+      <c r="O150" s="19"/>
+      <c r="P150" s="19"/>
+      <c r="Q150" s="19"/>
+      <c r="R150" s="19"/>
+      <c r="S150" s="19"/>
+      <c r="T150" s="19"/>
+      <c r="U150" s="19"/>
     </row>
     <row r="151" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B151" s="9"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="19"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="19"/>
+      <c r="P151" s="19"/>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="19"/>
+      <c r="S151" s="19"/>
+      <c r="T151" s="19"/>
+      <c r="U151" s="19"/>
     </row>
     <row r="152" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B152" s="9"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19"/>
+      <c r="N152" s="19"/>
+      <c r="O152" s="19"/>
+      <c r="P152" s="19"/>
+      <c r="Q152" s="19"/>
+      <c r="R152" s="19"/>
+      <c r="S152" s="19"/>
+      <c r="T152" s="19"/>
+      <c r="U152" s="19"/>
     </row>
     <row r="153" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B153" s="9"/>
+      <c r="B153" s="8"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
     <row r="154" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B154" s="9"/>
+      <c r="B154" s="8"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
     <row r="155" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B155" s="9"/>
+      <c r="B155" s="8"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
     <row r="156" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B156" s="9"/>
+      <c r="B156" s="8"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
     <row r="157" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B157" s="9"/>
+      <c r="B157" s="8"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
     <row r="158" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B158" s="9"/>
+      <c r="B158" s="8"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
     <row r="159" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B159" s="9"/>
+      <c r="B159" s="8"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
     <row r="160" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B160" s="9"/>
+      <c r="B160" s="8"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B161" s="8"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B162" s="8"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B163" s="8"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B164" s="8"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B165" s="8"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B166" s="8"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
@@ -8208,9 +8429,39 @@
       <c r="E1014" s="4"/>
       <c r="F1014" s="4"/>
     </row>
+    <row r="1015" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1015" s="4"/>
+      <c r="E1015" s="4"/>
+      <c r="F1015" s="4"/>
+    </row>
+    <row r="1016" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1016" s="4"/>
+      <c r="E1016" s="4"/>
+      <c r="F1016" s="4"/>
+    </row>
+    <row r="1017" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1017" s="4"/>
+      <c r="E1017" s="4"/>
+      <c r="F1017" s="4"/>
+    </row>
+    <row r="1018" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1018" s="4"/>
+      <c r="E1018" s="4"/>
+      <c r="F1018" s="4"/>
+    </row>
+    <row r="1019" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1019" s="4"/>
+      <c r="E1019" s="4"/>
+      <c r="F1019" s="4"/>
+    </row>
+    <row r="1020" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1020" s="4"/>
+      <c r="E1020" s="4"/>
+      <c r="F1020" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B3:B6 B19:B22 B24:B160">
+    <dataValidation type="list" allowBlank="1" sqref="B25:B28 B30:B166 B13:B18 B3:B11">
       <formula1>"Passed,In Progress,Failed"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>Description</t>
   </si>
@@ -96,22 +96,12 @@
     <t>The turn ends when the player chooses to end it</t>
   </si>
   <si>
-    <t>The turn ends when the player attacks his opponent</t>
-  </si>
-  <si>
     <t>A player can attack only one per turn, 
 and with one Attack Card</t>
   </si>
   <si>
     <t>After a players turn is finished, 
 the other player starts his turn</t>
-  </si>
-  <si>
-    <t>Game ends when one player has no cards left in both hand and deck</t>
-  </si>
-  <si>
-    <t>The player first draws a card from the deck,
-then chooses to use his protection card</t>
   </si>
   <si>
     <t>Each player starts with 25 cards in the deck</t>
@@ -187,68 +177,7 @@
     <t>A player can play any number of Protect Cards during his turn</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A the beginning of a players turn, 
-if the player </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>is under attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 
-the player has the option to activate his Protect Card
-from his hand or field</t>
-    </r>
-  </si>
-  <si>
-    <t>Only one Protect Card effect can be used per turn</t>
-  </si>
-  <si>
-    <r>
-      <t>If a player</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is not under attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-the player can not activate the effect
-of Protect Cards in his hand or field</t>
-    </r>
-  </si>
-  <si>
     <t>All Protect Cards are the same</t>
-  </si>
-  <si>
-    <t>Since a player can attack only once per turn,
-the defending player can block the attack with
-only one Protect Card</t>
   </si>
   <si>
     <t>Each player has 5 copies of a Protect Card
@@ -292,20 +221,83 @@
 give him a new deck and shuffle it</t>
   </si>
   <si>
-    <t>A player cant have negative health</t>
-  </si>
-  <si>
-    <t>A player cant be attacked with negative damage</t>
-  </si>
-  <si>
     <t>Each player has 10 copies of a Boost Attack 
 Card in their deck</t>
   </si>
   <si>
-    <t>A player cant draw cards if his deck is empty</t>
+    <t>A player can play 0, 1 or more cards during his turn</t>
   </si>
   <si>
-    <t>A player cant play a card that is not in his hand</t>
+    <t>The turn ends when the player attacks his opponent
+(plays an Attack Card)</t>
+  </si>
+  <si>
+    <t>Game ends when one player has no cards left
+in both hand and deck</t>
+  </si>
+  <si>
+    <t>After a card is used, it is removed from the game</t>
+  </si>
+  <si>
+    <t>A card removed from the game can't be used
+for the rest of the game</t>
+  </si>
+  <si>
+    <t>A player can't have negative health</t>
+  </si>
+  <si>
+    <t>A player can't be attacked with negative damage</t>
+  </si>
+  <si>
+    <t>A player can't draw cards if his deck is empty</t>
+  </si>
+  <si>
+    <t>A player can't play a card that is not in his hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a Protect Card is played, the player receives one
+"Protect Counter" </t>
+  </si>
+  <si>
+    <t>The player first draws a card from the deck,
+then chooses to use his way of protection
+against the incoming attack</t>
+  </si>
+  <si>
+    <t>If the player chooses to use his Protect Card to defend himself,
+the attack is blocked and the Protect Card is removed from the hand</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A the beginning of a players turn, 
+if the player </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is under attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 
+the player has the option to activate his Protect Card
+from his hand or use one Protect Counter</t>
+    </r>
+  </si>
+  <si>
+    <t>If the player chooses to use his Protect Counter to defend 
+himself, the attack is blocked and one Protect Counter is
+removed</t>
   </si>
 </sst>
 </file>
@@ -828,11 +820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1020"/>
+  <dimension ref="A1:U1024"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -875,7 +867,7 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>9</v>
@@ -888,7 +880,7 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>9</v>
@@ -901,7 +893,7 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>9</v>
@@ -914,7 +906,7 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>9</v>
@@ -952,12 +944,12 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>9</v>
@@ -970,7 +962,7 @@
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>9</v>
@@ -1028,7 +1020,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -1046,7 +1038,7 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>9</v>
@@ -1057,9 +1049,9 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:21" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>9</v>
@@ -1070,9 +1062,9 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>9</v>
@@ -1083,44 +1075,50 @@
       <c r="F18" s="13"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1129,67 +1127,71 @@
       <c r="F22" s="13"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="17" t="s">
-        <v>25</v>
-      </c>
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>26</v>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
@@ -1197,21 +1199,19 @@
       <c r="F28" s="13"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="12"/>
+    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>34</v>
-      </c>
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
@@ -1219,66 +1219,34 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="18" t="s">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-    </row>
-    <row r="32" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-    </row>
-    <row r="33" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="20"/>
@@ -1301,11 +1269,11 @@
       <c r="U33" s="19"/>
     </row>
     <row r="34" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>46</v>
+      <c r="A34" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
@@ -1327,16 +1295,14 @@
       <c r="T34" s="19"/>
       <c r="U34" s="19"/>
     </row>
-    <row r="35" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C35" s="19"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -1356,16 +1322,14 @@
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
     </row>
-    <row r="36" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>48</v>
+    <row r="36" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>51</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C36" s="19"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -1385,12 +1349,12 @@
       <c r="T36" s="19"/>
       <c r="U36" s="19"/>
     </row>
-    <row r="37" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="20"/>
@@ -1412,15 +1376,15 @@
       <c r="T37" s="19"/>
       <c r="U37" s="19"/>
     </row>
-    <row r="38" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>50</v>
+    <row r="38" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
@@ -1441,12 +1405,14 @@
       <c r="T38" s="19"/>
       <c r="U38" s="19"/>
     </row>
-    <row r="39" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
+    <row r="39" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="22"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -1466,14 +1432,14 @@
       <c r="T39" s="19"/>
       <c r="U39" s="19"/>
     </row>
-    <row r="40" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>29</v>
+    <row r="40" spans="1:21" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="C40" s="22"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
@@ -1493,15 +1459,15 @@
       <c r="T40" s="19"/>
       <c r="U40" s="19"/>
     </row>
-    <row r="41" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
@@ -1522,14 +1488,10 @@
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
     </row>
-    <row r="42" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="19"/>
+    <row r="42" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -1549,16 +1511,12 @@
       <c r="T42" s="19"/>
       <c r="U42" s="19"/>
     </row>
-    <row r="43" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>63</v>
-      </c>
+    <row r="43" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -1578,11 +1536,13 @@
       <c r="T43" s="19"/>
       <c r="U43" s="19"/>
     </row>
-    <row r="44" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="18"/>
+    <row r="44" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="C44" s="19"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
@@ -1603,13 +1563,15 @@
       <c r="T44" s="19"/>
       <c r="U44" s="19"/>
     </row>
-    <row r="45" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="18"/>
+    <row r="45" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="C45" s="22" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
@@ -1631,8 +1593,8 @@
       <c r="U45" s="19"/>
     </row>
     <row r="46" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>40</v>
+      <c r="A46" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>9</v>
@@ -1657,10 +1619,16 @@
       <c r="T46" s="19"/>
       <c r="U46" s="19"/>
     </row>
-    <row r="47" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
+    <row r="47" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -1680,9 +1648,9 @@
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
     </row>
-    <row r="48" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>41</v>
+    <row r="48" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
@@ -1705,14 +1673,14 @@
       <c r="T48" s="19"/>
       <c r="U48" s="19"/>
     </row>
-    <row r="49" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="19"/>
+    <row r="49" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -1734,7 +1702,7 @@
     </row>
     <row r="50" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>9</v>
@@ -1783,7 +1751,9 @@
       <c r="U51" s="19"/>
     </row>
     <row r="52" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+      <c r="A52" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="20"/>
@@ -1806,8 +1776,12 @@
       <c r="U52" s="19"/>
     </row>
     <row r="53" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="C53" s="19"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
@@ -1829,8 +1803,12 @@
       <c r="U53" s="19"/>
     </row>
     <row r="54" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="C54" s="19"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
@@ -4106,28 +4084,96 @@
       <c r="U152" s="19"/>
     </row>
     <row r="153" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B153" s="8"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="19"/>
+      <c r="N153" s="19"/>
+      <c r="O153" s="19"/>
+      <c r="P153" s="19"/>
+      <c r="Q153" s="19"/>
+      <c r="R153" s="19"/>
+      <c r="S153" s="19"/>
+      <c r="T153" s="19"/>
+      <c r="U153" s="19"/>
     </row>
     <row r="154" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B154" s="8"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+      <c r="N154" s="19"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="19"/>
+      <c r="Q154" s="19"/>
+      <c r="R154" s="19"/>
+      <c r="S154" s="19"/>
+      <c r="T154" s="19"/>
+      <c r="U154" s="19"/>
     </row>
     <row r="155" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B155" s="8"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="19"/>
+      <c r="P155" s="19"/>
+      <c r="Q155" s="19"/>
+      <c r="R155" s="19"/>
+      <c r="S155" s="19"/>
+      <c r="T155" s="19"/>
+      <c r="U155" s="19"/>
     </row>
     <row r="156" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B156" s="8"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+      <c r="N156" s="19"/>
+      <c r="O156" s="19"/>
+      <c r="P156" s="19"/>
+      <c r="Q156" s="19"/>
+      <c r="R156" s="19"/>
+      <c r="S156" s="19"/>
+      <c r="T156" s="19"/>
+      <c r="U156" s="19"/>
     </row>
     <row r="157" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B157" s="8"/>
@@ -4190,21 +4236,25 @@
       <c r="F166" s="4"/>
     </row>
     <row r="167" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B167" s="8"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
     <row r="168" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B168" s="8"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
     </row>
     <row r="169" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B169" s="8"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
     <row r="170" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B170" s="8"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -8459,9 +8509,29 @@
       <c r="E1020" s="4"/>
       <c r="F1020" s="4"/>
     </row>
+    <row r="1021" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1021" s="4"/>
+      <c r="E1021" s="4"/>
+      <c r="F1021" s="4"/>
+    </row>
+    <row r="1022" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1022" s="4"/>
+      <c r="E1022" s="4"/>
+      <c r="F1022" s="4"/>
+    </row>
+    <row r="1023" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1023" s="4"/>
+      <c r="E1023" s="4"/>
+      <c r="F1023" s="4"/>
+    </row>
+    <row r="1024" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1024" s="4"/>
+      <c r="E1024" s="4"/>
+      <c r="F1024" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B25:B28 B30:B166 B13:B18 B3:B11">
+    <dataValidation type="list" allowBlank="1" sqref="B27:B30 B3:B11 B32:B170 B13:B21">
       <formula1>"Passed,In Progress,Failed"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
   <si>
     <t>Description</t>
   </si>
@@ -44,13 +44,7 @@
     <t>If player takes damage by 6 his health should decrease by 6</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Example of question: Can user end turn without playing any of his cards? Your answer: I assume he can. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player draws a card -&gt; number of card in his deck decreases </t>
   </si>
   <si>
     <t>Passed</t>
@@ -110,9 +104,6 @@
     <t>Boost Attack Cards have the index 2</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Boost Attack Cards have a boost value of 3</t>
   </si>
   <si>
@@ -134,22 +125,6 @@
   <si>
     <t>The turn player can play any number of 
 Boost Attack Cards during his turn</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Each Boost Attack Card played increases the attack
-of the next played attack card </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>unitl the end of the players turn</t>
-    </r>
   </si>
   <si>
     <t>When the turn changes, all attack boost is lost
@@ -202,9 +177,6 @@
   <si>
     <t>First player decided at random or coin toss?
 Maybe in future implementation.</t>
-  </si>
-  <si>
-    <t>Game should be Singleton class?</t>
   </si>
   <si>
     <t>When a player is created he starts with:
@@ -299,12 +271,142 @@
 himself, the attack is blocked and one Protect Counter is
 removed</t>
   </si>
+  <si>
+    <t>Only one Attack Card can be played in a turn</t>
+  </si>
+  <si>
+    <t>Player draws a card -&gt; number of card in his deck decreases by 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Player has no cards in the deck and 1 card in hand.
+Player plays his last card from his hand.
+Opponent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>doesn’t survive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> his turn. -&gt; Game ends. Player wins</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Player has no cards in the deck and 1 card in hand.
+Player plays his last card from his hand.
+Opponent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>survives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> his turn. -&gt; Game ends. Opponent wins</t>
+    </r>
+  </si>
+  <si>
+    <t>Player attacks opponent with X damage.
+Opponent can take the attack and reduce his health by X</t>
+  </si>
+  <si>
+    <t>Player attacks opponent with X damage.
+Opponent can block the attack if he has at least:
+1 Protect Counter or
+1 Protect Card in hand or
+1 Attack Card with index X</t>
+  </si>
+  <si>
+    <t>If players health is reduced to 0 -&gt; Game ends. Opponent wins</t>
+  </si>
+  <si>
+    <t>Player plays Boost Attack Card -&gt; damage increases by +3</t>
+  </si>
+  <si>
+    <t>Player plays Protect Card -&gt; Protect Counter increases by +1</t>
+  </si>
+  <si>
+    <t>Game should be Singleton class?
+Future implementations of the game can have
+different mods, and each mod can be a static 
+method of a Singleton class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each Boost Attack Card played increases the attack
+of the next played Attack Card </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>unitl the end of the players turn</t>
+    </r>
+  </si>
+  <si>
+    <t>Attack Cards deal damage to opponent equal to their index value</t>
+  </si>
+  <si>
+    <t>This damage can be increased by playing Boost
+Attack Cards</t>
+  </si>
+  <si>
+    <t>If a player is attacked by the opponent for X damage, the player
+can discard one Attack Card with index X to block the attack</t>
+  </si>
+  <si>
+    <t>Player defends with an Attack Card -&gt; his turn continues</t>
+  </si>
+  <si>
+    <t>Then his turn continues normaly</t>
+  </si>
+  <si>
+    <t>Player attacks with Attack Card -&gt; attackingStatus becomes true</t>
+  </si>
+  <si>
+    <t>Players turn starts -&gt; damage and attackingStatus are reset</t>
+  </si>
+  <si>
+    <t>Does the player discard the Attack Card used for
+defending?
+Yes he does.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -360,6 +462,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -820,11 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1024"/>
+  <dimension ref="A1:U1034"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G72:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -867,10 +977,10 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="13"/>
@@ -880,10 +990,10 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="13"/>
@@ -893,10 +1003,10 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="13"/>
@@ -906,10 +1016,10 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
@@ -922,37 +1032,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -962,10 +1072,10 @@
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
@@ -973,32 +1083,38 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12"/>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>6</v>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
@@ -1006,29 +1122,25 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>14</v>
-      </c>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="17" t="s">
-        <v>51</v>
-      </c>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>16</v>
+      <c r="A15" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
@@ -1037,11 +1149,11 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>25</v>
+      <c r="A16" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
@@ -1049,12 +1161,12 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>46</v>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
@@ -1063,11 +1175,11 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>47</v>
+      <c r="A18" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
@@ -1076,11 +1188,11 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>18</v>
+      <c r="A19" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -1088,434 +1200,310 @@
       <c r="F19" s="13"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>19</v>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>55</v>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="15" t="s">
-        <v>59</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="12"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="17"/>
+      <c r="G24" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="17" t="s">
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="B26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="11"/>
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="11"/>
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="12"/>
+      <c r="G30" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11"/>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-    </row>
-    <row r="35" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-    </row>
-    <row r="36" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-    </row>
-    <row r="37" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-    </row>
-    <row r="38" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-    </row>
-    <row r="39" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-    </row>
-    <row r="40" spans="1:21" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-    </row>
-    <row r="41" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-    </row>
-    <row r="42" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
+      <c r="B37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="18"/>
+      <c r="A43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C43" s="19"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
@@ -1536,12 +1524,12 @@
       <c r="T43" s="19"/>
       <c r="U43" s="19"/>
     </row>
-    <row r="44" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="20"/>
@@ -1563,16 +1551,14 @@
       <c r="T44" s="19"/>
       <c r="U44" s="19"/>
     </row>
-    <row r="45" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>28</v>
+    <row r="45" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>29</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C45" s="19"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -1592,12 +1578,12 @@
       <c r="T45" s="19"/>
       <c r="U45" s="19"/>
     </row>
-    <row r="46" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>30</v>
+    <row r="46" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="20"/>
@@ -1619,16 +1605,14 @@
       <c r="T46" s="19"/>
       <c r="U46" s="19"/>
     </row>
-    <row r="47" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>33</v>
+    <row r="47" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>54</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C47" s="19"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -1648,12 +1632,16 @@
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
     </row>
-    <row r="48" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
+    <row r="48" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -1673,14 +1661,14 @@
       <c r="T48" s="19"/>
       <c r="U48" s="19"/>
     </row>
-    <row r="49" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="22" t="s">
-        <v>36</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="22"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -1700,14 +1688,14 @@
       <c r="T49" s="19"/>
       <c r="U49" s="19"/>
     </row>
-    <row r="50" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>37</v>
+    <row r="50" spans="1:21" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="C50" s="22"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -1727,10 +1715,16 @@
       <c r="T50" s="19"/>
       <c r="U50" s="19"/>
     </row>
-    <row r="51" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+    <row r="51" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -1750,12 +1744,10 @@
       <c r="T51" s="19"/>
       <c r="U51" s="19"/>
     </row>
-    <row r="52" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>38</v>
-      </c>
+    <row r="52" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
       <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -1776,12 +1768,10 @@
       <c r="U52" s="19"/>
     </row>
     <row r="53" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>9</v>
-      </c>
+      <c r="A53" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
@@ -1804,10 +1794,10 @@
     </row>
     <row r="54" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="20"/>
@@ -1829,10 +1819,16 @@
       <c r="T54" s="19"/>
       <c r="U54" s="19"/>
     </row>
-    <row r="55" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
+    <row r="55" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -1853,8 +1849,12 @@
       <c r="U55" s="19"/>
     </row>
     <row r="56" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C56" s="19"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
@@ -1875,10 +1875,16 @@
       <c r="T56" s="19"/>
       <c r="U56" s="19"/>
     </row>
-    <row r="57" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+    <row r="57" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -1898,9 +1904,13 @@
       <c r="T57" s="19"/>
       <c r="U57" s="19"/>
     </row>
-    <row r="58" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="18"/>
+    <row r="58" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C58" s="19"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
@@ -1921,10 +1931,16 @@
       <c r="T58" s="19"/>
       <c r="U58" s="19"/>
     </row>
-    <row r="59" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+    <row r="59" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>32</v>
+      </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -1945,8 +1961,12 @@
       <c r="U59" s="19"/>
     </row>
     <row r="60" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C60" s="19"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
@@ -1991,7 +2011,9 @@
       <c r="U61" s="19"/>
     </row>
     <row r="62" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
+      <c r="A62" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="20"/>
@@ -2014,8 +2036,12 @@
       <c r="U62" s="19"/>
     </row>
     <row r="63" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="18"/>
+      <c r="A63" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C63" s="19"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
@@ -2037,8 +2063,12 @@
       <c r="U63" s="19"/>
     </row>
     <row r="64" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C64" s="19"/>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
@@ -2060,8 +2090,12 @@
       <c r="U64" s="19"/>
     </row>
     <row r="65" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="18"/>
+      <c r="A65" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C65" s="19"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
@@ -2082,10 +2116,16 @@
       <c r="T65" s="19"/>
       <c r="U65" s="19"/>
     </row>
-    <row r="66" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+    <row r="66" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -2105,14 +2145,22 @@
       <c r="T66" s="19"/>
       <c r="U66" s="19"/>
     </row>
-    <row r="67" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
+    <row r="67" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="21"/>
+      <c r="G67" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
@@ -4176,195 +4224,375 @@
       <c r="U156" s="19"/>
     </row>
     <row r="157" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B157" s="8"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="19"/>
+      <c r="K157" s="19"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="19"/>
+      <c r="N157" s="19"/>
+      <c r="O157" s="19"/>
+      <c r="P157" s="19"/>
+      <c r="Q157" s="19"/>
+      <c r="R157" s="19"/>
+      <c r="S157" s="19"/>
+      <c r="T157" s="19"/>
+      <c r="U157" s="19"/>
     </row>
     <row r="158" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B158" s="8"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+      <c r="N158" s="19"/>
+      <c r="O158" s="19"/>
+      <c r="P158" s="19"/>
+      <c r="Q158" s="19"/>
+      <c r="R158" s="19"/>
+      <c r="S158" s="19"/>
+      <c r="T158" s="19"/>
+      <c r="U158" s="19"/>
     </row>
     <row r="159" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B159" s="8"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="19"/>
+      <c r="N159" s="19"/>
+      <c r="O159" s="19"/>
+      <c r="P159" s="19"/>
+      <c r="Q159" s="19"/>
+      <c r="R159" s="19"/>
+      <c r="S159" s="19"/>
+      <c r="T159" s="19"/>
+      <c r="U159" s="19"/>
     </row>
     <row r="160" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B160" s="8"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-    </row>
-    <row r="161" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B161" s="8"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-    </row>
-    <row r="162" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B162" s="8"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-    </row>
-    <row r="163" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B163" s="8"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-    </row>
-    <row r="164" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B164" s="8"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-    </row>
-    <row r="165" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B165" s="8"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-    </row>
-    <row r="166" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B166" s="8"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-    </row>
-    <row r="167" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A160" s="19"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19"/>
+      <c r="N160" s="19"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="19"/>
+      <c r="Q160" s="19"/>
+      <c r="R160" s="19"/>
+      <c r="S160" s="19"/>
+      <c r="T160" s="19"/>
+      <c r="U160" s="19"/>
+    </row>
+    <row r="161" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A161" s="19"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19"/>
+      <c r="O161" s="19"/>
+      <c r="P161" s="19"/>
+      <c r="Q161" s="19"/>
+      <c r="R161" s="19"/>
+      <c r="S161" s="19"/>
+      <c r="T161" s="19"/>
+      <c r="U161" s="19"/>
+    </row>
+    <row r="162" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A162" s="19"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="19"/>
+      <c r="S162" s="19"/>
+      <c r="T162" s="19"/>
+      <c r="U162" s="19"/>
+    </row>
+    <row r="163" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A163" s="19"/>
+      <c r="B163" s="18"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="19"/>
+      <c r="L163" s="19"/>
+      <c r="M163" s="19"/>
+      <c r="N163" s="19"/>
+      <c r="O163" s="19"/>
+      <c r="P163" s="19"/>
+      <c r="Q163" s="19"/>
+      <c r="R163" s="19"/>
+      <c r="S163" s="19"/>
+      <c r="T163" s="19"/>
+      <c r="U163" s="19"/>
+    </row>
+    <row r="164" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A164" s="19"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="19"/>
+      <c r="L164" s="19"/>
+      <c r="M164" s="19"/>
+      <c r="N164" s="19"/>
+      <c r="O164" s="19"/>
+      <c r="P164" s="19"/>
+      <c r="Q164" s="19"/>
+      <c r="R164" s="19"/>
+      <c r="S164" s="19"/>
+      <c r="T164" s="19"/>
+      <c r="U164" s="19"/>
+    </row>
+    <row r="165" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A165" s="19"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="19"/>
+      <c r="M165" s="19"/>
+      <c r="N165" s="19"/>
+      <c r="O165" s="19"/>
+      <c r="P165" s="19"/>
+      <c r="Q165" s="19"/>
+      <c r="R165" s="19"/>
+      <c r="S165" s="19"/>
+      <c r="T165" s="19"/>
+      <c r="U165" s="19"/>
+    </row>
+    <row r="166" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A166" s="19"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="19"/>
+      <c r="N166" s="19"/>
+      <c r="O166" s="19"/>
+      <c r="P166" s="19"/>
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
+      <c r="S166" s="19"/>
+      <c r="T166" s="19"/>
+      <c r="U166" s="19"/>
+    </row>
+    <row r="167" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B167" s="8"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B168" s="8"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B169" s="8"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B170" s="8"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B171" s="8"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B172" s="8"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B173" s="8"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B174" s="8"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B175" s="8"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B176" s="8"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B177" s="8"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B178" s="8"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B179" s="8"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B180" s="8"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -8529,9 +8757,59 @@
       <c r="E1024" s="4"/>
       <c r="F1024" s="4"/>
     </row>
+    <row r="1025" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1025" s="4"/>
+      <c r="E1025" s="4"/>
+      <c r="F1025" s="4"/>
+    </row>
+    <row r="1026" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1026" s="4"/>
+      <c r="E1026" s="4"/>
+      <c r="F1026" s="4"/>
+    </row>
+    <row r="1027" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1027" s="4"/>
+      <c r="E1027" s="4"/>
+      <c r="F1027" s="4"/>
+    </row>
+    <row r="1028" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1028" s="4"/>
+      <c r="E1028" s="4"/>
+      <c r="F1028" s="4"/>
+    </row>
+    <row r="1029" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1029" s="4"/>
+      <c r="E1029" s="4"/>
+      <c r="F1029" s="4"/>
+    </row>
+    <row r="1030" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1030" s="4"/>
+      <c r="E1030" s="4"/>
+      <c r="F1030" s="4"/>
+    </row>
+    <row r="1031" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1031" s="4"/>
+      <c r="E1031" s="4"/>
+      <c r="F1031" s="4"/>
+    </row>
+    <row r="1032" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1032" s="4"/>
+      <c r="E1032" s="4"/>
+      <c r="F1032" s="4"/>
+    </row>
+    <row r="1033" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1033" s="4"/>
+      <c r="E1033" s="4"/>
+      <c r="F1033" s="4"/>
+    </row>
+    <row r="1034" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1034" s="4"/>
+      <c r="E1034" s="4"/>
+      <c r="F1034" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B27:B30 B3:B11 B32:B170 B13:B21">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B21 B42:B180 B23:B40">
       <formula1>"Passed,In Progress,Failed"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="144">
   <si>
     <t>Description</t>
   </si>
@@ -57,41 +57,19 @@
   </si>
   <si>
     <t>CARDS</t>
-  </si>
-  <si>
-    <t>The game is played with two players</t>
   </si>
   <si>
     <t>The game requires 2 different players.
 A player can not play against himself</t>
   </si>
   <si>
-    <t>The two players must be different</t>
-  </si>
-  <si>
     <t>Each player starts with 20 health points (HP)</t>
   </si>
   <si>
-    <t>Game ends when one of the players loses all health points</t>
-  </si>
-  <si>
     <t>Game begins by both players drawing 6 cards from the deck</t>
   </si>
   <si>
     <t>The first turn belongs to the first player</t>
-  </si>
-  <si>
-    <t>The turn starts by drawing a card from the deck</t>
-  </si>
-  <si>
-    <t>The turn ends when the players hand is empty</t>
-  </si>
-  <si>
-    <t>The turn ends when the player chooses to end it</t>
-  </si>
-  <si>
-    <t>A player can attack only one per turn, 
-and with one Attack Card</t>
   </si>
   <si>
     <t>After a players turn is finished, 
@@ -165,9 +143,6 @@
 5 Protect Cards</t>
   </si>
   <si>
-    <t>Before the game begins, both decks are shuffled</t>
-  </si>
-  <si>
     <t>There are 2 Attack Cards for each index</t>
   </si>
   <si>
@@ -179,52 +154,8 @@
 Maybe in future implementation.</t>
   </si>
   <si>
-    <t>When a player is created he starts with:
-20 HP
-25 cards in deck
-0 cards in hand
-Has not last card played (null)
-Is not attacking (false)
-Starts with damage value of 0
-Has his deck shuffled</t>
-  </si>
-  <si>
-    <t>If a player is created with no deck (null)
-give him a new deck and shuffle it</t>
-  </si>
-  <si>
     <t>Each player has 10 copies of a Boost Attack 
 Card in their deck</t>
-  </si>
-  <si>
-    <t>A player can play 0, 1 or more cards during his turn</t>
-  </si>
-  <si>
-    <t>The turn ends when the player attacks his opponent
-(plays an Attack Card)</t>
-  </si>
-  <si>
-    <t>Game ends when one player has no cards left
-in both hand and deck</t>
-  </si>
-  <si>
-    <t>After a card is used, it is removed from the game</t>
-  </si>
-  <si>
-    <t>A card removed from the game can't be used
-for the rest of the game</t>
-  </si>
-  <si>
-    <t>A player can't have negative health</t>
-  </si>
-  <si>
-    <t>A player can't be attacked with negative damage</t>
-  </si>
-  <si>
-    <t>A player can't draw cards if his deck is empty</t>
-  </si>
-  <si>
-    <t>A player can't play a card that is not in his hand</t>
   </si>
   <si>
     <t xml:space="preserve">When a Protect Card is played, the player receives one
@@ -275,83 +206,6 @@
     <t>Only one Attack Card can be played in a turn</t>
   </si>
   <si>
-    <t>Player draws a card -&gt; number of card in his deck decreases by 1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Player has no cards in the deck and 1 card in hand.
-Player plays his last card from his hand.
-Opponent </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>doesn’t survive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> his turn. -&gt; Game ends. Player wins</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Player has no cards in the deck and 1 card in hand.
-Player plays his last card from his hand.
-Opponent </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>survives</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> his turn. -&gt; Game ends. Opponent wins</t>
-    </r>
-  </si>
-  <si>
-    <t>Player attacks opponent with X damage.
-Opponent can take the attack and reduce his health by X</t>
-  </si>
-  <si>
-    <t>Player attacks opponent with X damage.
-Opponent can block the attack if he has at least:
-1 Protect Counter or
-1 Protect Card in hand or
-1 Attack Card with index X</t>
-  </si>
-  <si>
-    <t>If players health is reduced to 0 -&gt; Game ends. Opponent wins</t>
-  </si>
-  <si>
-    <t>Player plays Boost Attack Card -&gt; damage increases by +3</t>
-  </si>
-  <si>
-    <t>Player plays Protect Card -&gt; Protect Counter increases by +1</t>
-  </si>
-  <si>
     <t>Game should be Singleton class?
 Future implementations of the game can have
 different mods, and each mod can be a static 
@@ -385,28 +239,722 @@
 can discard one Attack Card with index X to block the attack</t>
   </si>
   <si>
-    <t>Player defends with an Attack Card -&gt; his turn continues</t>
-  </si>
-  <si>
     <t>Then his turn continues normaly</t>
-  </si>
-  <si>
-    <t>Player attacks with Attack Card -&gt; attackingStatus becomes true</t>
-  </si>
-  <si>
-    <t>Players turn starts -&gt; damage and attackingStatus are reset</t>
   </si>
   <si>
     <t>Does the player discard the Attack Card used for
 defending?
 Yes he does.</t>
+  </si>
+  <si>
+    <t>If a player is created with health value less than 1, 
+his initial health is set to the default value 20</t>
+  </si>
+  <si>
+    <t>If a player is created with health value greater than 0, 
+his initial health is set to that value</t>
+  </si>
+  <si>
+    <t>If a player is created, he should have no cards in his hand</t>
+  </si>
+  <si>
+    <t>If a player is created, he should have the attribute lastPlayerCard
+set to null</t>
+  </si>
+  <si>
+    <t>If a player is created, his initial damage output is 0</t>
+  </si>
+  <si>
+    <t>If a player is created, his Protecct Counter should be 0</t>
+  </si>
+  <si>
+    <t>If a player has 10 health and takes more than 10 damage 
+(e.g. 15), his health should become 0</t>
+  </si>
+  <si>
+    <t>If a player has 10 health and takes 10 damage, his health should become 0</t>
+  </si>
+  <si>
+    <t>If a player has 10 health and takes 1 damage, his health should become 9</t>
+  </si>
+  <si>
+    <t>If a player has 10 health and takes negative damage (e.g. -300), his health should stay 10</t>
+  </si>
+  <si>
+    <t>Players health can only be reduced with damage value greater than 0</t>
+  </si>
+  <si>
+    <t>Player's health can't be less than 0</t>
+  </si>
+  <si>
+    <t>If a player is created, he should not be in attacking status 
+(attackingStatus == false)</t>
+  </si>
+  <si>
+    <t>If a player uses an Attack Card for attacking his opponent, 
+he is then in attacking status (attackingStatus == true)</t>
+  </si>
+  <si>
+    <t>The resetAttackingStatus() method should set attribute attacknigStatus to false</t>
+  </si>
+  <si>
+    <t>This method is called at the beginning of a players turn</t>
+  </si>
+  <si>
+    <t>attackingStatus should stay false</t>
+  </si>
+  <si>
+    <t>The resetDamage() method should set attribute damage to 0</t>
+  </si>
+  <si>
+    <t>If a player uses a Protect Card, his attacking status 
+doesn’t change</t>
+  </si>
+  <si>
+    <t>If a player uses a Boost Attack Card, his attacking status 
+doesn’t change</t>
+  </si>
+  <si>
+    <t>If a player uses a Protect  Card, his damage output 
+should not increase</t>
+  </si>
+  <si>
+    <t>If a player's damage output is 0 and he uses 2 Boost Attack 
+Cards and 1 Attack Card with index 7, his damage output 
+should become 2*3 + 7 = 13</t>
+  </si>
+  <si>
+    <t>If a player's damage output is 0 and he uses 3 Boost Attack 
+Cards, his damage output should become 3*3 = 9</t>
+  </si>
+  <si>
+    <t>If the deck has cards and player draws a card -&gt; number 
+of card in his deck decreases by 1</t>
+  </si>
+  <si>
+    <t>If the deck has cards and player draws a card -&gt; number 
+of card in his hand increase by 1</t>
+  </si>
+  <si>
+    <t>When the game begins and players deck contains 
+more than 6 or more cards (e.g. 25), he should draw 6 cards</t>
+  </si>
+  <si>
+    <t>The method drawInitCards(), calls the method 
+drawCard() 6 times</t>
+  </si>
+  <si>
+    <t>If a player plays a card from his hand, the number of cards 
+hand should decrease by 1</t>
+  </si>
+  <si>
+    <t>If a player plays a Protect Card and is not attacked by opponent,
+his Protect Counter should increase by 1</t>
+  </si>
+  <si>
+    <t>If a player has a Protect Card in hand and is attacked by 
+opponent, he can block the attack with the Protect Card 
+in his hand</t>
+  </si>
+  <si>
+    <t>If the player has no other option to block 
+(Protect Counter, Attack Card), he must take the damage</t>
+  </si>
+  <si>
+    <t>If the player has no other option to block 
+(Protect Card, Attack Card), he must take the damage</t>
+  </si>
+  <si>
+    <t>If a player has an Attack Card with index X and is attacked 
+by opponent for X damage, he can block the attack with that
+Attack Card with index X</t>
+  </si>
+  <si>
+    <t>Cards removed from the hand are removed 
+from the game</t>
+  </si>
+  <si>
+    <t>That Protect Card is removed from the hand</t>
+  </si>
+  <si>
+    <t>That Attack Card is removed from the hand</t>
+  </si>
+  <si>
+    <t>If a player has Protect Counters and is attacked 
+by opponent, he can block the attack with his Protect Counter</t>
+  </si>
+  <si>
+    <t>If a player blocked the opponents attack with a Protect Counter,
+his Protect Counter should decrease by 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a player </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>does not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> have a Protect Card in hand and is attacked 
+by opponent, he can't block the attack with a Protect Card</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a player </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>does not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> have Protect Counters and is attacked 
+by opponent, he can't block the attack with Protect Counter's</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a player </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>does not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> have an Attack Card with index X and is 
+attacked by opponent for X damage, he can't block the attack 
+with Attack Cards</t>
+    </r>
+  </si>
+  <si>
+    <t>If the player has no other option to block 
+(Protect Counter, Protect Card), he must take the damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a Card with index X is in the players hand, the method 
+findNumberInHand(X) should return true </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a Card with index X is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the players hand, the method 
+findNumberInHand(X) should return false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a player wants to play a card with index X that is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in his hand,
+the game should inform the player that there is no card
+in his hand with index X and that he has to choose a valid card 
+index from his hand</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a player has </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cards in the deck, he can't draw cards anymore</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a player is created with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> deck (null), then a new deck will be
+created with 25 cards (10 Attack, 10 Boost, 5 Protect)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a game is created with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> players, the game should create
+two players with 20 health and default 25 card deck</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a game is created with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>same</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> player as 
+player1 and player2, then the game will create a new player
+for player2 wth 20 health and default 25 card deck</t>
+    </r>
+  </si>
+  <si>
+    <t>If a game is created, the gameEnded flag should be false</t>
+  </si>
+  <si>
+    <t>If a player has 0 health, then the opponet should win the game</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a player has no cards in bot hand and deck
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>at the start of his turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, the opponent should win the game</t>
+    </r>
+  </si>
+  <si>
+    <t>UTILITY</t>
+  </si>
+  <si>
+    <t>The static method Utility.generateCards() should create a new
+deck with 25 cards</t>
+  </si>
+  <si>
+    <t>If a player is created with a "default" deck, his deck should
+contain 25 cards</t>
+  </si>
+  <si>
+    <t>This is referenced as a "default" deck</t>
+  </si>
+  <si>
+    <t>The "default" deck should contain Attack Cards with 
+indexes 3, 4, 5, 6 and 7</t>
+  </si>
+  <si>
+    <t>The "default" deck should contain 2 Attack Cards for each index</t>
+  </si>
+  <si>
+    <t>The "default" deck should contain 10 Attack Cards in total</t>
+  </si>
+  <si>
+    <t>The "default" deck should contain 10 Boost Attack Cards in total</t>
+  </si>
+  <si>
+    <t>The "default" deck should contain 5 Protect Cards in total</t>
+  </si>
+  <si>
+    <t>If a player is created, his initial deck should be Shuffled</t>
+  </si>
+  <si>
+    <t>Algoritam used for shuffling:
+-&gt; modern Fisher–Yates shuffle</t>
+  </si>
+  <si>
+    <t>MANUAL TESTING</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IMPORTANT NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>***</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Some testing can't be done by Unit Testing 
+but by manualy looking at the behaviour of the 
+code that is being executed. That type of testing 
+will be refered to as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MANUAL TESTING***</t>
+    </r>
+  </si>
+  <si>
+    <t>Before a players turn starts, the game checks if the sum of cards
+in both hand and deck is greater than 0, and if TRUE, the player 
+begins his turn, ELSE the player looses the game</t>
+  </si>
+  <si>
+    <t>The players turn should start by drawing a card from the deck
+(if the player has cards left in the deck)</t>
+  </si>
+  <si>
+    <t>After drawing a card, the player should have his damage set to 0,
+and his attackingStatus set to false</t>
+  </si>
+  <si>
+    <t>After reseting damage and attackingStatus, the game should 
+checks if the player is under attack from opponent</t>
+  </si>
+  <si>
+    <t>If the player is under attack, the game should check if the player
+has a way to block the opponents attack</t>
+  </si>
+  <si>
+    <t>If the player can block the attack, the game should give the player
+the option to choose if he wants to block or take the damage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the player can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> block the attack, the player should 
+take the damage and have his health reduced by that amount</t>
+    </r>
+  </si>
+  <si>
+    <t>The game should list all possible options for blocking the 
+attack and the option to willingly take the damage</t>
+  </si>
+  <si>
+    <t>The game should take as input the players desired option of
+dealing with the attack</t>
+  </si>
+  <si>
+    <t>If the player choose to take the damage, his health should be 
+reduced by the damage amount</t>
+  </si>
+  <si>
+    <t>If the player choose to use a Protect Counter, the game should
+remove 1 Protect Counter from the player</t>
+  </si>
+  <si>
+    <t>If the player choose to use a Protect Card the game should
+remove 1 Protect Card from the players hand</t>
+  </si>
+  <si>
+    <t>If the player choose to use a viable Attack Card the game should
+remove that Attack Card from the players hand</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After dealing with the opponents attack, one of the three
+scenarios should happen:
+1. If the player didn’t survive the attack (helath is 0), 
+     the game should end, and the opponent wins
+2. If the player survived the attack and has </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cards left in 
+     his hand (he used the one card in his hand to block the attack)
+     the game should end his turn
+3. If the player survived the attack and has cards left in his hand,
+     the player should continue his turn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the player is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> under attack, the player should continue 
+his turn normaly</t>
+    </r>
+  </si>
+  <si>
+    <t>A player should have the option to play 0, 1 or more cards 
+during his turn</t>
+  </si>
+  <si>
+    <t>A player should be able to end his turn willingly 
+(except after playing an Attack Card, or having no cards 
+left in hand)</t>
+  </si>
+  <si>
+    <t>If a player plays a Protect Card or Boost Attack Card, he should
+continue his turn (except if he has no cards left in hand)</t>
+  </si>
+  <si>
+    <t>If a player has no cards in hand, the game should end his turn</t>
+  </si>
+  <si>
+    <t>A player can play cards from his hand, else the game will notify
+the player that he must choose a valid card or end his turn</t>
+  </si>
+  <si>
+    <t>If a player uses a Boost Attack Card, his attribute damage 
+should increases by 3</t>
+  </si>
+  <si>
+    <t>If a player uses a Attack Card, his attribute damage 
+should increase by the Attack Card index</t>
+  </si>
+  <si>
+    <t>After the increase, THIS value of attribute 
+damage is the amount of damage that the 
+player is attacking his opponent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a player plays an Attack Card, the game should end his turn.
+Now the player is attacking his opponent for the amount equal
+to the value of the players attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>damage</t>
+    </r>
+  </si>
+  <si>
+    <t>After a players turn has ended, the game checks if the player 
+has health left. If no (player didn’t survive opponents attack), 
+the game ends and the opponent wins. If yes, opponents turn 
+starts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A players turn is summarized in the following steps:
+1. Check if player has cards left in both hand and deck:
+    &gt; No - Game over. Opponent wins.
+    &gt; Yes - Continue to step 2.
+2. Check if player is under attack:
+    &gt; No - Continue to step 3.
+    &gt; Yes - Check if player can defend:
+                 &gt; No - Player takes damage
+                 &gt; Yes - Check if the player wants to defent:
+                              &gt; No - Player takes damage
+                              &gt; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -474,6 +1022,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -507,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -581,6 +1134,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,11 +1498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1034"/>
+  <dimension ref="A1:U1089"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G72:G73"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -975,14 +1543,16 @@
       <c r="F2" s="13"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -990,7 +1560,7 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>7</v>
@@ -1001,9 +1571,9 @@
       <c r="F4" s="13"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>7</v>
@@ -1014,9 +1584,9 @@
       <c r="F5" s="13"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>7</v>
@@ -1027,284 +1597,300 @@
       <c r="F6" s="13"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>65</v>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>57</v>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>58</v>
+      <c r="A10" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>66</v>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>67</v>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="29" t="s">
+        <v>115</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>68</v>
+      <c r="A13" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>69</v>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>70</v>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>71</v>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="29" t="s">
+        <v>63</v>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>81</v>
+      <c r="G17" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>78</v>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>80</v>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>140</v>
+      </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="27" t="s">
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="27" t="s">
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="C24" s="28"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>23</v>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>43</v>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>7</v>
@@ -1313,80 +1899,82 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>16</v>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>17</v>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>18</v>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="30" t="s">
+        <v>79</v>
+      </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>53</v>
+      <c r="G32" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>54</v>
+      <c r="C33" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>19</v>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>7</v>
@@ -1395,11 +1983,11 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>20</v>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>7</v>
@@ -1408,1467 +1996,839 @@
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>51</v>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="C36" s="12"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>9</v>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>15</v>
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="12"/>
+      <c r="C39" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>94</v>
+      </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="11"/>
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="18" t="s">
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-    </row>
-    <row r="44" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="C46" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="15"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="17"/>
+    </row>
+    <row r="59" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="17"/>
+    </row>
+    <row r="60" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="15"/>
+    </row>
+    <row r="61" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="15"/>
+    </row>
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="15"/>
+    </row>
+    <row r="65" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="18" t="s">
+    </row>
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-    </row>
-    <row r="45" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="18" t="s">
+      <c r="C66" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-    </row>
-    <row r="46" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="18" t="s">
+      <c r="C67" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-    </row>
-    <row r="47" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="18" t="s">
+      <c r="C68" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-    </row>
-    <row r="48" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="18" t="s">
+      <c r="C69" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="17"/>
+    </row>
+    <row r="70" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-    </row>
-    <row r="49" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="18" t="s">
+      <c r="C70" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="17"/>
+    </row>
+    <row r="71" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-    </row>
-    <row r="50" spans="1:21" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="18" t="s">
+      <c r="C71" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="17"/>
+    </row>
+    <row r="72" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-    </row>
-    <row r="51" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="18" t="s">
+      <c r="C72" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="17"/>
+    </row>
+    <row r="73" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-    </row>
-    <row r="52" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-    </row>
-    <row r="53" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="C73" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="17"/>
+    </row>
+    <row r="74" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="17"/>
+    </row>
+    <row r="75" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="17"/>
+    </row>
+    <row r="76" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="17"/>
+    </row>
+    <row r="77" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="17"/>
+    </row>
+    <row r="78" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="17"/>
+    </row>
+    <row r="79" spans="1:7" s="7" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="17"/>
+    </row>
+    <row r="80" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="17"/>
+    </row>
+    <row r="81" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="17"/>
+    </row>
+    <row r="82" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="17"/>
+    </row>
+    <row r="83" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="17"/>
+    </row>
+    <row r="84" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="17"/>
+    </row>
+    <row r="85" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="17"/>
+    </row>
+    <row r="86" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="17"/>
+    </row>
+    <row r="87" spans="1:7" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="17"/>
+    </row>
+    <row r="88" spans="1:7" s="7" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="17"/>
+    </row>
+    <row r="89" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="17"/>
+    </row>
+    <row r="90" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="17"/>
+    </row>
+    <row r="91" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="22"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="17"/>
+    </row>
+    <row r="92" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="15"/>
+    </row>
+    <row r="93" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A94" s="17"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="15"/>
+    </row>
+    <row r="95" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="15"/>
+    </row>
+    <row r="96" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="15"/>
+    </row>
+    <row r="97" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A97" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="15"/>
+    </row>
+    <row r="98" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-    </row>
-    <row r="54" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="18" t="s">
+      <c r="B98" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-    </row>
-    <row r="55" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-    </row>
-    <row r="56" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
-    </row>
-    <row r="57" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-    </row>
-    <row r="58" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-    </row>
-    <row r="59" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-    </row>
-    <row r="60" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-    </row>
-    <row r="61" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
-    </row>
-    <row r="62" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-    </row>
-    <row r="63" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-    </row>
-    <row r="64" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-    </row>
-    <row r="65" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-    </row>
-    <row r="66" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-    </row>
-    <row r="67" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
-    </row>
-    <row r="68" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-    </row>
-    <row r="69" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
-      <c r="T69" s="19"/>
-      <c r="U69" s="19"/>
-    </row>
-    <row r="70" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="19"/>
-      <c r="U70" s="19"/>
-    </row>
-    <row r="71" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="19"/>
-      <c r="U71" s="19"/>
-    </row>
-    <row r="72" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-    </row>
-    <row r="73" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="19"/>
-      <c r="U73" s="19"/>
-    </row>
-    <row r="74" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
-      <c r="U74" s="19"/>
-    </row>
-    <row r="75" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-    </row>
-    <row r="76" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
-      <c r="U76" s="19"/>
-    </row>
-    <row r="77" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19"/>
-      <c r="T77" s="19"/>
-      <c r="U77" s="19"/>
-    </row>
-    <row r="78" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="19"/>
-      <c r="T78" s="19"/>
-      <c r="U78" s="19"/>
-    </row>
-    <row r="79" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-    </row>
-    <row r="80" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="19"/>
-      <c r="S80" s="19"/>
-      <c r="T80" s="19"/>
-      <c r="U80" s="19"/>
-    </row>
-    <row r="81" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-    </row>
-    <row r="82" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="19"/>
-      <c r="U82" s="19"/>
-    </row>
-    <row r="83" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="19"/>
-      <c r="S83" s="19"/>
-      <c r="T83" s="19"/>
-      <c r="U83" s="19"/>
-    </row>
-    <row r="84" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
-      <c r="U84" s="19"/>
-    </row>
-    <row r="85" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
-      <c r="S85" s="19"/>
-      <c r="T85" s="19"/>
-      <c r="U85" s="19"/>
-    </row>
-    <row r="86" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
-      <c r="T86" s="19"/>
-      <c r="U86" s="19"/>
-    </row>
-    <row r="87" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
-      <c r="T87" s="19"/>
-      <c r="U87" s="19"/>
-    </row>
-    <row r="88" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19"/>
-      <c r="U88" s="19"/>
-    </row>
-    <row r="89" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="19"/>
-      <c r="U89" s="19"/>
-    </row>
-    <row r="90" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
-      <c r="S90" s="19"/>
-      <c r="T90" s="19"/>
-      <c r="U90" s="19"/>
-    </row>
-    <row r="91" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="19"/>
-      <c r="T91" s="19"/>
-      <c r="U91" s="19"/>
-    </row>
-    <row r="92" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
-      <c r="S92" s="19"/>
-      <c r="T92" s="19"/>
-      <c r="U92" s="19"/>
-    </row>
-    <row r="93" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
-      <c r="S93" s="19"/>
-      <c r="T93" s="19"/>
-      <c r="U93" s="19"/>
-    </row>
-    <row r="94" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19"/>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="19"/>
-      <c r="R94" s="19"/>
-      <c r="S94" s="19"/>
-      <c r="T94" s="19"/>
-      <c r="U94" s="19"/>
-    </row>
-    <row r="95" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="19"/>
-      <c r="O95" s="19"/>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="19"/>
-      <c r="R95" s="19"/>
-      <c r="S95" s="19"/>
-      <c r="T95" s="19"/>
-      <c r="U95" s="19"/>
-    </row>
-    <row r="96" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
-      <c r="M96" s="19"/>
-      <c r="N96" s="19"/>
-      <c r="O96" s="19"/>
-      <c r="P96" s="19"/>
-      <c r="Q96" s="19"/>
-      <c r="R96" s="19"/>
-      <c r="S96" s="19"/>
-      <c r="T96" s="19"/>
-      <c r="U96" s="19"/>
-    </row>
-    <row r="97" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
-      <c r="O97" s="19"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="19"/>
-      <c r="R97" s="19"/>
-      <c r="S97" s="19"/>
-      <c r="T97" s="19"/>
-      <c r="U97" s="19"/>
-    </row>
-    <row r="98" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
-      <c r="B98" s="18"/>
       <c r="C98" s="19"/>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
@@ -2889,9 +2849,13 @@
       <c r="T98" s="19"/>
       <c r="U98" s="19"/>
     </row>
-    <row r="99" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
-      <c r="B99" s="18"/>
+    <row r="99" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C99" s="19"/>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
@@ -2913,8 +2877,12 @@
       <c r="U99" s="19"/>
     </row>
     <row r="100" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
-      <c r="B100" s="18"/>
+      <c r="A100" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C100" s="19"/>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
@@ -2935,9 +2903,13 @@
       <c r="T100" s="19"/>
       <c r="U100" s="19"/>
     </row>
-    <row r="101" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
-      <c r="B101" s="18"/>
+    <row r="101" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C101" s="19"/>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
@@ -2958,9 +2930,13 @@
       <c r="T101" s="19"/>
       <c r="U101" s="19"/>
     </row>
-    <row r="102" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
-      <c r="B102" s="18"/>
+    <row r="102" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C102" s="19"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
@@ -2981,10 +2957,16 @@
       <c r="T102" s="19"/>
       <c r="U102" s="19"/>
     </row>
-    <row r="103" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="19"/>
+    <row r="103" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
@@ -3004,10 +2986,14 @@
       <c r="T103" s="19"/>
       <c r="U103" s="19"/>
     </row>
-    <row r="104" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A104" s="19"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="19"/>
+    <row r="104" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="22"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
@@ -3027,10 +3013,14 @@
       <c r="T104" s="19"/>
       <c r="U104" s="19"/>
     </row>
-    <row r="105" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="19"/>
+    <row r="105" spans="1:21" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="22"/>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -3050,10 +3040,16 @@
       <c r="T105" s="19"/>
       <c r="U105" s="19"/>
     </row>
-    <row r="106" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A106" s="19"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="19"/>
+    <row r="106" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -3073,10 +3069,10 @@
       <c r="T106" s="19"/>
       <c r="U106" s="19"/>
     </row>
-    <row r="107" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
+    <row r="107" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
       <c r="B107" s="18"/>
-      <c r="C107" s="19"/>
+      <c r="C107" s="22"/>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -3097,7 +3093,9 @@
       <c r="U107" s="19"/>
     </row>
     <row r="108" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A108" s="19"/>
+      <c r="A108" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="B108" s="18"/>
       <c r="C108" s="19"/>
       <c r="D108" s="20"/>
@@ -3120,8 +3118,12 @@
       <c r="U108" s="19"/>
     </row>
     <row r="109" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A109" s="19"/>
-      <c r="B109" s="18"/>
+      <c r="A109" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C109" s="19"/>
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
@@ -3142,10 +3144,16 @@
       <c r="T109" s="19"/>
       <c r="U109" s="19"/>
     </row>
-    <row r="110" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="19"/>
+    <row r="110" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -3166,8 +3174,12 @@
       <c r="U110" s="19"/>
     </row>
     <row r="111" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A111" s="19"/>
-      <c r="B111" s="18"/>
+      <c r="A111" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C111" s="19"/>
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
@@ -3188,10 +3200,16 @@
       <c r="T111" s="19"/>
       <c r="U111" s="19"/>
     </row>
-    <row r="112" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="19"/>
+    <row r="112" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A112" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
@@ -3211,9 +3229,13 @@
       <c r="T112" s="19"/>
       <c r="U112" s="19"/>
     </row>
-    <row r="113" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
-      <c r="B113" s="18"/>
+    <row r="113" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C113" s="19"/>
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
@@ -3234,10 +3256,16 @@
       <c r="T113" s="19"/>
       <c r="U113" s="19"/>
     </row>
-    <row r="114" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="19"/>
+    <row r="114" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -3258,8 +3286,12 @@
       <c r="U114" s="19"/>
     </row>
     <row r="115" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
-      <c r="B115" s="18"/>
+      <c r="A115" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C115" s="19"/>
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
@@ -3304,7 +3336,9 @@
       <c r="U116" s="19"/>
     </row>
     <row r="117" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
+      <c r="A117" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="B117" s="18"/>
       <c r="C117" s="19"/>
       <c r="D117" s="20"/>
@@ -3327,8 +3361,12 @@
       <c r="U117" s="19"/>
     </row>
     <row r="118" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
-      <c r="B118" s="18"/>
+      <c r="A118" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C118" s="19"/>
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
@@ -3350,8 +3388,12 @@
       <c r="U118" s="19"/>
     </row>
     <row r="119" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A119" s="19"/>
-      <c r="B119" s="18"/>
+      <c r="A119" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C119" s="19"/>
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
@@ -3373,8 +3415,12 @@
       <c r="U119" s="19"/>
     </row>
     <row r="120" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
-      <c r="B120" s="18"/>
+      <c r="A120" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C120" s="19"/>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
@@ -3395,10 +3441,16 @@
       <c r="T120" s="19"/>
       <c r="U120" s="19"/>
     </row>
-    <row r="121" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="19"/>
+    <row r="121" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -3418,14 +3470,22 @@
       <c r="T121" s="19"/>
       <c r="U121" s="19"/>
     </row>
-    <row r="122" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="19"/>
+    <row r="122" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A122" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="21"/>
+      <c r="G122" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
       <c r="J122" s="19"/>
@@ -4454,385 +4514,1375 @@
       <c r="U166" s="19"/>
     </row>
     <row r="167" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B167" s="8"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="18"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="19"/>
+      <c r="M167" s="19"/>
+      <c r="N167" s="19"/>
+      <c r="O167" s="19"/>
+      <c r="P167" s="19"/>
+      <c r="Q167" s="19"/>
+      <c r="R167" s="19"/>
+      <c r="S167" s="19"/>
+      <c r="T167" s="19"/>
+      <c r="U167" s="19"/>
     </row>
     <row r="168" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B168" s="8"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="18"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="19"/>
+      <c r="N168" s="19"/>
+      <c r="O168" s="19"/>
+      <c r="P168" s="19"/>
+      <c r="Q168" s="19"/>
+      <c r="R168" s="19"/>
+      <c r="S168" s="19"/>
+      <c r="T168" s="19"/>
+      <c r="U168" s="19"/>
     </row>
     <row r="169" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B169" s="8"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="18"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="19"/>
+      <c r="L169" s="19"/>
+      <c r="M169" s="19"/>
+      <c r="N169" s="19"/>
+      <c r="O169" s="19"/>
+      <c r="P169" s="19"/>
+      <c r="Q169" s="19"/>
+      <c r="R169" s="19"/>
+      <c r="S169" s="19"/>
+      <c r="T169" s="19"/>
+      <c r="U169" s="19"/>
     </row>
     <row r="170" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B170" s="8"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="19"/>
+      <c r="K170" s="19"/>
+      <c r="L170" s="19"/>
+      <c r="M170" s="19"/>
+      <c r="N170" s="19"/>
+      <c r="O170" s="19"/>
+      <c r="P170" s="19"/>
+      <c r="Q170" s="19"/>
+      <c r="R170" s="19"/>
+      <c r="S170" s="19"/>
+      <c r="T170" s="19"/>
+      <c r="U170" s="19"/>
     </row>
     <row r="171" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B171" s="8"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="19"/>
+      <c r="K171" s="19"/>
+      <c r="L171" s="19"/>
+      <c r="M171" s="19"/>
+      <c r="N171" s="19"/>
+      <c r="O171" s="19"/>
+      <c r="P171" s="19"/>
+      <c r="Q171" s="19"/>
+      <c r="R171" s="19"/>
+      <c r="S171" s="19"/>
+      <c r="T171" s="19"/>
+      <c r="U171" s="19"/>
     </row>
     <row r="172" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B172" s="8"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="19"/>
+      <c r="K172" s="19"/>
+      <c r="L172" s="19"/>
+      <c r="M172" s="19"/>
+      <c r="N172" s="19"/>
+      <c r="O172" s="19"/>
+      <c r="P172" s="19"/>
+      <c r="Q172" s="19"/>
+      <c r="R172" s="19"/>
+      <c r="S172" s="19"/>
+      <c r="T172" s="19"/>
+      <c r="U172" s="19"/>
     </row>
     <row r="173" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B173" s="8"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="18"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="19"/>
+      <c r="L173" s="19"/>
+      <c r="M173" s="19"/>
+      <c r="N173" s="19"/>
+      <c r="O173" s="19"/>
+      <c r="P173" s="19"/>
+      <c r="Q173" s="19"/>
+      <c r="R173" s="19"/>
+      <c r="S173" s="19"/>
+      <c r="T173" s="19"/>
+      <c r="U173" s="19"/>
     </row>
     <row r="174" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B174" s="8"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="19"/>
+      <c r="L174" s="19"/>
+      <c r="M174" s="19"/>
+      <c r="N174" s="19"/>
+      <c r="O174" s="19"/>
+      <c r="P174" s="19"/>
+      <c r="Q174" s="19"/>
+      <c r="R174" s="19"/>
+      <c r="S174" s="19"/>
+      <c r="T174" s="19"/>
+      <c r="U174" s="19"/>
     </row>
     <row r="175" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B175" s="8"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="21"/>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="19"/>
+      <c r="K175" s="19"/>
+      <c r="L175" s="19"/>
+      <c r="M175" s="19"/>
+      <c r="N175" s="19"/>
+      <c r="O175" s="19"/>
+      <c r="P175" s="19"/>
+      <c r="Q175" s="19"/>
+      <c r="R175" s="19"/>
+      <c r="S175" s="19"/>
+      <c r="T175" s="19"/>
+      <c r="U175" s="19"/>
     </row>
     <row r="176" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B176" s="8"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-    </row>
-    <row r="177" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B177" s="8"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-    </row>
-    <row r="178" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B178" s="8"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-    </row>
-    <row r="179" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B179" s="8"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-    </row>
-    <row r="180" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B180" s="8"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-    </row>
-    <row r="181" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-    </row>
-    <row r="182" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-    </row>
-    <row r="183" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-    </row>
-    <row r="184" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
-    </row>
-    <row r="185" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
-    </row>
-    <row r="186" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
-    </row>
-    <row r="187" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-    </row>
-    <row r="188" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-    </row>
-    <row r="189" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-    </row>
-    <row r="190" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D190" s="4"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4"/>
-    </row>
-    <row r="191" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
-    </row>
-    <row r="192" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-    </row>
-    <row r="193" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-    </row>
-    <row r="194" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-    </row>
-    <row r="195" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-    </row>
-    <row r="196" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
-    </row>
-    <row r="197" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
-      <c r="F197" s="4"/>
-    </row>
-    <row r="198" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
-    </row>
-    <row r="199" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
-    </row>
-    <row r="200" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
-      <c r="F200" s="4"/>
-    </row>
-    <row r="201" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-    </row>
-    <row r="202" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-    </row>
-    <row r="203" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-    </row>
-    <row r="204" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-    </row>
-    <row r="205" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
-    </row>
-    <row r="206" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-    </row>
-    <row r="207" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-    </row>
-    <row r="208" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
-    </row>
-    <row r="209" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="4"/>
-    </row>
-    <row r="210" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="4"/>
-    </row>
-    <row r="211" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D211" s="4"/>
-      <c r="E211" s="4"/>
-      <c r="F211" s="4"/>
-    </row>
-    <row r="212" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
-      <c r="F212" s="4"/>
-    </row>
-    <row r="213" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4"/>
-    </row>
-    <row r="214" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
-      <c r="F214" s="4"/>
-    </row>
-    <row r="215" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D215" s="4"/>
-      <c r="E215" s="4"/>
-      <c r="F215" s="4"/>
-    </row>
-    <row r="216" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="4"/>
-    </row>
-    <row r="217" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-    </row>
-    <row r="218" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="4"/>
-    </row>
-    <row r="219" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D219" s="4"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="4"/>
-    </row>
-    <row r="220" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
-    </row>
-    <row r="221" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D221" s="4"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="4"/>
-    </row>
-    <row r="222" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A176" s="19"/>
+      <c r="B176" s="18"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="19"/>
+      <c r="K176" s="19"/>
+      <c r="L176" s="19"/>
+      <c r="M176" s="19"/>
+      <c r="N176" s="19"/>
+      <c r="O176" s="19"/>
+      <c r="P176" s="19"/>
+      <c r="Q176" s="19"/>
+      <c r="R176" s="19"/>
+      <c r="S176" s="19"/>
+      <c r="T176" s="19"/>
+      <c r="U176" s="19"/>
+    </row>
+    <row r="177" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A177" s="19"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="19"/>
+      <c r="K177" s="19"/>
+      <c r="L177" s="19"/>
+      <c r="M177" s="19"/>
+      <c r="N177" s="19"/>
+      <c r="O177" s="19"/>
+      <c r="P177" s="19"/>
+      <c r="Q177" s="19"/>
+      <c r="R177" s="19"/>
+      <c r="S177" s="19"/>
+      <c r="T177" s="19"/>
+      <c r="U177" s="19"/>
+    </row>
+    <row r="178" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A178" s="19"/>
+      <c r="B178" s="18"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="19"/>
+      <c r="K178" s="19"/>
+      <c r="L178" s="19"/>
+      <c r="M178" s="19"/>
+      <c r="N178" s="19"/>
+      <c r="O178" s="19"/>
+      <c r="P178" s="19"/>
+      <c r="Q178" s="19"/>
+      <c r="R178" s="19"/>
+      <c r="S178" s="19"/>
+      <c r="T178" s="19"/>
+      <c r="U178" s="19"/>
+    </row>
+    <row r="179" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A179" s="19"/>
+      <c r="B179" s="18"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="19"/>
+      <c r="K179" s="19"/>
+      <c r="L179" s="19"/>
+      <c r="M179" s="19"/>
+      <c r="N179" s="19"/>
+      <c r="O179" s="19"/>
+      <c r="P179" s="19"/>
+      <c r="Q179" s="19"/>
+      <c r="R179" s="19"/>
+      <c r="S179" s="19"/>
+      <c r="T179" s="19"/>
+      <c r="U179" s="19"/>
+    </row>
+    <row r="180" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A180" s="19"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="21"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="19"/>
+      <c r="L180" s="19"/>
+      <c r="M180" s="19"/>
+      <c r="N180" s="19"/>
+      <c r="O180" s="19"/>
+      <c r="P180" s="19"/>
+      <c r="Q180" s="19"/>
+      <c r="R180" s="19"/>
+      <c r="S180" s="19"/>
+      <c r="T180" s="19"/>
+      <c r="U180" s="19"/>
+    </row>
+    <row r="181" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A181" s="19"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="19"/>
+      <c r="K181" s="19"/>
+      <c r="L181" s="19"/>
+      <c r="M181" s="19"/>
+      <c r="N181" s="19"/>
+      <c r="O181" s="19"/>
+      <c r="P181" s="19"/>
+      <c r="Q181" s="19"/>
+      <c r="R181" s="19"/>
+      <c r="S181" s="19"/>
+      <c r="T181" s="19"/>
+      <c r="U181" s="19"/>
+    </row>
+    <row r="182" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A182" s="19"/>
+      <c r="B182" s="18"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="19"/>
+      <c r="K182" s="19"/>
+      <c r="L182" s="19"/>
+      <c r="M182" s="19"/>
+      <c r="N182" s="19"/>
+      <c r="O182" s="19"/>
+      <c r="P182" s="19"/>
+      <c r="Q182" s="19"/>
+      <c r="R182" s="19"/>
+      <c r="S182" s="19"/>
+      <c r="T182" s="19"/>
+      <c r="U182" s="19"/>
+    </row>
+    <row r="183" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A183" s="19"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="19"/>
+      <c r="L183" s="19"/>
+      <c r="M183" s="19"/>
+      <c r="N183" s="19"/>
+      <c r="O183" s="19"/>
+      <c r="P183" s="19"/>
+      <c r="Q183" s="19"/>
+      <c r="R183" s="19"/>
+      <c r="S183" s="19"/>
+      <c r="T183" s="19"/>
+      <c r="U183" s="19"/>
+    </row>
+    <row r="184" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A184" s="19"/>
+      <c r="B184" s="18"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="21"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="19"/>
+      <c r="K184" s="19"/>
+      <c r="L184" s="19"/>
+      <c r="M184" s="19"/>
+      <c r="N184" s="19"/>
+      <c r="O184" s="19"/>
+      <c r="P184" s="19"/>
+      <c r="Q184" s="19"/>
+      <c r="R184" s="19"/>
+      <c r="S184" s="19"/>
+      <c r="T184" s="19"/>
+      <c r="U184" s="19"/>
+    </row>
+    <row r="185" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A185" s="19"/>
+      <c r="B185" s="18"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="21"/>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="19"/>
+      <c r="K185" s="19"/>
+      <c r="L185" s="19"/>
+      <c r="M185" s="19"/>
+      <c r="N185" s="19"/>
+      <c r="O185" s="19"/>
+      <c r="P185" s="19"/>
+      <c r="Q185" s="19"/>
+      <c r="R185" s="19"/>
+      <c r="S185" s="19"/>
+      <c r="T185" s="19"/>
+      <c r="U185" s="19"/>
+    </row>
+    <row r="186" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A186" s="19"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="21"/>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="19"/>
+      <c r="K186" s="19"/>
+      <c r="L186" s="19"/>
+      <c r="M186" s="19"/>
+      <c r="N186" s="19"/>
+      <c r="O186" s="19"/>
+      <c r="P186" s="19"/>
+      <c r="Q186" s="19"/>
+      <c r="R186" s="19"/>
+      <c r="S186" s="19"/>
+      <c r="T186" s="19"/>
+      <c r="U186" s="19"/>
+    </row>
+    <row r="187" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A187" s="19"/>
+      <c r="B187" s="18"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="21"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="19"/>
+      <c r="K187" s="19"/>
+      <c r="L187" s="19"/>
+      <c r="M187" s="19"/>
+      <c r="N187" s="19"/>
+      <c r="O187" s="19"/>
+      <c r="P187" s="19"/>
+      <c r="Q187" s="19"/>
+      <c r="R187" s="19"/>
+      <c r="S187" s="19"/>
+      <c r="T187" s="19"/>
+      <c r="U187" s="19"/>
+    </row>
+    <row r="188" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A188" s="19"/>
+      <c r="B188" s="18"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="21"/>
+      <c r="H188" s="19"/>
+      <c r="I188" s="19"/>
+      <c r="J188" s="19"/>
+      <c r="K188" s="19"/>
+      <c r="L188" s="19"/>
+      <c r="M188" s="19"/>
+      <c r="N188" s="19"/>
+      <c r="O188" s="19"/>
+      <c r="P188" s="19"/>
+      <c r="Q188" s="19"/>
+      <c r="R188" s="19"/>
+      <c r="S188" s="19"/>
+      <c r="T188" s="19"/>
+      <c r="U188" s="19"/>
+    </row>
+    <row r="189" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A189" s="19"/>
+      <c r="B189" s="18"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="21"/>
+      <c r="H189" s="19"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="19"/>
+      <c r="K189" s="19"/>
+      <c r="L189" s="19"/>
+      <c r="M189" s="19"/>
+      <c r="N189" s="19"/>
+      <c r="O189" s="19"/>
+      <c r="P189" s="19"/>
+      <c r="Q189" s="19"/>
+      <c r="R189" s="19"/>
+      <c r="S189" s="19"/>
+      <c r="T189" s="19"/>
+      <c r="U189" s="19"/>
+    </row>
+    <row r="190" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A190" s="19"/>
+      <c r="B190" s="18"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="21"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="19"/>
+      <c r="L190" s="19"/>
+      <c r="M190" s="19"/>
+      <c r="N190" s="19"/>
+      <c r="O190" s="19"/>
+      <c r="P190" s="19"/>
+      <c r="Q190" s="19"/>
+      <c r="R190" s="19"/>
+      <c r="S190" s="19"/>
+      <c r="T190" s="19"/>
+      <c r="U190" s="19"/>
+    </row>
+    <row r="191" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A191" s="19"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="19"/>
+      <c r="K191" s="19"/>
+      <c r="L191" s="19"/>
+      <c r="M191" s="19"/>
+      <c r="N191" s="19"/>
+      <c r="O191" s="19"/>
+      <c r="P191" s="19"/>
+      <c r="Q191" s="19"/>
+      <c r="R191" s="19"/>
+      <c r="S191" s="19"/>
+      <c r="T191" s="19"/>
+      <c r="U191" s="19"/>
+    </row>
+    <row r="192" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A192" s="19"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="21"/>
+      <c r="H192" s="19"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="19"/>
+      <c r="K192" s="19"/>
+      <c r="L192" s="19"/>
+      <c r="M192" s="19"/>
+      <c r="N192" s="19"/>
+      <c r="O192" s="19"/>
+      <c r="P192" s="19"/>
+      <c r="Q192" s="19"/>
+      <c r="R192" s="19"/>
+      <c r="S192" s="19"/>
+      <c r="T192" s="19"/>
+      <c r="U192" s="19"/>
+    </row>
+    <row r="193" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A193" s="19"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="21"/>
+      <c r="H193" s="19"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="19"/>
+      <c r="L193" s="19"/>
+      <c r="M193" s="19"/>
+      <c r="N193" s="19"/>
+      <c r="O193" s="19"/>
+      <c r="P193" s="19"/>
+      <c r="Q193" s="19"/>
+      <c r="R193" s="19"/>
+      <c r="S193" s="19"/>
+      <c r="T193" s="19"/>
+      <c r="U193" s="19"/>
+    </row>
+    <row r="194" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A194" s="19"/>
+      <c r="B194" s="18"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="21"/>
+      <c r="H194" s="19"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="19"/>
+      <c r="K194" s="19"/>
+      <c r="L194" s="19"/>
+      <c r="M194" s="19"/>
+      <c r="N194" s="19"/>
+      <c r="O194" s="19"/>
+      <c r="P194" s="19"/>
+      <c r="Q194" s="19"/>
+      <c r="R194" s="19"/>
+      <c r="S194" s="19"/>
+      <c r="T194" s="19"/>
+      <c r="U194" s="19"/>
+    </row>
+    <row r="195" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A195" s="19"/>
+      <c r="B195" s="18"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="21"/>
+      <c r="H195" s="19"/>
+      <c r="I195" s="19"/>
+      <c r="J195" s="19"/>
+      <c r="K195" s="19"/>
+      <c r="L195" s="19"/>
+      <c r="M195" s="19"/>
+      <c r="N195" s="19"/>
+      <c r="O195" s="19"/>
+      <c r="P195" s="19"/>
+      <c r="Q195" s="19"/>
+      <c r="R195" s="19"/>
+      <c r="S195" s="19"/>
+      <c r="T195" s="19"/>
+      <c r="U195" s="19"/>
+    </row>
+    <row r="196" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A196" s="19"/>
+      <c r="B196" s="18"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="19"/>
+      <c r="I196" s="19"/>
+      <c r="J196" s="19"/>
+      <c r="K196" s="19"/>
+      <c r="L196" s="19"/>
+      <c r="M196" s="19"/>
+      <c r="N196" s="19"/>
+      <c r="O196" s="19"/>
+      <c r="P196" s="19"/>
+      <c r="Q196" s="19"/>
+      <c r="R196" s="19"/>
+      <c r="S196" s="19"/>
+      <c r="T196" s="19"/>
+      <c r="U196" s="19"/>
+    </row>
+    <row r="197" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A197" s="19"/>
+      <c r="B197" s="18"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="21"/>
+      <c r="H197" s="19"/>
+      <c r="I197" s="19"/>
+      <c r="J197" s="19"/>
+      <c r="K197" s="19"/>
+      <c r="L197" s="19"/>
+      <c r="M197" s="19"/>
+      <c r="N197" s="19"/>
+      <c r="O197" s="19"/>
+      <c r="P197" s="19"/>
+      <c r="Q197" s="19"/>
+      <c r="R197" s="19"/>
+      <c r="S197" s="19"/>
+      <c r="T197" s="19"/>
+      <c r="U197" s="19"/>
+    </row>
+    <row r="198" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A198" s="19"/>
+      <c r="B198" s="18"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="21"/>
+      <c r="H198" s="19"/>
+      <c r="I198" s="19"/>
+      <c r="J198" s="19"/>
+      <c r="K198" s="19"/>
+      <c r="L198" s="19"/>
+      <c r="M198" s="19"/>
+      <c r="N198" s="19"/>
+      <c r="O198" s="19"/>
+      <c r="P198" s="19"/>
+      <c r="Q198" s="19"/>
+      <c r="R198" s="19"/>
+      <c r="S198" s="19"/>
+      <c r="T198" s="19"/>
+      <c r="U198" s="19"/>
+    </row>
+    <row r="199" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A199" s="19"/>
+      <c r="B199" s="18"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="19"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="19"/>
+      <c r="L199" s="19"/>
+      <c r="M199" s="19"/>
+      <c r="N199" s="19"/>
+      <c r="O199" s="19"/>
+      <c r="P199" s="19"/>
+      <c r="Q199" s="19"/>
+      <c r="R199" s="19"/>
+      <c r="S199" s="19"/>
+      <c r="T199" s="19"/>
+      <c r="U199" s="19"/>
+    </row>
+    <row r="200" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A200" s="19"/>
+      <c r="B200" s="18"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="19"/>
+      <c r="I200" s="19"/>
+      <c r="J200" s="19"/>
+      <c r="K200" s="19"/>
+      <c r="L200" s="19"/>
+      <c r="M200" s="19"/>
+      <c r="N200" s="19"/>
+      <c r="O200" s="19"/>
+      <c r="P200" s="19"/>
+      <c r="Q200" s="19"/>
+      <c r="R200" s="19"/>
+      <c r="S200" s="19"/>
+      <c r="T200" s="19"/>
+      <c r="U200" s="19"/>
+    </row>
+    <row r="201" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A201" s="19"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="19"/>
+      <c r="I201" s="19"/>
+      <c r="J201" s="19"/>
+      <c r="K201" s="19"/>
+      <c r="L201" s="19"/>
+      <c r="M201" s="19"/>
+      <c r="N201" s="19"/>
+      <c r="O201" s="19"/>
+      <c r="P201" s="19"/>
+      <c r="Q201" s="19"/>
+      <c r="R201" s="19"/>
+      <c r="S201" s="19"/>
+      <c r="T201" s="19"/>
+      <c r="U201" s="19"/>
+    </row>
+    <row r="202" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A202" s="19"/>
+      <c r="B202" s="18"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="20"/>
+      <c r="E202" s="20"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="19"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="19"/>
+      <c r="K202" s="19"/>
+      <c r="L202" s="19"/>
+      <c r="M202" s="19"/>
+      <c r="N202" s="19"/>
+      <c r="O202" s="19"/>
+      <c r="P202" s="19"/>
+      <c r="Q202" s="19"/>
+      <c r="R202" s="19"/>
+      <c r="S202" s="19"/>
+      <c r="T202" s="19"/>
+      <c r="U202" s="19"/>
+    </row>
+    <row r="203" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A203" s="19"/>
+      <c r="B203" s="18"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="21"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="19"/>
+      <c r="K203" s="19"/>
+      <c r="L203" s="19"/>
+      <c r="M203" s="19"/>
+      <c r="N203" s="19"/>
+      <c r="O203" s="19"/>
+      <c r="P203" s="19"/>
+      <c r="Q203" s="19"/>
+      <c r="R203" s="19"/>
+      <c r="S203" s="19"/>
+      <c r="T203" s="19"/>
+      <c r="U203" s="19"/>
+    </row>
+    <row r="204" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A204" s="19"/>
+      <c r="B204" s="18"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="20"/>
+      <c r="E204" s="20"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="21"/>
+      <c r="H204" s="19"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="19"/>
+      <c r="K204" s="19"/>
+      <c r="L204" s="19"/>
+      <c r="M204" s="19"/>
+      <c r="N204" s="19"/>
+      <c r="O204" s="19"/>
+      <c r="P204" s="19"/>
+      <c r="Q204" s="19"/>
+      <c r="R204" s="19"/>
+      <c r="S204" s="19"/>
+      <c r="T204" s="19"/>
+      <c r="U204" s="19"/>
+    </row>
+    <row r="205" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A205" s="19"/>
+      <c r="B205" s="18"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="19"/>
+      <c r="I205" s="19"/>
+      <c r="J205" s="19"/>
+      <c r="K205" s="19"/>
+      <c r="L205" s="19"/>
+      <c r="M205" s="19"/>
+      <c r="N205" s="19"/>
+      <c r="O205" s="19"/>
+      <c r="P205" s="19"/>
+      <c r="Q205" s="19"/>
+      <c r="R205" s="19"/>
+      <c r="S205" s="19"/>
+      <c r="T205" s="19"/>
+      <c r="U205" s="19"/>
+    </row>
+    <row r="206" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A206" s="19"/>
+      <c r="B206" s="18"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="21"/>
+      <c r="H206" s="19"/>
+      <c r="I206" s="19"/>
+      <c r="J206" s="19"/>
+      <c r="K206" s="19"/>
+      <c r="L206" s="19"/>
+      <c r="M206" s="19"/>
+      <c r="N206" s="19"/>
+      <c r="O206" s="19"/>
+      <c r="P206" s="19"/>
+      <c r="Q206" s="19"/>
+      <c r="R206" s="19"/>
+      <c r="S206" s="19"/>
+      <c r="T206" s="19"/>
+      <c r="U206" s="19"/>
+    </row>
+    <row r="207" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A207" s="19"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="20"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="19"/>
+      <c r="I207" s="19"/>
+      <c r="J207" s="19"/>
+      <c r="K207" s="19"/>
+      <c r="L207" s="19"/>
+      <c r="M207" s="19"/>
+      <c r="N207" s="19"/>
+      <c r="O207" s="19"/>
+      <c r="P207" s="19"/>
+      <c r="Q207" s="19"/>
+      <c r="R207" s="19"/>
+      <c r="S207" s="19"/>
+      <c r="T207" s="19"/>
+      <c r="U207" s="19"/>
+    </row>
+    <row r="208" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A208" s="19"/>
+      <c r="B208" s="18"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="20"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="19"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="19"/>
+      <c r="K208" s="19"/>
+      <c r="L208" s="19"/>
+      <c r="M208" s="19"/>
+      <c r="N208" s="19"/>
+      <c r="O208" s="19"/>
+      <c r="P208" s="19"/>
+      <c r="Q208" s="19"/>
+      <c r="R208" s="19"/>
+      <c r="S208" s="19"/>
+      <c r="T208" s="19"/>
+      <c r="U208" s="19"/>
+    </row>
+    <row r="209" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A209" s="19"/>
+      <c r="B209" s="18"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="21"/>
+      <c r="H209" s="19"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="19"/>
+      <c r="K209" s="19"/>
+      <c r="L209" s="19"/>
+      <c r="M209" s="19"/>
+      <c r="N209" s="19"/>
+      <c r="O209" s="19"/>
+      <c r="P209" s="19"/>
+      <c r="Q209" s="19"/>
+      <c r="R209" s="19"/>
+      <c r="S209" s="19"/>
+      <c r="T209" s="19"/>
+      <c r="U209" s="19"/>
+    </row>
+    <row r="210" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A210" s="19"/>
+      <c r="B210" s="18"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="21"/>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="19"/>
+      <c r="K210" s="19"/>
+      <c r="L210" s="19"/>
+      <c r="M210" s="19"/>
+      <c r="N210" s="19"/>
+      <c r="O210" s="19"/>
+      <c r="P210" s="19"/>
+      <c r="Q210" s="19"/>
+      <c r="R210" s="19"/>
+      <c r="S210" s="19"/>
+      <c r="T210" s="19"/>
+      <c r="U210" s="19"/>
+    </row>
+    <row r="211" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A211" s="19"/>
+      <c r="B211" s="18"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="21"/>
+      <c r="H211" s="19"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="19"/>
+      <c r="K211" s="19"/>
+      <c r="L211" s="19"/>
+      <c r="M211" s="19"/>
+      <c r="N211" s="19"/>
+      <c r="O211" s="19"/>
+      <c r="P211" s="19"/>
+      <c r="Q211" s="19"/>
+      <c r="R211" s="19"/>
+      <c r="S211" s="19"/>
+      <c r="T211" s="19"/>
+      <c r="U211" s="19"/>
+    </row>
+    <row r="212" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A212" s="19"/>
+      <c r="B212" s="18"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="21"/>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="19"/>
+      <c r="K212" s="19"/>
+      <c r="L212" s="19"/>
+      <c r="M212" s="19"/>
+      <c r="N212" s="19"/>
+      <c r="O212" s="19"/>
+      <c r="P212" s="19"/>
+      <c r="Q212" s="19"/>
+      <c r="R212" s="19"/>
+      <c r="S212" s="19"/>
+      <c r="T212" s="19"/>
+      <c r="U212" s="19"/>
+    </row>
+    <row r="213" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A213" s="19"/>
+      <c r="B213" s="18"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="20"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="21"/>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="19"/>
+      <c r="K213" s="19"/>
+      <c r="L213" s="19"/>
+      <c r="M213" s="19"/>
+      <c r="N213" s="19"/>
+      <c r="O213" s="19"/>
+      <c r="P213" s="19"/>
+      <c r="Q213" s="19"/>
+      <c r="R213" s="19"/>
+      <c r="S213" s="19"/>
+      <c r="T213" s="19"/>
+      <c r="U213" s="19"/>
+    </row>
+    <row r="214" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A214" s="19"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="19"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="21"/>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="19"/>
+      <c r="K214" s="19"/>
+      <c r="L214" s="19"/>
+      <c r="M214" s="19"/>
+      <c r="N214" s="19"/>
+      <c r="O214" s="19"/>
+      <c r="P214" s="19"/>
+      <c r="Q214" s="19"/>
+      <c r="R214" s="19"/>
+      <c r="S214" s="19"/>
+      <c r="T214" s="19"/>
+      <c r="U214" s="19"/>
+    </row>
+    <row r="215" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A215" s="19"/>
+      <c r="B215" s="18"/>
+      <c r="C215" s="19"/>
+      <c r="D215" s="20"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="21"/>
+      <c r="H215" s="19"/>
+      <c r="I215" s="19"/>
+      <c r="J215" s="19"/>
+      <c r="K215" s="19"/>
+      <c r="L215" s="19"/>
+      <c r="M215" s="19"/>
+      <c r="N215" s="19"/>
+      <c r="O215" s="19"/>
+      <c r="P215" s="19"/>
+      <c r="Q215" s="19"/>
+      <c r="R215" s="19"/>
+      <c r="S215" s="19"/>
+      <c r="T215" s="19"/>
+      <c r="U215" s="19"/>
+    </row>
+    <row r="216" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A216" s="19"/>
+      <c r="B216" s="18"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="20"/>
+      <c r="E216" s="20"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="21"/>
+      <c r="H216" s="19"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="19"/>
+      <c r="K216" s="19"/>
+      <c r="L216" s="19"/>
+      <c r="M216" s="19"/>
+      <c r="N216" s="19"/>
+      <c r="O216" s="19"/>
+      <c r="P216" s="19"/>
+      <c r="Q216" s="19"/>
+      <c r="R216" s="19"/>
+      <c r="S216" s="19"/>
+      <c r="T216" s="19"/>
+      <c r="U216" s="19"/>
+    </row>
+    <row r="217" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A217" s="19"/>
+      <c r="B217" s="18"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="19"/>
+      <c r="K217" s="19"/>
+      <c r="L217" s="19"/>
+      <c r="M217" s="19"/>
+      <c r="N217" s="19"/>
+      <c r="O217" s="19"/>
+      <c r="P217" s="19"/>
+      <c r="Q217" s="19"/>
+      <c r="R217" s="19"/>
+      <c r="S217" s="19"/>
+      <c r="T217" s="19"/>
+      <c r="U217" s="19"/>
+    </row>
+    <row r="218" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A218" s="19"/>
+      <c r="B218" s="18"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="19"/>
+      <c r="I218" s="19"/>
+      <c r="J218" s="19"/>
+      <c r="K218" s="19"/>
+      <c r="L218" s="19"/>
+      <c r="M218" s="19"/>
+      <c r="N218" s="19"/>
+      <c r="O218" s="19"/>
+      <c r="P218" s="19"/>
+      <c r="Q218" s="19"/>
+      <c r="R218" s="19"/>
+      <c r="S218" s="19"/>
+      <c r="T218" s="19"/>
+      <c r="U218" s="19"/>
+    </row>
+    <row r="219" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A219" s="19"/>
+      <c r="B219" s="18"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="21"/>
+      <c r="H219" s="19"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="19"/>
+      <c r="K219" s="19"/>
+      <c r="L219" s="19"/>
+      <c r="M219" s="19"/>
+      <c r="N219" s="19"/>
+      <c r="O219" s="19"/>
+      <c r="P219" s="19"/>
+      <c r="Q219" s="19"/>
+      <c r="R219" s="19"/>
+      <c r="S219" s="19"/>
+      <c r="T219" s="19"/>
+      <c r="U219" s="19"/>
+    </row>
+    <row r="220" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A220" s="19"/>
+      <c r="B220" s="18"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="20"/>
+      <c r="E220" s="20"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="21"/>
+      <c r="H220" s="19"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="19"/>
+      <c r="K220" s="19"/>
+      <c r="L220" s="19"/>
+      <c r="M220" s="19"/>
+      <c r="N220" s="19"/>
+      <c r="O220" s="19"/>
+      <c r="P220" s="19"/>
+      <c r="Q220" s="19"/>
+      <c r="R220" s="19"/>
+      <c r="S220" s="19"/>
+      <c r="T220" s="19"/>
+      <c r="U220" s="19"/>
+    </row>
+    <row r="221" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A221" s="19"/>
+      <c r="B221" s="18"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="21"/>
+      <c r="H221" s="19"/>
+      <c r="I221" s="19"/>
+      <c r="J221" s="19"/>
+      <c r="K221" s="19"/>
+      <c r="L221" s="19"/>
+      <c r="M221" s="19"/>
+      <c r="N221" s="19"/>
+      <c r="O221" s="19"/>
+      <c r="P221" s="19"/>
+      <c r="Q221" s="19"/>
+      <c r="R221" s="19"/>
+      <c r="S221" s="19"/>
+      <c r="T221" s="19"/>
+      <c r="U221" s="19"/>
+    </row>
+    <row r="222" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B222" s="8"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B223" s="8"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
     </row>
-    <row r="224" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B224" s="8"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
     </row>
-    <row r="225" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B225" s="8"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B226" s="8"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B227" s="8"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B228" s="8"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B229" s="8"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
     </row>
-    <row r="230" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B230" s="8"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
     </row>
-    <row r="231" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B231" s="8"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B232" s="8"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B233" s="8"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
     </row>
-    <row r="234" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B234" s="8"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B235" s="8"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
     </row>
-    <row r="236" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
     </row>
-    <row r="240" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
@@ -8807,9 +9857,284 @@
       <c r="E1034" s="4"/>
       <c r="F1034" s="4"/>
     </row>
+    <row r="1035" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1035" s="4"/>
+      <c r="E1035" s="4"/>
+      <c r="F1035" s="4"/>
+    </row>
+    <row r="1036" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1036" s="4"/>
+      <c r="E1036" s="4"/>
+      <c r="F1036" s="4"/>
+    </row>
+    <row r="1037" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1037" s="4"/>
+      <c r="E1037" s="4"/>
+      <c r="F1037" s="4"/>
+    </row>
+    <row r="1038" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1038" s="4"/>
+      <c r="E1038" s="4"/>
+      <c r="F1038" s="4"/>
+    </row>
+    <row r="1039" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1039" s="4"/>
+      <c r="E1039" s="4"/>
+      <c r="F1039" s="4"/>
+    </row>
+    <row r="1040" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1040" s="4"/>
+      <c r="E1040" s="4"/>
+      <c r="F1040" s="4"/>
+    </row>
+    <row r="1041" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1041" s="4"/>
+      <c r="E1041" s="4"/>
+      <c r="F1041" s="4"/>
+    </row>
+    <row r="1042" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1042" s="4"/>
+      <c r="E1042" s="4"/>
+      <c r="F1042" s="4"/>
+    </row>
+    <row r="1043" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1043" s="4"/>
+      <c r="E1043" s="4"/>
+      <c r="F1043" s="4"/>
+    </row>
+    <row r="1044" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1044" s="4"/>
+      <c r="E1044" s="4"/>
+      <c r="F1044" s="4"/>
+    </row>
+    <row r="1045" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1045" s="4"/>
+      <c r="E1045" s="4"/>
+      <c r="F1045" s="4"/>
+    </row>
+    <row r="1046" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1046" s="4"/>
+      <c r="E1046" s="4"/>
+      <c r="F1046" s="4"/>
+    </row>
+    <row r="1047" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1047" s="4"/>
+      <c r="E1047" s="4"/>
+      <c r="F1047" s="4"/>
+    </row>
+    <row r="1048" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1048" s="4"/>
+      <c r="E1048" s="4"/>
+      <c r="F1048" s="4"/>
+    </row>
+    <row r="1049" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1049" s="4"/>
+      <c r="E1049" s="4"/>
+      <c r="F1049" s="4"/>
+    </row>
+    <row r="1050" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1050" s="4"/>
+      <c r="E1050" s="4"/>
+      <c r="F1050" s="4"/>
+    </row>
+    <row r="1051" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1051" s="4"/>
+      <c r="E1051" s="4"/>
+      <c r="F1051" s="4"/>
+    </row>
+    <row r="1052" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1052" s="4"/>
+      <c r="E1052" s="4"/>
+      <c r="F1052" s="4"/>
+    </row>
+    <row r="1053" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1053" s="4"/>
+      <c r="E1053" s="4"/>
+      <c r="F1053" s="4"/>
+    </row>
+    <row r="1054" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1054" s="4"/>
+      <c r="E1054" s="4"/>
+      <c r="F1054" s="4"/>
+    </row>
+    <row r="1055" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1055" s="4"/>
+      <c r="E1055" s="4"/>
+      <c r="F1055" s="4"/>
+    </row>
+    <row r="1056" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1056" s="4"/>
+      <c r="E1056" s="4"/>
+      <c r="F1056" s="4"/>
+    </row>
+    <row r="1057" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1057" s="4"/>
+      <c r="E1057" s="4"/>
+      <c r="F1057" s="4"/>
+    </row>
+    <row r="1058" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1058" s="4"/>
+      <c r="E1058" s="4"/>
+      <c r="F1058" s="4"/>
+    </row>
+    <row r="1059" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1059" s="4"/>
+      <c r="E1059" s="4"/>
+      <c r="F1059" s="4"/>
+    </row>
+    <row r="1060" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1060" s="4"/>
+      <c r="E1060" s="4"/>
+      <c r="F1060" s="4"/>
+    </row>
+    <row r="1061" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1061" s="4"/>
+      <c r="E1061" s="4"/>
+      <c r="F1061" s="4"/>
+    </row>
+    <row r="1062" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1062" s="4"/>
+      <c r="E1062" s="4"/>
+      <c r="F1062" s="4"/>
+    </row>
+    <row r="1063" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1063" s="4"/>
+      <c r="E1063" s="4"/>
+      <c r="F1063" s="4"/>
+    </row>
+    <row r="1064" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1064" s="4"/>
+      <c r="E1064" s="4"/>
+      <c r="F1064" s="4"/>
+    </row>
+    <row r="1065" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1065" s="4"/>
+      <c r="E1065" s="4"/>
+      <c r="F1065" s="4"/>
+    </row>
+    <row r="1066" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1066" s="4"/>
+      <c r="E1066" s="4"/>
+      <c r="F1066" s="4"/>
+    </row>
+    <row r="1067" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1067" s="4"/>
+      <c r="E1067" s="4"/>
+      <c r="F1067" s="4"/>
+    </row>
+    <row r="1068" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1068" s="4"/>
+      <c r="E1068" s="4"/>
+      <c r="F1068" s="4"/>
+    </row>
+    <row r="1069" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1069" s="4"/>
+      <c r="E1069" s="4"/>
+      <c r="F1069" s="4"/>
+    </row>
+    <row r="1070" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1070" s="4"/>
+      <c r="E1070" s="4"/>
+      <c r="F1070" s="4"/>
+    </row>
+    <row r="1071" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1071" s="4"/>
+      <c r="E1071" s="4"/>
+      <c r="F1071" s="4"/>
+    </row>
+    <row r="1072" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1072" s="4"/>
+      <c r="E1072" s="4"/>
+      <c r="F1072" s="4"/>
+    </row>
+    <row r="1073" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1073" s="4"/>
+      <c r="E1073" s="4"/>
+      <c r="F1073" s="4"/>
+    </row>
+    <row r="1074" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1074" s="4"/>
+      <c r="E1074" s="4"/>
+      <c r="F1074" s="4"/>
+    </row>
+    <row r="1075" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1075" s="4"/>
+      <c r="E1075" s="4"/>
+      <c r="F1075" s="4"/>
+    </row>
+    <row r="1076" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1076" s="4"/>
+      <c r="E1076" s="4"/>
+      <c r="F1076" s="4"/>
+    </row>
+    <row r="1077" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1077" s="4"/>
+      <c r="E1077" s="4"/>
+      <c r="F1077" s="4"/>
+    </row>
+    <row r="1078" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1078" s="4"/>
+      <c r="E1078" s="4"/>
+      <c r="F1078" s="4"/>
+    </row>
+    <row r="1079" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1079" s="4"/>
+      <c r="E1079" s="4"/>
+      <c r="F1079" s="4"/>
+    </row>
+    <row r="1080" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1080" s="4"/>
+      <c r="E1080" s="4"/>
+      <c r="F1080" s="4"/>
+    </row>
+    <row r="1081" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1081" s="4"/>
+      <c r="E1081" s="4"/>
+      <c r="F1081" s="4"/>
+    </row>
+    <row r="1082" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1082" s="4"/>
+      <c r="E1082" s="4"/>
+      <c r="F1082" s="4"/>
+    </row>
+    <row r="1083" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1083" s="4"/>
+      <c r="E1083" s="4"/>
+      <c r="F1083" s="4"/>
+    </row>
+    <row r="1084" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1084" s="4"/>
+      <c r="E1084" s="4"/>
+      <c r="F1084" s="4"/>
+    </row>
+    <row r="1085" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1085" s="4"/>
+      <c r="E1085" s="4"/>
+      <c r="F1085" s="4"/>
+    </row>
+    <row r="1086" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1086" s="4"/>
+      <c r="E1086" s="4"/>
+      <c r="F1086" s="4"/>
+    </row>
+    <row r="1087" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1087" s="4"/>
+      <c r="E1087" s="4"/>
+      <c r="F1087" s="4"/>
+    </row>
+    <row r="1088" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1088" s="4"/>
+      <c r="E1088" s="4"/>
+      <c r="F1088" s="4"/>
+    </row>
+    <row r="1089" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D1089" s="4"/>
+      <c r="E1089" s="4"/>
+      <c r="F1089" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B3:B21 B42:B180 B23:B40">
+    <dataValidation type="list" allowBlank="1" sqref="B97:B235 B3:B52 B54:B95">
       <formula1>"Passed,In Progress,Failed"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="133">
   <si>
     <t>Description</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>GAME</t>
-  </si>
-  <si>
-    <t>One player can not play two turns in a row</t>
   </si>
   <si>
     <t>CARDS</t>
@@ -72,10 +69,6 @@
     <t>The first turn belongs to the first player</t>
   </si>
   <si>
-    <t>After a players turn is finished, 
-the other player starts his turn</t>
-  </si>
-  <si>
     <t>Each player starts with 25 cards in the deck</t>
   </si>
   <si>
@@ -89,9 +82,6 @@
 until the end of the players turn</t>
   </si>
   <si>
-    <t>Boost Attack Cards have the following description - Boost card"</t>
-  </si>
-  <si>
     <t>PROTECTION CARD</t>
   </si>
   <si>
@@ -101,30 +91,13 @@
     <t>All Boost Attack Cards are the same</t>
   </si>
   <si>
-    <t>The turn player can play any number of 
-Boost Attack Cards during his turn</t>
-  </si>
-  <si>
-    <t>When the turn changes, all attack boost is lost
-(returned to 0)</t>
-  </si>
-  <si>
-    <t>Boost Attack Cards can not be used as Attack Cards</t>
-  </si>
-  <si>
     <t>ATTACK CARD</t>
   </si>
   <si>
-    <t>Attack Cards have indexes in range [3-7]</t>
-  </si>
-  <si>
     <t>Protect Cards have the index value 1</t>
   </si>
   <si>
     <t>Protect Cards have the following description - "Protect card"</t>
-  </si>
-  <si>
-    <t>A Protect Card can be played at any time during the players turn</t>
   </si>
   <si>
     <t>A player can play any number of Protect Cards during his turn</t>
@@ -143,110 +116,14 @@
 5 Protect Cards</t>
   </si>
   <si>
-    <t>There are 2 Attack Cards for each index</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>First player decided at random or coin toss?
-Maybe in future implementation.</t>
-  </si>
-  <si>
     <t>Each player has 10 copies of a Boost Attack 
 Card in their deck</t>
   </si>
   <si>
-    <t xml:space="preserve">When a Protect Card is played, the player receives one
-"Protect Counter" </t>
-  </si>
-  <si>
-    <t>The player first draws a card from the deck,
-then chooses to use his way of protection
-against the incoming attack</t>
-  </si>
-  <si>
-    <t>If the player chooses to use his Protect Card to defend himself,
-the attack is blocked and the Protect Card is removed from the hand</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A the beginning of a players turn, 
-if the player </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>is under attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 
-the player has the option to activate his Protect Card
-from his hand or use one Protect Counter</t>
-    </r>
-  </si>
-  <si>
-    <t>If the player chooses to use his Protect Counter to defend 
-himself, the attack is blocked and one Protect Counter is
-removed</t>
-  </si>
-  <si>
-    <t>Only one Attack Card can be played in a turn</t>
-  </si>
-  <si>
-    <t>Game should be Singleton class?
-Future implementations of the game can have
-different mods, and each mod can be a static 
-method of a Singleton class</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Each Boost Attack Card played increases the attack
-of the next played Attack Card </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>unitl the end of the players turn</t>
-    </r>
-  </si>
-  <si>
-    <t>Attack Cards deal damage to opponent equal to their index value</t>
-  </si>
-  <si>
-    <t>This damage can be increased by playing Boost
-Attack Cards</t>
-  </si>
-  <si>
-    <t>If a player is attacked by the opponent for X damage, the player
-can discard one Attack Card with index X to block the attack</t>
-  </si>
-  <si>
-    <t>Then his turn continues normaly</t>
-  </si>
-  <si>
-    <t>Does the player discard the Attack Card used for
-defending?
-Yes he does.</t>
-  </si>
-  <si>
     <t>If a player is created with health value less than 1, 
 his initial health is set to the default value 20</t>
   </si>
@@ -278,9 +155,6 @@
     <t>If a player has 10 health and takes 1 damage, his health should become 9</t>
   </si>
   <si>
-    <t>If a player has 10 health and takes negative damage (e.g. -300), his health should stay 10</t>
-  </si>
-  <si>
     <t>Players health can only be reduced with damage value greater than 0</t>
   </si>
   <si>
@@ -298,9 +172,6 @@
     <t>The resetAttackingStatus() method should set attribute attacknigStatus to false</t>
   </si>
   <si>
-    <t>This method is called at the beginning of a players turn</t>
-  </si>
-  <si>
     <t>attackingStatus should stay false</t>
   </si>
   <si>
@@ -308,10 +179,6 @@
   </si>
   <si>
     <t>If a player uses a Protect Card, his attacking status 
-doesn’t change</t>
-  </si>
-  <si>
-    <t>If a player uses a Boost Attack Card, his attacking status 
 doesn’t change</t>
   </si>
   <si>
@@ -904,15 +771,6 @@
 should increases by 3</t>
   </si>
   <si>
-    <t>If a player uses a Attack Card, his attribute damage 
-should increase by the Attack Card index</t>
-  </si>
-  <si>
-    <t>After the increase, THIS value of attribute 
-damage is the amount of damage that the 
-player is attacking his opponent</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">If a player plays an Attack Card, the game should end his turn.
 Now the player is attacking his opponent for the amount equal
@@ -937,17 +795,142 @@
 starts</t>
   </si>
   <si>
-    <t xml:space="preserve">A players turn is summarized in the following steps:
+    <t>If a player has 10 health and takes negative damage (e.g. -300), 
+his health should stay 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A players turn is executed in the following steps:
 1. Check if player has cards left in both hand and deck:
-    &gt; No - Game over. Opponent wins.
+    &gt; No - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GAME OVER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Opponent wins.
     &gt; Yes - Continue to step 2.
-2. Check if player is under attack:
-    &gt; No - Continue to step 3.
+2. DRAW A CARD - Continue to step 3.
+3. Check if player is under attack:
+    &gt; No - Go to step 4.
     &gt; Yes - Check if player can defend:
-                 &gt; No - Player takes damage
+                 &gt; No - Player takes damage. Go to step 3.1
                  &gt; Yes - Check if the player wants to defent:
-                              &gt; No - Player takes damage
-                              &gt; </t>
+                              &gt; No - Player takes damage. Go to step 3.1
+                              &gt; Yes - Player blocks attack. Go to step 3.2
+                 3.1 Does player have health:
+                        &gt; No - Player didn't survive attack. Go to step 5.
+                        &gt; Yes - Player survived attack. Go to step 3.2
+                 3.2 Does player have cards in hand:
+                        &gt; No - Players hand is empty. End Turn. Go to step 5.
+                        &gt; Yes - Turn continues. Go to step 4.
+4. Does player want to play a card:
+     &gt; No - End Turn. Go to step 5.
+     &gt; Yes - Did player play Attack Card:
+                  &gt; No - Player played Protect Card or Boost Attack Card. Go to step 4.1
+                  &gt; Yes - Player is in attacking status. End Turn. Go to step 5.
+     4.1 Does player have cards in hand:
+            &gt; No - Players hand is empty. Go to step 5.
+            &gt; Yes - Turn continues. Go to step 4.
+5. Players turn ends. Does player have health remaining:
+     &gt; No - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GAME OVER.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Opponent wins
+     &gt; Yes - Opponents turn starts</t>
+    </r>
+  </si>
+  <si>
+    <t>After a players turn is finished, his opponents turn should start
+(A player can not play 2 turns in a row)</t>
+  </si>
+  <si>
+    <t>If a player uses a Boost Attack Card, his attacking status 
+doesn’t change (A player can't attack with Boost Attack Cards)</t>
+  </si>
+  <si>
+    <t>The turn player can play any number of Boost Attack Cards during his turn</t>
+  </si>
+  <si>
+    <t>If an Attack Card is created, it will have an index value equal to the
+argument value passed in the constructor</t>
+  </si>
+  <si>
+    <t>For a "standard" deck, the indexes will be 
+3, 4, 5, 6 and 7</t>
+  </si>
+  <si>
+    <t>If a player uses a Attack Card, his attribute damage 
+should increase by the Attack Card index value</t>
+  </si>
+  <si>
+    <t>The total value of attribute damage is equal to:
+3 * NumberOfBoostCardsPlayed + AttackCardIndex</t>
+  </si>
+  <si>
+    <t>Boost Attack Cards have the following description - "Boost card"</t>
+  </si>
+  <si>
+    <t>Attack Cards have the following description - "Attack card"</t>
+  </si>
+  <si>
+    <t>Only Attack Cards with the same index number are the same</t>
+  </si>
+  <si>
+    <t>The turn player can play only one Attack Cards during his turn
+(After Attack Card is played, the turn ends)</t>
+  </si>
+  <si>
+    <t>Does player 1 always go first?
+I assume he does.</t>
+  </si>
+  <si>
+    <t>Maybe in future implementation.</t>
+  </si>
+  <si>
+    <t>Can the first turn player be decided through a 
+coin toss or other random way?
+Maybe in future implementations.</t>
+  </si>
+  <si>
+    <t>Should the Game class be a Singleton class?
+Maybe future implementations of the game 
+will have different types of gameplay, and 
+each game type setup can be implemented
+as a static method of a Singleton class</t>
+  </si>
+  <si>
+    <t>This method is called at the beginning of a 
+players turn</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1078,9 +1061,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1117,20 +1097,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1138,17 +1109,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1498,18 +1472,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1089"/>
+  <dimension ref="A1:U1074"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.21875" customWidth="1"/>
+    <col min="1" max="1" width="71.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" customWidth="1"/>
     <col min="4" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="2" customWidth="1"/>
     <col min="8" max="1025" width="12.6640625" customWidth="1"/>
@@ -1538,4351 +1512,4108 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="C37" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="C38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="C39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="C40" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="C41" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="C46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="C55" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="C56" s="16"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="C57" s="16"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="15"/>
-    </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="15"/>
-    </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="15"/>
-    </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="15"/>
-    </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="15"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="15"/>
-    </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="17"/>
-    </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="17"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="17"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="15"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="14"/>
     </row>
     <row r="61" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="15"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="11" t="s">
+      <c r="A62" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="15"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="14"/>
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="15"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="14"/>
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="15"/>
+      <c r="C64" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="14"/>
     </row>
     <row r="65" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="16"/>
+    </row>
+    <row r="73" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="16"/>
+    </row>
+    <row r="75" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="16"/>
+    </row>
+    <row r="78" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="16"/>
+    </row>
+    <row r="79" spans="1:7" s="7" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="16"/>
+    </row>
+    <row r="82" spans="1:21" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="1:21" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="16"/>
+    </row>
+    <row r="86" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="16"/>
+    </row>
+    <row r="87" spans="1:21" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="1:21" s="7" customFormat="1" ht="382.8" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B66" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="17"/>
-    </row>
-    <row r="67" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="C88" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="16"/>
+    </row>
+    <row r="89" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="16"/>
+    </row>
+    <row r="90" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="16"/>
+    </row>
+    <row r="91" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="14"/>
+    </row>
+    <row r="93" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="18"/>
+      <c r="U94" s="18"/>
+    </row>
+    <row r="95" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="18"/>
+      <c r="U95" s="18"/>
+    </row>
+    <row r="96" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="18"/>
+      <c r="U96" s="18"/>
+    </row>
+    <row r="97" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="18"/>
+      <c r="S97" s="18"/>
+      <c r="T97" s="18"/>
+      <c r="U97" s="18"/>
+    </row>
+    <row r="98" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
+      <c r="T98" s="18"/>
+      <c r="U98" s="18"/>
+    </row>
+    <row r="99" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="18"/>
+      <c r="T99" s="18"/>
+      <c r="U99" s="18"/>
+    </row>
+    <row r="100" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="18"/>
+      <c r="S100" s="18"/>
+      <c r="T100" s="18"/>
+      <c r="U100" s="18"/>
+    </row>
+    <row r="101" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="18"/>
+      <c r="R101" s="18"/>
+      <c r="S101" s="18"/>
+      <c r="T101" s="18"/>
+      <c r="U101" s="18"/>
+    </row>
+    <row r="102" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="18"/>
+      <c r="T102" s="18"/>
+      <c r="U102" s="18"/>
+    </row>
+    <row r="103" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="18"/>
+      <c r="S103" s="18"/>
+      <c r="T103" s="18"/>
+      <c r="U103" s="18"/>
+    </row>
+    <row r="104" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="17"/>
-    </row>
-    <row r="68" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="C104" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18"/>
+      <c r="O104" s="18"/>
+      <c r="P104" s="18"/>
+      <c r="Q104" s="18"/>
+      <c r="R104" s="18"/>
+      <c r="S104" s="18"/>
+      <c r="T104" s="18"/>
+      <c r="U104" s="18"/>
+    </row>
+    <row r="105" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="18"/>
+      <c r="Q105" s="18"/>
+      <c r="R105" s="18"/>
+      <c r="S105" s="18"/>
+      <c r="T105" s="18"/>
+      <c r="U105" s="18"/>
+    </row>
+    <row r="106" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A106" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
+      <c r="O106" s="18"/>
+      <c r="P106" s="18"/>
+      <c r="Q106" s="18"/>
+      <c r="R106" s="18"/>
+      <c r="S106" s="18"/>
+      <c r="T106" s="18"/>
+      <c r="U106" s="18"/>
+    </row>
+    <row r="107" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A107" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="17"/>
-    </row>
-    <row r="69" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="C107" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
+      <c r="T107" s="18"/>
+      <c r="U107" s="18"/>
+    </row>
+    <row r="108" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="17"/>
-    </row>
-    <row r="70" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="17"/>
-    </row>
-    <row r="71" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="17"/>
-    </row>
-    <row r="72" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="17"/>
-    </row>
-    <row r="73" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="17"/>
-    </row>
-    <row r="74" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="17"/>
-    </row>
-    <row r="75" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="17"/>
-    </row>
-    <row r="76" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="17"/>
-    </row>
-    <row r="77" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="17"/>
-    </row>
-    <row r="78" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="17"/>
-    </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="17"/>
-    </row>
-    <row r="80" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="17"/>
-    </row>
-    <row r="81" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="17"/>
-    </row>
-    <row r="82" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="17"/>
-    </row>
-    <row r="83" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="17"/>
-    </row>
-    <row r="84" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="17"/>
-    </row>
-    <row r="85" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="17"/>
-    </row>
-    <row r="86" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="17"/>
-    </row>
-    <row r="87" spans="1:7" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="17"/>
-    </row>
-    <row r="88" spans="1:7" s="7" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="17"/>
-    </row>
-    <row r="89" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="17"/>
-    </row>
-    <row r="90" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="17"/>
-    </row>
-    <row r="91" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="17"/>
-    </row>
-    <row r="92" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="15"/>
-    </row>
-    <row r="93" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="15"/>
-    </row>
-    <row r="94" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="15"/>
-    </row>
-    <row r="95" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="15"/>
-    </row>
-    <row r="96" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="15"/>
-    </row>
-    <row r="97" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="15"/>
-    </row>
-    <row r="98" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="19"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="19"/>
-      <c r="O98" s="19"/>
-      <c r="P98" s="19"/>
-      <c r="Q98" s="19"/>
-      <c r="R98" s="19"/>
-      <c r="S98" s="19"/>
-      <c r="T98" s="19"/>
-      <c r="U98" s="19"/>
-    </row>
-    <row r="99" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
-      <c r="M99" s="19"/>
-      <c r="N99" s="19"/>
-      <c r="O99" s="19"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="19"/>
-      <c r="R99" s="19"/>
-      <c r="S99" s="19"/>
-      <c r="T99" s="19"/>
-      <c r="U99" s="19"/>
-    </row>
-    <row r="100" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="19"/>
-      <c r="O100" s="19"/>
-      <c r="P100" s="19"/>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="19"/>
-      <c r="S100" s="19"/>
-      <c r="T100" s="19"/>
-      <c r="U100" s="19"/>
-    </row>
-    <row r="101" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B101" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19"/>
-      <c r="O101" s="19"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="19"/>
-      <c r="T101" s="19"/>
-      <c r="U101" s="19"/>
-    </row>
-    <row r="102" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="19"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-      <c r="M102" s="19"/>
-      <c r="N102" s="19"/>
-      <c r="O102" s="19"/>
-      <c r="P102" s="19"/>
-      <c r="Q102" s="19"/>
-      <c r="R102" s="19"/>
-      <c r="S102" s="19"/>
-      <c r="T102" s="19"/>
-      <c r="U102" s="19"/>
-    </row>
-    <row r="103" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B103" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
-      <c r="M103" s="19"/>
-      <c r="N103" s="19"/>
-      <c r="O103" s="19"/>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="19"/>
-      <c r="S103" s="19"/>
-      <c r="T103" s="19"/>
-      <c r="U103" s="19"/>
-    </row>
-    <row r="104" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="22"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
-      <c r="M104" s="19"/>
-      <c r="N104" s="19"/>
-      <c r="O104" s="19"/>
-      <c r="P104" s="19"/>
-      <c r="Q104" s="19"/>
-      <c r="R104" s="19"/>
-      <c r="S104" s="19"/>
-      <c r="T104" s="19"/>
-      <c r="U104" s="19"/>
-    </row>
-    <row r="105" spans="1:21" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B105" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="19"/>
-      <c r="N105" s="19"/>
-      <c r="O105" s="19"/>
-      <c r="P105" s="19"/>
-      <c r="Q105" s="19"/>
-      <c r="R105" s="19"/>
-      <c r="S105" s="19"/>
-      <c r="T105" s="19"/>
-      <c r="U105" s="19"/>
-    </row>
-    <row r="106" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
-      <c r="M106" s="19"/>
-      <c r="N106" s="19"/>
-      <c r="O106" s="19"/>
-      <c r="P106" s="19"/>
-      <c r="Q106" s="19"/>
-      <c r="R106" s="19"/>
-      <c r="S106" s="19"/>
-      <c r="T106" s="19"/>
-      <c r="U106" s="19"/>
-    </row>
-    <row r="107" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="19"/>
-      <c r="M107" s="19"/>
-      <c r="N107" s="19"/>
-      <c r="O107" s="19"/>
-      <c r="P107" s="19"/>
-      <c r="Q107" s="19"/>
-      <c r="R107" s="19"/>
-      <c r="S107" s="19"/>
-      <c r="T107" s="19"/>
-      <c r="U107" s="19"/>
-    </row>
-    <row r="108" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B108" s="18"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
-      <c r="M108" s="19"/>
-      <c r="N108" s="19"/>
-      <c r="O108" s="19"/>
-      <c r="P108" s="19"/>
-      <c r="Q108" s="19"/>
-      <c r="R108" s="19"/>
-      <c r="S108" s="19"/>
-      <c r="T108" s="19"/>
-      <c r="U108" s="19"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="18"/>
+      <c r="S108" s="18"/>
+      <c r="T108" s="18"/>
+      <c r="U108" s="18"/>
     </row>
     <row r="109" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B109" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
-      <c r="M109" s="19"/>
-      <c r="N109" s="19"/>
-      <c r="O109" s="19"/>
-      <c r="P109" s="19"/>
-      <c r="Q109" s="19"/>
-      <c r="R109" s="19"/>
-      <c r="S109" s="19"/>
-      <c r="T109" s="19"/>
-      <c r="U109" s="19"/>
-    </row>
-    <row r="110" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B110" s="18" t="s">
+      <c r="C109" s="11"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
+      <c r="O109" s="18"/>
+      <c r="P109" s="18"/>
+      <c r="Q109" s="18"/>
+      <c r="R109" s="18"/>
+      <c r="S109" s="18"/>
+      <c r="T109" s="18"/>
+      <c r="U109" s="18"/>
+    </row>
+    <row r="110" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A110" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="19"/>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="19"/>
-      <c r="R110" s="19"/>
-      <c r="S110" s="19"/>
-      <c r="T110" s="19"/>
-      <c r="U110" s="19"/>
+      <c r="C110" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
+      <c r="O110" s="18"/>
+      <c r="P110" s="18"/>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="18"/>
+      <c r="S110" s="18"/>
+      <c r="T110" s="18"/>
+      <c r="U110" s="18"/>
     </row>
     <row r="111" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A111" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B111" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="19"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="19"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="19"/>
-      <c r="R111" s="19"/>
-      <c r="S111" s="19"/>
-      <c r="T111" s="19"/>
-      <c r="U111" s="19"/>
-    </row>
-    <row r="112" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A112" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19"/>
-      <c r="M112" s="19"/>
-      <c r="N112" s="19"/>
-      <c r="O112" s="19"/>
-      <c r="P112" s="19"/>
-      <c r="Q112" s="19"/>
-      <c r="R112" s="19"/>
-      <c r="S112" s="19"/>
-      <c r="T112" s="19"/>
-      <c r="U112" s="19"/>
-    </row>
-    <row r="113" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A113" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="19"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
-      <c r="M113" s="19"/>
-      <c r="N113" s="19"/>
-      <c r="O113" s="19"/>
-      <c r="P113" s="19"/>
-      <c r="Q113" s="19"/>
-      <c r="R113" s="19"/>
-      <c r="S113" s="19"/>
-      <c r="T113" s="19"/>
-      <c r="U113" s="19"/>
-    </row>
-    <row r="114" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B114" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
-      <c r="M114" s="19"/>
-      <c r="N114" s="19"/>
-      <c r="O114" s="19"/>
-      <c r="P114" s="19"/>
-      <c r="Q114" s="19"/>
-      <c r="R114" s="19"/>
-      <c r="S114" s="19"/>
-      <c r="T114" s="19"/>
-      <c r="U114" s="19"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
+      <c r="O111" s="18"/>
+      <c r="P111" s="18"/>
+      <c r="Q111" s="18"/>
+      <c r="R111" s="18"/>
+      <c r="S111" s="18"/>
+      <c r="T111" s="18"/>
+      <c r="U111" s="18"/>
+    </row>
+    <row r="112" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
+      <c r="O112" s="18"/>
+      <c r="P112" s="18"/>
+      <c r="Q112" s="18"/>
+      <c r="R112" s="18"/>
+      <c r="S112" s="18"/>
+      <c r="T112" s="18"/>
+      <c r="U112" s="18"/>
+    </row>
+    <row r="113" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="18"/>
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="18"/>
+      <c r="R113" s="18"/>
+      <c r="S113" s="18"/>
+      <c r="T113" s="18"/>
+      <c r="U113" s="18"/>
+    </row>
+    <row r="114" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A114" s="11"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
+      <c r="O114" s="18"/>
+      <c r="P114" s="18"/>
+      <c r="Q114" s="18"/>
+      <c r="R114" s="18"/>
+      <c r="S114" s="18"/>
+      <c r="T114" s="18"/>
+      <c r="U114" s="18"/>
     </row>
     <row r="115" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="19"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="19"/>
-      <c r="M115" s="19"/>
-      <c r="N115" s="19"/>
-      <c r="O115" s="19"/>
-      <c r="P115" s="19"/>
-      <c r="Q115" s="19"/>
-      <c r="R115" s="19"/>
-      <c r="S115" s="19"/>
-      <c r="T115" s="19"/>
-      <c r="U115" s="19"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+      <c r="Q115" s="18"/>
+      <c r="R115" s="18"/>
+      <c r="S115" s="18"/>
+      <c r="T115" s="18"/>
+      <c r="U115" s="18"/>
     </row>
     <row r="116" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19"/>
-      <c r="L116" s="19"/>
-      <c r="M116" s="19"/>
-      <c r="N116" s="19"/>
-      <c r="O116" s="19"/>
-      <c r="P116" s="19"/>
-      <c r="Q116" s="19"/>
-      <c r="R116" s="19"/>
-      <c r="S116" s="19"/>
-      <c r="T116" s="19"/>
-      <c r="U116" s="19"/>
+      <c r="A116" s="11"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="18"/>
+      <c r="N116" s="18"/>
+      <c r="O116" s="18"/>
+      <c r="P116" s="18"/>
+      <c r="Q116" s="18"/>
+      <c r="R116" s="18"/>
+      <c r="S116" s="18"/>
+      <c r="T116" s="18"/>
+      <c r="U116" s="18"/>
     </row>
     <row r="117" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A117" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B117" s="18"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="19"/>
-      <c r="K117" s="19"/>
-      <c r="L117" s="19"/>
-      <c r="M117" s="19"/>
-      <c r="N117" s="19"/>
-      <c r="O117" s="19"/>
-      <c r="P117" s="19"/>
-      <c r="Q117" s="19"/>
-      <c r="R117" s="19"/>
-      <c r="S117" s="19"/>
-      <c r="T117" s="19"/>
-      <c r="U117" s="19"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
+      <c r="Q117" s="18"/>
+      <c r="R117" s="18"/>
+      <c r="S117" s="18"/>
+      <c r="T117" s="18"/>
+      <c r="U117" s="18"/>
     </row>
     <row r="118" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="19"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19"/>
-      <c r="O118" s="19"/>
-      <c r="P118" s="19"/>
-      <c r="Q118" s="19"/>
-      <c r="R118" s="19"/>
-      <c r="S118" s="19"/>
-      <c r="T118" s="19"/>
-      <c r="U118" s="19"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="18"/>
+      <c r="S118" s="18"/>
+      <c r="T118" s="18"/>
+      <c r="U118" s="18"/>
     </row>
     <row r="119" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="19"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="19"/>
-      <c r="L119" s="19"/>
-      <c r="M119" s="19"/>
-      <c r="N119" s="19"/>
-      <c r="O119" s="19"/>
-      <c r="P119" s="19"/>
-      <c r="Q119" s="19"/>
-      <c r="R119" s="19"/>
-      <c r="S119" s="19"/>
-      <c r="T119" s="19"/>
-      <c r="U119" s="19"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="18"/>
+      <c r="P119" s="18"/>
+      <c r="Q119" s="18"/>
+      <c r="R119" s="18"/>
+      <c r="S119" s="18"/>
+      <c r="T119" s="18"/>
+      <c r="U119" s="18"/>
     </row>
     <row r="120" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="19"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19"/>
-      <c r="L120" s="19"/>
-      <c r="M120" s="19"/>
-      <c r="N120" s="19"/>
-      <c r="O120" s="19"/>
-      <c r="P120" s="19"/>
-      <c r="Q120" s="19"/>
-      <c r="R120" s="19"/>
-      <c r="S120" s="19"/>
-      <c r="T120" s="19"/>
-      <c r="U120" s="19"/>
-    </row>
-    <row r="121" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
-      <c r="K121" s="19"/>
-      <c r="L121" s="19"/>
-      <c r="M121" s="19"/>
-      <c r="N121" s="19"/>
-      <c r="O121" s="19"/>
-      <c r="P121" s="19"/>
-      <c r="Q121" s="19"/>
-      <c r="R121" s="19"/>
-      <c r="S121" s="19"/>
-      <c r="T121" s="19"/>
-      <c r="U121" s="19"/>
-    </row>
-    <row r="122" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A122" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="19"/>
-      <c r="M122" s="19"/>
-      <c r="N122" s="19"/>
-      <c r="O122" s="19"/>
-      <c r="P122" s="19"/>
-      <c r="Q122" s="19"/>
-      <c r="R122" s="19"/>
-      <c r="S122" s="19"/>
-      <c r="T122" s="19"/>
-      <c r="U122" s="19"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="18"/>
+      <c r="Q120" s="18"/>
+      <c r="R120" s="18"/>
+      <c r="S120" s="18"/>
+      <c r="T120" s="18"/>
+      <c r="U120" s="18"/>
+    </row>
+    <row r="121" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A121" s="18"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="18"/>
+      <c r="N121" s="18"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
+      <c r="Q121" s="18"/>
+      <c r="R121" s="18"/>
+      <c r="S121" s="18"/>
+      <c r="T121" s="18"/>
+      <c r="U121" s="18"/>
+    </row>
+    <row r="122" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A122" s="18"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+      <c r="Q122" s="18"/>
+      <c r="R122" s="18"/>
+      <c r="S122" s="18"/>
+      <c r="T122" s="18"/>
+      <c r="U122" s="18"/>
     </row>
     <row r="123" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19"/>
-      <c r="L123" s="19"/>
-      <c r="M123" s="19"/>
-      <c r="N123" s="19"/>
-      <c r="O123" s="19"/>
-      <c r="P123" s="19"/>
-      <c r="Q123" s="19"/>
-      <c r="R123" s="19"/>
-      <c r="S123" s="19"/>
-      <c r="T123" s="19"/>
-      <c r="U123" s="19"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="18"/>
+      <c r="R123" s="18"/>
+      <c r="S123" s="18"/>
+      <c r="T123" s="18"/>
+      <c r="U123" s="18"/>
     </row>
     <row r="124" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="21"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19"/>
-      <c r="L124" s="19"/>
-      <c r="M124" s="19"/>
-      <c r="N124" s="19"/>
-      <c r="O124" s="19"/>
-      <c r="P124" s="19"/>
-      <c r="Q124" s="19"/>
-      <c r="R124" s="19"/>
-      <c r="S124" s="19"/>
-      <c r="T124" s="19"/>
-      <c r="U124" s="19"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
+      <c r="O124" s="18"/>
+      <c r="P124" s="18"/>
+      <c r="Q124" s="18"/>
+      <c r="R124" s="18"/>
+      <c r="S124" s="18"/>
+      <c r="T124" s="18"/>
+      <c r="U124" s="18"/>
     </row>
     <row r="125" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="19"/>
-      <c r="K125" s="19"/>
-      <c r="L125" s="19"/>
-      <c r="M125" s="19"/>
-      <c r="N125" s="19"/>
-      <c r="O125" s="19"/>
-      <c r="P125" s="19"/>
-      <c r="Q125" s="19"/>
-      <c r="R125" s="19"/>
-      <c r="S125" s="19"/>
-      <c r="T125" s="19"/>
-      <c r="U125" s="19"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="18"/>
+      <c r="N125" s="18"/>
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
+      <c r="Q125" s="18"/>
+      <c r="R125" s="18"/>
+      <c r="S125" s="18"/>
+      <c r="T125" s="18"/>
+      <c r="U125" s="18"/>
     </row>
     <row r="126" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A126" s="19"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="19"/>
-      <c r="M126" s="19"/>
-      <c r="N126" s="19"/>
-      <c r="O126" s="19"/>
-      <c r="P126" s="19"/>
-      <c r="Q126" s="19"/>
-      <c r="R126" s="19"/>
-      <c r="S126" s="19"/>
-      <c r="T126" s="19"/>
-      <c r="U126" s="19"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
+      <c r="O126" s="18"/>
+      <c r="P126" s="18"/>
+      <c r="Q126" s="18"/>
+      <c r="R126" s="18"/>
+      <c r="S126" s="18"/>
+      <c r="T126" s="18"/>
+      <c r="U126" s="18"/>
     </row>
     <row r="127" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A127" s="19"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="19"/>
-      <c r="L127" s="19"/>
-      <c r="M127" s="19"/>
-      <c r="N127" s="19"/>
-      <c r="O127" s="19"/>
-      <c r="P127" s="19"/>
-      <c r="Q127" s="19"/>
-      <c r="R127" s="19"/>
-      <c r="S127" s="19"/>
-      <c r="T127" s="19"/>
-      <c r="U127" s="19"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
+      <c r="O127" s="18"/>
+      <c r="P127" s="18"/>
+      <c r="Q127" s="18"/>
+      <c r="R127" s="18"/>
+      <c r="S127" s="18"/>
+      <c r="T127" s="18"/>
+      <c r="U127" s="18"/>
     </row>
     <row r="128" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A128" s="19"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19"/>
-      <c r="L128" s="19"/>
-      <c r="M128" s="19"/>
-      <c r="N128" s="19"/>
-      <c r="O128" s="19"/>
-      <c r="P128" s="19"/>
-      <c r="Q128" s="19"/>
-      <c r="R128" s="19"/>
-      <c r="S128" s="19"/>
-      <c r="T128" s="19"/>
-      <c r="U128" s="19"/>
+      <c r="A128" s="18"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
+      <c r="Q128" s="18"/>
+      <c r="R128" s="18"/>
+      <c r="S128" s="18"/>
+      <c r="T128" s="18"/>
+      <c r="U128" s="18"/>
     </row>
     <row r="129" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A129" s="19"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19"/>
-      <c r="L129" s="19"/>
-      <c r="M129" s="19"/>
-      <c r="N129" s="19"/>
-      <c r="O129" s="19"/>
-      <c r="P129" s="19"/>
-      <c r="Q129" s="19"/>
-      <c r="R129" s="19"/>
-      <c r="S129" s="19"/>
-      <c r="T129" s="19"/>
-      <c r="U129" s="19"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="18"/>
+      <c r="N129" s="18"/>
+      <c r="O129" s="18"/>
+      <c r="P129" s="18"/>
+      <c r="Q129" s="18"/>
+      <c r="R129" s="18"/>
+      <c r="S129" s="18"/>
+      <c r="T129" s="18"/>
+      <c r="U129" s="18"/>
     </row>
     <row r="130" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A130" s="19"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="21"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19"/>
-      <c r="L130" s="19"/>
-      <c r="M130" s="19"/>
-      <c r="N130" s="19"/>
-      <c r="O130" s="19"/>
-      <c r="P130" s="19"/>
-      <c r="Q130" s="19"/>
-      <c r="R130" s="19"/>
-      <c r="S130" s="19"/>
-      <c r="T130" s="19"/>
-      <c r="U130" s="19"/>
+      <c r="A130" s="18"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="18"/>
+      <c r="N130" s="18"/>
+      <c r="O130" s="18"/>
+      <c r="P130" s="18"/>
+      <c r="Q130" s="18"/>
+      <c r="R130" s="18"/>
+      <c r="S130" s="18"/>
+      <c r="T130" s="18"/>
+      <c r="U130" s="18"/>
     </row>
     <row r="131" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A131" s="19"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="21"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19"/>
-      <c r="L131" s="19"/>
-      <c r="M131" s="19"/>
-      <c r="N131" s="19"/>
-      <c r="O131" s="19"/>
-      <c r="P131" s="19"/>
-      <c r="Q131" s="19"/>
-      <c r="R131" s="19"/>
-      <c r="S131" s="19"/>
-      <c r="T131" s="19"/>
-      <c r="U131" s="19"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
+      <c r="N131" s="18"/>
+      <c r="O131" s="18"/>
+      <c r="P131" s="18"/>
+      <c r="Q131" s="18"/>
+      <c r="R131" s="18"/>
+      <c r="S131" s="18"/>
+      <c r="T131" s="18"/>
+      <c r="U131" s="18"/>
     </row>
     <row r="132" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A132" s="19"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="21"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-      <c r="L132" s="19"/>
-      <c r="M132" s="19"/>
-      <c r="N132" s="19"/>
-      <c r="O132" s="19"/>
-      <c r="P132" s="19"/>
-      <c r="Q132" s="19"/>
-      <c r="R132" s="19"/>
-      <c r="S132" s="19"/>
-      <c r="T132" s="19"/>
-      <c r="U132" s="19"/>
+      <c r="A132" s="18"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="18"/>
+      <c r="N132" s="18"/>
+      <c r="O132" s="18"/>
+      <c r="P132" s="18"/>
+      <c r="Q132" s="18"/>
+      <c r="R132" s="18"/>
+      <c r="S132" s="18"/>
+      <c r="T132" s="18"/>
+      <c r="U132" s="18"/>
     </row>
     <row r="133" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A133" s="19"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19"/>
-      <c r="N133" s="19"/>
-      <c r="O133" s="19"/>
-      <c r="P133" s="19"/>
-      <c r="Q133" s="19"/>
-      <c r="R133" s="19"/>
-      <c r="S133" s="19"/>
-      <c r="T133" s="19"/>
-      <c r="U133" s="19"/>
+      <c r="A133" s="18"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="18"/>
+      <c r="N133" s="18"/>
+      <c r="O133" s="18"/>
+      <c r="P133" s="18"/>
+      <c r="Q133" s="18"/>
+      <c r="R133" s="18"/>
+      <c r="S133" s="18"/>
+      <c r="T133" s="18"/>
+      <c r="U133" s="18"/>
     </row>
     <row r="134" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A134" s="19"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
-      <c r="N134" s="19"/>
-      <c r="O134" s="19"/>
-      <c r="P134" s="19"/>
-      <c r="Q134" s="19"/>
-      <c r="R134" s="19"/>
-      <c r="S134" s="19"/>
-      <c r="T134" s="19"/>
-      <c r="U134" s="19"/>
+      <c r="A134" s="18"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
+      <c r="N134" s="18"/>
+      <c r="O134" s="18"/>
+      <c r="P134" s="18"/>
+      <c r="Q134" s="18"/>
+      <c r="R134" s="18"/>
+      <c r="S134" s="18"/>
+      <c r="T134" s="18"/>
+      <c r="U134" s="18"/>
     </row>
     <row r="135" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A135" s="19"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="21"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
-      <c r="L135" s="19"/>
-      <c r="M135" s="19"/>
-      <c r="N135" s="19"/>
-      <c r="O135" s="19"/>
-      <c r="P135" s="19"/>
-      <c r="Q135" s="19"/>
-      <c r="R135" s="19"/>
-      <c r="S135" s="19"/>
-      <c r="T135" s="19"/>
-      <c r="U135" s="19"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="18"/>
+      <c r="N135" s="18"/>
+      <c r="O135" s="18"/>
+      <c r="P135" s="18"/>
+      <c r="Q135" s="18"/>
+      <c r="R135" s="18"/>
+      <c r="S135" s="18"/>
+      <c r="T135" s="18"/>
+      <c r="U135" s="18"/>
     </row>
     <row r="136" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A136" s="19"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19"/>
-      <c r="O136" s="19"/>
-      <c r="P136" s="19"/>
-      <c r="Q136" s="19"/>
-      <c r="R136" s="19"/>
-      <c r="S136" s="19"/>
-      <c r="T136" s="19"/>
-      <c r="U136" s="19"/>
+      <c r="A136" s="18"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="18"/>
+      <c r="N136" s="18"/>
+      <c r="O136" s="18"/>
+      <c r="P136" s="18"/>
+      <c r="Q136" s="18"/>
+      <c r="R136" s="18"/>
+      <c r="S136" s="18"/>
+      <c r="T136" s="18"/>
+      <c r="U136" s="18"/>
     </row>
     <row r="137" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A137" s="19"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="19"/>
-      <c r="M137" s="19"/>
-      <c r="N137" s="19"/>
-      <c r="O137" s="19"/>
-      <c r="P137" s="19"/>
-      <c r="Q137" s="19"/>
-      <c r="R137" s="19"/>
-      <c r="S137" s="19"/>
-      <c r="T137" s="19"/>
-      <c r="U137" s="19"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18"/>
+      <c r="M137" s="18"/>
+      <c r="N137" s="18"/>
+      <c r="O137" s="18"/>
+      <c r="P137" s="18"/>
+      <c r="Q137" s="18"/>
+      <c r="R137" s="18"/>
+      <c r="S137" s="18"/>
+      <c r="T137" s="18"/>
+      <c r="U137" s="18"/>
     </row>
     <row r="138" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A138" s="19"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19"/>
-      <c r="N138" s="19"/>
-      <c r="O138" s="19"/>
-      <c r="P138" s="19"/>
-      <c r="Q138" s="19"/>
-      <c r="R138" s="19"/>
-      <c r="S138" s="19"/>
-      <c r="T138" s="19"/>
-      <c r="U138" s="19"/>
+      <c r="A138" s="18"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18"/>
+      <c r="M138" s="18"/>
+      <c r="N138" s="18"/>
+      <c r="O138" s="18"/>
+      <c r="P138" s="18"/>
+      <c r="Q138" s="18"/>
+      <c r="R138" s="18"/>
+      <c r="S138" s="18"/>
+      <c r="T138" s="18"/>
+      <c r="U138" s="18"/>
     </row>
     <row r="139" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A139" s="19"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="21"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="19"/>
-      <c r="N139" s="19"/>
-      <c r="O139" s="19"/>
-      <c r="P139" s="19"/>
-      <c r="Q139" s="19"/>
-      <c r="R139" s="19"/>
-      <c r="S139" s="19"/>
-      <c r="T139" s="19"/>
-      <c r="U139" s="19"/>
+      <c r="A139" s="18"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="18"/>
+      <c r="N139" s="18"/>
+      <c r="O139" s="18"/>
+      <c r="P139" s="18"/>
+      <c r="Q139" s="18"/>
+      <c r="R139" s="18"/>
+      <c r="S139" s="18"/>
+      <c r="T139" s="18"/>
+      <c r="U139" s="18"/>
     </row>
     <row r="140" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A140" s="19"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="21"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="19"/>
-      <c r="M140" s="19"/>
-      <c r="N140" s="19"/>
-      <c r="O140" s="19"/>
-      <c r="P140" s="19"/>
-      <c r="Q140" s="19"/>
-      <c r="R140" s="19"/>
-      <c r="S140" s="19"/>
-      <c r="T140" s="19"/>
-      <c r="U140" s="19"/>
+      <c r="A140" s="18"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="18"/>
+      <c r="N140" s="18"/>
+      <c r="O140" s="18"/>
+      <c r="P140" s="18"/>
+      <c r="Q140" s="18"/>
+      <c r="R140" s="18"/>
+      <c r="S140" s="18"/>
+      <c r="T140" s="18"/>
+      <c r="U140" s="18"/>
     </row>
     <row r="141" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A141" s="19"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="19"/>
-      <c r="M141" s="19"/>
-      <c r="N141" s="19"/>
-      <c r="O141" s="19"/>
-      <c r="P141" s="19"/>
-      <c r="Q141" s="19"/>
-      <c r="R141" s="19"/>
-      <c r="S141" s="19"/>
-      <c r="T141" s="19"/>
-      <c r="U141" s="19"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="18"/>
+      <c r="O141" s="18"/>
+      <c r="P141" s="18"/>
+      <c r="Q141" s="18"/>
+      <c r="R141" s="18"/>
+      <c r="S141" s="18"/>
+      <c r="T141" s="18"/>
+      <c r="U141" s="18"/>
     </row>
     <row r="142" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A142" s="19"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-      <c r="O142" s="19"/>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="19"/>
-      <c r="R142" s="19"/>
-      <c r="S142" s="19"/>
-      <c r="T142" s="19"/>
-      <c r="U142" s="19"/>
+      <c r="A142" s="18"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
+      <c r="N142" s="18"/>
+      <c r="O142" s="18"/>
+      <c r="P142" s="18"/>
+      <c r="Q142" s="18"/>
+      <c r="R142" s="18"/>
+      <c r="S142" s="18"/>
+      <c r="T142" s="18"/>
+      <c r="U142" s="18"/>
     </row>
     <row r="143" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A143" s="19"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="21"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="19"/>
-      <c r="M143" s="19"/>
-      <c r="N143" s="19"/>
-      <c r="O143" s="19"/>
-      <c r="P143" s="19"/>
-      <c r="Q143" s="19"/>
-      <c r="R143" s="19"/>
-      <c r="S143" s="19"/>
-      <c r="T143" s="19"/>
-      <c r="U143" s="19"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18"/>
+      <c r="N143" s="18"/>
+      <c r="O143" s="18"/>
+      <c r="P143" s="18"/>
+      <c r="Q143" s="18"/>
+      <c r="R143" s="18"/>
+      <c r="S143" s="18"/>
+      <c r="T143" s="18"/>
+      <c r="U143" s="18"/>
     </row>
     <row r="144" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A144" s="19"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="21"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
-      <c r="L144" s="19"/>
-      <c r="M144" s="19"/>
-      <c r="N144" s="19"/>
-      <c r="O144" s="19"/>
-      <c r="P144" s="19"/>
-      <c r="Q144" s="19"/>
-      <c r="R144" s="19"/>
-      <c r="S144" s="19"/>
-      <c r="T144" s="19"/>
-      <c r="U144" s="19"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="18"/>
+      <c r="N144" s="18"/>
+      <c r="O144" s="18"/>
+      <c r="P144" s="18"/>
+      <c r="Q144" s="18"/>
+      <c r="R144" s="18"/>
+      <c r="S144" s="18"/>
+      <c r="T144" s="18"/>
+      <c r="U144" s="18"/>
     </row>
     <row r="145" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A145" s="19"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="19"/>
-      <c r="N145" s="19"/>
-      <c r="O145" s="19"/>
-      <c r="P145" s="19"/>
-      <c r="Q145" s="19"/>
-      <c r="R145" s="19"/>
-      <c r="S145" s="19"/>
-      <c r="T145" s="19"/>
-      <c r="U145" s="19"/>
+      <c r="A145" s="18"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
+      <c r="M145" s="18"/>
+      <c r="N145" s="18"/>
+      <c r="O145" s="18"/>
+      <c r="P145" s="18"/>
+      <c r="Q145" s="18"/>
+      <c r="R145" s="18"/>
+      <c r="S145" s="18"/>
+      <c r="T145" s="18"/>
+      <c r="U145" s="18"/>
     </row>
     <row r="146" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A146" s="19"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
-      <c r="O146" s="19"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
-      <c r="R146" s="19"/>
-      <c r="S146" s="19"/>
-      <c r="T146" s="19"/>
-      <c r="U146" s="19"/>
+      <c r="A146" s="18"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
+      <c r="M146" s="18"/>
+      <c r="N146" s="18"/>
+      <c r="O146" s="18"/>
+      <c r="P146" s="18"/>
+      <c r="Q146" s="18"/>
+      <c r="R146" s="18"/>
+      <c r="S146" s="18"/>
+      <c r="T146" s="18"/>
+      <c r="U146" s="18"/>
     </row>
     <row r="147" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A147" s="19"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="19"/>
-      <c r="N147" s="19"/>
-      <c r="O147" s="19"/>
-      <c r="P147" s="19"/>
-      <c r="Q147" s="19"/>
-      <c r="R147" s="19"/>
-      <c r="S147" s="19"/>
-      <c r="T147" s="19"/>
-      <c r="U147" s="19"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="18"/>
+      <c r="N147" s="18"/>
+      <c r="O147" s="18"/>
+      <c r="P147" s="18"/>
+      <c r="Q147" s="18"/>
+      <c r="R147" s="18"/>
+      <c r="S147" s="18"/>
+      <c r="T147" s="18"/>
+      <c r="U147" s="18"/>
     </row>
     <row r="148" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A148" s="19"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="19"/>
-      <c r="N148" s="19"/>
-      <c r="O148" s="19"/>
-      <c r="P148" s="19"/>
-      <c r="Q148" s="19"/>
-      <c r="R148" s="19"/>
-      <c r="S148" s="19"/>
-      <c r="T148" s="19"/>
-      <c r="U148" s="19"/>
+      <c r="A148" s="18"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="18"/>
+      <c r="N148" s="18"/>
+      <c r="O148" s="18"/>
+      <c r="P148" s="18"/>
+      <c r="Q148" s="18"/>
+      <c r="R148" s="18"/>
+      <c r="S148" s="18"/>
+      <c r="T148" s="18"/>
+      <c r="U148" s="18"/>
     </row>
     <row r="149" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A149" s="19"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="19"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="19"/>
-      <c r="N149" s="19"/>
-      <c r="O149" s="19"/>
-      <c r="P149" s="19"/>
-      <c r="Q149" s="19"/>
-      <c r="R149" s="19"/>
-      <c r="S149" s="19"/>
-      <c r="T149" s="19"/>
-      <c r="U149" s="19"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="18"/>
+      <c r="O149" s="18"/>
+      <c r="P149" s="18"/>
+      <c r="Q149" s="18"/>
+      <c r="R149" s="18"/>
+      <c r="S149" s="18"/>
+      <c r="T149" s="18"/>
+      <c r="U149" s="18"/>
     </row>
     <row r="150" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A150" s="19"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="21"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19"/>
-      <c r="N150" s="19"/>
-      <c r="O150" s="19"/>
-      <c r="P150" s="19"/>
-      <c r="Q150" s="19"/>
-      <c r="R150" s="19"/>
-      <c r="S150" s="19"/>
-      <c r="T150" s="19"/>
-      <c r="U150" s="19"/>
+      <c r="A150" s="18"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="18"/>
+      <c r="N150" s="18"/>
+      <c r="O150" s="18"/>
+      <c r="P150" s="18"/>
+      <c r="Q150" s="18"/>
+      <c r="R150" s="18"/>
+      <c r="S150" s="18"/>
+      <c r="T150" s="18"/>
+      <c r="U150" s="18"/>
     </row>
     <row r="151" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A151" s="19"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="20"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="21"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="19"/>
-      <c r="K151" s="19"/>
-      <c r="L151" s="19"/>
-      <c r="M151" s="19"/>
-      <c r="N151" s="19"/>
-      <c r="O151" s="19"/>
-      <c r="P151" s="19"/>
-      <c r="Q151" s="19"/>
-      <c r="R151" s="19"/>
-      <c r="S151" s="19"/>
-      <c r="T151" s="19"/>
-      <c r="U151" s="19"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="18"/>
+      <c r="N151" s="18"/>
+      <c r="O151" s="18"/>
+      <c r="P151" s="18"/>
+      <c r="Q151" s="18"/>
+      <c r="R151" s="18"/>
+      <c r="S151" s="18"/>
+      <c r="T151" s="18"/>
+      <c r="U151" s="18"/>
     </row>
     <row r="152" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A152" s="19"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="21"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19"/>
-      <c r="N152" s="19"/>
-      <c r="O152" s="19"/>
-      <c r="P152" s="19"/>
-      <c r="Q152" s="19"/>
-      <c r="R152" s="19"/>
-      <c r="S152" s="19"/>
-      <c r="T152" s="19"/>
-      <c r="U152" s="19"/>
+      <c r="A152" s="18"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="18"/>
+      <c r="O152" s="18"/>
+      <c r="P152" s="18"/>
+      <c r="Q152" s="18"/>
+      <c r="R152" s="18"/>
+      <c r="S152" s="18"/>
+      <c r="T152" s="18"/>
+      <c r="U152" s="18"/>
     </row>
     <row r="153" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A153" s="19"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="21"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
-      <c r="N153" s="19"/>
-      <c r="O153" s="19"/>
-      <c r="P153" s="19"/>
-      <c r="Q153" s="19"/>
-      <c r="R153" s="19"/>
-      <c r="S153" s="19"/>
-      <c r="T153" s="19"/>
-      <c r="U153" s="19"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="18"/>
+      <c r="N153" s="18"/>
+      <c r="O153" s="18"/>
+      <c r="P153" s="18"/>
+      <c r="Q153" s="18"/>
+      <c r="R153" s="18"/>
+      <c r="S153" s="18"/>
+      <c r="T153" s="18"/>
+      <c r="U153" s="18"/>
     </row>
     <row r="154" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A154" s="19"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19"/>
-      <c r="N154" s="19"/>
-      <c r="O154" s="19"/>
-      <c r="P154" s="19"/>
-      <c r="Q154" s="19"/>
-      <c r="R154" s="19"/>
-      <c r="S154" s="19"/>
-      <c r="T154" s="19"/>
-      <c r="U154" s="19"/>
+      <c r="A154" s="18"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="18"/>
+      <c r="N154" s="18"/>
+      <c r="O154" s="18"/>
+      <c r="P154" s="18"/>
+      <c r="Q154" s="18"/>
+      <c r="R154" s="18"/>
+      <c r="S154" s="18"/>
+      <c r="T154" s="18"/>
+      <c r="U154" s="18"/>
     </row>
     <row r="155" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A155" s="19"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="19"/>
-      <c r="L155" s="19"/>
-      <c r="M155" s="19"/>
-      <c r="N155" s="19"/>
-      <c r="O155" s="19"/>
-      <c r="P155" s="19"/>
-      <c r="Q155" s="19"/>
-      <c r="R155" s="19"/>
-      <c r="S155" s="19"/>
-      <c r="T155" s="19"/>
-      <c r="U155" s="19"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="18"/>
+      <c r="M155" s="18"/>
+      <c r="N155" s="18"/>
+      <c r="O155" s="18"/>
+      <c r="P155" s="18"/>
+      <c r="Q155" s="18"/>
+      <c r="R155" s="18"/>
+      <c r="S155" s="18"/>
+      <c r="T155" s="18"/>
+      <c r="U155" s="18"/>
     </row>
     <row r="156" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A156" s="19"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="19"/>
-      <c r="L156" s="19"/>
-      <c r="M156" s="19"/>
-      <c r="N156" s="19"/>
-      <c r="O156" s="19"/>
-      <c r="P156" s="19"/>
-      <c r="Q156" s="19"/>
-      <c r="R156" s="19"/>
-      <c r="S156" s="19"/>
-      <c r="T156" s="19"/>
-      <c r="U156" s="19"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="18"/>
+      <c r="M156" s="18"/>
+      <c r="N156" s="18"/>
+      <c r="O156" s="18"/>
+      <c r="P156" s="18"/>
+      <c r="Q156" s="18"/>
+      <c r="R156" s="18"/>
+      <c r="S156" s="18"/>
+      <c r="T156" s="18"/>
+      <c r="U156" s="18"/>
     </row>
     <row r="157" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A157" s="19"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="20"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="19"/>
-      <c r="K157" s="19"/>
-      <c r="L157" s="19"/>
-      <c r="M157" s="19"/>
-      <c r="N157" s="19"/>
-      <c r="O157" s="19"/>
-      <c r="P157" s="19"/>
-      <c r="Q157" s="19"/>
-      <c r="R157" s="19"/>
-      <c r="S157" s="19"/>
-      <c r="T157" s="19"/>
-      <c r="U157" s="19"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="18"/>
+      <c r="M157" s="18"/>
+      <c r="N157" s="18"/>
+      <c r="O157" s="18"/>
+      <c r="P157" s="18"/>
+      <c r="Q157" s="18"/>
+      <c r="R157" s="18"/>
+      <c r="S157" s="18"/>
+      <c r="T157" s="18"/>
+      <c r="U157" s="18"/>
     </row>
     <row r="158" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A158" s="19"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="20"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
-      <c r="K158" s="19"/>
-      <c r="L158" s="19"/>
-      <c r="M158" s="19"/>
-      <c r="N158" s="19"/>
-      <c r="O158" s="19"/>
-      <c r="P158" s="19"/>
-      <c r="Q158" s="19"/>
-      <c r="R158" s="19"/>
-      <c r="S158" s="19"/>
-      <c r="T158" s="19"/>
-      <c r="U158" s="19"/>
+      <c r="A158" s="18"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="18"/>
+      <c r="L158" s="18"/>
+      <c r="M158" s="18"/>
+      <c r="N158" s="18"/>
+      <c r="O158" s="18"/>
+      <c r="P158" s="18"/>
+      <c r="Q158" s="18"/>
+      <c r="R158" s="18"/>
+      <c r="S158" s="18"/>
+      <c r="T158" s="18"/>
+      <c r="U158" s="18"/>
     </row>
     <row r="159" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A159" s="19"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="20"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="19"/>
-      <c r="L159" s="19"/>
-      <c r="M159" s="19"/>
-      <c r="N159" s="19"/>
-      <c r="O159" s="19"/>
-      <c r="P159" s="19"/>
-      <c r="Q159" s="19"/>
-      <c r="R159" s="19"/>
-      <c r="S159" s="19"/>
-      <c r="T159" s="19"/>
-      <c r="U159" s="19"/>
+      <c r="A159" s="18"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="18"/>
+      <c r="M159" s="18"/>
+      <c r="N159" s="18"/>
+      <c r="O159" s="18"/>
+      <c r="P159" s="18"/>
+      <c r="Q159" s="18"/>
+      <c r="R159" s="18"/>
+      <c r="S159" s="18"/>
+      <c r="T159" s="18"/>
+      <c r="U159" s="18"/>
     </row>
     <row r="160" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A160" s="19"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="20"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="19"/>
-      <c r="L160" s="19"/>
-      <c r="M160" s="19"/>
-      <c r="N160" s="19"/>
-      <c r="O160" s="19"/>
-      <c r="P160" s="19"/>
-      <c r="Q160" s="19"/>
-      <c r="R160" s="19"/>
-      <c r="S160" s="19"/>
-      <c r="T160" s="19"/>
-      <c r="U160" s="19"/>
+      <c r="A160" s="18"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="18"/>
+      <c r="J160" s="18"/>
+      <c r="K160" s="18"/>
+      <c r="L160" s="18"/>
+      <c r="M160" s="18"/>
+      <c r="N160" s="18"/>
+      <c r="O160" s="18"/>
+      <c r="P160" s="18"/>
+      <c r="Q160" s="18"/>
+      <c r="R160" s="18"/>
+      <c r="S160" s="18"/>
+      <c r="T160" s="18"/>
+      <c r="U160" s="18"/>
     </row>
     <row r="161" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A161" s="19"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="20"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="19"/>
-      <c r="K161" s="19"/>
-      <c r="L161" s="19"/>
-      <c r="M161" s="19"/>
-      <c r="N161" s="19"/>
-      <c r="O161" s="19"/>
-      <c r="P161" s="19"/>
-      <c r="Q161" s="19"/>
-      <c r="R161" s="19"/>
-      <c r="S161" s="19"/>
-      <c r="T161" s="19"/>
-      <c r="U161" s="19"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="18"/>
+      <c r="M161" s="18"/>
+      <c r="N161" s="18"/>
+      <c r="O161" s="18"/>
+      <c r="P161" s="18"/>
+      <c r="Q161" s="18"/>
+      <c r="R161" s="18"/>
+      <c r="S161" s="18"/>
+      <c r="T161" s="18"/>
+      <c r="U161" s="18"/>
     </row>
     <row r="162" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A162" s="19"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="20"/>
-      <c r="E162" s="20"/>
-      <c r="F162" s="20"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="19"/>
-      <c r="L162" s="19"/>
-      <c r="M162" s="19"/>
-      <c r="N162" s="19"/>
-      <c r="O162" s="19"/>
-      <c r="P162" s="19"/>
-      <c r="Q162" s="19"/>
-      <c r="R162" s="19"/>
-      <c r="S162" s="19"/>
-      <c r="T162" s="19"/>
-      <c r="U162" s="19"/>
+      <c r="A162" s="18"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="18"/>
+      <c r="M162" s="18"/>
+      <c r="N162" s="18"/>
+      <c r="O162" s="18"/>
+      <c r="P162" s="18"/>
+      <c r="Q162" s="18"/>
+      <c r="R162" s="18"/>
+      <c r="S162" s="18"/>
+      <c r="T162" s="18"/>
+      <c r="U162" s="18"/>
     </row>
     <row r="163" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A163" s="19"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="21"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="19"/>
-      <c r="L163" s="19"/>
-      <c r="M163" s="19"/>
-      <c r="N163" s="19"/>
-      <c r="O163" s="19"/>
-      <c r="P163" s="19"/>
-      <c r="Q163" s="19"/>
-      <c r="R163" s="19"/>
-      <c r="S163" s="19"/>
-      <c r="T163" s="19"/>
-      <c r="U163" s="19"/>
+      <c r="A163" s="18"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="18"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="18"/>
+      <c r="L163" s="18"/>
+      <c r="M163" s="18"/>
+      <c r="N163" s="18"/>
+      <c r="O163" s="18"/>
+      <c r="P163" s="18"/>
+      <c r="Q163" s="18"/>
+      <c r="R163" s="18"/>
+      <c r="S163" s="18"/>
+      <c r="T163" s="18"/>
+      <c r="U163" s="18"/>
     </row>
     <row r="164" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A164" s="19"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="20"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="19"/>
-      <c r="L164" s="19"/>
-      <c r="M164" s="19"/>
-      <c r="N164" s="19"/>
-      <c r="O164" s="19"/>
-      <c r="P164" s="19"/>
-      <c r="Q164" s="19"/>
-      <c r="R164" s="19"/>
-      <c r="S164" s="19"/>
-      <c r="T164" s="19"/>
-      <c r="U164" s="19"/>
+      <c r="A164" s="18"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="18"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="18"/>
+      <c r="L164" s="18"/>
+      <c r="M164" s="18"/>
+      <c r="N164" s="18"/>
+      <c r="O164" s="18"/>
+      <c r="P164" s="18"/>
+      <c r="Q164" s="18"/>
+      <c r="R164" s="18"/>
+      <c r="S164" s="18"/>
+      <c r="T164" s="18"/>
+      <c r="U164" s="18"/>
     </row>
     <row r="165" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A165" s="19"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="20"/>
-      <c r="E165" s="20"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="19"/>
-      <c r="M165" s="19"/>
-      <c r="N165" s="19"/>
-      <c r="O165" s="19"/>
-      <c r="P165" s="19"/>
-      <c r="Q165" s="19"/>
-      <c r="R165" s="19"/>
-      <c r="S165" s="19"/>
-      <c r="T165" s="19"/>
-      <c r="U165" s="19"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="18"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="18"/>
+      <c r="L165" s="18"/>
+      <c r="M165" s="18"/>
+      <c r="N165" s="18"/>
+      <c r="O165" s="18"/>
+      <c r="P165" s="18"/>
+      <c r="Q165" s="18"/>
+      <c r="R165" s="18"/>
+      <c r="S165" s="18"/>
+      <c r="T165" s="18"/>
+      <c r="U165" s="18"/>
     </row>
     <row r="166" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A166" s="19"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="20"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="20"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="19"/>
-      <c r="M166" s="19"/>
-      <c r="N166" s="19"/>
-      <c r="O166" s="19"/>
-      <c r="P166" s="19"/>
-      <c r="Q166" s="19"/>
-      <c r="R166" s="19"/>
-      <c r="S166" s="19"/>
-      <c r="T166" s="19"/>
-      <c r="U166" s="19"/>
+      <c r="A166" s="18"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="18"/>
+      <c r="J166" s="18"/>
+      <c r="K166" s="18"/>
+      <c r="L166" s="18"/>
+      <c r="M166" s="18"/>
+      <c r="N166" s="18"/>
+      <c r="O166" s="18"/>
+      <c r="P166" s="18"/>
+      <c r="Q166" s="18"/>
+      <c r="R166" s="18"/>
+      <c r="S166" s="18"/>
+      <c r="T166" s="18"/>
+      <c r="U166" s="18"/>
     </row>
     <row r="167" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A167" s="19"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="20"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="21"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
-      <c r="K167" s="19"/>
-      <c r="L167" s="19"/>
-      <c r="M167" s="19"/>
-      <c r="N167" s="19"/>
-      <c r="O167" s="19"/>
-      <c r="P167" s="19"/>
-      <c r="Q167" s="19"/>
-      <c r="R167" s="19"/>
-      <c r="S167" s="19"/>
-      <c r="T167" s="19"/>
-      <c r="U167" s="19"/>
+      <c r="A167" s="18"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="18"/>
+      <c r="J167" s="18"/>
+      <c r="K167" s="18"/>
+      <c r="L167" s="18"/>
+      <c r="M167" s="18"/>
+      <c r="N167" s="18"/>
+      <c r="O167" s="18"/>
+      <c r="P167" s="18"/>
+      <c r="Q167" s="18"/>
+      <c r="R167" s="18"/>
+      <c r="S167" s="18"/>
+      <c r="T167" s="18"/>
+      <c r="U167" s="18"/>
     </row>
     <row r="168" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A168" s="19"/>
-      <c r="B168" s="18"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="20"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="21"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
-      <c r="K168" s="19"/>
-      <c r="L168" s="19"/>
-      <c r="M168" s="19"/>
-      <c r="N168" s="19"/>
-      <c r="O168" s="19"/>
-      <c r="P168" s="19"/>
-      <c r="Q168" s="19"/>
-      <c r="R168" s="19"/>
-      <c r="S168" s="19"/>
-      <c r="T168" s="19"/>
-      <c r="U168" s="19"/>
+      <c r="A168" s="18"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="18"/>
+      <c r="I168" s="18"/>
+      <c r="J168" s="18"/>
+      <c r="K168" s="18"/>
+      <c r="L168" s="18"/>
+      <c r="M168" s="18"/>
+      <c r="N168" s="18"/>
+      <c r="O168" s="18"/>
+      <c r="P168" s="18"/>
+      <c r="Q168" s="18"/>
+      <c r="R168" s="18"/>
+      <c r="S168" s="18"/>
+      <c r="T168" s="18"/>
+      <c r="U168" s="18"/>
     </row>
     <row r="169" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A169" s="19"/>
-      <c r="B169" s="18"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="20"/>
-      <c r="E169" s="20"/>
-      <c r="F169" s="20"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="19"/>
-      <c r="K169" s="19"/>
-      <c r="L169" s="19"/>
-      <c r="M169" s="19"/>
-      <c r="N169" s="19"/>
-      <c r="O169" s="19"/>
-      <c r="P169" s="19"/>
-      <c r="Q169" s="19"/>
-      <c r="R169" s="19"/>
-      <c r="S169" s="19"/>
-      <c r="T169" s="19"/>
-      <c r="U169" s="19"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="18"/>
+      <c r="I169" s="18"/>
+      <c r="J169" s="18"/>
+      <c r="K169" s="18"/>
+      <c r="L169" s="18"/>
+      <c r="M169" s="18"/>
+      <c r="N169" s="18"/>
+      <c r="O169" s="18"/>
+      <c r="P169" s="18"/>
+      <c r="Q169" s="18"/>
+      <c r="R169" s="18"/>
+      <c r="S169" s="18"/>
+      <c r="T169" s="18"/>
+      <c r="U169" s="18"/>
     </row>
     <row r="170" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A170" s="19"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="20"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="20"/>
-      <c r="G170" s="21"/>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="19"/>
-      <c r="K170" s="19"/>
-      <c r="L170" s="19"/>
-      <c r="M170" s="19"/>
-      <c r="N170" s="19"/>
-      <c r="O170" s="19"/>
-      <c r="P170" s="19"/>
-      <c r="Q170" s="19"/>
-      <c r="R170" s="19"/>
-      <c r="S170" s="19"/>
-      <c r="T170" s="19"/>
-      <c r="U170" s="19"/>
+      <c r="A170" s="18"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="18"/>
+      <c r="I170" s="18"/>
+      <c r="J170" s="18"/>
+      <c r="K170" s="18"/>
+      <c r="L170" s="18"/>
+      <c r="M170" s="18"/>
+      <c r="N170" s="18"/>
+      <c r="O170" s="18"/>
+      <c r="P170" s="18"/>
+      <c r="Q170" s="18"/>
+      <c r="R170" s="18"/>
+      <c r="S170" s="18"/>
+      <c r="T170" s="18"/>
+      <c r="U170" s="18"/>
     </row>
     <row r="171" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A171" s="19"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="20"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="21"/>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="19"/>
-      <c r="K171" s="19"/>
-      <c r="L171" s="19"/>
-      <c r="M171" s="19"/>
-      <c r="N171" s="19"/>
-      <c r="O171" s="19"/>
-      <c r="P171" s="19"/>
-      <c r="Q171" s="19"/>
-      <c r="R171" s="19"/>
-      <c r="S171" s="19"/>
-      <c r="T171" s="19"/>
-      <c r="U171" s="19"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="18"/>
+      <c r="J171" s="18"/>
+      <c r="K171" s="18"/>
+      <c r="L171" s="18"/>
+      <c r="M171" s="18"/>
+      <c r="N171" s="18"/>
+      <c r="O171" s="18"/>
+      <c r="P171" s="18"/>
+      <c r="Q171" s="18"/>
+      <c r="R171" s="18"/>
+      <c r="S171" s="18"/>
+      <c r="T171" s="18"/>
+      <c r="U171" s="18"/>
     </row>
     <row r="172" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A172" s="19"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="20"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="20"/>
-      <c r="G172" s="21"/>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="19"/>
-      <c r="K172" s="19"/>
-      <c r="L172" s="19"/>
-      <c r="M172" s="19"/>
-      <c r="N172" s="19"/>
-      <c r="O172" s="19"/>
-      <c r="P172" s="19"/>
-      <c r="Q172" s="19"/>
-      <c r="R172" s="19"/>
-      <c r="S172" s="19"/>
-      <c r="T172" s="19"/>
-      <c r="U172" s="19"/>
+      <c r="A172" s="18"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="18"/>
+      <c r="I172" s="18"/>
+      <c r="J172" s="18"/>
+      <c r="K172" s="18"/>
+      <c r="L172" s="18"/>
+      <c r="M172" s="18"/>
+      <c r="N172" s="18"/>
+      <c r="O172" s="18"/>
+      <c r="P172" s="18"/>
+      <c r="Q172" s="18"/>
+      <c r="R172" s="18"/>
+      <c r="S172" s="18"/>
+      <c r="T172" s="18"/>
+      <c r="U172" s="18"/>
     </row>
     <row r="173" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A173" s="19"/>
-      <c r="B173" s="18"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="21"/>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="19"/>
-      <c r="K173" s="19"/>
-      <c r="L173" s="19"/>
-      <c r="M173" s="19"/>
-      <c r="N173" s="19"/>
-      <c r="O173" s="19"/>
-      <c r="P173" s="19"/>
-      <c r="Q173" s="19"/>
-      <c r="R173" s="19"/>
-      <c r="S173" s="19"/>
-      <c r="T173" s="19"/>
-      <c r="U173" s="19"/>
+      <c r="A173" s="18"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="18"/>
+      <c r="I173" s="18"/>
+      <c r="J173" s="18"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="18"/>
+      <c r="N173" s="18"/>
+      <c r="O173" s="18"/>
+      <c r="P173" s="18"/>
+      <c r="Q173" s="18"/>
+      <c r="R173" s="18"/>
+      <c r="S173" s="18"/>
+      <c r="T173" s="18"/>
+      <c r="U173" s="18"/>
     </row>
     <row r="174" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A174" s="19"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="20"/>
-      <c r="E174" s="20"/>
-      <c r="F174" s="20"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="19"/>
-      <c r="K174" s="19"/>
-      <c r="L174" s="19"/>
-      <c r="M174" s="19"/>
-      <c r="N174" s="19"/>
-      <c r="O174" s="19"/>
-      <c r="P174" s="19"/>
-      <c r="Q174" s="19"/>
-      <c r="R174" s="19"/>
-      <c r="S174" s="19"/>
-      <c r="T174" s="19"/>
-      <c r="U174" s="19"/>
+      <c r="A174" s="18"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="18"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="18"/>
+      <c r="L174" s="18"/>
+      <c r="M174" s="18"/>
+      <c r="N174" s="18"/>
+      <c r="O174" s="18"/>
+      <c r="P174" s="18"/>
+      <c r="Q174" s="18"/>
+      <c r="R174" s="18"/>
+      <c r="S174" s="18"/>
+      <c r="T174" s="18"/>
+      <c r="U174" s="18"/>
     </row>
     <row r="175" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A175" s="19"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="20"/>
-      <c r="E175" s="20"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="21"/>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="19"/>
-      <c r="K175" s="19"/>
-      <c r="L175" s="19"/>
-      <c r="M175" s="19"/>
-      <c r="N175" s="19"/>
-      <c r="O175" s="19"/>
-      <c r="P175" s="19"/>
-      <c r="Q175" s="19"/>
-      <c r="R175" s="19"/>
-      <c r="S175" s="19"/>
-      <c r="T175" s="19"/>
-      <c r="U175" s="19"/>
+      <c r="A175" s="18"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="18"/>
+      <c r="I175" s="18"/>
+      <c r="J175" s="18"/>
+      <c r="K175" s="18"/>
+      <c r="L175" s="18"/>
+      <c r="M175" s="18"/>
+      <c r="N175" s="18"/>
+      <c r="O175" s="18"/>
+      <c r="P175" s="18"/>
+      <c r="Q175" s="18"/>
+      <c r="R175" s="18"/>
+      <c r="S175" s="18"/>
+      <c r="T175" s="18"/>
+      <c r="U175" s="18"/>
     </row>
     <row r="176" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A176" s="19"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="20"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="21"/>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="19"/>
-      <c r="K176" s="19"/>
-      <c r="L176" s="19"/>
-      <c r="M176" s="19"/>
-      <c r="N176" s="19"/>
-      <c r="O176" s="19"/>
-      <c r="P176" s="19"/>
-      <c r="Q176" s="19"/>
-      <c r="R176" s="19"/>
-      <c r="S176" s="19"/>
-      <c r="T176" s="19"/>
-      <c r="U176" s="19"/>
+      <c r="A176" s="18"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="18"/>
+      <c r="I176" s="18"/>
+      <c r="J176" s="18"/>
+      <c r="K176" s="18"/>
+      <c r="L176" s="18"/>
+      <c r="M176" s="18"/>
+      <c r="N176" s="18"/>
+      <c r="O176" s="18"/>
+      <c r="P176" s="18"/>
+      <c r="Q176" s="18"/>
+      <c r="R176" s="18"/>
+      <c r="S176" s="18"/>
+      <c r="T176" s="18"/>
+      <c r="U176" s="18"/>
     </row>
     <row r="177" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A177" s="19"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="21"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="19"/>
-      <c r="L177" s="19"/>
-      <c r="M177" s="19"/>
-      <c r="N177" s="19"/>
-      <c r="O177" s="19"/>
-      <c r="P177" s="19"/>
-      <c r="Q177" s="19"/>
-      <c r="R177" s="19"/>
-      <c r="S177" s="19"/>
-      <c r="T177" s="19"/>
-      <c r="U177" s="19"/>
+      <c r="A177" s="18"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="18"/>
+      <c r="J177" s="18"/>
+      <c r="K177" s="18"/>
+      <c r="L177" s="18"/>
+      <c r="M177" s="18"/>
+      <c r="N177" s="18"/>
+      <c r="O177" s="18"/>
+      <c r="P177" s="18"/>
+      <c r="Q177" s="18"/>
+      <c r="R177" s="18"/>
+      <c r="S177" s="18"/>
+      <c r="T177" s="18"/>
+      <c r="U177" s="18"/>
     </row>
     <row r="178" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A178" s="19"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="21"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
-      <c r="L178" s="19"/>
-      <c r="M178" s="19"/>
-      <c r="N178" s="19"/>
-      <c r="O178" s="19"/>
-      <c r="P178" s="19"/>
-      <c r="Q178" s="19"/>
-      <c r="R178" s="19"/>
-      <c r="S178" s="19"/>
-      <c r="T178" s="19"/>
-      <c r="U178" s="19"/>
+      <c r="A178" s="18"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="18"/>
+      <c r="J178" s="18"/>
+      <c r="K178" s="18"/>
+      <c r="L178" s="18"/>
+      <c r="M178" s="18"/>
+      <c r="N178" s="18"/>
+      <c r="O178" s="18"/>
+      <c r="P178" s="18"/>
+      <c r="Q178" s="18"/>
+      <c r="R178" s="18"/>
+      <c r="S178" s="18"/>
+      <c r="T178" s="18"/>
+      <c r="U178" s="18"/>
     </row>
     <row r="179" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A179" s="19"/>
-      <c r="B179" s="18"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="20"/>
-      <c r="E179" s="20"/>
-      <c r="F179" s="20"/>
-      <c r="G179" s="21"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19"/>
-      <c r="K179" s="19"/>
-      <c r="L179" s="19"/>
-      <c r="M179" s="19"/>
-      <c r="N179" s="19"/>
-      <c r="O179" s="19"/>
-      <c r="P179" s="19"/>
-      <c r="Q179" s="19"/>
-      <c r="R179" s="19"/>
-      <c r="S179" s="19"/>
-      <c r="T179" s="19"/>
-      <c r="U179" s="19"/>
+      <c r="A179" s="18"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="18"/>
+      <c r="N179" s="18"/>
+      <c r="O179" s="18"/>
+      <c r="P179" s="18"/>
+      <c r="Q179" s="18"/>
+      <c r="R179" s="18"/>
+      <c r="S179" s="18"/>
+      <c r="T179" s="18"/>
+      <c r="U179" s="18"/>
     </row>
     <row r="180" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A180" s="19"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="21"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="19"/>
-      <c r="K180" s="19"/>
-      <c r="L180" s="19"/>
-      <c r="M180" s="19"/>
-      <c r="N180" s="19"/>
-      <c r="O180" s="19"/>
-      <c r="P180" s="19"/>
-      <c r="Q180" s="19"/>
-      <c r="R180" s="19"/>
-      <c r="S180" s="19"/>
-      <c r="T180" s="19"/>
-      <c r="U180" s="19"/>
+      <c r="A180" s="18"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="18"/>
+      <c r="I180" s="18"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
+      <c r="L180" s="18"/>
+      <c r="M180" s="18"/>
+      <c r="N180" s="18"/>
+      <c r="O180" s="18"/>
+      <c r="P180" s="18"/>
+      <c r="Q180" s="18"/>
+      <c r="R180" s="18"/>
+      <c r="S180" s="18"/>
+      <c r="T180" s="18"/>
+      <c r="U180" s="18"/>
     </row>
     <row r="181" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A181" s="19"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="20"/>
-      <c r="E181" s="20"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="21"/>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="19"/>
-      <c r="K181" s="19"/>
-      <c r="L181" s="19"/>
-      <c r="M181" s="19"/>
-      <c r="N181" s="19"/>
-      <c r="O181" s="19"/>
-      <c r="P181" s="19"/>
-      <c r="Q181" s="19"/>
-      <c r="R181" s="19"/>
-      <c r="S181" s="19"/>
-      <c r="T181" s="19"/>
-      <c r="U181" s="19"/>
+      <c r="A181" s="18"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="18"/>
+      <c r="I181" s="18"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="18"/>
+      <c r="M181" s="18"/>
+      <c r="N181" s="18"/>
+      <c r="O181" s="18"/>
+      <c r="P181" s="18"/>
+      <c r="Q181" s="18"/>
+      <c r="R181" s="18"/>
+      <c r="S181" s="18"/>
+      <c r="T181" s="18"/>
+      <c r="U181" s="18"/>
     </row>
     <row r="182" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A182" s="19"/>
-      <c r="B182" s="18"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="20"/>
-      <c r="E182" s="20"/>
-      <c r="F182" s="20"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="19"/>
-      <c r="K182" s="19"/>
-      <c r="L182" s="19"/>
-      <c r="M182" s="19"/>
-      <c r="N182" s="19"/>
-      <c r="O182" s="19"/>
-      <c r="P182" s="19"/>
-      <c r="Q182" s="19"/>
-      <c r="R182" s="19"/>
-      <c r="S182" s="19"/>
-      <c r="T182" s="19"/>
-      <c r="U182" s="19"/>
+      <c r="A182" s="18"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="18"/>
+      <c r="I182" s="18"/>
+      <c r="J182" s="18"/>
+      <c r="K182" s="18"/>
+      <c r="L182" s="18"/>
+      <c r="M182" s="18"/>
+      <c r="N182" s="18"/>
+      <c r="O182" s="18"/>
+      <c r="P182" s="18"/>
+      <c r="Q182" s="18"/>
+      <c r="R182" s="18"/>
+      <c r="S182" s="18"/>
+      <c r="T182" s="18"/>
+      <c r="U182" s="18"/>
     </row>
     <row r="183" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A183" s="19"/>
-      <c r="B183" s="18"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="20"/>
-      <c r="E183" s="20"/>
-      <c r="F183" s="20"/>
-      <c r="G183" s="21"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="19"/>
-      <c r="K183" s="19"/>
-      <c r="L183" s="19"/>
-      <c r="M183" s="19"/>
-      <c r="N183" s="19"/>
-      <c r="O183" s="19"/>
-      <c r="P183" s="19"/>
-      <c r="Q183" s="19"/>
-      <c r="R183" s="19"/>
-      <c r="S183" s="19"/>
-      <c r="T183" s="19"/>
-      <c r="U183" s="19"/>
+      <c r="A183" s="18"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="18"/>
+      <c r="L183" s="18"/>
+      <c r="M183" s="18"/>
+      <c r="N183" s="18"/>
+      <c r="O183" s="18"/>
+      <c r="P183" s="18"/>
+      <c r="Q183" s="18"/>
+      <c r="R183" s="18"/>
+      <c r="S183" s="18"/>
+      <c r="T183" s="18"/>
+      <c r="U183" s="18"/>
     </row>
     <row r="184" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A184" s="19"/>
-      <c r="B184" s="18"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="20"/>
-      <c r="E184" s="20"/>
-      <c r="F184" s="20"/>
-      <c r="G184" s="21"/>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="19"/>
-      <c r="K184" s="19"/>
-      <c r="L184" s="19"/>
-      <c r="M184" s="19"/>
-      <c r="N184" s="19"/>
-      <c r="O184" s="19"/>
-      <c r="P184" s="19"/>
-      <c r="Q184" s="19"/>
-      <c r="R184" s="19"/>
-      <c r="S184" s="19"/>
-      <c r="T184" s="19"/>
-      <c r="U184" s="19"/>
+      <c r="A184" s="18"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="20"/>
+      <c r="H184" s="18"/>
+      <c r="I184" s="18"/>
+      <c r="J184" s="18"/>
+      <c r="K184" s="18"/>
+      <c r="L184" s="18"/>
+      <c r="M184" s="18"/>
+      <c r="N184" s="18"/>
+      <c r="O184" s="18"/>
+      <c r="P184" s="18"/>
+      <c r="Q184" s="18"/>
+      <c r="R184" s="18"/>
+      <c r="S184" s="18"/>
+      <c r="T184" s="18"/>
+      <c r="U184" s="18"/>
     </row>
     <row r="185" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A185" s="19"/>
-      <c r="B185" s="18"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="20"/>
-      <c r="E185" s="20"/>
-      <c r="F185" s="20"/>
-      <c r="G185" s="21"/>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="19"/>
-      <c r="K185" s="19"/>
-      <c r="L185" s="19"/>
-      <c r="M185" s="19"/>
-      <c r="N185" s="19"/>
-      <c r="O185" s="19"/>
-      <c r="P185" s="19"/>
-      <c r="Q185" s="19"/>
-      <c r="R185" s="19"/>
-      <c r="S185" s="19"/>
-      <c r="T185" s="19"/>
-      <c r="U185" s="19"/>
+      <c r="A185" s="18"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="18"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="18"/>
+      <c r="K185" s="18"/>
+      <c r="L185" s="18"/>
+      <c r="M185" s="18"/>
+      <c r="N185" s="18"/>
+      <c r="O185" s="18"/>
+      <c r="P185" s="18"/>
+      <c r="Q185" s="18"/>
+      <c r="R185" s="18"/>
+      <c r="S185" s="18"/>
+      <c r="T185" s="18"/>
+      <c r="U185" s="18"/>
     </row>
     <row r="186" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A186" s="19"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="20"/>
-      <c r="E186" s="20"/>
-      <c r="F186" s="20"/>
-      <c r="G186" s="21"/>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="19"/>
-      <c r="K186" s="19"/>
-      <c r="L186" s="19"/>
-      <c r="M186" s="19"/>
-      <c r="N186" s="19"/>
-      <c r="O186" s="19"/>
-      <c r="P186" s="19"/>
-      <c r="Q186" s="19"/>
-      <c r="R186" s="19"/>
-      <c r="S186" s="19"/>
-      <c r="T186" s="19"/>
-      <c r="U186" s="19"/>
+      <c r="A186" s="18"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="20"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="18"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="18"/>
+      <c r="L186" s="18"/>
+      <c r="M186" s="18"/>
+      <c r="N186" s="18"/>
+      <c r="O186" s="18"/>
+      <c r="P186" s="18"/>
+      <c r="Q186" s="18"/>
+      <c r="R186" s="18"/>
+      <c r="S186" s="18"/>
+      <c r="T186" s="18"/>
+      <c r="U186" s="18"/>
     </row>
     <row r="187" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A187" s="19"/>
-      <c r="B187" s="18"/>
-      <c r="C187" s="19"/>
-      <c r="D187" s="20"/>
-      <c r="E187" s="20"/>
-      <c r="F187" s="20"/>
-      <c r="G187" s="21"/>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="19"/>
-      <c r="K187" s="19"/>
-      <c r="L187" s="19"/>
-      <c r="M187" s="19"/>
-      <c r="N187" s="19"/>
-      <c r="O187" s="19"/>
-      <c r="P187" s="19"/>
-      <c r="Q187" s="19"/>
-      <c r="R187" s="19"/>
-      <c r="S187" s="19"/>
-      <c r="T187" s="19"/>
-      <c r="U187" s="19"/>
+      <c r="A187" s="18"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="20"/>
+      <c r="H187" s="18"/>
+      <c r="I187" s="18"/>
+      <c r="J187" s="18"/>
+      <c r="K187" s="18"/>
+      <c r="L187" s="18"/>
+      <c r="M187" s="18"/>
+      <c r="N187" s="18"/>
+      <c r="O187" s="18"/>
+      <c r="P187" s="18"/>
+      <c r="Q187" s="18"/>
+      <c r="R187" s="18"/>
+      <c r="S187" s="18"/>
+      <c r="T187" s="18"/>
+      <c r="U187" s="18"/>
     </row>
     <row r="188" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A188" s="19"/>
-      <c r="B188" s="18"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="20"/>
-      <c r="E188" s="20"/>
-      <c r="F188" s="20"/>
-      <c r="G188" s="21"/>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="19"/>
-      <c r="K188" s="19"/>
-      <c r="L188" s="19"/>
-      <c r="M188" s="19"/>
-      <c r="N188" s="19"/>
-      <c r="O188" s="19"/>
-      <c r="P188" s="19"/>
-      <c r="Q188" s="19"/>
-      <c r="R188" s="19"/>
-      <c r="S188" s="19"/>
-      <c r="T188" s="19"/>
-      <c r="U188" s="19"/>
+      <c r="A188" s="18"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="19"/>
+      <c r="G188" s="20"/>
+      <c r="H188" s="18"/>
+      <c r="I188" s="18"/>
+      <c r="J188" s="18"/>
+      <c r="K188" s="18"/>
+      <c r="L188" s="18"/>
+      <c r="M188" s="18"/>
+      <c r="N188" s="18"/>
+      <c r="O188" s="18"/>
+      <c r="P188" s="18"/>
+      <c r="Q188" s="18"/>
+      <c r="R188" s="18"/>
+      <c r="S188" s="18"/>
+      <c r="T188" s="18"/>
+      <c r="U188" s="18"/>
     </row>
     <row r="189" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A189" s="19"/>
-      <c r="B189" s="18"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="20"/>
-      <c r="E189" s="20"/>
-      <c r="F189" s="20"/>
-      <c r="G189" s="21"/>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
-      <c r="K189" s="19"/>
-      <c r="L189" s="19"/>
-      <c r="M189" s="19"/>
-      <c r="N189" s="19"/>
-      <c r="O189" s="19"/>
-      <c r="P189" s="19"/>
-      <c r="Q189" s="19"/>
-      <c r="R189" s="19"/>
-      <c r="S189" s="19"/>
-      <c r="T189" s="19"/>
-      <c r="U189" s="19"/>
+      <c r="A189" s="18"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="20"/>
+      <c r="H189" s="18"/>
+      <c r="I189" s="18"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="18"/>
+      <c r="L189" s="18"/>
+      <c r="M189" s="18"/>
+      <c r="N189" s="18"/>
+      <c r="O189" s="18"/>
+      <c r="P189" s="18"/>
+      <c r="Q189" s="18"/>
+      <c r="R189" s="18"/>
+      <c r="S189" s="18"/>
+      <c r="T189" s="18"/>
+      <c r="U189" s="18"/>
     </row>
     <row r="190" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A190" s="19"/>
-      <c r="B190" s="18"/>
-      <c r="C190" s="19"/>
-      <c r="D190" s="20"/>
-      <c r="E190" s="20"/>
-      <c r="F190" s="20"/>
-      <c r="G190" s="21"/>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="19"/>
-      <c r="K190" s="19"/>
-      <c r="L190" s="19"/>
-      <c r="M190" s="19"/>
-      <c r="N190" s="19"/>
-      <c r="O190" s="19"/>
-      <c r="P190" s="19"/>
-      <c r="Q190" s="19"/>
-      <c r="R190" s="19"/>
-      <c r="S190" s="19"/>
-      <c r="T190" s="19"/>
-      <c r="U190" s="19"/>
+      <c r="A190" s="18"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="20"/>
+      <c r="H190" s="18"/>
+      <c r="I190" s="18"/>
+      <c r="J190" s="18"/>
+      <c r="K190" s="18"/>
+      <c r="L190" s="18"/>
+      <c r="M190" s="18"/>
+      <c r="N190" s="18"/>
+      <c r="O190" s="18"/>
+      <c r="P190" s="18"/>
+      <c r="Q190" s="18"/>
+      <c r="R190" s="18"/>
+      <c r="S190" s="18"/>
+      <c r="T190" s="18"/>
+      <c r="U190" s="18"/>
     </row>
     <row r="191" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A191" s="19"/>
-      <c r="B191" s="18"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="20"/>
-      <c r="E191" s="20"/>
-      <c r="F191" s="20"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="19"/>
-      <c r="L191" s="19"/>
-      <c r="M191" s="19"/>
-      <c r="N191" s="19"/>
-      <c r="O191" s="19"/>
-      <c r="P191" s="19"/>
-      <c r="Q191" s="19"/>
-      <c r="R191" s="19"/>
-      <c r="S191" s="19"/>
-      <c r="T191" s="19"/>
-      <c r="U191" s="19"/>
+      <c r="A191" s="18"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="20"/>
+      <c r="H191" s="18"/>
+      <c r="I191" s="18"/>
+      <c r="J191" s="18"/>
+      <c r="K191" s="18"/>
+      <c r="L191" s="18"/>
+      <c r="M191" s="18"/>
+      <c r="N191" s="18"/>
+      <c r="O191" s="18"/>
+      <c r="P191" s="18"/>
+      <c r="Q191" s="18"/>
+      <c r="R191" s="18"/>
+      <c r="S191" s="18"/>
+      <c r="T191" s="18"/>
+      <c r="U191" s="18"/>
     </row>
     <row r="192" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A192" s="19"/>
-      <c r="B192" s="18"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="20"/>
-      <c r="E192" s="20"/>
-      <c r="F192" s="20"/>
-      <c r="G192" s="21"/>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="19"/>
-      <c r="K192" s="19"/>
-      <c r="L192" s="19"/>
-      <c r="M192" s="19"/>
-      <c r="N192" s="19"/>
-      <c r="O192" s="19"/>
-      <c r="P192" s="19"/>
-      <c r="Q192" s="19"/>
-      <c r="R192" s="19"/>
-      <c r="S192" s="19"/>
-      <c r="T192" s="19"/>
-      <c r="U192" s="19"/>
+      <c r="A192" s="18"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="20"/>
+      <c r="H192" s="18"/>
+      <c r="I192" s="18"/>
+      <c r="J192" s="18"/>
+      <c r="K192" s="18"/>
+      <c r="L192" s="18"/>
+      <c r="M192" s="18"/>
+      <c r="N192" s="18"/>
+      <c r="O192" s="18"/>
+      <c r="P192" s="18"/>
+      <c r="Q192" s="18"/>
+      <c r="R192" s="18"/>
+      <c r="S192" s="18"/>
+      <c r="T192" s="18"/>
+      <c r="U192" s="18"/>
     </row>
     <row r="193" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A193" s="19"/>
-      <c r="B193" s="18"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="20"/>
-      <c r="E193" s="20"/>
-      <c r="F193" s="20"/>
-      <c r="G193" s="21"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
-      <c r="K193" s="19"/>
-      <c r="L193" s="19"/>
-      <c r="M193" s="19"/>
-      <c r="N193" s="19"/>
-      <c r="O193" s="19"/>
-      <c r="P193" s="19"/>
-      <c r="Q193" s="19"/>
-      <c r="R193" s="19"/>
-      <c r="S193" s="19"/>
-      <c r="T193" s="19"/>
-      <c r="U193" s="19"/>
+      <c r="A193" s="18"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="18"/>
+      <c r="I193" s="18"/>
+      <c r="J193" s="18"/>
+      <c r="K193" s="18"/>
+      <c r="L193" s="18"/>
+      <c r="M193" s="18"/>
+      <c r="N193" s="18"/>
+      <c r="O193" s="18"/>
+      <c r="P193" s="18"/>
+      <c r="Q193" s="18"/>
+      <c r="R193" s="18"/>
+      <c r="S193" s="18"/>
+      <c r="T193" s="18"/>
+      <c r="U193" s="18"/>
     </row>
     <row r="194" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A194" s="19"/>
-      <c r="B194" s="18"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="20"/>
-      <c r="E194" s="20"/>
-      <c r="F194" s="20"/>
-      <c r="G194" s="21"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="19"/>
-      <c r="K194" s="19"/>
-      <c r="L194" s="19"/>
-      <c r="M194" s="19"/>
-      <c r="N194" s="19"/>
-      <c r="O194" s="19"/>
-      <c r="P194" s="19"/>
-      <c r="Q194" s="19"/>
-      <c r="R194" s="19"/>
-      <c r="S194" s="19"/>
-      <c r="T194" s="19"/>
-      <c r="U194" s="19"/>
+      <c r="A194" s="18"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="18"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="20"/>
+      <c r="H194" s="18"/>
+      <c r="I194" s="18"/>
+      <c r="J194" s="18"/>
+      <c r="K194" s="18"/>
+      <c r="L194" s="18"/>
+      <c r="M194" s="18"/>
+      <c r="N194" s="18"/>
+      <c r="O194" s="18"/>
+      <c r="P194" s="18"/>
+      <c r="Q194" s="18"/>
+      <c r="R194" s="18"/>
+      <c r="S194" s="18"/>
+      <c r="T194" s="18"/>
+      <c r="U194" s="18"/>
     </row>
     <row r="195" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A195" s="19"/>
-      <c r="B195" s="18"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="20"/>
-      <c r="E195" s="20"/>
-      <c r="F195" s="20"/>
-      <c r="G195" s="21"/>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="19"/>
-      <c r="K195" s="19"/>
-      <c r="L195" s="19"/>
-      <c r="M195" s="19"/>
-      <c r="N195" s="19"/>
-      <c r="O195" s="19"/>
-      <c r="P195" s="19"/>
-      <c r="Q195" s="19"/>
-      <c r="R195" s="19"/>
-      <c r="S195" s="19"/>
-      <c r="T195" s="19"/>
-      <c r="U195" s="19"/>
+      <c r="A195" s="18"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="19"/>
+      <c r="G195" s="20"/>
+      <c r="H195" s="18"/>
+      <c r="I195" s="18"/>
+      <c r="J195" s="18"/>
+      <c r="K195" s="18"/>
+      <c r="L195" s="18"/>
+      <c r="M195" s="18"/>
+      <c r="N195" s="18"/>
+      <c r="O195" s="18"/>
+      <c r="P195" s="18"/>
+      <c r="Q195" s="18"/>
+      <c r="R195" s="18"/>
+      <c r="S195" s="18"/>
+      <c r="T195" s="18"/>
+      <c r="U195" s="18"/>
     </row>
     <row r="196" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A196" s="19"/>
-      <c r="B196" s="18"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="20"/>
-      <c r="E196" s="20"/>
-      <c r="F196" s="20"/>
-      <c r="G196" s="21"/>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="19"/>
-      <c r="K196" s="19"/>
-      <c r="L196" s="19"/>
-      <c r="M196" s="19"/>
-      <c r="N196" s="19"/>
-      <c r="O196" s="19"/>
-      <c r="P196" s="19"/>
-      <c r="Q196" s="19"/>
-      <c r="R196" s="19"/>
-      <c r="S196" s="19"/>
-      <c r="T196" s="19"/>
-      <c r="U196" s="19"/>
+      <c r="A196" s="18"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="19"/>
+      <c r="E196" s="19"/>
+      <c r="F196" s="19"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="18"/>
+      <c r="I196" s="18"/>
+      <c r="J196" s="18"/>
+      <c r="K196" s="18"/>
+      <c r="L196" s="18"/>
+      <c r="M196" s="18"/>
+      <c r="N196" s="18"/>
+      <c r="O196" s="18"/>
+      <c r="P196" s="18"/>
+      <c r="Q196" s="18"/>
+      <c r="R196" s="18"/>
+      <c r="S196" s="18"/>
+      <c r="T196" s="18"/>
+      <c r="U196" s="18"/>
     </row>
     <row r="197" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A197" s="19"/>
-      <c r="B197" s="18"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="20"/>
-      <c r="E197" s="20"/>
-      <c r="F197" s="20"/>
-      <c r="G197" s="21"/>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="19"/>
-      <c r="K197" s="19"/>
-      <c r="L197" s="19"/>
-      <c r="M197" s="19"/>
-      <c r="N197" s="19"/>
-      <c r="O197" s="19"/>
-      <c r="P197" s="19"/>
-      <c r="Q197" s="19"/>
-      <c r="R197" s="19"/>
-      <c r="S197" s="19"/>
-      <c r="T197" s="19"/>
-      <c r="U197" s="19"/>
+      <c r="A197" s="18"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="19"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="19"/>
+      <c r="G197" s="20"/>
+      <c r="H197" s="18"/>
+      <c r="I197" s="18"/>
+      <c r="J197" s="18"/>
+      <c r="K197" s="18"/>
+      <c r="L197" s="18"/>
+      <c r="M197" s="18"/>
+      <c r="N197" s="18"/>
+      <c r="O197" s="18"/>
+      <c r="P197" s="18"/>
+      <c r="Q197" s="18"/>
+      <c r="R197" s="18"/>
+      <c r="S197" s="18"/>
+      <c r="T197" s="18"/>
+      <c r="U197" s="18"/>
     </row>
     <row r="198" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A198" s="19"/>
-      <c r="B198" s="18"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="20"/>
-      <c r="E198" s="20"/>
-      <c r="F198" s="20"/>
-      <c r="G198" s="21"/>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="19"/>
-      <c r="K198" s="19"/>
-      <c r="L198" s="19"/>
-      <c r="M198" s="19"/>
-      <c r="N198" s="19"/>
-      <c r="O198" s="19"/>
-      <c r="P198" s="19"/>
-      <c r="Q198" s="19"/>
-      <c r="R198" s="19"/>
-      <c r="S198" s="19"/>
-      <c r="T198" s="19"/>
-      <c r="U198" s="19"/>
+      <c r="A198" s="18"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="19"/>
+      <c r="E198" s="19"/>
+      <c r="F198" s="19"/>
+      <c r="G198" s="20"/>
+      <c r="H198" s="18"/>
+      <c r="I198" s="18"/>
+      <c r="J198" s="18"/>
+      <c r="K198" s="18"/>
+      <c r="L198" s="18"/>
+      <c r="M198" s="18"/>
+      <c r="N198" s="18"/>
+      <c r="O198" s="18"/>
+      <c r="P198" s="18"/>
+      <c r="Q198" s="18"/>
+      <c r="R198" s="18"/>
+      <c r="S198" s="18"/>
+      <c r="T198" s="18"/>
+      <c r="U198" s="18"/>
     </row>
     <row r="199" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A199" s="19"/>
-      <c r="B199" s="18"/>
-      <c r="C199" s="19"/>
-      <c r="D199" s="20"/>
-      <c r="E199" s="20"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="21"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
-      <c r="K199" s="19"/>
-      <c r="L199" s="19"/>
-      <c r="M199" s="19"/>
-      <c r="N199" s="19"/>
-      <c r="O199" s="19"/>
-      <c r="P199" s="19"/>
-      <c r="Q199" s="19"/>
-      <c r="R199" s="19"/>
-      <c r="S199" s="19"/>
-      <c r="T199" s="19"/>
-      <c r="U199" s="19"/>
+      <c r="A199" s="18"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="19"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="20"/>
+      <c r="H199" s="18"/>
+      <c r="I199" s="18"/>
+      <c r="J199" s="18"/>
+      <c r="K199" s="18"/>
+      <c r="L199" s="18"/>
+      <c r="M199" s="18"/>
+      <c r="N199" s="18"/>
+      <c r="O199" s="18"/>
+      <c r="P199" s="18"/>
+      <c r="Q199" s="18"/>
+      <c r="R199" s="18"/>
+      <c r="S199" s="18"/>
+      <c r="T199" s="18"/>
+      <c r="U199" s="18"/>
     </row>
     <row r="200" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A200" s="19"/>
-      <c r="B200" s="18"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="20"/>
-      <c r="E200" s="20"/>
-      <c r="F200" s="20"/>
-      <c r="G200" s="21"/>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="19"/>
-      <c r="K200" s="19"/>
-      <c r="L200" s="19"/>
-      <c r="M200" s="19"/>
-      <c r="N200" s="19"/>
-      <c r="O200" s="19"/>
-      <c r="P200" s="19"/>
-      <c r="Q200" s="19"/>
-      <c r="R200" s="19"/>
-      <c r="S200" s="19"/>
-      <c r="T200" s="19"/>
-      <c r="U200" s="19"/>
+      <c r="A200" s="18"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="18"/>
+      <c r="D200" s="19"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="19"/>
+      <c r="G200" s="20"/>
+      <c r="H200" s="18"/>
+      <c r="I200" s="18"/>
+      <c r="J200" s="18"/>
+      <c r="K200" s="18"/>
+      <c r="L200" s="18"/>
+      <c r="M200" s="18"/>
+      <c r="N200" s="18"/>
+      <c r="O200" s="18"/>
+      <c r="P200" s="18"/>
+      <c r="Q200" s="18"/>
+      <c r="R200" s="18"/>
+      <c r="S200" s="18"/>
+      <c r="T200" s="18"/>
+      <c r="U200" s="18"/>
     </row>
     <row r="201" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A201" s="19"/>
-      <c r="B201" s="18"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="20"/>
-      <c r="F201" s="20"/>
-      <c r="G201" s="21"/>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="19"/>
-      <c r="K201" s="19"/>
-      <c r="L201" s="19"/>
-      <c r="M201" s="19"/>
-      <c r="N201" s="19"/>
-      <c r="O201" s="19"/>
-      <c r="P201" s="19"/>
-      <c r="Q201" s="19"/>
-      <c r="R201" s="19"/>
-      <c r="S201" s="19"/>
-      <c r="T201" s="19"/>
-      <c r="U201" s="19"/>
+      <c r="A201" s="18"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="19"/>
+      <c r="G201" s="20"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
+      <c r="J201" s="18"/>
+      <c r="K201" s="18"/>
+      <c r="L201" s="18"/>
+      <c r="M201" s="18"/>
+      <c r="N201" s="18"/>
+      <c r="O201" s="18"/>
+      <c r="P201" s="18"/>
+      <c r="Q201" s="18"/>
+      <c r="R201" s="18"/>
+      <c r="S201" s="18"/>
+      <c r="T201" s="18"/>
+      <c r="U201" s="18"/>
     </row>
     <row r="202" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A202" s="19"/>
-      <c r="B202" s="18"/>
-      <c r="C202" s="19"/>
-      <c r="D202" s="20"/>
-      <c r="E202" s="20"/>
-      <c r="F202" s="20"/>
-      <c r="G202" s="21"/>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="19"/>
-      <c r="K202" s="19"/>
-      <c r="L202" s="19"/>
-      <c r="M202" s="19"/>
-      <c r="N202" s="19"/>
-      <c r="O202" s="19"/>
-      <c r="P202" s="19"/>
-      <c r="Q202" s="19"/>
-      <c r="R202" s="19"/>
-      <c r="S202" s="19"/>
-      <c r="T202" s="19"/>
-      <c r="U202" s="19"/>
+      <c r="A202" s="18"/>
+      <c r="B202" s="17"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="19"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="19"/>
+      <c r="G202" s="20"/>
+      <c r="H202" s="18"/>
+      <c r="I202" s="18"/>
+      <c r="J202" s="18"/>
+      <c r="K202" s="18"/>
+      <c r="L202" s="18"/>
+      <c r="M202" s="18"/>
+      <c r="N202" s="18"/>
+      <c r="O202" s="18"/>
+      <c r="P202" s="18"/>
+      <c r="Q202" s="18"/>
+      <c r="R202" s="18"/>
+      <c r="S202" s="18"/>
+      <c r="T202" s="18"/>
+      <c r="U202" s="18"/>
     </row>
     <row r="203" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A203" s="19"/>
-      <c r="B203" s="18"/>
-      <c r="C203" s="19"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="20"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="21"/>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="19"/>
-      <c r="K203" s="19"/>
-      <c r="L203" s="19"/>
-      <c r="M203" s="19"/>
-      <c r="N203" s="19"/>
-      <c r="O203" s="19"/>
-      <c r="P203" s="19"/>
-      <c r="Q203" s="19"/>
-      <c r="R203" s="19"/>
-      <c r="S203" s="19"/>
-      <c r="T203" s="19"/>
-      <c r="U203" s="19"/>
+      <c r="A203" s="18"/>
+      <c r="B203" s="17"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="18"/>
+      <c r="I203" s="18"/>
+      <c r="J203" s="18"/>
+      <c r="K203" s="18"/>
+      <c r="L203" s="18"/>
+      <c r="M203" s="18"/>
+      <c r="N203" s="18"/>
+      <c r="O203" s="18"/>
+      <c r="P203" s="18"/>
+      <c r="Q203" s="18"/>
+      <c r="R203" s="18"/>
+      <c r="S203" s="18"/>
+      <c r="T203" s="18"/>
+      <c r="U203" s="18"/>
     </row>
     <row r="204" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A204" s="19"/>
-      <c r="B204" s="18"/>
-      <c r="C204" s="19"/>
-      <c r="D204" s="20"/>
-      <c r="E204" s="20"/>
-      <c r="F204" s="20"/>
-      <c r="G204" s="21"/>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="19"/>
-      <c r="K204" s="19"/>
-      <c r="L204" s="19"/>
-      <c r="M204" s="19"/>
-      <c r="N204" s="19"/>
-      <c r="O204" s="19"/>
-      <c r="P204" s="19"/>
-      <c r="Q204" s="19"/>
-      <c r="R204" s="19"/>
-      <c r="S204" s="19"/>
-      <c r="T204" s="19"/>
-      <c r="U204" s="19"/>
+      <c r="A204" s="18"/>
+      <c r="B204" s="17"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="19"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="19"/>
+      <c r="G204" s="20"/>
+      <c r="H204" s="18"/>
+      <c r="I204" s="18"/>
+      <c r="J204" s="18"/>
+      <c r="K204" s="18"/>
+      <c r="L204" s="18"/>
+      <c r="M204" s="18"/>
+      <c r="N204" s="18"/>
+      <c r="O204" s="18"/>
+      <c r="P204" s="18"/>
+      <c r="Q204" s="18"/>
+      <c r="R204" s="18"/>
+      <c r="S204" s="18"/>
+      <c r="T204" s="18"/>
+      <c r="U204" s="18"/>
     </row>
     <row r="205" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A205" s="19"/>
-      <c r="B205" s="18"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="20"/>
-      <c r="E205" s="20"/>
-      <c r="F205" s="20"/>
-      <c r="G205" s="21"/>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="19"/>
-      <c r="K205" s="19"/>
-      <c r="L205" s="19"/>
-      <c r="M205" s="19"/>
-      <c r="N205" s="19"/>
-      <c r="O205" s="19"/>
-      <c r="P205" s="19"/>
-      <c r="Q205" s="19"/>
-      <c r="R205" s="19"/>
-      <c r="S205" s="19"/>
-      <c r="T205" s="19"/>
-      <c r="U205" s="19"/>
+      <c r="A205" s="18"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="18"/>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="20"/>
+      <c r="H205" s="18"/>
+      <c r="I205" s="18"/>
+      <c r="J205" s="18"/>
+      <c r="K205" s="18"/>
+      <c r="L205" s="18"/>
+      <c r="M205" s="18"/>
+      <c r="N205" s="18"/>
+      <c r="O205" s="18"/>
+      <c r="P205" s="18"/>
+      <c r="Q205" s="18"/>
+      <c r="R205" s="18"/>
+      <c r="S205" s="18"/>
+      <c r="T205" s="18"/>
+      <c r="U205" s="18"/>
     </row>
     <row r="206" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A206" s="19"/>
-      <c r="B206" s="18"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="20"/>
-      <c r="E206" s="20"/>
-      <c r="F206" s="20"/>
-      <c r="G206" s="21"/>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="19"/>
-      <c r="K206" s="19"/>
-      <c r="L206" s="19"/>
-      <c r="M206" s="19"/>
-      <c r="N206" s="19"/>
-      <c r="O206" s="19"/>
-      <c r="P206" s="19"/>
-      <c r="Q206" s="19"/>
-      <c r="R206" s="19"/>
-      <c r="S206" s="19"/>
-      <c r="T206" s="19"/>
-      <c r="U206" s="19"/>
+      <c r="A206" s="18"/>
+      <c r="B206" s="17"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="19"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="19"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="18"/>
+      <c r="I206" s="18"/>
+      <c r="J206" s="18"/>
+      <c r="K206" s="18"/>
+      <c r="L206" s="18"/>
+      <c r="M206" s="18"/>
+      <c r="N206" s="18"/>
+      <c r="O206" s="18"/>
+      <c r="P206" s="18"/>
+      <c r="Q206" s="18"/>
+      <c r="R206" s="18"/>
+      <c r="S206" s="18"/>
+      <c r="T206" s="18"/>
+      <c r="U206" s="18"/>
     </row>
     <row r="207" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A207" s="19"/>
-      <c r="B207" s="18"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="20"/>
-      <c r="E207" s="20"/>
-      <c r="F207" s="20"/>
-      <c r="G207" s="21"/>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="19"/>
-      <c r="K207" s="19"/>
-      <c r="L207" s="19"/>
-      <c r="M207" s="19"/>
-      <c r="N207" s="19"/>
-      <c r="O207" s="19"/>
-      <c r="P207" s="19"/>
-      <c r="Q207" s="19"/>
-      <c r="R207" s="19"/>
-      <c r="S207" s="19"/>
-      <c r="T207" s="19"/>
-      <c r="U207" s="19"/>
+      <c r="B207" s="8"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
     </row>
     <row r="208" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A208" s="19"/>
-      <c r="B208" s="18"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="20"/>
-      <c r="E208" s="20"/>
-      <c r="F208" s="20"/>
-      <c r="G208" s="21"/>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="19"/>
-      <c r="K208" s="19"/>
-      <c r="L208" s="19"/>
-      <c r="M208" s="19"/>
-      <c r="N208" s="19"/>
-      <c r="O208" s="19"/>
-      <c r="P208" s="19"/>
-      <c r="Q208" s="19"/>
-      <c r="R208" s="19"/>
-      <c r="S208" s="19"/>
-      <c r="T208" s="19"/>
-      <c r="U208" s="19"/>
-    </row>
-    <row r="209" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A209" s="19"/>
-      <c r="B209" s="18"/>
-      <c r="C209" s="19"/>
-      <c r="D209" s="20"/>
-      <c r="E209" s="20"/>
-      <c r="F209" s="20"/>
-      <c r="G209" s="21"/>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="19"/>
-      <c r="K209" s="19"/>
-      <c r="L209" s="19"/>
-      <c r="M209" s="19"/>
-      <c r="N209" s="19"/>
-      <c r="O209" s="19"/>
-      <c r="P209" s="19"/>
-      <c r="Q209" s="19"/>
-      <c r="R209" s="19"/>
-      <c r="S209" s="19"/>
-      <c r="T209" s="19"/>
-      <c r="U209" s="19"/>
-    </row>
-    <row r="210" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A210" s="19"/>
-      <c r="B210" s="18"/>
-      <c r="C210" s="19"/>
-      <c r="D210" s="20"/>
-      <c r="E210" s="20"/>
-      <c r="F210" s="20"/>
-      <c r="G210" s="21"/>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="19"/>
-      <c r="K210" s="19"/>
-      <c r="L210" s="19"/>
-      <c r="M210" s="19"/>
-      <c r="N210" s="19"/>
-      <c r="O210" s="19"/>
-      <c r="P210" s="19"/>
-      <c r="Q210" s="19"/>
-      <c r="R210" s="19"/>
-      <c r="S210" s="19"/>
-      <c r="T210" s="19"/>
-      <c r="U210" s="19"/>
-    </row>
-    <row r="211" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A211" s="19"/>
-      <c r="B211" s="18"/>
-      <c r="C211" s="19"/>
-      <c r="D211" s="20"/>
-      <c r="E211" s="20"/>
-      <c r="F211" s="20"/>
-      <c r="G211" s="21"/>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="19"/>
-      <c r="K211" s="19"/>
-      <c r="L211" s="19"/>
-      <c r="M211" s="19"/>
-      <c r="N211" s="19"/>
-      <c r="O211" s="19"/>
-      <c r="P211" s="19"/>
-      <c r="Q211" s="19"/>
-      <c r="R211" s="19"/>
-      <c r="S211" s="19"/>
-      <c r="T211" s="19"/>
-      <c r="U211" s="19"/>
-    </row>
-    <row r="212" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A212" s="19"/>
-      <c r="B212" s="18"/>
-      <c r="C212" s="19"/>
-      <c r="D212" s="20"/>
-      <c r="E212" s="20"/>
-      <c r="F212" s="20"/>
-      <c r="G212" s="21"/>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="19"/>
-      <c r="K212" s="19"/>
-      <c r="L212" s="19"/>
-      <c r="M212" s="19"/>
-      <c r="N212" s="19"/>
-      <c r="O212" s="19"/>
-      <c r="P212" s="19"/>
-      <c r="Q212" s="19"/>
-      <c r="R212" s="19"/>
-      <c r="S212" s="19"/>
-      <c r="T212" s="19"/>
-      <c r="U212" s="19"/>
-    </row>
-    <row r="213" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A213" s="19"/>
-      <c r="B213" s="18"/>
-      <c r="C213" s="19"/>
-      <c r="D213" s="20"/>
-      <c r="E213" s="20"/>
-      <c r="F213" s="20"/>
-      <c r="G213" s="21"/>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="19"/>
-      <c r="K213" s="19"/>
-      <c r="L213" s="19"/>
-      <c r="M213" s="19"/>
-      <c r="N213" s="19"/>
-      <c r="O213" s="19"/>
-      <c r="P213" s="19"/>
-      <c r="Q213" s="19"/>
-      <c r="R213" s="19"/>
-      <c r="S213" s="19"/>
-      <c r="T213" s="19"/>
-      <c r="U213" s="19"/>
-    </row>
-    <row r="214" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A214" s="19"/>
-      <c r="B214" s="18"/>
-      <c r="C214" s="19"/>
-      <c r="D214" s="20"/>
-      <c r="E214" s="20"/>
-      <c r="F214" s="20"/>
-      <c r="G214" s="21"/>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="19"/>
-      <c r="K214" s="19"/>
-      <c r="L214" s="19"/>
-      <c r="M214" s="19"/>
-      <c r="N214" s="19"/>
-      <c r="O214" s="19"/>
-      <c r="P214" s="19"/>
-      <c r="Q214" s="19"/>
-      <c r="R214" s="19"/>
-      <c r="S214" s="19"/>
-      <c r="T214" s="19"/>
-      <c r="U214" s="19"/>
-    </row>
-    <row r="215" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A215" s="19"/>
-      <c r="B215" s="18"/>
-      <c r="C215" s="19"/>
-      <c r="D215" s="20"/>
-      <c r="E215" s="20"/>
-      <c r="F215" s="20"/>
-      <c r="G215" s="21"/>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="19"/>
-      <c r="K215" s="19"/>
-      <c r="L215" s="19"/>
-      <c r="M215" s="19"/>
-      <c r="N215" s="19"/>
-      <c r="O215" s="19"/>
-      <c r="P215" s="19"/>
-      <c r="Q215" s="19"/>
-      <c r="R215" s="19"/>
-      <c r="S215" s="19"/>
-      <c r="T215" s="19"/>
-      <c r="U215" s="19"/>
-    </row>
-    <row r="216" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A216" s="19"/>
-      <c r="B216" s="18"/>
-      <c r="C216" s="19"/>
-      <c r="D216" s="20"/>
-      <c r="E216" s="20"/>
-      <c r="F216" s="20"/>
-      <c r="G216" s="21"/>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="19"/>
-      <c r="K216" s="19"/>
-      <c r="L216" s="19"/>
-      <c r="M216" s="19"/>
-      <c r="N216" s="19"/>
-      <c r="O216" s="19"/>
-      <c r="P216" s="19"/>
-      <c r="Q216" s="19"/>
-      <c r="R216" s="19"/>
-      <c r="S216" s="19"/>
-      <c r="T216" s="19"/>
-      <c r="U216" s="19"/>
-    </row>
-    <row r="217" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A217" s="19"/>
-      <c r="B217" s="18"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="20"/>
-      <c r="E217" s="20"/>
-      <c r="F217" s="20"/>
-      <c r="G217" s="21"/>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="19"/>
-      <c r="K217" s="19"/>
-      <c r="L217" s="19"/>
-      <c r="M217" s="19"/>
-      <c r="N217" s="19"/>
-      <c r="O217" s="19"/>
-      <c r="P217" s="19"/>
-      <c r="Q217" s="19"/>
-      <c r="R217" s="19"/>
-      <c r="S217" s="19"/>
-      <c r="T217" s="19"/>
-      <c r="U217" s="19"/>
-    </row>
-    <row r="218" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A218" s="19"/>
-      <c r="B218" s="18"/>
-      <c r="C218" s="19"/>
-      <c r="D218" s="20"/>
-      <c r="E218" s="20"/>
-      <c r="F218" s="20"/>
-      <c r="G218" s="21"/>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="19"/>
-      <c r="K218" s="19"/>
-      <c r="L218" s="19"/>
-      <c r="M218" s="19"/>
-      <c r="N218" s="19"/>
-      <c r="O218" s="19"/>
-      <c r="P218" s="19"/>
-      <c r="Q218" s="19"/>
-      <c r="R218" s="19"/>
-      <c r="S218" s="19"/>
-      <c r="T218" s="19"/>
-      <c r="U218" s="19"/>
-    </row>
-    <row r="219" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A219" s="19"/>
-      <c r="B219" s="18"/>
-      <c r="C219" s="19"/>
-      <c r="D219" s="20"/>
-      <c r="E219" s="20"/>
-      <c r="F219" s="20"/>
-      <c r="G219" s="21"/>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="19"/>
-      <c r="K219" s="19"/>
-      <c r="L219" s="19"/>
-      <c r="M219" s="19"/>
-      <c r="N219" s="19"/>
-      <c r="O219" s="19"/>
-      <c r="P219" s="19"/>
-      <c r="Q219" s="19"/>
-      <c r="R219" s="19"/>
-      <c r="S219" s="19"/>
-      <c r="T219" s="19"/>
-      <c r="U219" s="19"/>
-    </row>
-    <row r="220" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A220" s="19"/>
-      <c r="B220" s="18"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="20"/>
-      <c r="E220" s="20"/>
-      <c r="F220" s="20"/>
-      <c r="G220" s="21"/>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="19"/>
-      <c r="K220" s="19"/>
-      <c r="L220" s="19"/>
-      <c r="M220" s="19"/>
-      <c r="N220" s="19"/>
-      <c r="O220" s="19"/>
-      <c r="P220" s="19"/>
-      <c r="Q220" s="19"/>
-      <c r="R220" s="19"/>
-      <c r="S220" s="19"/>
-      <c r="T220" s="19"/>
-      <c r="U220" s="19"/>
-    </row>
-    <row r="221" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A221" s="19"/>
-      <c r="B221" s="18"/>
-      <c r="C221" s="19"/>
-      <c r="D221" s="20"/>
-      <c r="E221" s="20"/>
-      <c r="F221" s="20"/>
-      <c r="G221" s="21"/>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="19"/>
-      <c r="K221" s="19"/>
-      <c r="L221" s="19"/>
-      <c r="M221" s="19"/>
-      <c r="N221" s="19"/>
-      <c r="O221" s="19"/>
-      <c r="P221" s="19"/>
-      <c r="Q221" s="19"/>
-      <c r="R221" s="19"/>
-      <c r="S221" s="19"/>
-      <c r="T221" s="19"/>
-      <c r="U221" s="19"/>
-    </row>
-    <row r="222" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B222" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B209" s="8"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+    </row>
+    <row r="210" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B210" s="8"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+    </row>
+    <row r="211" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B211" s="8"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+    </row>
+    <row r="212" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B212" s="8"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+    </row>
+    <row r="213" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B213" s="8"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B214" s="8"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+    </row>
+    <row r="215" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B215" s="8"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B216" s="8"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B217" s="8"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B218" s="8"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B219" s="8"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+    </row>
+    <row r="220" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B220" s="8"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+    </row>
+    <row r="221" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+    </row>
+    <row r="222" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B223" s="8"/>
+    <row r="223" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
     </row>
-    <row r="224" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B224" s="8"/>
+    <row r="224" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
     </row>
-    <row r="225" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B225" s="8"/>
+    <row r="225" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B226" s="8"/>
+    <row r="226" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B227" s="8"/>
+    <row r="227" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B228" s="8"/>
+    <row r="228" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B229" s="8"/>
+    <row r="229" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
     </row>
-    <row r="230" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B230" s="8"/>
+    <row r="230" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
     </row>
-    <row r="231" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B231" s="8"/>
+    <row r="231" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B232" s="8"/>
+    <row r="232" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B233" s="8"/>
+    <row r="233" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
     </row>
-    <row r="234" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B234" s="8"/>
+    <row r="234" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B235" s="8"/>
+    <row r="235" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
     </row>
-    <row r="236" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
     </row>
-    <row r="240" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
@@ -10057,84 +9788,9 @@
       <c r="E1074" s="4"/>
       <c r="F1074" s="4"/>
     </row>
-    <row r="1075" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1075" s="4"/>
-      <c r="E1075" s="4"/>
-      <c r="F1075" s="4"/>
-    </row>
-    <row r="1076" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1076" s="4"/>
-      <c r="E1076" s="4"/>
-      <c r="F1076" s="4"/>
-    </row>
-    <row r="1077" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1077" s="4"/>
-      <c r="E1077" s="4"/>
-      <c r="F1077" s="4"/>
-    </row>
-    <row r="1078" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1078" s="4"/>
-      <c r="E1078" s="4"/>
-      <c r="F1078" s="4"/>
-    </row>
-    <row r="1079" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1079" s="4"/>
-      <c r="E1079" s="4"/>
-      <c r="F1079" s="4"/>
-    </row>
-    <row r="1080" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1080" s="4"/>
-      <c r="E1080" s="4"/>
-      <c r="F1080" s="4"/>
-    </row>
-    <row r="1081" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1081" s="4"/>
-      <c r="E1081" s="4"/>
-      <c r="F1081" s="4"/>
-    </row>
-    <row r="1082" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1082" s="4"/>
-      <c r="E1082" s="4"/>
-      <c r="F1082" s="4"/>
-    </row>
-    <row r="1083" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1083" s="4"/>
-      <c r="E1083" s="4"/>
-      <c r="F1083" s="4"/>
-    </row>
-    <row r="1084" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1084" s="4"/>
-      <c r="E1084" s="4"/>
-      <c r="F1084" s="4"/>
-    </row>
-    <row r="1085" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1085" s="4"/>
-      <c r="E1085" s="4"/>
-      <c r="F1085" s="4"/>
-    </row>
-    <row r="1086" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1086" s="4"/>
-      <c r="E1086" s="4"/>
-      <c r="F1086" s="4"/>
-    </row>
-    <row r="1087" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1087" s="4"/>
-      <c r="E1087" s="4"/>
-      <c r="F1087" s="4"/>
-    </row>
-    <row r="1088" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1088" s="4"/>
-      <c r="E1088" s="4"/>
-      <c r="F1088" s="4"/>
-    </row>
-    <row r="1089" spans="4:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D1089" s="4"/>
-      <c r="E1089" s="4"/>
-      <c r="F1089" s="4"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B97:B235 B3:B52 B54:B95">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B52 B54:B91 B93:B220">
       <formula1>"Passed,In Progress,Failed"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="135">
   <si>
     <t>Description</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>If player takes damage by 6 his health should decrease by 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example of question: Can user end turn without playing any of his cards? Your answer: I assume he can. </t>
   </si>
   <si>
     <t>Passed</t>
@@ -560,60 +557,6 @@
   </si>
   <si>
     <t>MANUAL TESTING</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IMPORTANT NOTE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>***</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Some testing can't be done by Unit Testing 
-but by manualy looking at the behaviour of the 
-code that is being executed. That type of testing 
-will be refered to as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MANUAL TESTING***</t>
-    </r>
   </si>
   <si>
     <t>Before a players turn starts, the game checks if the sum of cards
@@ -914,30 +857,149 @@
 I assume he does.</t>
   </si>
   <si>
-    <t>Maybe in future implementation.</t>
-  </si>
-  <si>
     <t>Can the first turn player be decided through a 
 coin toss or other random way?
 Maybe in future implementations.</t>
   </si>
   <si>
-    <t>Should the Game class be a Singleton class?
-Maybe future implementations of the game 
-will have different types of gameplay, and 
-each game type setup can be implemented
-as a static method of a Singleton class</t>
-  </si>
-  <si>
     <t>This method is called at the beginning of a 
 players turn</t>
+  </si>
+  <si>
+    <t>Can Attack Cards with index less than incoming damage 
+be used to reduce incoming damage?
+No, but maybe in future implementations</t>
+  </si>
+  <si>
+    <t>Can Attack Cards with index greater than incoming damage 
+be used to stop/reflect incoming damage?
+No, but maybe in future implementations</t>
+  </si>
+  <si>
+    <t>*********************************************
+I don’t consider this as a bug but as a feature. 
+The "default" game requires both players to start with
+20 health points, but by not restricting the players 
+starting healt to 20, this can create a variety of different
+game types.
+*********************************************</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IMPORTANT NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">*********************************************
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Some testing can't be done by Unit Testing 
+but by manualy looking at the behaviour of the 
+code that is being executed. That type of testing 
+will be refered to as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MANUAL TESTING
+*********************************************</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Example of question: Can user end turn without playing any of his cards? 
+Your answer: I assume he can. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can the game be created from a static method?
+Yes. I have created a class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CardBattle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that has a static method
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>startStandardGame()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, in which it creates and starts a new game
+where both players have 20 health and a "default" 25 card deck.
+This creates posibilities of different game customizations for
+future implementations. Maybe a custom game can be played
+where players start with a 50 card deck, or players both have 
+1 health point (first to take damage loses), ...</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -960,13 +1022,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
@@ -1010,8 +1065,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +1109,12 @@
         <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1043,7 +1128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1061,7 +1146,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1073,16 +1158,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1100,29 +1182,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1476,7 +1582,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1591,7 @@
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="47.44140625" customWidth="1"/>
     <col min="4" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44" style="2" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="1025" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1518,142 +1624,147 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>40</v>
+      <c r="A3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="36" t="s">
+        <v>131</v>
+      </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="16" t="s">
-        <v>128</v>
+      <c r="G4" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>73</v>
+      <c r="A5" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="29"/>
+        <v>6</v>
+      </c>
+      <c r="C5" s="28"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>81</v>
+      <c r="G5" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="29"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="28"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>32</v>
+      <c r="G6" s="35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="29"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="28"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>33</v>
+      <c r="G7" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="29"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="28"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
+      <c r="G8" s="27" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>41</v>
+      <c r="A9" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="29"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="29" t="s">
-        <v>129</v>
-      </c>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>34</v>
+      <c r="A10" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="29"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="29"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>35</v>
+      <c r="A11" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="29"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="28"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>88</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>89</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1661,40 +1772,40 @@
       <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>38</v>
+      <c r="A13" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="29"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="28"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>37</v>
+      <c r="A14" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="29"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="28"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>36</v>
+      <c r="A15" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>40</v>
+        <v>6</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1702,14 +1813,14 @@
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>115</v>
+      <c r="A16" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1721,372 +1832,373 @@
         <v>5</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="24"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="23"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>42</v>
+      <c r="A18" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="24"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="23"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>43</v>
+      <c r="A19" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>132</v>
+        <v>6</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>118</v>
+      <c r="A20" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>46</v>
+      <c r="A21" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>122</v>
+      <c r="A22" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>123</v>
+        <v>6</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>132</v>
+        <v>6</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>112</v>
+      <c r="A24" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="24"/>
+        <v>6</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="24"/>
+      <c r="A25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="23"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>49</v>
+      <c r="A26" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="24"/>
+        <v>6</v>
+      </c>
+      <c r="C26" s="23"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="24"/>
+      <c r="A27" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="23"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>50</v>
+      <c r="A28" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>51</v>
+      <c r="A29" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="24"/>
+        <v>6</v>
+      </c>
+      <c r="C29" s="23"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>72</v>
+      <c r="A30" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="24"/>
+        <v>6</v>
+      </c>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>53</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>7</v>
+      <c r="A32" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>54</v>
+      <c r="A33" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>60</v>
+        <v>6</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="14"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>55</v>
+      <c r="A34" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="14"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>63</v>
+      <c r="A35" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="14"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>64</v>
+      <c r="A36" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="14"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>66</v>
+      <c r="A37" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>58</v>
+        <v>6</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="14"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>56</v>
+      <c r="A38" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="14"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>65</v>
+      <c r="A39" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="14"/>
+      <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>59</v>
+      <c r="A40" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="14"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="14"/>
+      <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>69</v>
+      <c r="A42" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="14"/>
+      <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>70</v>
+      <c r="A43" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="14"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
@@ -2095,98 +2207,98 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="14"/>
+      <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
-        <v>79</v>
+      <c r="A45" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="14"/>
+      <c r="G45" s="13"/>
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>80</v>
+      <c r="A46" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="14"/>
+      <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>83</v>
+      <c r="A47" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="14"/>
+      <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>84</v>
+      <c r="A48" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="14"/>
+      <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>85</v>
+      <c r="A49" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="14"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
-        <v>86</v>
+      <c r="A50" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="14"/>
+      <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
-        <v>87</v>
+      <c r="A51" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="14"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
@@ -2195,535 +2307,535 @@
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="14"/>
+      <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>8</v>
+      <c r="A53" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="14"/>
+      <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>7</v>
+      <c r="A54" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="14"/>
+      <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>10</v>
+      <c r="A55" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="16"/>
+      <c r="A56" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="15"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="16"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="16"/>
+      <c r="A57" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="15"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="16"/>
+      <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="16"/>
+      <c r="A58" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="15"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
-      <c r="G58" s="16"/>
+      <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="16"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="16"/>
+      <c r="G59" s="15"/>
     </row>
     <row r="60" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="14"/>
+      <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="14"/>
+      <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
-        <v>27</v>
+      <c r="A62" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
       <c r="B63" s="10"/>
-      <c r="C63" s="16" t="s">
-        <v>91</v>
+      <c r="C63" s="35" t="s">
+        <v>132</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="14"/>
+      <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
-      <c r="G64" s="14"/>
+      <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
-      <c r="G65" s="16" t="s">
-        <v>28</v>
+      <c r="G65" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
-        <v>92</v>
+      <c r="A66" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
-      <c r="G66" s="16"/>
+      <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>93</v>
+      <c r="A67" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
-      <c r="G67" s="16"/>
+      <c r="G67" s="15"/>
     </row>
     <row r="68" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
-        <v>94</v>
+      <c r="A68" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
-      <c r="G68" s="16"/>
+      <c r="G68" s="15"/>
     </row>
     <row r="69" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
-        <v>95</v>
+      <c r="A69" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
-      <c r="G69" s="16"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
-        <v>96</v>
+      <c r="A70" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
-      <c r="G70" s="16"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
-        <v>98</v>
+      <c r="A71" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
-      <c r="G71" s="16"/>
+      <c r="G71" s="15"/>
     </row>
     <row r="72" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
-        <v>97</v>
+      <c r="A72" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
-      <c r="G72" s="16"/>
+      <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
-        <v>99</v>
+      <c r="A73" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
-      <c r="G73" s="16"/>
+      <c r="G73" s="15"/>
     </row>
     <row r="74" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
-        <v>100</v>
+      <c r="A74" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
-      <c r="G74" s="16"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
-        <v>101</v>
+      <c r="A75" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
-      <c r="G75" s="16"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
-        <v>102</v>
+      <c r="A76" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
-      <c r="G76" s="16"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>103</v>
+      <c r="A77" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
-      <c r="G77" s="16"/>
+      <c r="G77" s="15"/>
     </row>
     <row r="78" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
-        <v>104</v>
+      <c r="A78" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
-      <c r="G78" s="16"/>
+      <c r="G78" s="15"/>
     </row>
     <row r="79" spans="1:7" s="7" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
-        <v>105</v>
+      <c r="A79" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
-      <c r="G79" s="16"/>
+      <c r="G79" s="15"/>
     </row>
     <row r="80" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
-        <v>106</v>
+      <c r="A80" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
-      <c r="G80" s="16"/>
+      <c r="G80" s="15"/>
     </row>
     <row r="81" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
-        <v>107</v>
+      <c r="A81" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
-      <c r="G81" s="16"/>
+      <c r="G81" s="15"/>
     </row>
     <row r="82" spans="1:21" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>7</v>
+      <c r="A82" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="16"/>
+      <c r="G82" s="15"/>
     </row>
     <row r="83" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>7</v>
+      <c r="A83" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
-      <c r="G83" s="16"/>
+      <c r="G83" s="15"/>
     </row>
     <row r="84" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>7</v>
+      <c r="A84" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
-      <c r="G84" s="16"/>
+      <c r="G84" s="15"/>
     </row>
     <row r="85" spans="1:21" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>7</v>
+      <c r="A85" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
-      <c r="G85" s="16"/>
+      <c r="G85" s="15"/>
     </row>
     <row r="86" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>7</v>
+      <c r="A86" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="16"/>
+      <c r="G86" s="15"/>
     </row>
     <row r="87" spans="1:21" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>7</v>
+      <c r="A87" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
-      <c r="G87" s="16"/>
+      <c r="G87" s="15"/>
     </row>
     <row r="88" spans="1:21" s="7" customFormat="1" ht="382.8" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
-        <v>116</v>
+      <c r="A88" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
-      <c r="G88" s="16"/>
+      <c r="G88" s="15"/>
     </row>
     <row r="89" spans="1:21" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
-        <v>117</v>
+      <c r="A89" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
-      <c r="G89" s="16"/>
+      <c r="G89" s="15"/>
     </row>
     <row r="90" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
@@ -2732,7 +2844,7 @@
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
-      <c r="G90" s="16"/>
+      <c r="G90" s="15"/>
     </row>
     <row r="91" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
@@ -2741,330 +2853,330 @@
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
-      <c r="G91" s="14"/>
+      <c r="G91" s="13"/>
     </row>
     <row r="92" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
-        <v>9</v>
+      <c r="A92" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
-      <c r="G92" s="14"/>
+      <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
-        <v>18</v>
+      <c r="A93" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
-      <c r="G93" s="14"/>
+      <c r="G93" s="13"/>
     </row>
     <row r="94" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="18"/>
-      <c r="P94" s="18"/>
-      <c r="Q94" s="18"/>
-      <c r="R94" s="18"/>
-      <c r="S94" s="18"/>
-      <c r="T94" s="18"/>
-      <c r="U94" s="18"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="17"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="17"/>
     </row>
     <row r="95" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="18"/>
-      <c r="Q95" s="18"/>
-      <c r="R95" s="18"/>
-      <c r="S95" s="18"/>
-      <c r="T95" s="18"/>
-      <c r="U95" s="18"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="17"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="17"/>
     </row>
     <row r="96" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="s">
-        <v>24</v>
+      <c r="A96" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="18"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
-      <c r="T96" s="18"/>
-      <c r="U96" s="18"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="17"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="17"/>
     </row>
     <row r="97" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="18"/>
-      <c r="Q97" s="18"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="18"/>
-      <c r="T97" s="18"/>
-      <c r="U97" s="18"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
     </row>
     <row r="98" spans="1:21" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
-      <c r="C98" s="16"/>
+      <c r="C98" s="15"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
-      <c r="T98" s="18"/>
-      <c r="U98" s="18"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="17"/>
     </row>
     <row r="99" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A99" s="21" t="s">
-        <v>19</v>
+      <c r="A99" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
-      <c r="T99" s="18"/>
-      <c r="U99" s="18"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="17"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="17"/>
     </row>
     <row r="100" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
-      <c r="T100" s="18"/>
-      <c r="U100" s="18"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="17"/>
     </row>
     <row r="101" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
-      <c r="T101" s="18"/>
-      <c r="U101" s="18"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
     </row>
     <row r="102" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-      <c r="Q102" s="18"/>
-      <c r="R102" s="18"/>
-      <c r="S102" s="18"/>
-      <c r="T102" s="18"/>
-      <c r="U102" s="18"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="17"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="17"/>
     </row>
     <row r="103" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
-      <c r="Q103" s="18"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
-      <c r="T103" s="18"/>
-      <c r="U103" s="18"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="17"/>
     </row>
     <row r="104" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A104" s="16" t="s">
-        <v>119</v>
+      <c r="A104" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
-      <c r="N104" s="18"/>
-      <c r="O104" s="18"/>
-      <c r="P104" s="18"/>
-      <c r="Q104" s="18"/>
-      <c r="R104" s="18"/>
-      <c r="S104" s="18"/>
-      <c r="T104" s="18"/>
-      <c r="U104" s="18"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="17"/>
     </row>
     <row r="105" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
@@ -3073,158 +3185,158 @@
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="18"/>
-      <c r="P105" s="18"/>
-      <c r="Q105" s="18"/>
-      <c r="R105" s="18"/>
-      <c r="S105" s="18"/>
-      <c r="T105" s="18"/>
-      <c r="U105" s="18"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="17"/>
     </row>
     <row r="106" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
-        <v>21</v>
+      <c r="A106" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="11"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="18"/>
-      <c r="O106" s="18"/>
-      <c r="P106" s="18"/>
-      <c r="Q106" s="18"/>
-      <c r="R106" s="18"/>
-      <c r="S106" s="18"/>
-      <c r="T106" s="18"/>
-      <c r="U106" s="18"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="17"/>
     </row>
     <row r="107" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A107" s="16" t="s">
-        <v>120</v>
+      <c r="A107" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>121</v>
+        <v>6</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="18"/>
-      <c r="O107" s="18"/>
-      <c r="P107" s="18"/>
-      <c r="Q107" s="18"/>
-      <c r="R107" s="18"/>
-      <c r="S107" s="18"/>
-      <c r="T107" s="18"/>
-      <c r="U107" s="18"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="17"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="17"/>
     </row>
     <row r="108" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="18"/>
-      <c r="P108" s="18"/>
-      <c r="Q108" s="18"/>
-      <c r="R108" s="18"/>
-      <c r="S108" s="18"/>
-      <c r="T108" s="18"/>
-      <c r="U108" s="18"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="17"/>
     </row>
     <row r="109" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="18"/>
-      <c r="P109" s="18"/>
-      <c r="Q109" s="18"/>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18"/>
-      <c r="T109" s="18"/>
-      <c r="U109" s="18"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="17"/>
     </row>
     <row r="110" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
-        <v>127</v>
+      <c r="A110" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="18"/>
-      <c r="P110" s="18"/>
-      <c r="Q110" s="18"/>
-      <c r="R110" s="18"/>
-      <c r="S110" s="18"/>
-      <c r="T110" s="18"/>
-      <c r="U110" s="18"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="17"/>
     </row>
     <row r="111" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
@@ -3233,21 +3345,21 @@
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="18"/>
-      <c r="P111" s="18"/>
-      <c r="Q111" s="18"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="18"/>
-      <c r="T111" s="18"/>
-      <c r="U111" s="18"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="17"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="17"/>
     </row>
     <row r="112" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
@@ -3256,21 +3368,21 @@
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="18"/>
-      <c r="P112" s="18"/>
-      <c r="Q112" s="18"/>
-      <c r="R112" s="18"/>
-      <c r="S112" s="18"/>
-      <c r="T112" s="18"/>
-      <c r="U112" s="18"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
+      <c r="R112" s="17"/>
+      <c r="S112" s="17"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="17"/>
     </row>
     <row r="113" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -3279,21 +3391,21 @@
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="18"/>
-      <c r="P113" s="18"/>
-      <c r="Q113" s="18"/>
-      <c r="R113" s="18"/>
-      <c r="S113" s="18"/>
-      <c r="T113" s="18"/>
-      <c r="U113" s="18"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
+      <c r="R113" s="17"/>
+      <c r="S113" s="17"/>
+      <c r="T113" s="17"/>
+      <c r="U113" s="17"/>
     </row>
     <row r="114" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -3302,21 +3414,21 @@
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="18"/>
-      <c r="P114" s="18"/>
-      <c r="Q114" s="18"/>
-      <c r="R114" s="18"/>
-      <c r="S114" s="18"/>
-      <c r="T114" s="18"/>
-      <c r="U114" s="18"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
+      <c r="R114" s="17"/>
+      <c r="S114" s="17"/>
+      <c r="T114" s="17"/>
+      <c r="U114" s="17"/>
     </row>
     <row r="115" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
@@ -3325,21 +3437,21 @@
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="18"/>
-      <c r="P115" s="18"/>
-      <c r="Q115" s="18"/>
-      <c r="R115" s="18"/>
-      <c r="S115" s="18"/>
-      <c r="T115" s="18"/>
-      <c r="U115" s="18"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
+      <c r="R115" s="17"/>
+      <c r="S115" s="17"/>
+      <c r="T115" s="17"/>
+      <c r="U115" s="17"/>
     </row>
     <row r="116" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
@@ -3348,21 +3460,21 @@
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="P116" s="18"/>
-      <c r="Q116" s="18"/>
-      <c r="R116" s="18"/>
-      <c r="S116" s="18"/>
-      <c r="T116" s="18"/>
-      <c r="U116" s="18"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="17"/>
     </row>
     <row r="117" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
@@ -3371,2068 +3483,2068 @@
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
-      <c r="Q117" s="18"/>
-      <c r="R117" s="18"/>
-      <c r="S117" s="18"/>
-      <c r="T117" s="18"/>
-      <c r="U117" s="18"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
+      <c r="R117" s="17"/>
+      <c r="S117" s="17"/>
+      <c r="T117" s="17"/>
+      <c r="U117" s="17"/>
     </row>
     <row r="118" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A118" s="18"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="18"/>
-      <c r="Q118" s="18"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
-      <c r="T118" s="18"/>
-      <c r="U118" s="18"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
+      <c r="R118" s="17"/>
+      <c r="S118" s="17"/>
+      <c r="T118" s="17"/>
+      <c r="U118" s="17"/>
     </row>
     <row r="119" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A119" s="18"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="18"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="18"/>
-      <c r="P119" s="18"/>
-      <c r="Q119" s="18"/>
-      <c r="R119" s="18"/>
-      <c r="S119" s="18"/>
-      <c r="T119" s="18"/>
-      <c r="U119" s="18"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
+      <c r="R119" s="17"/>
+      <c r="S119" s="17"/>
+      <c r="T119" s="17"/>
+      <c r="U119" s="17"/>
     </row>
     <row r="120" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A120" s="18"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="18"/>
-      <c r="P120" s="18"/>
-      <c r="Q120" s="18"/>
-      <c r="R120" s="18"/>
-      <c r="S120" s="18"/>
-      <c r="T120" s="18"/>
-      <c r="U120" s="18"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="17"/>
+      <c r="T120" s="17"/>
+      <c r="U120" s="17"/>
     </row>
     <row r="121" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A121" s="18"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="18"/>
-      <c r="Q121" s="18"/>
-      <c r="R121" s="18"/>
-      <c r="S121" s="18"/>
-      <c r="T121" s="18"/>
-      <c r="U121" s="18"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
+      <c r="R121" s="17"/>
+      <c r="S121" s="17"/>
+      <c r="T121" s="17"/>
+      <c r="U121" s="17"/>
     </row>
     <row r="122" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A122" s="18"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-      <c r="P122" s="18"/>
-      <c r="Q122" s="18"/>
-      <c r="R122" s="18"/>
-      <c r="S122" s="18"/>
-      <c r="T122" s="18"/>
-      <c r="U122" s="18"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
+      <c r="R122" s="17"/>
+      <c r="S122" s="17"/>
+      <c r="T122" s="17"/>
+      <c r="U122" s="17"/>
     </row>
     <row r="123" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A123" s="18"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="18"/>
-      <c r="P123" s="18"/>
-      <c r="Q123" s="18"/>
-      <c r="R123" s="18"/>
-      <c r="S123" s="18"/>
-      <c r="T123" s="18"/>
-      <c r="U123" s="18"/>
+      <c r="A123" s="17"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
+      <c r="R123" s="17"/>
+      <c r="S123" s="17"/>
+      <c r="T123" s="17"/>
+      <c r="U123" s="17"/>
     </row>
     <row r="124" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A124" s="18"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18"/>
-      <c r="N124" s="18"/>
-      <c r="O124" s="18"/>
-      <c r="P124" s="18"/>
-      <c r="Q124" s="18"/>
-      <c r="R124" s="18"/>
-      <c r="S124" s="18"/>
-      <c r="T124" s="18"/>
-      <c r="U124" s="18"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
+      <c r="R124" s="17"/>
+      <c r="S124" s="17"/>
+      <c r="T124" s="17"/>
+      <c r="U124" s="17"/>
     </row>
     <row r="125" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A125" s="18"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="18"/>
-      <c r="P125" s="18"/>
-      <c r="Q125" s="18"/>
-      <c r="R125" s="18"/>
-      <c r="S125" s="18"/>
-      <c r="T125" s="18"/>
-      <c r="U125" s="18"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
+      <c r="R125" s="17"/>
+      <c r="S125" s="17"/>
+      <c r="T125" s="17"/>
+      <c r="U125" s="17"/>
     </row>
     <row r="126" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A126" s="18"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="18"/>
-      <c r="P126" s="18"/>
-      <c r="Q126" s="18"/>
-      <c r="R126" s="18"/>
-      <c r="S126" s="18"/>
-      <c r="T126" s="18"/>
-      <c r="U126" s="18"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
+      <c r="R126" s="17"/>
+      <c r="S126" s="17"/>
+      <c r="T126" s="17"/>
+      <c r="U126" s="17"/>
     </row>
     <row r="127" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A127" s="18"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="20"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="18"/>
-      <c r="P127" s="18"/>
-      <c r="Q127" s="18"/>
-      <c r="R127" s="18"/>
-      <c r="S127" s="18"/>
-      <c r="T127" s="18"/>
-      <c r="U127" s="18"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
+      <c r="R127" s="17"/>
+      <c r="S127" s="17"/>
+      <c r="T127" s="17"/>
+      <c r="U127" s="17"/>
     </row>
     <row r="128" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A128" s="18"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="18"/>
-      <c r="J128" s="18"/>
-      <c r="K128" s="18"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="18"/>
-      <c r="N128" s="18"/>
-      <c r="O128" s="18"/>
-      <c r="P128" s="18"/>
-      <c r="Q128" s="18"/>
-      <c r="R128" s="18"/>
-      <c r="S128" s="18"/>
-      <c r="T128" s="18"/>
-      <c r="U128" s="18"/>
+      <c r="A128" s="17"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
+      <c r="R128" s="17"/>
+      <c r="S128" s="17"/>
+      <c r="T128" s="17"/>
+      <c r="U128" s="17"/>
     </row>
     <row r="129" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A129" s="18"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="20"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="18"/>
-      <c r="K129" s="18"/>
-      <c r="L129" s="18"/>
-      <c r="M129" s="18"/>
-      <c r="N129" s="18"/>
-      <c r="O129" s="18"/>
-      <c r="P129" s="18"/>
-      <c r="Q129" s="18"/>
-      <c r="R129" s="18"/>
-      <c r="S129" s="18"/>
-      <c r="T129" s="18"/>
-      <c r="U129" s="18"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
+      <c r="R129" s="17"/>
+      <c r="S129" s="17"/>
+      <c r="T129" s="17"/>
+      <c r="U129" s="17"/>
     </row>
     <row r="130" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A130" s="18"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="18"/>
-      <c r="K130" s="18"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="18"/>
-      <c r="N130" s="18"/>
-      <c r="O130" s="18"/>
-      <c r="P130" s="18"/>
-      <c r="Q130" s="18"/>
-      <c r="R130" s="18"/>
-      <c r="S130" s="18"/>
-      <c r="T130" s="18"/>
-      <c r="U130" s="18"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
+      <c r="R130" s="17"/>
+      <c r="S130" s="17"/>
+      <c r="T130" s="17"/>
+      <c r="U130" s="17"/>
     </row>
     <row r="131" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A131" s="18"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="18"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="18"/>
-      <c r="N131" s="18"/>
-      <c r="O131" s="18"/>
-      <c r="P131" s="18"/>
-      <c r="Q131" s="18"/>
-      <c r="R131" s="18"/>
-      <c r="S131" s="18"/>
-      <c r="T131" s="18"/>
-      <c r="U131" s="18"/>
+      <c r="A131" s="17"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
+      <c r="R131" s="17"/>
+      <c r="S131" s="17"/>
+      <c r="T131" s="17"/>
+      <c r="U131" s="17"/>
     </row>
     <row r="132" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A132" s="18"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="18"/>
-      <c r="N132" s="18"/>
-      <c r="O132" s="18"/>
-      <c r="P132" s="18"/>
-      <c r="Q132" s="18"/>
-      <c r="R132" s="18"/>
-      <c r="S132" s="18"/>
-      <c r="T132" s="18"/>
-      <c r="U132" s="18"/>
+      <c r="A132" s="17"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
+      <c r="R132" s="17"/>
+      <c r="S132" s="17"/>
+      <c r="T132" s="17"/>
+      <c r="U132" s="17"/>
     </row>
     <row r="133" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A133" s="18"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="18"/>
-      <c r="J133" s="18"/>
-      <c r="K133" s="18"/>
-      <c r="L133" s="18"/>
-      <c r="M133" s="18"/>
-      <c r="N133" s="18"/>
-      <c r="O133" s="18"/>
-      <c r="P133" s="18"/>
-      <c r="Q133" s="18"/>
-      <c r="R133" s="18"/>
-      <c r="S133" s="18"/>
-      <c r="T133" s="18"/>
-      <c r="U133" s="18"/>
+      <c r="A133" s="17"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
+      <c r="R133" s="17"/>
+      <c r="S133" s="17"/>
+      <c r="T133" s="17"/>
+      <c r="U133" s="17"/>
     </row>
     <row r="134" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A134" s="18"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="20"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="18"/>
-      <c r="N134" s="18"/>
-      <c r="O134" s="18"/>
-      <c r="P134" s="18"/>
-      <c r="Q134" s="18"/>
-      <c r="R134" s="18"/>
-      <c r="S134" s="18"/>
-      <c r="T134" s="18"/>
-      <c r="U134" s="18"/>
+      <c r="A134" s="17"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
+      <c r="R134" s="17"/>
+      <c r="S134" s="17"/>
+      <c r="T134" s="17"/>
+      <c r="U134" s="17"/>
     </row>
     <row r="135" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A135" s="18"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="18"/>
-      <c r="M135" s="18"/>
-      <c r="N135" s="18"/>
-      <c r="O135" s="18"/>
-      <c r="P135" s="18"/>
-      <c r="Q135" s="18"/>
-      <c r="R135" s="18"/>
-      <c r="S135" s="18"/>
-      <c r="T135" s="18"/>
-      <c r="U135" s="18"/>
+      <c r="A135" s="17"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
+      <c r="R135" s="17"/>
+      <c r="S135" s="17"/>
+      <c r="T135" s="17"/>
+      <c r="U135" s="17"/>
     </row>
     <row r="136" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A136" s="18"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="20"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="18"/>
-      <c r="N136" s="18"/>
-      <c r="O136" s="18"/>
-      <c r="P136" s="18"/>
-      <c r="Q136" s="18"/>
-      <c r="R136" s="18"/>
-      <c r="S136" s="18"/>
-      <c r="T136" s="18"/>
-      <c r="U136" s="18"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17"/>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
+      <c r="R136" s="17"/>
+      <c r="S136" s="17"/>
+      <c r="T136" s="17"/>
+      <c r="U136" s="17"/>
     </row>
     <row r="137" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A137" s="18"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="18"/>
-      <c r="N137" s="18"/>
-      <c r="O137" s="18"/>
-      <c r="P137" s="18"/>
-      <c r="Q137" s="18"/>
-      <c r="R137" s="18"/>
-      <c r="S137" s="18"/>
-      <c r="T137" s="18"/>
-      <c r="U137" s="18"/>
+      <c r="A137" s="17"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
+      <c r="R137" s="17"/>
+      <c r="S137" s="17"/>
+      <c r="T137" s="17"/>
+      <c r="U137" s="17"/>
     </row>
     <row r="138" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A138" s="18"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="18"/>
-      <c r="M138" s="18"/>
-      <c r="N138" s="18"/>
-      <c r="O138" s="18"/>
-      <c r="P138" s="18"/>
-      <c r="Q138" s="18"/>
-      <c r="R138" s="18"/>
-      <c r="S138" s="18"/>
-      <c r="T138" s="18"/>
-      <c r="U138" s="18"/>
+      <c r="A138" s="17"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
+      <c r="R138" s="17"/>
+      <c r="S138" s="17"/>
+      <c r="T138" s="17"/>
+      <c r="U138" s="17"/>
     </row>
     <row r="139" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A139" s="18"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="20"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="18"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="18"/>
-      <c r="M139" s="18"/>
-      <c r="N139" s="18"/>
-      <c r="O139" s="18"/>
-      <c r="P139" s="18"/>
-      <c r="Q139" s="18"/>
-      <c r="R139" s="18"/>
-      <c r="S139" s="18"/>
-      <c r="T139" s="18"/>
-      <c r="U139" s="18"/>
+      <c r="A139" s="17"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
+      <c r="R139" s="17"/>
+      <c r="S139" s="17"/>
+      <c r="T139" s="17"/>
+      <c r="U139" s="17"/>
     </row>
     <row r="140" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A140" s="18"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
-      <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="18"/>
-      <c r="M140" s="18"/>
-      <c r="N140" s="18"/>
-      <c r="O140" s="18"/>
-      <c r="P140" s="18"/>
-      <c r="Q140" s="18"/>
-      <c r="R140" s="18"/>
-      <c r="S140" s="18"/>
-      <c r="T140" s="18"/>
-      <c r="U140" s="18"/>
+      <c r="A140" s="17"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
+      <c r="R140" s="17"/>
+      <c r="S140" s="17"/>
+      <c r="T140" s="17"/>
+      <c r="U140" s="17"/>
     </row>
     <row r="141" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A141" s="18"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="18"/>
-      <c r="N141" s="18"/>
-      <c r="O141" s="18"/>
-      <c r="P141" s="18"/>
-      <c r="Q141" s="18"/>
-      <c r="R141" s="18"/>
-      <c r="S141" s="18"/>
-      <c r="T141" s="18"/>
-      <c r="U141" s="18"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
+      <c r="R141" s="17"/>
+      <c r="S141" s="17"/>
+      <c r="T141" s="17"/>
+      <c r="U141" s="17"/>
     </row>
     <row r="142" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A142" s="18"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="18"/>
-      <c r="J142" s="18"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="18"/>
-      <c r="M142" s="18"/>
-      <c r="N142" s="18"/>
-      <c r="O142" s="18"/>
-      <c r="P142" s="18"/>
-      <c r="Q142" s="18"/>
-      <c r="R142" s="18"/>
-      <c r="S142" s="18"/>
-      <c r="T142" s="18"/>
-      <c r="U142" s="18"/>
+      <c r="A142" s="17"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
+      <c r="R142" s="17"/>
+      <c r="S142" s="17"/>
+      <c r="T142" s="17"/>
+      <c r="U142" s="17"/>
     </row>
     <row r="143" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A143" s="18"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="18"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="18"/>
-      <c r="P143" s="18"/>
-      <c r="Q143" s="18"/>
-      <c r="R143" s="18"/>
-      <c r="S143" s="18"/>
-      <c r="T143" s="18"/>
-      <c r="U143" s="18"/>
+      <c r="A143" s="17"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
+      <c r="R143" s="17"/>
+      <c r="S143" s="17"/>
+      <c r="T143" s="17"/>
+      <c r="U143" s="17"/>
     </row>
     <row r="144" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A144" s="18"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="20"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="18"/>
-      <c r="J144" s="18"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
-      <c r="M144" s="18"/>
-      <c r="N144" s="18"/>
-      <c r="O144" s="18"/>
-      <c r="P144" s="18"/>
-      <c r="Q144" s="18"/>
-      <c r="R144" s="18"/>
-      <c r="S144" s="18"/>
-      <c r="T144" s="18"/>
-      <c r="U144" s="18"/>
+      <c r="A144" s="17"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
+      <c r="R144" s="17"/>
+      <c r="S144" s="17"/>
+      <c r="T144" s="17"/>
+      <c r="U144" s="17"/>
     </row>
     <row r="145" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A145" s="18"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="20"/>
-      <c r="H145" s="18"/>
-      <c r="I145" s="18"/>
-      <c r="J145" s="18"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="18"/>
-      <c r="M145" s="18"/>
-      <c r="N145" s="18"/>
-      <c r="O145" s="18"/>
-      <c r="P145" s="18"/>
-      <c r="Q145" s="18"/>
-      <c r="R145" s="18"/>
-      <c r="S145" s="18"/>
-      <c r="T145" s="18"/>
-      <c r="U145" s="18"/>
+      <c r="A145" s="17"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
+      <c r="R145" s="17"/>
+      <c r="S145" s="17"/>
+      <c r="T145" s="17"/>
+      <c r="U145" s="17"/>
     </row>
     <row r="146" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A146" s="18"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="18"/>
-      <c r="I146" s="18"/>
-      <c r="J146" s="18"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
-      <c r="M146" s="18"/>
-      <c r="N146" s="18"/>
-      <c r="O146" s="18"/>
-      <c r="P146" s="18"/>
-      <c r="Q146" s="18"/>
-      <c r="R146" s="18"/>
-      <c r="S146" s="18"/>
-      <c r="T146" s="18"/>
-      <c r="U146" s="18"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
+      <c r="P146" s="17"/>
+      <c r="Q146" s="17"/>
+      <c r="R146" s="17"/>
+      <c r="S146" s="17"/>
+      <c r="T146" s="17"/>
+      <c r="U146" s="17"/>
     </row>
     <row r="147" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A147" s="18"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
-      <c r="J147" s="18"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="18"/>
-      <c r="N147" s="18"/>
-      <c r="O147" s="18"/>
-      <c r="P147" s="18"/>
-      <c r="Q147" s="18"/>
-      <c r="R147" s="18"/>
-      <c r="S147" s="18"/>
-      <c r="T147" s="18"/>
-      <c r="U147" s="18"/>
+      <c r="A147" s="17"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
+      <c r="R147" s="17"/>
+      <c r="S147" s="17"/>
+      <c r="T147" s="17"/>
+      <c r="U147" s="17"/>
     </row>
     <row r="148" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A148" s="18"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="20"/>
-      <c r="H148" s="18"/>
-      <c r="I148" s="18"/>
-      <c r="J148" s="18"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="18"/>
-      <c r="M148" s="18"/>
-      <c r="N148" s="18"/>
-      <c r="O148" s="18"/>
-      <c r="P148" s="18"/>
-      <c r="Q148" s="18"/>
-      <c r="R148" s="18"/>
-      <c r="S148" s="18"/>
-      <c r="T148" s="18"/>
-      <c r="U148" s="18"/>
+      <c r="A148" s="17"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+      <c r="Q148" s="17"/>
+      <c r="R148" s="17"/>
+      <c r="S148" s="17"/>
+      <c r="T148" s="17"/>
+      <c r="U148" s="17"/>
     </row>
     <row r="149" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A149" s="18"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="18"/>
-      <c r="I149" s="18"/>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="18"/>
-      <c r="P149" s="18"/>
-      <c r="Q149" s="18"/>
-      <c r="R149" s="18"/>
-      <c r="S149" s="18"/>
-      <c r="T149" s="18"/>
-      <c r="U149" s="18"/>
+      <c r="A149" s="17"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
+      <c r="P149" s="17"/>
+      <c r="Q149" s="17"/>
+      <c r="R149" s="17"/>
+      <c r="S149" s="17"/>
+      <c r="T149" s="17"/>
+      <c r="U149" s="17"/>
     </row>
     <row r="150" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A150" s="18"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
-      <c r="J150" s="18"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="18"/>
-      <c r="M150" s="18"/>
-      <c r="N150" s="18"/>
-      <c r="O150" s="18"/>
-      <c r="P150" s="18"/>
-      <c r="Q150" s="18"/>
-      <c r="R150" s="18"/>
-      <c r="S150" s="18"/>
-      <c r="T150" s="18"/>
-      <c r="U150" s="18"/>
+      <c r="A150" s="17"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+      <c r="N150" s="17"/>
+      <c r="O150" s="17"/>
+      <c r="P150" s="17"/>
+      <c r="Q150" s="17"/>
+      <c r="R150" s="17"/>
+      <c r="S150" s="17"/>
+      <c r="T150" s="17"/>
+      <c r="U150" s="17"/>
     </row>
     <row r="151" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A151" s="18"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="20"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="18"/>
-      <c r="N151" s="18"/>
-      <c r="O151" s="18"/>
-      <c r="P151" s="18"/>
-      <c r="Q151" s="18"/>
-      <c r="R151" s="18"/>
-      <c r="S151" s="18"/>
-      <c r="T151" s="18"/>
-      <c r="U151" s="18"/>
+      <c r="A151" s="17"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="17"/>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
+      <c r="R151" s="17"/>
+      <c r="S151" s="17"/>
+      <c r="T151" s="17"/>
+      <c r="U151" s="17"/>
     </row>
     <row r="152" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A152" s="18"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="18"/>
-      <c r="I152" s="18"/>
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="18"/>
-      <c r="M152" s="18"/>
-      <c r="N152" s="18"/>
-      <c r="O152" s="18"/>
-      <c r="P152" s="18"/>
-      <c r="Q152" s="18"/>
-      <c r="R152" s="18"/>
-      <c r="S152" s="18"/>
-      <c r="T152" s="18"/>
-      <c r="U152" s="18"/>
+      <c r="A152" s="17"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
+      <c r="M152" s="17"/>
+      <c r="N152" s="17"/>
+      <c r="O152" s="17"/>
+      <c r="P152" s="17"/>
+      <c r="Q152" s="17"/>
+      <c r="R152" s="17"/>
+      <c r="S152" s="17"/>
+      <c r="T152" s="17"/>
+      <c r="U152" s="17"/>
     </row>
     <row r="153" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A153" s="18"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="18"/>
-      <c r="I153" s="18"/>
-      <c r="J153" s="18"/>
-      <c r="K153" s="18"/>
-      <c r="L153" s="18"/>
-      <c r="M153" s="18"/>
-      <c r="N153" s="18"/>
-      <c r="O153" s="18"/>
-      <c r="P153" s="18"/>
-      <c r="Q153" s="18"/>
-      <c r="R153" s="18"/>
-      <c r="S153" s="18"/>
-      <c r="T153" s="18"/>
-      <c r="U153" s="18"/>
+      <c r="A153" s="17"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="17"/>
+      <c r="I153" s="17"/>
+      <c r="J153" s="17"/>
+      <c r="K153" s="17"/>
+      <c r="L153" s="17"/>
+      <c r="M153" s="17"/>
+      <c r="N153" s="17"/>
+      <c r="O153" s="17"/>
+      <c r="P153" s="17"/>
+      <c r="Q153" s="17"/>
+      <c r="R153" s="17"/>
+      <c r="S153" s="17"/>
+      <c r="T153" s="17"/>
+      <c r="U153" s="17"/>
     </row>
     <row r="154" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A154" s="18"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="18"/>
-      <c r="I154" s="18"/>
-      <c r="J154" s="18"/>
-      <c r="K154" s="18"/>
-      <c r="L154" s="18"/>
-      <c r="M154" s="18"/>
-      <c r="N154" s="18"/>
-      <c r="O154" s="18"/>
-      <c r="P154" s="18"/>
-      <c r="Q154" s="18"/>
-      <c r="R154" s="18"/>
-      <c r="S154" s="18"/>
-      <c r="T154" s="18"/>
-      <c r="U154" s="18"/>
+      <c r="A154" s="17"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="17"/>
+      <c r="I154" s="17"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="17"/>
+      <c r="M154" s="17"/>
+      <c r="N154" s="17"/>
+      <c r="O154" s="17"/>
+      <c r="P154" s="17"/>
+      <c r="Q154" s="17"/>
+      <c r="R154" s="17"/>
+      <c r="S154" s="17"/>
+      <c r="T154" s="17"/>
+      <c r="U154" s="17"/>
     </row>
     <row r="155" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A155" s="18"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="18"/>
-      <c r="N155" s="18"/>
-      <c r="O155" s="18"/>
-      <c r="P155" s="18"/>
-      <c r="Q155" s="18"/>
-      <c r="R155" s="18"/>
-      <c r="S155" s="18"/>
-      <c r="T155" s="18"/>
-      <c r="U155" s="18"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="17"/>
+      <c r="N155" s="17"/>
+      <c r="O155" s="17"/>
+      <c r="P155" s="17"/>
+      <c r="Q155" s="17"/>
+      <c r="R155" s="17"/>
+      <c r="S155" s="17"/>
+      <c r="T155" s="17"/>
+      <c r="U155" s="17"/>
     </row>
     <row r="156" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A156" s="18"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="18"/>
-      <c r="J156" s="18"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="18"/>
-      <c r="N156" s="18"/>
-      <c r="O156" s="18"/>
-      <c r="P156" s="18"/>
-      <c r="Q156" s="18"/>
-      <c r="R156" s="18"/>
-      <c r="S156" s="18"/>
-      <c r="T156" s="18"/>
-      <c r="U156" s="18"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="17"/>
+      <c r="K156" s="17"/>
+      <c r="L156" s="17"/>
+      <c r="M156" s="17"/>
+      <c r="N156" s="17"/>
+      <c r="O156" s="17"/>
+      <c r="P156" s="17"/>
+      <c r="Q156" s="17"/>
+      <c r="R156" s="17"/>
+      <c r="S156" s="17"/>
+      <c r="T156" s="17"/>
+      <c r="U156" s="17"/>
     </row>
     <row r="157" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A157" s="18"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
-      <c r="J157" s="18"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="18"/>
-      <c r="N157" s="18"/>
-      <c r="O157" s="18"/>
-      <c r="P157" s="18"/>
-      <c r="Q157" s="18"/>
-      <c r="R157" s="18"/>
-      <c r="S157" s="18"/>
-      <c r="T157" s="18"/>
-      <c r="U157" s="18"/>
+      <c r="A157" s="17"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
+      <c r="M157" s="17"/>
+      <c r="N157" s="17"/>
+      <c r="O157" s="17"/>
+      <c r="P157" s="17"/>
+      <c r="Q157" s="17"/>
+      <c r="R157" s="17"/>
+      <c r="S157" s="17"/>
+      <c r="T157" s="17"/>
+      <c r="U157" s="17"/>
     </row>
     <row r="158" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A158" s="18"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="18"/>
-      <c r="I158" s="18"/>
-      <c r="J158" s="18"/>
-      <c r="K158" s="18"/>
-      <c r="L158" s="18"/>
-      <c r="M158" s="18"/>
-      <c r="N158" s="18"/>
-      <c r="O158" s="18"/>
-      <c r="P158" s="18"/>
-      <c r="Q158" s="18"/>
-      <c r="R158" s="18"/>
-      <c r="S158" s="18"/>
-      <c r="T158" s="18"/>
-      <c r="U158" s="18"/>
+      <c r="A158" s="17"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
+      <c r="N158" s="17"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="17"/>
+      <c r="Q158" s="17"/>
+      <c r="R158" s="17"/>
+      <c r="S158" s="17"/>
+      <c r="T158" s="17"/>
+      <c r="U158" s="17"/>
     </row>
     <row r="159" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A159" s="18"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="20"/>
-      <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="18"/>
-      <c r="N159" s="18"/>
-      <c r="O159" s="18"/>
-      <c r="P159" s="18"/>
-      <c r="Q159" s="18"/>
-      <c r="R159" s="18"/>
-      <c r="S159" s="18"/>
-      <c r="T159" s="18"/>
-      <c r="U159" s="18"/>
+      <c r="A159" s="17"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
+      <c r="M159" s="17"/>
+      <c r="N159" s="17"/>
+      <c r="O159" s="17"/>
+      <c r="P159" s="17"/>
+      <c r="Q159" s="17"/>
+      <c r="R159" s="17"/>
+      <c r="S159" s="17"/>
+      <c r="T159" s="17"/>
+      <c r="U159" s="17"/>
     </row>
     <row r="160" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A160" s="18"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="20"/>
-      <c r="H160" s="18"/>
-      <c r="I160" s="18"/>
-      <c r="J160" s="18"/>
-      <c r="K160" s="18"/>
-      <c r="L160" s="18"/>
-      <c r="M160" s="18"/>
-      <c r="N160" s="18"/>
-      <c r="O160" s="18"/>
-      <c r="P160" s="18"/>
-      <c r="Q160" s="18"/>
-      <c r="R160" s="18"/>
-      <c r="S160" s="18"/>
-      <c r="T160" s="18"/>
-      <c r="U160" s="18"/>
+      <c r="A160" s="17"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="17"/>
+      <c r="M160" s="17"/>
+      <c r="N160" s="17"/>
+      <c r="O160" s="17"/>
+      <c r="P160" s="17"/>
+      <c r="Q160" s="17"/>
+      <c r="R160" s="17"/>
+      <c r="S160" s="17"/>
+      <c r="T160" s="17"/>
+      <c r="U160" s="17"/>
     </row>
     <row r="161" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A161" s="18"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="20"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="18"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="18"/>
-      <c r="N161" s="18"/>
-      <c r="O161" s="18"/>
-      <c r="P161" s="18"/>
-      <c r="Q161" s="18"/>
-      <c r="R161" s="18"/>
-      <c r="S161" s="18"/>
-      <c r="T161" s="18"/>
-      <c r="U161" s="18"/>
+      <c r="A161" s="17"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+      <c r="M161" s="17"/>
+      <c r="N161" s="17"/>
+      <c r="O161" s="17"/>
+      <c r="P161" s="17"/>
+      <c r="Q161" s="17"/>
+      <c r="R161" s="17"/>
+      <c r="S161" s="17"/>
+      <c r="T161" s="17"/>
+      <c r="U161" s="17"/>
     </row>
     <row r="162" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A162" s="18"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="20"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="18"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="18"/>
-      <c r="N162" s="18"/>
-      <c r="O162" s="18"/>
-      <c r="P162" s="18"/>
-      <c r="Q162" s="18"/>
-      <c r="R162" s="18"/>
-      <c r="S162" s="18"/>
-      <c r="T162" s="18"/>
-      <c r="U162" s="18"/>
+      <c r="A162" s="17"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+      <c r="M162" s="17"/>
+      <c r="N162" s="17"/>
+      <c r="O162" s="17"/>
+      <c r="P162" s="17"/>
+      <c r="Q162" s="17"/>
+      <c r="R162" s="17"/>
+      <c r="S162" s="17"/>
+      <c r="T162" s="17"/>
+      <c r="U162" s="17"/>
     </row>
     <row r="163" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A163" s="18"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="18"/>
-      <c r="J163" s="18"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="18"/>
-      <c r="N163" s="18"/>
-      <c r="O163" s="18"/>
-      <c r="P163" s="18"/>
-      <c r="Q163" s="18"/>
-      <c r="R163" s="18"/>
-      <c r="S163" s="18"/>
-      <c r="T163" s="18"/>
-      <c r="U163" s="18"/>
+      <c r="A163" s="17"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+      <c r="M163" s="17"/>
+      <c r="N163" s="17"/>
+      <c r="O163" s="17"/>
+      <c r="P163" s="17"/>
+      <c r="Q163" s="17"/>
+      <c r="R163" s="17"/>
+      <c r="S163" s="17"/>
+      <c r="T163" s="17"/>
+      <c r="U163" s="17"/>
     </row>
     <row r="164" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A164" s="18"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="18"/>
-      <c r="I164" s="18"/>
-      <c r="J164" s="18"/>
-      <c r="K164" s="18"/>
-      <c r="L164" s="18"/>
-      <c r="M164" s="18"/>
-      <c r="N164" s="18"/>
-      <c r="O164" s="18"/>
-      <c r="P164" s="18"/>
-      <c r="Q164" s="18"/>
-      <c r="R164" s="18"/>
-      <c r="S164" s="18"/>
-      <c r="T164" s="18"/>
-      <c r="U164" s="18"/>
+      <c r="A164" s="17"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="17"/>
+      <c r="L164" s="17"/>
+      <c r="M164" s="17"/>
+      <c r="N164" s="17"/>
+      <c r="O164" s="17"/>
+      <c r="P164" s="17"/>
+      <c r="Q164" s="17"/>
+      <c r="R164" s="17"/>
+      <c r="S164" s="17"/>
+      <c r="T164" s="17"/>
+      <c r="U164" s="17"/>
     </row>
     <row r="165" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A165" s="18"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="18"/>
-      <c r="I165" s="18"/>
-      <c r="J165" s="18"/>
-      <c r="K165" s="18"/>
-      <c r="L165" s="18"/>
-      <c r="M165" s="18"/>
-      <c r="N165" s="18"/>
-      <c r="O165" s="18"/>
-      <c r="P165" s="18"/>
-      <c r="Q165" s="18"/>
-      <c r="R165" s="18"/>
-      <c r="S165" s="18"/>
-      <c r="T165" s="18"/>
-      <c r="U165" s="18"/>
+      <c r="A165" s="17"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17"/>
+      <c r="M165" s="17"/>
+      <c r="N165" s="17"/>
+      <c r="O165" s="17"/>
+      <c r="P165" s="17"/>
+      <c r="Q165" s="17"/>
+      <c r="R165" s="17"/>
+      <c r="S165" s="17"/>
+      <c r="T165" s="17"/>
+      <c r="U165" s="17"/>
     </row>
     <row r="166" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A166" s="18"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="20"/>
-      <c r="H166" s="18"/>
-      <c r="I166" s="18"/>
-      <c r="J166" s="18"/>
-      <c r="K166" s="18"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="18"/>
-      <c r="N166" s="18"/>
-      <c r="O166" s="18"/>
-      <c r="P166" s="18"/>
-      <c r="Q166" s="18"/>
-      <c r="R166" s="18"/>
-      <c r="S166" s="18"/>
-      <c r="T166" s="18"/>
-      <c r="U166" s="18"/>
+      <c r="A166" s="17"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="18"/>
+      <c r="E166" s="18"/>
+      <c r="F166" s="18"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
+      <c r="M166" s="17"/>
+      <c r="N166" s="17"/>
+      <c r="O166" s="17"/>
+      <c r="P166" s="17"/>
+      <c r="Q166" s="17"/>
+      <c r="R166" s="17"/>
+      <c r="S166" s="17"/>
+      <c r="T166" s="17"/>
+      <c r="U166" s="17"/>
     </row>
     <row r="167" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A167" s="18"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="20"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="18"/>
-      <c r="J167" s="18"/>
-      <c r="K167" s="18"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="18"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="18"/>
-      <c r="P167" s="18"/>
-      <c r="Q167" s="18"/>
-      <c r="R167" s="18"/>
-      <c r="S167" s="18"/>
-      <c r="T167" s="18"/>
-      <c r="U167" s="18"/>
+      <c r="A167" s="17"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17"/>
+      <c r="M167" s="17"/>
+      <c r="N167" s="17"/>
+      <c r="O167" s="17"/>
+      <c r="P167" s="17"/>
+      <c r="Q167" s="17"/>
+      <c r="R167" s="17"/>
+      <c r="S167" s="17"/>
+      <c r="T167" s="17"/>
+      <c r="U167" s="17"/>
     </row>
     <row r="168" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A168" s="18"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="18"/>
-      <c r="J168" s="18"/>
-      <c r="K168" s="18"/>
-      <c r="L168" s="18"/>
-      <c r="M168" s="18"/>
-      <c r="N168" s="18"/>
-      <c r="O168" s="18"/>
-      <c r="P168" s="18"/>
-      <c r="Q168" s="18"/>
-      <c r="R168" s="18"/>
-      <c r="S168" s="18"/>
-      <c r="T168" s="18"/>
-      <c r="U168" s="18"/>
+      <c r="A168" s="17"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="17"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
+      <c r="L168" s="17"/>
+      <c r="M168" s="17"/>
+      <c r="N168" s="17"/>
+      <c r="O168" s="17"/>
+      <c r="P168" s="17"/>
+      <c r="Q168" s="17"/>
+      <c r="R168" s="17"/>
+      <c r="S168" s="17"/>
+      <c r="T168" s="17"/>
+      <c r="U168" s="17"/>
     </row>
     <row r="169" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A169" s="18"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="18"/>
-      <c r="I169" s="18"/>
-      <c r="J169" s="18"/>
-      <c r="K169" s="18"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="18"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="18"/>
-      <c r="P169" s="18"/>
-      <c r="Q169" s="18"/>
-      <c r="R169" s="18"/>
-      <c r="S169" s="18"/>
-      <c r="T169" s="18"/>
-      <c r="U169" s="18"/>
+      <c r="A169" s="17"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="17"/>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
+      <c r="M169" s="17"/>
+      <c r="N169" s="17"/>
+      <c r="O169" s="17"/>
+      <c r="P169" s="17"/>
+      <c r="Q169" s="17"/>
+      <c r="R169" s="17"/>
+      <c r="S169" s="17"/>
+      <c r="T169" s="17"/>
+      <c r="U169" s="17"/>
     </row>
     <row r="170" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A170" s="18"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="20"/>
-      <c r="H170" s="18"/>
-      <c r="I170" s="18"/>
-      <c r="J170" s="18"/>
-      <c r="K170" s="18"/>
-      <c r="L170" s="18"/>
-      <c r="M170" s="18"/>
-      <c r="N170" s="18"/>
-      <c r="O170" s="18"/>
-      <c r="P170" s="18"/>
-      <c r="Q170" s="18"/>
-      <c r="R170" s="18"/>
-      <c r="S170" s="18"/>
-      <c r="T170" s="18"/>
-      <c r="U170" s="18"/>
+      <c r="A170" s="17"/>
+      <c r="B170" s="16"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="17"/>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="17"/>
+      <c r="L170" s="17"/>
+      <c r="M170" s="17"/>
+      <c r="N170" s="17"/>
+      <c r="O170" s="17"/>
+      <c r="P170" s="17"/>
+      <c r="Q170" s="17"/>
+      <c r="R170" s="17"/>
+      <c r="S170" s="17"/>
+      <c r="T170" s="17"/>
+      <c r="U170" s="17"/>
     </row>
     <row r="171" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A171" s="18"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="20"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18"/>
-      <c r="J171" s="18"/>
-      <c r="K171" s="18"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="18"/>
-      <c r="N171" s="18"/>
-      <c r="O171" s="18"/>
-      <c r="P171" s="18"/>
-      <c r="Q171" s="18"/>
-      <c r="R171" s="18"/>
-      <c r="S171" s="18"/>
-      <c r="T171" s="18"/>
-      <c r="U171" s="18"/>
+      <c r="A171" s="17"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
+      <c r="M171" s="17"/>
+      <c r="N171" s="17"/>
+      <c r="O171" s="17"/>
+      <c r="P171" s="17"/>
+      <c r="Q171" s="17"/>
+      <c r="R171" s="17"/>
+      <c r="S171" s="17"/>
+      <c r="T171" s="17"/>
+      <c r="U171" s="17"/>
     </row>
     <row r="172" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A172" s="18"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="20"/>
-      <c r="H172" s="18"/>
-      <c r="I172" s="18"/>
-      <c r="J172" s="18"/>
-      <c r="K172" s="18"/>
-      <c r="L172" s="18"/>
-      <c r="M172" s="18"/>
-      <c r="N172" s="18"/>
-      <c r="O172" s="18"/>
-      <c r="P172" s="18"/>
-      <c r="Q172" s="18"/>
-      <c r="R172" s="18"/>
-      <c r="S172" s="18"/>
-      <c r="T172" s="18"/>
-      <c r="U172" s="18"/>
+      <c r="A172" s="17"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+      <c r="M172" s="17"/>
+      <c r="N172" s="17"/>
+      <c r="O172" s="17"/>
+      <c r="P172" s="17"/>
+      <c r="Q172" s="17"/>
+      <c r="R172" s="17"/>
+      <c r="S172" s="17"/>
+      <c r="T172" s="17"/>
+      <c r="U172" s="17"/>
     </row>
     <row r="173" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A173" s="18"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="18"/>
-      <c r="I173" s="18"/>
-      <c r="J173" s="18"/>
-      <c r="K173" s="18"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="18"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="18"/>
-      <c r="P173" s="18"/>
-      <c r="Q173" s="18"/>
-      <c r="R173" s="18"/>
-      <c r="S173" s="18"/>
-      <c r="T173" s="18"/>
-      <c r="U173" s="18"/>
+      <c r="A173" s="17"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="17"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
+      <c r="L173" s="17"/>
+      <c r="M173" s="17"/>
+      <c r="N173" s="17"/>
+      <c r="O173" s="17"/>
+      <c r="P173" s="17"/>
+      <c r="Q173" s="17"/>
+      <c r="R173" s="17"/>
+      <c r="S173" s="17"/>
+      <c r="T173" s="17"/>
+      <c r="U173" s="17"/>
     </row>
     <row r="174" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A174" s="18"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="20"/>
-      <c r="H174" s="18"/>
-      <c r="I174" s="18"/>
-      <c r="J174" s="18"/>
-      <c r="K174" s="18"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="18"/>
-      <c r="N174" s="18"/>
-      <c r="O174" s="18"/>
-      <c r="P174" s="18"/>
-      <c r="Q174" s="18"/>
-      <c r="R174" s="18"/>
-      <c r="S174" s="18"/>
-      <c r="T174" s="18"/>
-      <c r="U174" s="18"/>
+      <c r="A174" s="17"/>
+      <c r="B174" s="16"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="17"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="17"/>
+      <c r="L174" s="17"/>
+      <c r="M174" s="17"/>
+      <c r="N174" s="17"/>
+      <c r="O174" s="17"/>
+      <c r="P174" s="17"/>
+      <c r="Q174" s="17"/>
+      <c r="R174" s="17"/>
+      <c r="S174" s="17"/>
+      <c r="T174" s="17"/>
+      <c r="U174" s="17"/>
     </row>
     <row r="175" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A175" s="18"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="20"/>
-      <c r="H175" s="18"/>
-      <c r="I175" s="18"/>
-      <c r="J175" s="18"/>
-      <c r="K175" s="18"/>
-      <c r="L175" s="18"/>
-      <c r="M175" s="18"/>
-      <c r="N175" s="18"/>
-      <c r="O175" s="18"/>
-      <c r="P175" s="18"/>
-      <c r="Q175" s="18"/>
-      <c r="R175" s="18"/>
-      <c r="S175" s="18"/>
-      <c r="T175" s="18"/>
-      <c r="U175" s="18"/>
+      <c r="A175" s="17"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="17"/>
+      <c r="I175" s="17"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="17"/>
+      <c r="L175" s="17"/>
+      <c r="M175" s="17"/>
+      <c r="N175" s="17"/>
+      <c r="O175" s="17"/>
+      <c r="P175" s="17"/>
+      <c r="Q175" s="17"/>
+      <c r="R175" s="17"/>
+      <c r="S175" s="17"/>
+      <c r="T175" s="17"/>
+      <c r="U175" s="17"/>
     </row>
     <row r="176" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A176" s="18"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="18"/>
-      <c r="I176" s="18"/>
-      <c r="J176" s="18"/>
-      <c r="K176" s="18"/>
-      <c r="L176" s="18"/>
-      <c r="M176" s="18"/>
-      <c r="N176" s="18"/>
-      <c r="O176" s="18"/>
-      <c r="P176" s="18"/>
-      <c r="Q176" s="18"/>
-      <c r="R176" s="18"/>
-      <c r="S176" s="18"/>
-      <c r="T176" s="18"/>
-      <c r="U176" s="18"/>
+      <c r="A176" s="17"/>
+      <c r="B176" s="16"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="18"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="17"/>
+      <c r="J176" s="17"/>
+      <c r="K176" s="17"/>
+      <c r="L176" s="17"/>
+      <c r="M176" s="17"/>
+      <c r="N176" s="17"/>
+      <c r="O176" s="17"/>
+      <c r="P176" s="17"/>
+      <c r="Q176" s="17"/>
+      <c r="R176" s="17"/>
+      <c r="S176" s="17"/>
+      <c r="T176" s="17"/>
+      <c r="U176" s="17"/>
     </row>
     <row r="177" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A177" s="18"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="20"/>
-      <c r="H177" s="18"/>
-      <c r="I177" s="18"/>
-      <c r="J177" s="18"/>
-      <c r="K177" s="18"/>
-      <c r="L177" s="18"/>
-      <c r="M177" s="18"/>
-      <c r="N177" s="18"/>
-      <c r="O177" s="18"/>
-      <c r="P177" s="18"/>
-      <c r="Q177" s="18"/>
-      <c r="R177" s="18"/>
-      <c r="S177" s="18"/>
-      <c r="T177" s="18"/>
-      <c r="U177" s="18"/>
+      <c r="A177" s="17"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
+      <c r="M177" s="17"/>
+      <c r="N177" s="17"/>
+      <c r="O177" s="17"/>
+      <c r="P177" s="17"/>
+      <c r="Q177" s="17"/>
+      <c r="R177" s="17"/>
+      <c r="S177" s="17"/>
+      <c r="T177" s="17"/>
+      <c r="U177" s="17"/>
     </row>
     <row r="178" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A178" s="18"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="20"/>
-      <c r="H178" s="18"/>
-      <c r="I178" s="18"/>
-      <c r="J178" s="18"/>
-      <c r="K178" s="18"/>
-      <c r="L178" s="18"/>
-      <c r="M178" s="18"/>
-      <c r="N178" s="18"/>
-      <c r="O178" s="18"/>
-      <c r="P178" s="18"/>
-      <c r="Q178" s="18"/>
-      <c r="R178" s="18"/>
-      <c r="S178" s="18"/>
-      <c r="T178" s="18"/>
-      <c r="U178" s="18"/>
+      <c r="A178" s="17"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
+      <c r="L178" s="17"/>
+      <c r="M178" s="17"/>
+      <c r="N178" s="17"/>
+      <c r="O178" s="17"/>
+      <c r="P178" s="17"/>
+      <c r="Q178" s="17"/>
+      <c r="R178" s="17"/>
+      <c r="S178" s="17"/>
+      <c r="T178" s="17"/>
+      <c r="U178" s="17"/>
     </row>
     <row r="179" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A179" s="18"/>
-      <c r="B179" s="17"/>
-      <c r="C179" s="18"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="20"/>
-      <c r="H179" s="18"/>
-      <c r="I179" s="18"/>
-      <c r="J179" s="18"/>
-      <c r="K179" s="18"/>
-      <c r="L179" s="18"/>
-      <c r="M179" s="18"/>
-      <c r="N179" s="18"/>
-      <c r="O179" s="18"/>
-      <c r="P179" s="18"/>
-      <c r="Q179" s="18"/>
-      <c r="R179" s="18"/>
-      <c r="S179" s="18"/>
-      <c r="T179" s="18"/>
-      <c r="U179" s="18"/>
+      <c r="A179" s="17"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
+      <c r="L179" s="17"/>
+      <c r="M179" s="17"/>
+      <c r="N179" s="17"/>
+      <c r="O179" s="17"/>
+      <c r="P179" s="17"/>
+      <c r="Q179" s="17"/>
+      <c r="R179" s="17"/>
+      <c r="S179" s="17"/>
+      <c r="T179" s="17"/>
+      <c r="U179" s="17"/>
     </row>
     <row r="180" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A180" s="18"/>
-      <c r="B180" s="17"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="18"/>
-      <c r="I180" s="18"/>
-      <c r="J180" s="18"/>
-      <c r="K180" s="18"/>
-      <c r="L180" s="18"/>
-      <c r="M180" s="18"/>
-      <c r="N180" s="18"/>
-      <c r="O180" s="18"/>
-      <c r="P180" s="18"/>
-      <c r="Q180" s="18"/>
-      <c r="R180" s="18"/>
-      <c r="S180" s="18"/>
-      <c r="T180" s="18"/>
-      <c r="U180" s="18"/>
+      <c r="A180" s="17"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="17"/>
+      <c r="J180" s="17"/>
+      <c r="K180" s="17"/>
+      <c r="L180" s="17"/>
+      <c r="M180" s="17"/>
+      <c r="N180" s="17"/>
+      <c r="O180" s="17"/>
+      <c r="P180" s="17"/>
+      <c r="Q180" s="17"/>
+      <c r="R180" s="17"/>
+      <c r="S180" s="17"/>
+      <c r="T180" s="17"/>
+      <c r="U180" s="17"/>
     </row>
     <row r="181" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A181" s="18"/>
-      <c r="B181" s="17"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="20"/>
-      <c r="H181" s="18"/>
-      <c r="I181" s="18"/>
-      <c r="J181" s="18"/>
-      <c r="K181" s="18"/>
-      <c r="L181" s="18"/>
-      <c r="M181" s="18"/>
-      <c r="N181" s="18"/>
-      <c r="O181" s="18"/>
-      <c r="P181" s="18"/>
-      <c r="Q181" s="18"/>
-      <c r="R181" s="18"/>
-      <c r="S181" s="18"/>
-      <c r="T181" s="18"/>
-      <c r="U181" s="18"/>
+      <c r="A181" s="17"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
+      <c r="L181" s="17"/>
+      <c r="M181" s="17"/>
+      <c r="N181" s="17"/>
+      <c r="O181" s="17"/>
+      <c r="P181" s="17"/>
+      <c r="Q181" s="17"/>
+      <c r="R181" s="17"/>
+      <c r="S181" s="17"/>
+      <c r="T181" s="17"/>
+      <c r="U181" s="17"/>
     </row>
     <row r="182" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A182" s="18"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="20"/>
-      <c r="H182" s="18"/>
-      <c r="I182" s="18"/>
-      <c r="J182" s="18"/>
-      <c r="K182" s="18"/>
-      <c r="L182" s="18"/>
-      <c r="M182" s="18"/>
-      <c r="N182" s="18"/>
-      <c r="O182" s="18"/>
-      <c r="P182" s="18"/>
-      <c r="Q182" s="18"/>
-      <c r="R182" s="18"/>
-      <c r="S182" s="18"/>
-      <c r="T182" s="18"/>
-      <c r="U182" s="18"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="18"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="17"/>
+      <c r="L182" s="17"/>
+      <c r="M182" s="17"/>
+      <c r="N182" s="17"/>
+      <c r="O182" s="17"/>
+      <c r="P182" s="17"/>
+      <c r="Q182" s="17"/>
+      <c r="R182" s="17"/>
+      <c r="S182" s="17"/>
+      <c r="T182" s="17"/>
+      <c r="U182" s="17"/>
     </row>
     <row r="183" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A183" s="18"/>
-      <c r="B183" s="17"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="20"/>
-      <c r="H183" s="18"/>
-      <c r="I183" s="18"/>
-      <c r="J183" s="18"/>
-      <c r="K183" s="18"/>
-      <c r="L183" s="18"/>
-      <c r="M183" s="18"/>
-      <c r="N183" s="18"/>
-      <c r="O183" s="18"/>
-      <c r="P183" s="18"/>
-      <c r="Q183" s="18"/>
-      <c r="R183" s="18"/>
-      <c r="S183" s="18"/>
-      <c r="T183" s="18"/>
-      <c r="U183" s="18"/>
+      <c r="A183" s="17"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="18"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="17"/>
+      <c r="L183" s="17"/>
+      <c r="M183" s="17"/>
+      <c r="N183" s="17"/>
+      <c r="O183" s="17"/>
+      <c r="P183" s="17"/>
+      <c r="Q183" s="17"/>
+      <c r="R183" s="17"/>
+      <c r="S183" s="17"/>
+      <c r="T183" s="17"/>
+      <c r="U183" s="17"/>
     </row>
     <row r="184" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A184" s="18"/>
-      <c r="B184" s="17"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="20"/>
-      <c r="H184" s="18"/>
-      <c r="I184" s="18"/>
-      <c r="J184" s="18"/>
-      <c r="K184" s="18"/>
-      <c r="L184" s="18"/>
-      <c r="M184" s="18"/>
-      <c r="N184" s="18"/>
-      <c r="O184" s="18"/>
-      <c r="P184" s="18"/>
-      <c r="Q184" s="18"/>
-      <c r="R184" s="18"/>
-      <c r="S184" s="18"/>
-      <c r="T184" s="18"/>
-      <c r="U184" s="18"/>
+      <c r="A184" s="17"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="17"/>
+      <c r="I184" s="17"/>
+      <c r="J184" s="17"/>
+      <c r="K184" s="17"/>
+      <c r="L184" s="17"/>
+      <c r="M184" s="17"/>
+      <c r="N184" s="17"/>
+      <c r="O184" s="17"/>
+      <c r="P184" s="17"/>
+      <c r="Q184" s="17"/>
+      <c r="R184" s="17"/>
+      <c r="S184" s="17"/>
+      <c r="T184" s="17"/>
+      <c r="U184" s="17"/>
     </row>
     <row r="185" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A185" s="18"/>
-      <c r="B185" s="17"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="20"/>
-      <c r="H185" s="18"/>
-      <c r="I185" s="18"/>
-      <c r="J185" s="18"/>
-      <c r="K185" s="18"/>
-      <c r="L185" s="18"/>
-      <c r="M185" s="18"/>
-      <c r="N185" s="18"/>
-      <c r="O185" s="18"/>
-      <c r="P185" s="18"/>
-      <c r="Q185" s="18"/>
-      <c r="R185" s="18"/>
-      <c r="S185" s="18"/>
-      <c r="T185" s="18"/>
-      <c r="U185" s="18"/>
+      <c r="A185" s="17"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="18"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="18"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="17"/>
+      <c r="I185" s="17"/>
+      <c r="J185" s="17"/>
+      <c r="K185" s="17"/>
+      <c r="L185" s="17"/>
+      <c r="M185" s="17"/>
+      <c r="N185" s="17"/>
+      <c r="O185" s="17"/>
+      <c r="P185" s="17"/>
+      <c r="Q185" s="17"/>
+      <c r="R185" s="17"/>
+      <c r="S185" s="17"/>
+      <c r="T185" s="17"/>
+      <c r="U185" s="17"/>
     </row>
     <row r="186" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A186" s="18"/>
-      <c r="B186" s="17"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="19"/>
-      <c r="E186" s="19"/>
-      <c r="F186" s="19"/>
-      <c r="G186" s="20"/>
-      <c r="H186" s="18"/>
-      <c r="I186" s="18"/>
-      <c r="J186" s="18"/>
-      <c r="K186" s="18"/>
-      <c r="L186" s="18"/>
-      <c r="M186" s="18"/>
-      <c r="N186" s="18"/>
-      <c r="O186" s="18"/>
-      <c r="P186" s="18"/>
-      <c r="Q186" s="18"/>
-      <c r="R186" s="18"/>
-      <c r="S186" s="18"/>
-      <c r="T186" s="18"/>
-      <c r="U186" s="18"/>
+      <c r="A186" s="17"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="17"/>
+      <c r="I186" s="17"/>
+      <c r="J186" s="17"/>
+      <c r="K186" s="17"/>
+      <c r="L186" s="17"/>
+      <c r="M186" s="17"/>
+      <c r="N186" s="17"/>
+      <c r="O186" s="17"/>
+      <c r="P186" s="17"/>
+      <c r="Q186" s="17"/>
+      <c r="R186" s="17"/>
+      <c r="S186" s="17"/>
+      <c r="T186" s="17"/>
+      <c r="U186" s="17"/>
     </row>
     <row r="187" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A187" s="18"/>
-      <c r="B187" s="17"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="19"/>
-      <c r="E187" s="19"/>
-      <c r="F187" s="19"/>
-      <c r="G187" s="20"/>
-      <c r="H187" s="18"/>
-      <c r="I187" s="18"/>
-      <c r="J187" s="18"/>
-      <c r="K187" s="18"/>
-      <c r="L187" s="18"/>
-      <c r="M187" s="18"/>
-      <c r="N187" s="18"/>
-      <c r="O187" s="18"/>
-      <c r="P187" s="18"/>
-      <c r="Q187" s="18"/>
-      <c r="R187" s="18"/>
-      <c r="S187" s="18"/>
-      <c r="T187" s="18"/>
-      <c r="U187" s="18"/>
+      <c r="A187" s="17"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="18"/>
+      <c r="E187" s="18"/>
+      <c r="F187" s="18"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="17"/>
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+      <c r="K187" s="17"/>
+      <c r="L187" s="17"/>
+      <c r="M187" s="17"/>
+      <c r="N187" s="17"/>
+      <c r="O187" s="17"/>
+      <c r="P187" s="17"/>
+      <c r="Q187" s="17"/>
+      <c r="R187" s="17"/>
+      <c r="S187" s="17"/>
+      <c r="T187" s="17"/>
+      <c r="U187" s="17"/>
     </row>
     <row r="188" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A188" s="18"/>
-      <c r="B188" s="17"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="19"/>
-      <c r="E188" s="19"/>
-      <c r="F188" s="19"/>
-      <c r="G188" s="20"/>
-      <c r="H188" s="18"/>
-      <c r="I188" s="18"/>
-      <c r="J188" s="18"/>
-      <c r="K188" s="18"/>
-      <c r="L188" s="18"/>
-      <c r="M188" s="18"/>
-      <c r="N188" s="18"/>
-      <c r="O188" s="18"/>
-      <c r="P188" s="18"/>
-      <c r="Q188" s="18"/>
-      <c r="R188" s="18"/>
-      <c r="S188" s="18"/>
-      <c r="T188" s="18"/>
-      <c r="U188" s="18"/>
+      <c r="A188" s="17"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="18"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="17"/>
+      <c r="I188" s="17"/>
+      <c r="J188" s="17"/>
+      <c r="K188" s="17"/>
+      <c r="L188" s="17"/>
+      <c r="M188" s="17"/>
+      <c r="N188" s="17"/>
+      <c r="O188" s="17"/>
+      <c r="P188" s="17"/>
+      <c r="Q188" s="17"/>
+      <c r="R188" s="17"/>
+      <c r="S188" s="17"/>
+      <c r="T188" s="17"/>
+      <c r="U188" s="17"/>
     </row>
     <row r="189" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A189" s="18"/>
-      <c r="B189" s="17"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
-      <c r="F189" s="19"/>
-      <c r="G189" s="20"/>
-      <c r="H189" s="18"/>
-      <c r="I189" s="18"/>
-      <c r="J189" s="18"/>
-      <c r="K189" s="18"/>
-      <c r="L189" s="18"/>
-      <c r="M189" s="18"/>
-      <c r="N189" s="18"/>
-      <c r="O189" s="18"/>
-      <c r="P189" s="18"/>
-      <c r="Q189" s="18"/>
-      <c r="R189" s="18"/>
-      <c r="S189" s="18"/>
-      <c r="T189" s="18"/>
-      <c r="U189" s="18"/>
+      <c r="A189" s="17"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="18"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="17"/>
+      <c r="I189" s="17"/>
+      <c r="J189" s="17"/>
+      <c r="K189" s="17"/>
+      <c r="L189" s="17"/>
+      <c r="M189" s="17"/>
+      <c r="N189" s="17"/>
+      <c r="O189" s="17"/>
+      <c r="P189" s="17"/>
+      <c r="Q189" s="17"/>
+      <c r="R189" s="17"/>
+      <c r="S189" s="17"/>
+      <c r="T189" s="17"/>
+      <c r="U189" s="17"/>
     </row>
     <row r="190" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A190" s="18"/>
-      <c r="B190" s="17"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="19"/>
-      <c r="E190" s="19"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="20"/>
-      <c r="H190" s="18"/>
-      <c r="I190" s="18"/>
-      <c r="J190" s="18"/>
-      <c r="K190" s="18"/>
-      <c r="L190" s="18"/>
-      <c r="M190" s="18"/>
-      <c r="N190" s="18"/>
-      <c r="O190" s="18"/>
-      <c r="P190" s="18"/>
-      <c r="Q190" s="18"/>
-      <c r="R190" s="18"/>
-      <c r="S190" s="18"/>
-      <c r="T190" s="18"/>
-      <c r="U190" s="18"/>
+      <c r="A190" s="17"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="18"/>
+      <c r="E190" s="18"/>
+      <c r="F190" s="18"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="17"/>
+      <c r="I190" s="17"/>
+      <c r="J190" s="17"/>
+      <c r="K190" s="17"/>
+      <c r="L190" s="17"/>
+      <c r="M190" s="17"/>
+      <c r="N190" s="17"/>
+      <c r="O190" s="17"/>
+      <c r="P190" s="17"/>
+      <c r="Q190" s="17"/>
+      <c r="R190" s="17"/>
+      <c r="S190" s="17"/>
+      <c r="T190" s="17"/>
+      <c r="U190" s="17"/>
     </row>
     <row r="191" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A191" s="18"/>
-      <c r="B191" s="17"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="20"/>
-      <c r="H191" s="18"/>
-      <c r="I191" s="18"/>
-      <c r="J191" s="18"/>
-      <c r="K191" s="18"/>
-      <c r="L191" s="18"/>
-      <c r="M191" s="18"/>
-      <c r="N191" s="18"/>
-      <c r="O191" s="18"/>
-      <c r="P191" s="18"/>
-      <c r="Q191" s="18"/>
-      <c r="R191" s="18"/>
-      <c r="S191" s="18"/>
-      <c r="T191" s="18"/>
-      <c r="U191" s="18"/>
+      <c r="A191" s="17"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="18"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="17"/>
+      <c r="I191" s="17"/>
+      <c r="J191" s="17"/>
+      <c r="K191" s="17"/>
+      <c r="L191" s="17"/>
+      <c r="M191" s="17"/>
+      <c r="N191" s="17"/>
+      <c r="O191" s="17"/>
+      <c r="P191" s="17"/>
+      <c r="Q191" s="17"/>
+      <c r="R191" s="17"/>
+      <c r="S191" s="17"/>
+      <c r="T191" s="17"/>
+      <c r="U191" s="17"/>
     </row>
     <row r="192" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A192" s="18"/>
-      <c r="B192" s="17"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19"/>
-      <c r="F192" s="19"/>
-      <c r="G192" s="20"/>
-      <c r="H192" s="18"/>
-      <c r="I192" s="18"/>
-      <c r="J192" s="18"/>
-      <c r="K192" s="18"/>
-      <c r="L192" s="18"/>
-      <c r="M192" s="18"/>
-      <c r="N192" s="18"/>
-      <c r="O192" s="18"/>
-      <c r="P192" s="18"/>
-      <c r="Q192" s="18"/>
-      <c r="R192" s="18"/>
-      <c r="S192" s="18"/>
-      <c r="T192" s="18"/>
-      <c r="U192" s="18"/>
+      <c r="A192" s="17"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="17"/>
+      <c r="D192" s="18"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="18"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="17"/>
+      <c r="I192" s="17"/>
+      <c r="J192" s="17"/>
+      <c r="K192" s="17"/>
+      <c r="L192" s="17"/>
+      <c r="M192" s="17"/>
+      <c r="N192" s="17"/>
+      <c r="O192" s="17"/>
+      <c r="P192" s="17"/>
+      <c r="Q192" s="17"/>
+      <c r="R192" s="17"/>
+      <c r="S192" s="17"/>
+      <c r="T192" s="17"/>
+      <c r="U192" s="17"/>
     </row>
     <row r="193" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A193" s="18"/>
-      <c r="B193" s="17"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="20"/>
-      <c r="H193" s="18"/>
-      <c r="I193" s="18"/>
-      <c r="J193" s="18"/>
-      <c r="K193" s="18"/>
-      <c r="L193" s="18"/>
-      <c r="M193" s="18"/>
-      <c r="N193" s="18"/>
-      <c r="O193" s="18"/>
-      <c r="P193" s="18"/>
-      <c r="Q193" s="18"/>
-      <c r="R193" s="18"/>
-      <c r="S193" s="18"/>
-      <c r="T193" s="18"/>
-      <c r="U193" s="18"/>
+      <c r="A193" s="17"/>
+      <c r="B193" s="16"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="18"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="17"/>
+      <c r="I193" s="17"/>
+      <c r="J193" s="17"/>
+      <c r="K193" s="17"/>
+      <c r="L193" s="17"/>
+      <c r="M193" s="17"/>
+      <c r="N193" s="17"/>
+      <c r="O193" s="17"/>
+      <c r="P193" s="17"/>
+      <c r="Q193" s="17"/>
+      <c r="R193" s="17"/>
+      <c r="S193" s="17"/>
+      <c r="T193" s="17"/>
+      <c r="U193" s="17"/>
     </row>
     <row r="194" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A194" s="18"/>
-      <c r="B194" s="17"/>
-      <c r="C194" s="18"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="20"/>
-      <c r="H194" s="18"/>
-      <c r="I194" s="18"/>
-      <c r="J194" s="18"/>
-      <c r="K194" s="18"/>
-      <c r="L194" s="18"/>
-      <c r="M194" s="18"/>
-      <c r="N194" s="18"/>
-      <c r="O194" s="18"/>
-      <c r="P194" s="18"/>
-      <c r="Q194" s="18"/>
-      <c r="R194" s="18"/>
-      <c r="S194" s="18"/>
-      <c r="T194" s="18"/>
-      <c r="U194" s="18"/>
+      <c r="A194" s="17"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="17"/>
+      <c r="D194" s="18"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="18"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="17"/>
+      <c r="I194" s="17"/>
+      <c r="J194" s="17"/>
+      <c r="K194" s="17"/>
+      <c r="L194" s="17"/>
+      <c r="M194" s="17"/>
+      <c r="N194" s="17"/>
+      <c r="O194" s="17"/>
+      <c r="P194" s="17"/>
+      <c r="Q194" s="17"/>
+      <c r="R194" s="17"/>
+      <c r="S194" s="17"/>
+      <c r="T194" s="17"/>
+      <c r="U194" s="17"/>
     </row>
     <row r="195" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A195" s="18"/>
-      <c r="B195" s="17"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="19"/>
-      <c r="G195" s="20"/>
-      <c r="H195" s="18"/>
-      <c r="I195" s="18"/>
-      <c r="J195" s="18"/>
-      <c r="K195" s="18"/>
-      <c r="L195" s="18"/>
-      <c r="M195" s="18"/>
-      <c r="N195" s="18"/>
-      <c r="O195" s="18"/>
-      <c r="P195" s="18"/>
-      <c r="Q195" s="18"/>
-      <c r="R195" s="18"/>
-      <c r="S195" s="18"/>
-      <c r="T195" s="18"/>
-      <c r="U195" s="18"/>
+      <c r="A195" s="17"/>
+      <c r="B195" s="16"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="18"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="18"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="17"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="17"/>
+      <c r="K195" s="17"/>
+      <c r="L195" s="17"/>
+      <c r="M195" s="17"/>
+      <c r="N195" s="17"/>
+      <c r="O195" s="17"/>
+      <c r="P195" s="17"/>
+      <c r="Q195" s="17"/>
+      <c r="R195" s="17"/>
+      <c r="S195" s="17"/>
+      <c r="T195" s="17"/>
+      <c r="U195" s="17"/>
     </row>
     <row r="196" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A196" s="18"/>
-      <c r="B196" s="17"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="19"/>
-      <c r="E196" s="19"/>
-      <c r="F196" s="19"/>
-      <c r="G196" s="20"/>
-      <c r="H196" s="18"/>
-      <c r="I196" s="18"/>
-      <c r="J196" s="18"/>
-      <c r="K196" s="18"/>
-      <c r="L196" s="18"/>
-      <c r="M196" s="18"/>
-      <c r="N196" s="18"/>
-      <c r="O196" s="18"/>
-      <c r="P196" s="18"/>
-      <c r="Q196" s="18"/>
-      <c r="R196" s="18"/>
-      <c r="S196" s="18"/>
-      <c r="T196" s="18"/>
-      <c r="U196" s="18"/>
+      <c r="A196" s="17"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="17"/>
+      <c r="D196" s="18"/>
+      <c r="E196" s="18"/>
+      <c r="F196" s="18"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="17"/>
+      <c r="I196" s="17"/>
+      <c r="J196" s="17"/>
+      <c r="K196" s="17"/>
+      <c r="L196" s="17"/>
+      <c r="M196" s="17"/>
+      <c r="N196" s="17"/>
+      <c r="O196" s="17"/>
+      <c r="P196" s="17"/>
+      <c r="Q196" s="17"/>
+      <c r="R196" s="17"/>
+      <c r="S196" s="17"/>
+      <c r="T196" s="17"/>
+      <c r="U196" s="17"/>
     </row>
     <row r="197" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A197" s="18"/>
-      <c r="B197" s="17"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="19"/>
-      <c r="G197" s="20"/>
-      <c r="H197" s="18"/>
-      <c r="I197" s="18"/>
-      <c r="J197" s="18"/>
-      <c r="K197" s="18"/>
-      <c r="L197" s="18"/>
-      <c r="M197" s="18"/>
-      <c r="N197" s="18"/>
-      <c r="O197" s="18"/>
-      <c r="P197" s="18"/>
-      <c r="Q197" s="18"/>
-      <c r="R197" s="18"/>
-      <c r="S197" s="18"/>
-      <c r="T197" s="18"/>
-      <c r="U197" s="18"/>
+      <c r="A197" s="17"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="18"/>
+      <c r="E197" s="18"/>
+      <c r="F197" s="18"/>
+      <c r="G197" s="19"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+      <c r="K197" s="17"/>
+      <c r="L197" s="17"/>
+      <c r="M197" s="17"/>
+      <c r="N197" s="17"/>
+      <c r="O197" s="17"/>
+      <c r="P197" s="17"/>
+      <c r="Q197" s="17"/>
+      <c r="R197" s="17"/>
+      <c r="S197" s="17"/>
+      <c r="T197" s="17"/>
+      <c r="U197" s="17"/>
     </row>
     <row r="198" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A198" s="18"/>
-      <c r="B198" s="17"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19"/>
-      <c r="F198" s="19"/>
-      <c r="G198" s="20"/>
-      <c r="H198" s="18"/>
-      <c r="I198" s="18"/>
-      <c r="J198" s="18"/>
-      <c r="K198" s="18"/>
-      <c r="L198" s="18"/>
-      <c r="M198" s="18"/>
-      <c r="N198" s="18"/>
-      <c r="O198" s="18"/>
-      <c r="P198" s="18"/>
-      <c r="Q198" s="18"/>
-      <c r="R198" s="18"/>
-      <c r="S198" s="18"/>
-      <c r="T198" s="18"/>
-      <c r="U198" s="18"/>
+      <c r="A198" s="17"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="17"/>
+      <c r="D198" s="18"/>
+      <c r="E198" s="18"/>
+      <c r="F198" s="18"/>
+      <c r="G198" s="19"/>
+      <c r="H198" s="17"/>
+      <c r="I198" s="17"/>
+      <c r="J198" s="17"/>
+      <c r="K198" s="17"/>
+      <c r="L198" s="17"/>
+      <c r="M198" s="17"/>
+      <c r="N198" s="17"/>
+      <c r="O198" s="17"/>
+      <c r="P198" s="17"/>
+      <c r="Q198" s="17"/>
+      <c r="R198" s="17"/>
+      <c r="S198" s="17"/>
+      <c r="T198" s="17"/>
+      <c r="U198" s="17"/>
     </row>
     <row r="199" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A199" s="18"/>
-      <c r="B199" s="17"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="19"/>
-      <c r="E199" s="19"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="20"/>
-      <c r="H199" s="18"/>
-      <c r="I199" s="18"/>
-      <c r="J199" s="18"/>
-      <c r="K199" s="18"/>
-      <c r="L199" s="18"/>
-      <c r="M199" s="18"/>
-      <c r="N199" s="18"/>
-      <c r="O199" s="18"/>
-      <c r="P199" s="18"/>
-      <c r="Q199" s="18"/>
-      <c r="R199" s="18"/>
-      <c r="S199" s="18"/>
-      <c r="T199" s="18"/>
-      <c r="U199" s="18"/>
+      <c r="A199" s="17"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="18"/>
+      <c r="E199" s="18"/>
+      <c r="F199" s="18"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="17"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
+      <c r="K199" s="17"/>
+      <c r="L199" s="17"/>
+      <c r="M199" s="17"/>
+      <c r="N199" s="17"/>
+      <c r="O199" s="17"/>
+      <c r="P199" s="17"/>
+      <c r="Q199" s="17"/>
+      <c r="R199" s="17"/>
+      <c r="S199" s="17"/>
+      <c r="T199" s="17"/>
+      <c r="U199" s="17"/>
     </row>
     <row r="200" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A200" s="18"/>
-      <c r="B200" s="17"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="19"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="19"/>
-      <c r="G200" s="20"/>
-      <c r="H200" s="18"/>
-      <c r="I200" s="18"/>
-      <c r="J200" s="18"/>
-      <c r="K200" s="18"/>
-      <c r="L200" s="18"/>
-      <c r="M200" s="18"/>
-      <c r="N200" s="18"/>
-      <c r="O200" s="18"/>
-      <c r="P200" s="18"/>
-      <c r="Q200" s="18"/>
-      <c r="R200" s="18"/>
-      <c r="S200" s="18"/>
-      <c r="T200" s="18"/>
-      <c r="U200" s="18"/>
+      <c r="A200" s="17"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="18"/>
+      <c r="E200" s="18"/>
+      <c r="F200" s="18"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="17"/>
+      <c r="I200" s="17"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="17"/>
+      <c r="L200" s="17"/>
+      <c r="M200" s="17"/>
+      <c r="N200" s="17"/>
+      <c r="O200" s="17"/>
+      <c r="P200" s="17"/>
+      <c r="Q200" s="17"/>
+      <c r="R200" s="17"/>
+      <c r="S200" s="17"/>
+      <c r="T200" s="17"/>
+      <c r="U200" s="17"/>
     </row>
     <row r="201" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A201" s="18"/>
-      <c r="B201" s="17"/>
-      <c r="C201" s="18"/>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="19"/>
-      <c r="G201" s="20"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="18"/>
-      <c r="J201" s="18"/>
-      <c r="K201" s="18"/>
-      <c r="L201" s="18"/>
-      <c r="M201" s="18"/>
-      <c r="N201" s="18"/>
-      <c r="O201" s="18"/>
-      <c r="P201" s="18"/>
-      <c r="Q201" s="18"/>
-      <c r="R201" s="18"/>
-      <c r="S201" s="18"/>
-      <c r="T201" s="18"/>
-      <c r="U201" s="18"/>
+      <c r="A201" s="17"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="18"/>
+      <c r="G201" s="19"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
+      <c r="K201" s="17"/>
+      <c r="L201" s="17"/>
+      <c r="M201" s="17"/>
+      <c r="N201" s="17"/>
+      <c r="O201" s="17"/>
+      <c r="P201" s="17"/>
+      <c r="Q201" s="17"/>
+      <c r="R201" s="17"/>
+      <c r="S201" s="17"/>
+      <c r="T201" s="17"/>
+      <c r="U201" s="17"/>
     </row>
     <row r="202" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A202" s="18"/>
-      <c r="B202" s="17"/>
-      <c r="C202" s="18"/>
-      <c r="D202" s="19"/>
-      <c r="E202" s="19"/>
-      <c r="F202" s="19"/>
-      <c r="G202" s="20"/>
-      <c r="H202" s="18"/>
-      <c r="I202" s="18"/>
-      <c r="J202" s="18"/>
-      <c r="K202" s="18"/>
-      <c r="L202" s="18"/>
-      <c r="M202" s="18"/>
-      <c r="N202" s="18"/>
-      <c r="O202" s="18"/>
-      <c r="P202" s="18"/>
-      <c r="Q202" s="18"/>
-      <c r="R202" s="18"/>
-      <c r="S202" s="18"/>
-      <c r="T202" s="18"/>
-      <c r="U202" s="18"/>
+      <c r="A202" s="17"/>
+      <c r="B202" s="16"/>
+      <c r="C202" s="17"/>
+      <c r="D202" s="18"/>
+      <c r="E202" s="18"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="19"/>
+      <c r="H202" s="17"/>
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
+      <c r="K202" s="17"/>
+      <c r="L202" s="17"/>
+      <c r="M202" s="17"/>
+      <c r="N202" s="17"/>
+      <c r="O202" s="17"/>
+      <c r="P202" s="17"/>
+      <c r="Q202" s="17"/>
+      <c r="R202" s="17"/>
+      <c r="S202" s="17"/>
+      <c r="T202" s="17"/>
+      <c r="U202" s="17"/>
     </row>
     <row r="203" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A203" s="18"/>
-      <c r="B203" s="17"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="20"/>
-      <c r="H203" s="18"/>
-      <c r="I203" s="18"/>
-      <c r="J203" s="18"/>
-      <c r="K203" s="18"/>
-      <c r="L203" s="18"/>
-      <c r="M203" s="18"/>
-      <c r="N203" s="18"/>
-      <c r="O203" s="18"/>
-      <c r="P203" s="18"/>
-      <c r="Q203" s="18"/>
-      <c r="R203" s="18"/>
-      <c r="S203" s="18"/>
-      <c r="T203" s="18"/>
-      <c r="U203" s="18"/>
+      <c r="A203" s="17"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="17"/>
+      <c r="D203" s="18"/>
+      <c r="E203" s="18"/>
+      <c r="F203" s="18"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="17"/>
+      <c r="I203" s="17"/>
+      <c r="J203" s="17"/>
+      <c r="K203" s="17"/>
+      <c r="L203" s="17"/>
+      <c r="M203" s="17"/>
+      <c r="N203" s="17"/>
+      <c r="O203" s="17"/>
+      <c r="P203" s="17"/>
+      <c r="Q203" s="17"/>
+      <c r="R203" s="17"/>
+      <c r="S203" s="17"/>
+      <c r="T203" s="17"/>
+      <c r="U203" s="17"/>
     </row>
     <row r="204" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A204" s="18"/>
-      <c r="B204" s="17"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="19"/>
-      <c r="E204" s="19"/>
-      <c r="F204" s="19"/>
-      <c r="G204" s="20"/>
-      <c r="H204" s="18"/>
-      <c r="I204" s="18"/>
-      <c r="J204" s="18"/>
-      <c r="K204" s="18"/>
-      <c r="L204" s="18"/>
-      <c r="M204" s="18"/>
-      <c r="N204" s="18"/>
-      <c r="O204" s="18"/>
-      <c r="P204" s="18"/>
-      <c r="Q204" s="18"/>
-      <c r="R204" s="18"/>
-      <c r="S204" s="18"/>
-      <c r="T204" s="18"/>
-      <c r="U204" s="18"/>
+      <c r="A204" s="17"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="17"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="19"/>
+      <c r="H204" s="17"/>
+      <c r="I204" s="17"/>
+      <c r="J204" s="17"/>
+      <c r="K204" s="17"/>
+      <c r="L204" s="17"/>
+      <c r="M204" s="17"/>
+      <c r="N204" s="17"/>
+      <c r="O204" s="17"/>
+      <c r="P204" s="17"/>
+      <c r="Q204" s="17"/>
+      <c r="R204" s="17"/>
+      <c r="S204" s="17"/>
+      <c r="T204" s="17"/>
+      <c r="U204" s="17"/>
     </row>
     <row r="205" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A205" s="18"/>
-      <c r="B205" s="17"/>
-      <c r="C205" s="18"/>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="20"/>
-      <c r="H205" s="18"/>
-      <c r="I205" s="18"/>
-      <c r="J205" s="18"/>
-      <c r="K205" s="18"/>
-      <c r="L205" s="18"/>
-      <c r="M205" s="18"/>
-      <c r="N205" s="18"/>
-      <c r="O205" s="18"/>
-      <c r="P205" s="18"/>
-      <c r="Q205" s="18"/>
-      <c r="R205" s="18"/>
-      <c r="S205" s="18"/>
-      <c r="T205" s="18"/>
-      <c r="U205" s="18"/>
+      <c r="A205" s="17"/>
+      <c r="B205" s="16"/>
+      <c r="C205" s="17"/>
+      <c r="D205" s="18"/>
+      <c r="E205" s="18"/>
+      <c r="F205" s="18"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="17"/>
+      <c r="I205" s="17"/>
+      <c r="J205" s="17"/>
+      <c r="K205" s="17"/>
+      <c r="L205" s="17"/>
+      <c r="M205" s="17"/>
+      <c r="N205" s="17"/>
+      <c r="O205" s="17"/>
+      <c r="P205" s="17"/>
+      <c r="Q205" s="17"/>
+      <c r="R205" s="17"/>
+      <c r="S205" s="17"/>
+      <c r="T205" s="17"/>
+      <c r="U205" s="17"/>
     </row>
     <row r="206" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A206" s="18"/>
-      <c r="B206" s="17"/>
-      <c r="C206" s="18"/>
-      <c r="D206" s="19"/>
-      <c r="E206" s="19"/>
-      <c r="F206" s="19"/>
-      <c r="G206" s="20"/>
-      <c r="H206" s="18"/>
-      <c r="I206" s="18"/>
-      <c r="J206" s="18"/>
-      <c r="K206" s="18"/>
-      <c r="L206" s="18"/>
-      <c r="M206" s="18"/>
-      <c r="N206" s="18"/>
-      <c r="O206" s="18"/>
-      <c r="P206" s="18"/>
-      <c r="Q206" s="18"/>
-      <c r="R206" s="18"/>
-      <c r="S206" s="18"/>
-      <c r="T206" s="18"/>
-      <c r="U206" s="18"/>
+      <c r="A206" s="17"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="17"/>
+      <c r="D206" s="18"/>
+      <c r="E206" s="18"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="19"/>
+      <c r="H206" s="17"/>
+      <c r="I206" s="17"/>
+      <c r="J206" s="17"/>
+      <c r="K206" s="17"/>
+      <c r="L206" s="17"/>
+      <c r="M206" s="17"/>
+      <c r="N206" s="17"/>
+      <c r="O206" s="17"/>
+      <c r="P206" s="17"/>
+      <c r="Q206" s="17"/>
+      <c r="R206" s="17"/>
+      <c r="S206" s="17"/>
+      <c r="T206" s="17"/>
+      <c r="U206" s="17"/>
     </row>
     <row r="207" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B207" s="8"/>

--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -885,62 +885,6 @@
 *********************************************</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IMPORTANT NOTE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">*********************************************
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Some testing can't be done by Unit Testing 
-but by manualy looking at the behaviour of the 
-code that is being executed. That type of testing 
-will be refered to as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MANUAL TESTING
-*********************************************</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Example of question: Can user end turn without playing any of his cards? 
 Your answer: I assume he can. </t>
   </si>
@@ -992,6 +936,62 @@
 future implementations. Maybe a custom game can be played
 where players start with a 50 card deck, or players both have 
 1 health point (first to take damage loses), ...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IMPORTANT NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">*********************************************
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Some testing can't be done with Unit Testing
+but by manualy looking at the behaviour of the 
+code that is being executed. That type of testing 
+will be refered to as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MANUAL TESTING
+*********************************************</t>
     </r>
   </si>
 </sst>
@@ -1581,8 +1581,8 @@
   <dimension ref="A1:U1074"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1637,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
@@ -1684,7 +1684,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
@@ -2438,7 +2438,7 @@
       <c r="A63" s="15"/>
       <c r="B63" s="10"/>
       <c r="C63" s="35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
